--- a/StonkInput.xlsx
+++ b/StonkInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robby\Documents\GitHub\STONKS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D95F26-F13C-4052-B4C0-9566BA125657}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35A9F51-7431-4A84-8F67-21C0AFF3043A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2895" yWindow="1155" windowWidth="28800" windowHeight="15435" xr2:uid="{D09550C1-7BA3-4017-B757-A891F06AF488}"/>
   </bookViews>
@@ -269,7 +269,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="154"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="157"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="160"/>
         </ext>
       </extLst>
     </bk>
@@ -283,13 +297,6 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="166"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="169"/>
         </ext>
       </extLst>
@@ -311,14 +318,14 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="187"/>
+          <xlrd:rvb i="184"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="190"/>
+          <xlrd:rvb i="187"/>
         </ext>
       </extLst>
     </bk>
@@ -346,14 +353,14 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="211"/>
+          <xlrd:rvb i="208"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="214"/>
+          <xlrd:rvb i="211"/>
         </ext>
       </extLst>
     </bk>
@@ -367,7 +374,7 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="223"/>
+          <xlrd:rvb i="220"/>
         </ext>
       </extLst>
     </bk>
@@ -416,7 +423,7 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="262"/>
+          <xlrd:rvb i="259"/>
         </ext>
       </extLst>
     </bk>
@@ -430,14 +437,7 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="271"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="274"/>
+          <xlrd:rvb i="268"/>
         </ext>
       </extLst>
     </bk>
@@ -977,7 +977,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="275">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="269">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1moa2&amp;q=XNAS%3aAAL&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -994,13 +994,13 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>23.54</v>
+    <v>25.94</v>
     <v>8.25</v>
-    <v>1.9222999999999999</v>
-    <v>1.22</v>
-    <v>2.1390000000000003E-3</v>
-    <v>5.5079000000000003E-2</v>
-    <v>0.05</v>
+    <v>1.9466000000000001</v>
+    <v>-0.7</v>
+    <v>6.9470000000000001E-3</v>
+    <v>-2.7810999999999999E-2</v>
+    <v>0.17</v>
     <v>USD</v>
     <v>American Airlines Group Inc. is a holding company. The Company's primary business activity is the operation of a network air carrier, providing scheduled air transportation for passengers and cargo. The Company operates through American segment, which provides air transportation for passengers and cargo. The Company's cargo division provides a range of freight and mail services with facilities and interline connections available across the globe. Together with its regional airline subsidiaries and third-party regional carriers operating as American Eagle, its airline operated an average of nearly 6,700 flights per day to nearly 350 destinations in more than 50 countries, principally from its hubs in Charlotte, Chicago, Dallas/Fort Worth, Los Angeles, Miami, New York, Philadelphia, Phoenix and Washington, District of Columbia, as of December 31, 2016. In the fiscal year ended December 31, 2016, approximately 199 million passengers boarded its mainline and regional flights.</v>
     <v>102700</v>
@@ -1008,25 +1008,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Skyview Dr, FORT WORTH, TX, 76155-1801 US</v>
-    <v>23.54</v>
+    <v>25.25</v>
     <v>Passenger Transportation Services</v>
     <v>Stock</v>
-    <v>44267.983380878904</v>
+    <v>44271.999844432816</v>
     <v>0</v>
-    <v>22.13</v>
-    <v>14949220000</v>
+    <v>24.31</v>
+    <v>16100640000</v>
     <v>AMERICAN AIRLINES GROUP INC.</v>
     <v>AMERICAN AIRLINES GROUP INC.</v>
-    <v>22.18</v>
+    <v>25.11</v>
     <v>3.3195999999999999</v>
-    <v>22.15</v>
-    <v>23.37</v>
-    <v>23.42</v>
+    <v>25.17</v>
+    <v>24.47</v>
+    <v>24.64</v>
     <v>639675800</v>
     <v>AAL</v>
     <v>AMERICAN AIRLINES GROUP INC. (XNAS:AAL)</v>
-    <v>55260300</v>
-    <v>46097178</v>
+    <v>47923579</v>
+    <v>49332255</v>
     <v>1982</v>
   </rv>
   <rv s="2">
@@ -1070,11 +1070,11 @@
     <v>4</v>
     <v>20.36</v>
     <v>1.91</v>
-    <v>1.4291</v>
-    <v>0.88</v>
-    <v>1.6129000000000001E-2</v>
-    <v>8.5602999999999999E-2</v>
-    <v>0.18</v>
+    <v>1.5419</v>
+    <v>-1.02</v>
+    <v>3.0719999999999996E-3</v>
+    <v>-7.2649999999999992E-2</v>
+    <v>0.04</v>
     <v>USD</v>
     <v>AMC Entertainment Holdings, Inc. is a theatrical exhibition company. The Company conducts operations through two segments: U.S. markets and International markets. It licenses first-run films from distributors owned by film production companies and from independent distributors on a film-by-film and theatre-by-theatre basis. It also offers food and beverage products, including drinks and meals, popcorn, soft drinks, candy and hot dogs, coffee, snacks, beers, wine and mixed drinks, and other gourmet products. In U.S. markets, it operates theatres in approximately 44 states and the District of Columbia. In International markets, it operates theatres in approximately 13 European countries and in Saudi Arabia. It operates approximately 1,004 theatres and over 11,041 screens in approximately 15 countries, including over 636 theatres with a total of approximately 8,094 screens in the United States and over 368 theatres and approximately 2,947 screens in European markets and Saudi Arabia.</v>
     <v>3449</v>
@@ -1082,26 +1082,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>11500 Ash St, LEAWOOD, KS, 66211-7804 US</v>
-    <v>11.4</v>
+    <v>13.62</v>
     <v>6</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>44268.041650474217</v>
+    <v>44271.999969467186</v>
     <v>7</v>
-    <v>9.94</v>
-    <v>3784059000</v>
+    <v>12.34</v>
+    <v>6320193000</v>
     <v>AMC ENTERTAINMENT HOLDINGS, INC.</v>
     <v>AMC ENTERTAINMENT HOLDINGS, INC.</v>
-    <v>10.16</v>
+    <v>13.62</v>
     <v>0</v>
-    <v>10.28</v>
-    <v>11.16</v>
-    <v>11.34</v>
-    <v>339073300</v>
+    <v>14.04</v>
+    <v>13.02</v>
+    <v>13.06</v>
+    <v>450156200</v>
     <v>AMC</v>
     <v>AMC ENTERTAINMENT HOLDINGS, INC. (XNYS:AMC)</v>
-    <v>111146694</v>
-    <v>141647645</v>
+    <v>125967622</v>
+    <v>142848944</v>
     <v>2007</v>
   </rv>
   <rv s="2">
@@ -1138,14 +1138,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>99.23</v>
     <v>36.75</v>
-    <v>2.0794999999999999</v>
-    <v>-0.18</v>
-    <v>1.8509999999999998E-3</v>
-    <v>-2.2160000000000001E-3</v>
-    <v>0.15</v>
+    <v>2.0706000000000002</v>
+    <v>0.25</v>
+    <v>5.1959999999999992E-3</v>
+    <v>3.0299999999999997E-3</v>
+    <v>0.43</v>
     <v>USD</v>
     <v>Advanced Micro Devices, Inc. is a global semiconductor company. The Company is engaged in offering x86 microprocessors, as standalone devices or as incorporated into an accelerated processing unit (APU), chipsets, discrete graphics processing units (GPUs) and professional graphics, and server and embedded processors and semi-custom System-on-Chip (SoC) products and technology for game consoles. The Company's segments include the Computing and Graphics segment, and the Enterprise, Embedded and Semi-Custom segment. The Computing and Graphics segment primarily includes desktop and notebook processors and chipsets, discrete GPUs and professional graphics. The Enterprise, Embedded and Semi-Custom segment primarily includes server and embedded processors, semi-custom SoC products, development services, technology for game consoles and licensing portions of its intellectual property portfolio.</v>
     <v>12600</v>
@@ -1153,26 +1153,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2485 Augustine Dr, SANTA CLARA, CA, 95054-3002 US</v>
-    <v>81.19</v>
+    <v>84.75</v>
     <v>12</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>44267.947372001559</v>
+    <v>44271.999987858595</v>
     <v>13</v>
-    <v>79.23</v>
-    <v>98216660000</v>
+    <v>82.254999999999995</v>
+    <v>99973780000</v>
     <v>ADVANCED MICRO DEVICES, INC.</v>
     <v>ADVANCED MICRO DEVICES, INC.</v>
-    <v>79.62</v>
-    <v>39.720300000000002</v>
-    <v>81.23</v>
-    <v>81.05</v>
-    <v>81.2</v>
+    <v>83.66</v>
+    <v>40.430900000000001</v>
+    <v>82.5</v>
+    <v>82.75</v>
+    <v>83.18</v>
     <v>1211803000</v>
     <v>AMD</v>
     <v>ADVANCED MICRO DEVICES, INC. (XNAS:AMD)</v>
-    <v>32937950</v>
-    <v>41813482</v>
+    <v>42971552</v>
+    <v>42263204</v>
     <v>1969</v>
   </rv>
   <rv s="2">
@@ -1191,16 +1191,16 @@
     <v>0</v>
     <v>APHRIA INC. (XNAS:APHA)</v>
     <v>2</v>
-    <v>11</v>
+    <v>10</v>
     <v>Finance</v>
     <v>4</v>
     <v>32.29</v>
     <v>1.95</v>
-    <v>2.6328</v>
-    <v>0.14000000000000001</v>
-    <v>-2.5000000000000001E-3</v>
-    <v>7.0489999999999997E-3</v>
-    <v>-0.05</v>
+    <v>2.6808999999999998</v>
+    <v>-1.9450000000000001</v>
+    <v>-7.9129999999999999E-3</v>
+    <v>-8.7750999999999996E-2</v>
+    <v>-0.16</v>
     <v>USD</v>
     <v>Aphria Inc is a Canada-based cannabis company. The Company's Canadian cannabis operations are comprised of its Aphria One greenhouse facility (Aphria One), facilities held through its wholly owned British Columbia-based subsidiary, Broken Coast Cannabis Ltd. (Broken Coast) and its Leamington-based subsidiary, 1974568 Ontario Limited (Aphria Diamond). Aphria One is the Company's greenhouse facility, which is located in Leamington, Ontario. Broken Coast's indoor cannabis production facility on Vancouver Island provides B.C. Bud, a cannabis brands in Canada. Its subsidiary, Avanti Rx Analytics Inc., provides testing services to its Canadian cannabis operations and allows to process, package, label and test cannabis oil as well as package, label and test dried cannabis for medicinal use. It also manufactures and distributes bottled, canned and draft craft beers. The Company has operations in Canada, Germany, Italy, Malta, Colombia and Argentina.</v>
     <v>1200</v>
@@ -1208,25 +1208,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>269 Erie St S, P.O. Box 20009, LEAMINGTON, ON, N8H 3C4 CA</v>
-    <v>20.63</v>
+    <v>22.26</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>44267.91135200156</v>
+    <v>44271.999767036716</v>
     <v>16</v>
-    <v>18.52</v>
-    <v>7899635000</v>
+    <v>19.940000000000001</v>
+    <v>8758015000</v>
     <v>APHRIA INC.</v>
     <v>APHRIA INC.</v>
-    <v>18.690000000000001</v>
+    <v>22.25</v>
     <v>67.805000000000007</v>
-    <v>19.86</v>
-    <v>20</v>
-    <v>19.95</v>
+    <v>22.164999999999999</v>
+    <v>20.22</v>
+    <v>20.059999999999999</v>
     <v>316745600</v>
     <v>APHA</v>
     <v>APHRIA INC. (XNAS:APHA)</v>
-    <v>21413474</v>
-    <v>34406317</v>
+    <v>19696375</v>
+    <v>34961231</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -1242,38 +1242,38 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
+    <v>11</v>
+    <v>ARK Innovation (ARCX:ARKK)</v>
     <v>12</v>
-    <v>ARK Innovation (ARCX:ARKK)</v>
     <v>13</v>
+    <v>Finance</v>
     <v>14</v>
-    <v>Finance</v>
-    <v>15</v>
     <v>159.69999999999999</v>
     <v>33</v>
     <v>1.5241</v>
-    <v>-2</v>
-    <v>1.7369999999999998E-3</v>
-    <v>-1.5542E-2</v>
-    <v>0.22</v>
+    <v>-2.86</v>
+    <v>-2.6190000000000002E-3</v>
+    <v>-2.2191000000000002E-2</v>
+    <v>-0.33</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>7.4999999999999997E-3</v>
-    <v>126.69</v>
+    <v>130.80000000000001</v>
     <v>ETF</v>
-    <v>44267.923685000002</v>
+    <v>44272.000000034372</v>
     <v>19</v>
-    <v>122.57</v>
+    <v>123.98</v>
     <v>23431999363.557999</v>
     <v>ARK Innovation</v>
-    <v>125</v>
-    <v>128.68</v>
-    <v>126.68</v>
-    <v>126.9</v>
+    <v>130.51</v>
+    <v>128.88</v>
+    <v>126.02</v>
+    <v>125.69</v>
     <v>ARKK</v>
     <v>ARK Innovation (ARCX:ARKK)</v>
-    <v>15390007</v>
-    <v>15800567</v>
+    <v>13908026</v>
+    <v>16385525</v>
   </rv>
   <rv s="2">
     <v>20</v>
@@ -1288,38 +1288,38 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
+    <v>11</v>
+    <v>ARK Next Gen Int ETF (ARCX:ARKW)</v>
     <v>12</v>
-    <v>ARK Next Gen Int ETF (ARCX:ARKW)</v>
     <v>13</v>
+    <v>Finance</v>
     <v>14</v>
-    <v>Finance</v>
-    <v>16</v>
     <v>191.13</v>
     <v>40.494999999999997</v>
     <v>1.2591000000000001</v>
-    <v>-1.88</v>
-    <v>-1.9050000000000002E-4</v>
-    <v>-1.1794000000000001E-2</v>
+    <v>-2.81</v>
+    <v>-1.8999999999999998E-4</v>
+    <v>-1.7482000000000001E-2</v>
     <v>-0.03</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>7.4999999999999997E-3</v>
-    <v>157.76</v>
+    <v>162.9</v>
     <v>ETF</v>
-    <v>44267.875013286721</v>
+    <v>44272.000000034372</v>
     <v>22</v>
-    <v>152.63</v>
+    <v>155.80000000000001</v>
     <v>8075863834.1239996</v>
     <v>ARK Next Gen Int ETF</v>
-    <v>154.77000000000001</v>
-    <v>159.4</v>
-    <v>157.52000000000001</v>
-    <v>157.49</v>
+    <v>162.47999999999999</v>
+    <v>160.74</v>
+    <v>157.93</v>
+    <v>157.9</v>
     <v>ARKW</v>
     <v>ARK Next Gen Int ETF (ARCX:ARKW)</v>
-    <v>1500525</v>
-    <v>2862808</v>
+    <v>1338736</v>
+    <v>2835940</v>
   </rv>
   <rv s="2">
     <v>23</v>
@@ -1355,14 +1355,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>104.53</v>
     <v>50.51</v>
-    <v>0.64100000000000001</v>
-    <v>9.5000000000000001E-2</v>
-    <v>-3.7619999999999998E-4</v>
-    <v>1.0219999999999999E-3</v>
-    <v>-3.5000000000000003E-2</v>
+    <v>0.63470000000000004</v>
+    <v>0.70499999999999996</v>
+    <v>3.431E-3</v>
+    <v>7.6149999999999994E-3</v>
+    <v>0.32</v>
     <v>USD</v>
     <v>Activision Blizzard, Inc. is a developer and publisher of interactive entertainment content and services. The Company develops and distributes content and services across various gaming platforms, including video game consoles, personal computers (PC) and mobile devices. Its segments include Activision Publishing, Inc. (Activision), Blizzard Entertainment, Inc. (Blizzard), King Digital Entertainment (King) and Other. Activision is a developer and publisher of interactive software products and content. Blizzard is engaged in developing and publishing of interactive software products and entertainment content, particularly in PC gaming. King is a mobile entertainment company. It is engaged in other businesses, including The Major League Gaming (MLG) business; The Activision Blizzard Studios (Studios) business, and The Activision Blizzard Distribution (Distribution) business. It also develops products spanning other genres, including action/adventure, role-playing and simulation.</v>
     <v>9500</v>
@@ -1370,26 +1370,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>3100 OCEAN PARK BLVD, SANTA MONICA, CA, 90405-3032 US</v>
-    <v>93.13</v>
+    <v>94.8</v>
     <v>27</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44267.878142615627</v>
+    <v>44271.997822430472</v>
     <v>28</v>
-    <v>91.18</v>
-    <v>72079230000</v>
+    <v>92.924999999999997</v>
+    <v>71722850000</v>
     <v>ACTIVISION BLIZZARD, INC.</v>
     <v>ACTIVISION BLIZZARD, INC.</v>
-    <v>91.89</v>
-    <v>32.909999999999997</v>
-    <v>92.94</v>
-    <v>93.034999999999997</v>
-    <v>93</v>
+    <v>93.56</v>
+    <v>32.747300000000003</v>
+    <v>92.575000000000003</v>
+    <v>93.28</v>
+    <v>93.6</v>
     <v>774754000</v>
     <v>ATVI</v>
     <v>ACTIVISION BLIZZARD, INC. (XNAS:ATVI)</v>
-    <v>3280695</v>
-    <v>5805118</v>
+    <v>4552788</v>
+    <v>5048426</v>
     <v>2000</v>
   </rv>
   <rv s="2">
@@ -1429,11 +1429,11 @@
     <v>4</v>
     <v>38.176600000000001</v>
     <v>17.95</v>
-    <v>1.5742</v>
-    <v>0.7</v>
-    <v>1.5809999999999999E-3</v>
-    <v>1.8796999999999998E-2</v>
-    <v>0.06</v>
+    <v>1.5721000000000001</v>
+    <v>-0.11</v>
+    <v>-2.6570000000000001E-4</v>
+    <v>-2.9139999999999999E-3</v>
+    <v>-0.01</v>
     <v>USD</v>
     <v>Bank of America Corporation is a bank holding company and a financial holding company. The Company is a financial institution, serving individual consumers and others with a range of banking, investing, asset management and other financial and risk management products and services. The Company, through its banking and various non-bank subsidiaries, throughout the United States and in international markets, provides a range of banking and non-bank financial services and products through four business segments: Consumer Banking, which comprises Deposits and Consumer Lending; Global Wealth &amp; Investment Management, which consists of two primary businesses: Merrill Lynch Global Wealth Management and U.S. Trust, Bank of America Private Wealth Management; Global Banking, which provides a range of lending-related products and services; Global Markets, which offers sales and trading services, and All Other, which consists of equity investments, residual expense allocations and other.</v>
     <v>213000</v>
@@ -1441,26 +1441,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Bank of America Corporate Center, 100 N Tryon St, CHARLOTTE, NC, 28255-0001 US</v>
-    <v>38.176600000000001</v>
+    <v>37.72</v>
     <v>33</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>44268.041421376562</v>
+    <v>44271.999110312499</v>
     <v>34</v>
-    <v>37.58</v>
-    <v>327318000000</v>
+    <v>36.97</v>
+    <v>325678800000</v>
     <v>BANK OF AMERICA CORPORATION</v>
     <v>BANK OF AMERICA CORPORATION</v>
-    <v>37.92</v>
-    <v>20.254899999999999</v>
-    <v>37.24</v>
-    <v>37.94</v>
-    <v>38</v>
+    <v>37.42</v>
+    <v>20.153400000000001</v>
+    <v>37.75</v>
+    <v>37.64</v>
+    <v>37.630000000000003</v>
     <v>8627253000</v>
     <v>BAC</v>
     <v>BANK OF AMERICA CORPORATION (XNYS:BAC)</v>
-    <v>46069550</v>
-    <v>54361752</v>
+    <v>50300421</v>
+    <v>54461901</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -1476,17 +1476,19 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>17</v>
+    <v>15</v>
     <v>WEED, INC. (OTCM:BUDZ)</v>
     <v>2</v>
-    <v>18</v>
+    <v>16</v>
     <v>Finance</v>
-    <v>19</v>
+    <v>17</v>
     <v>2.68</v>
     <v>0.17</v>
-    <v>0.751</v>
-    <v>-1.0200000000000001E-2</v>
-    <v>-1.0968E-2</v>
+    <v>0.753</v>
+    <v>-0.01</v>
+    <v>-2.2825999999999999E-2</v>
+    <v>-1.0752999999999999E-2</v>
+    <v>-2.1000000000000001E-2</v>
     <v>USD</v>
     <v>WEED, Inc. is an early-stage holding company. The Company is focused on the development and application of cannabis-derived compounds for the treatment of human disease. Through its subsidiary, Sangre AT, LLC, the Company is engaged in development and application of cannabis strains for the production of disease-specific medicines.The Company is also focused on purchasing land and building commercial grade Cultivation Centers to consult, assist, manage and lease to licensed dispensary owners and organic grow operators on a contract basis, with a concentration on the legal and medical marijuana (Cannabis) sector.</v>
     <v>2</v>
@@ -1494,22 +1496,23 @@
     <v>OTCM</v>
     <v>OTCM</v>
     <v>4920 N Post Trl, TUCSON, AZ, 85750-7111 US</v>
-    <v>0.96</v>
+    <v>0.99</v>
     <v>Biotechnology &amp; Medical Research</v>
     <v>Stock</v>
-    <v>44267.874976689061</v>
+    <v>44272.006944444445</v>
     <v>37</v>
-    <v>0.88949999999999996</v>
-    <v>103912300</v>
+    <v>0.88100000000000001</v>
+    <v>105064600</v>
     <v>WEED, INC.</v>
     <v>WEED, INC.</v>
-    <v>0.96</v>
     <v>0.93</v>
-    <v>0.91979999999999995</v>
+    <v>0.93</v>
+    <v>0.92</v>
+    <v>0.89900000000000002</v>
     <v>112972700</v>
     <v>BUDZ</v>
     <v>WEED, INC. (OTCM:BUDZ)</v>
-    <v>93816</v>
+    <v>97182</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -1545,18 +1548,18 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>20</v>
+    <v>18</v>
     <v>BEYOND MEAT, INC. (XNAS:BYND)</v>
     <v>7</v>
-    <v>21</v>
+    <v>19</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>221</v>
     <v>48.18</v>
-    <v>-0.36</v>
-    <v>-3.5099999999999997E-4</v>
-    <v>-2.5209999999999998E-3</v>
-    <v>-0.05</v>
+    <v>-8.94</v>
+    <v>-1.222E-3</v>
+    <v>-6.0361000000000005E-2</v>
+    <v>-0.17</v>
     <v>USD</v>
     <v>Beyond Meat, Inc. offers plant-based burgers. The Company offers its products in a range of categories, such as The Beyond Burger, Beyond Sausage, Beyond Beef Crumbles and Beyond Chicken Strips. The Company sells a range of plant-based products across the three main meat platforms of beef, pork and poultry. It provides Beyond Mushroom Bacon Cheeseburger, Chef Spike’s Original Brat, Roasted Garlic &amp; Italian Sausage Pasta, Beyond Beef Tacos and April Ross’ Butternut Squash Mac-N-Cheese. The Company also offers Beyond Spring Burger, Beyond Nacho Burger, Beyond Sausage Stuffed Peppers, Tuscan Style Beyond Sausage Pasta, Beyond Brat Breakfast Burrito, Beyond Beef Fiesta Power Bowl, Beyond Beef Nachos, Truffle Mac &amp; Cheese Beyond Burger, Love &amp; Lemons Guacamole Beyond Burger and Beyond Burger Tostada With Marinated Kale.</v>
     <v>700</v>
@@ -1564,25 +1567,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>119 Standard St, EL SEGUNDO, CA, 90245-3833 US</v>
-    <v>143.21</v>
+    <v>148.32</v>
     <v>43</v>
     <v>Food &amp; Tobacco</v>
     <v>Stock</v>
-    <v>44267.938366110939</v>
+    <v>44271.999601469528</v>
     <v>44</v>
-    <v>138.36000000000001</v>
-    <v>8965852000</v>
+    <v>137.01</v>
+    <v>9322094000</v>
     <v>BEYOND MEAT, INC.</v>
     <v>BEYOND MEAT, INC.</v>
-    <v>140.44999999999999</v>
-    <v>142.81</v>
-    <v>142.44999999999999</v>
-    <v>142.4</v>
+    <v>148.01</v>
+    <v>148.11000000000001</v>
+    <v>139.16999999999999</v>
+    <v>139</v>
     <v>62940340</v>
     <v>BYND</v>
     <v>BEYOND MEAT, INC. (XNAS:BYND)</v>
-    <v>1924791</v>
-    <v>3368204</v>
+    <v>4002711</v>
+    <v>3369119</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -1606,10 +1609,10 @@
     <v>4</v>
     <v>40.26</v>
     <v>20.934999999999999</v>
-    <v>0.37380000000000002</v>
-    <v>0.33</v>
+    <v>0.3755</v>
+    <v>-0.43</v>
     <v>0</v>
-    <v>8.3440000000000007E-3</v>
+    <v>-1.0792999999999999E-2</v>
     <v>0</v>
     <v>USD</v>
     <v>Core-Mark Holding Company, Inc. is a wholesale distributor to the convenience retail industry in North America. The Company provides sales, marketing, distribution and logistics services. As of December 31, 2016, the Company offered services to over 43,000 customer locations across the United States and Canada through 30 distribution centers. The Company's segments include the United States, Canada and Corporate. The Company's primary customer base consists of traditional convenience stores, as well as alternative outlets selling consumer packaged goods. The Company's traditional convenience store customers include various national and super-regional convenience store operators, as well as independently owned convenience stores. Its alternative outlet customers include a range of store formats, including grocery stores, drug stores, liquor stores, cigarette and tobacco shops, hotel gift shops, military exchanges, college and corporate campuses, casinos and hardware stores.</v>
@@ -1618,25 +1621,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1500 Solana Blvd Ste 3400, WESTLAKE, TX, 76262-1690 US</v>
-    <v>40.26</v>
+    <v>40.229999999999997</v>
     <v>Food &amp; Drug Retailing</v>
     <v>Stock</v>
-    <v>44267.875247580472</v>
+    <v>44271.837231839847</v>
     <v>47</v>
-    <v>39.630000000000003</v>
-    <v>1801084000</v>
+    <v>38.89</v>
+    <v>1799278000</v>
     <v>CORE-MARK HOLDING COMPANY, INC.</v>
     <v>CORE-MARK HOLDING COMPANY, INC.</v>
-    <v>39.68</v>
-    <v>28.687799999999999</v>
-    <v>39.549999999999997</v>
-    <v>39.880000000000003</v>
-    <v>39.880000000000003</v>
+    <v>39.83</v>
+    <v>28.658999999999999</v>
+    <v>39.840000000000003</v>
+    <v>39.409999999999997</v>
+    <v>39.409999999999997</v>
     <v>45162600</v>
     <v>CORE</v>
     <v>CORE-MARK HOLDING COMPANY, INC. (XNAS:CORE)</v>
-    <v>200860</v>
-    <v>287297</v>
+    <v>169400</v>
+    <v>287289</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -1674,13 +1677,13 @@
     <v>8</v>
     <v>Finance</v>
     <v>4</v>
-    <v>50.2</v>
+    <v>52.28</v>
     <v>17.510000000000002</v>
-    <v>1.5186999999999999</v>
-    <v>1.51</v>
-    <v>1.4050000000000002E-3</v>
-    <v>3.125E-2</v>
-    <v>7.0000000000000007E-2</v>
+    <v>1.5224</v>
+    <v>-1.6</v>
+    <v>1.6200000000000001E-3</v>
+    <v>-3.1379000000000004E-2</v>
+    <v>0.08</v>
     <v>USD</v>
     <v>Delta Air Lines, Inc. provides scheduled air transportation for passengers and cargo throughout the United States and across the world. The Company's segments include Airline and Refinery. The Company's route network is centered around a system of hub, international gateway and airports that the Company operates in Amsterdam, Atlanta, Boston, Detroit, London-Heathrow, Los Angeles, Minneapolis-St. Paul, New York-LaGuardia, New York- John F Kennedy International Airport, Paris-Charles de Gaulle, Salt Lake City, Seattle and Tokyo-Narita. Each of these operations includes flights that gather and distribute traffic from markets in the geographic region surrounding the hub or gateway to domestic and international cities and to other hubs or gateways. The Company's route network includes its international joint ventures, its alliances with other foreign airlines, its membership in SkyTeam and agreements with multiple domestic regional carriers that operate as Delta Connection.</v>
     <v>74000</v>
@@ -1688,26 +1691,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1030 Delta Blvd, ATLANTA, GA, 30354-1989 US</v>
-    <v>49.86</v>
+    <v>51.14</v>
     <v>52</v>
     <v>Passenger Transportation Services</v>
     <v>Stock</v>
-    <v>44267.911334767967</v>
+    <v>44271.998991747656</v>
     <v>53</v>
-    <v>48.08</v>
-    <v>31798850000</v>
+    <v>49.03</v>
+    <v>32539100000</v>
     <v>DELTA AIR LINES, INC.</v>
     <v>DELTA AIR LINES, INC.</v>
-    <v>48.35</v>
+    <v>51.04</v>
     <v>0</v>
-    <v>48.32</v>
-    <v>49.83</v>
-    <v>49.9</v>
+    <v>50.99</v>
+    <v>49.39</v>
+    <v>49.47</v>
     <v>638146700</v>
     <v>DAL</v>
     <v>DELTA AIR LINES, INC. (XNYS:DAL)</v>
-    <v>15891751</v>
-    <v>13898046</v>
+    <v>14281495</v>
+    <v>14459998</v>
     <v>1967</v>
   </rv>
   <rv s="2">
@@ -1739,18 +1742,18 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>20</v>
+    <v>18</v>
     <v>DOCUSIGN, INC. (XNAS:DOCU)</v>
     <v>7</v>
-    <v>21</v>
+    <v>19</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>290.23</v>
     <v>65.61</v>
-    <v>-14.88</v>
-    <v>-1.9019999999999999E-4</v>
-    <v>-6.6069000000000003E-2</v>
-    <v>-0.04</v>
+    <v>-8.9</v>
+    <v>7.5759999999999998E-4</v>
+    <v>-4.0439999999999997E-2</v>
+    <v>0.16</v>
     <v>USD</v>
     <v>DocuSign Inc offers DocuSign Agreement Cloud, a software suite for automating the agreement process. It includes DocuSign eSignature, an electronic signature solution that allows an agreement to be signed electronically on a variety of devices. The Agreement Cloud also includes several other applications for automating pre- and post-signature processes, such as automatically generating an agreement from data in other systems, supporting negotiation workflow, collecting payment after signatures, and using artificial intelligence (AI) to analyze a collection of agreements for risks and opportunities. The Agreement Cloud also includes hundreds of integrations to other systems, so agreement processes can integrate with other business processes and data. Its key Agreement Cloud products include DocuSign Contract Lifecycle Management (CLM), Intelligent Insights, Gen for Salesforce, Negotiate for Salesforce, Guided Forms, Click, Identify, Standards-Based Signatures, Payments and eNotary.</v>
     <v>3909</v>
@@ -1758,25 +1761,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>221 Main St Ste 1550, SAN FRANCISCO, CA, 94105-1947 US</v>
-    <v>216.86</v>
+    <v>224.53</v>
     <v>58</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44267.911334721874</v>
+    <v>44271.99993833281</v>
     <v>59</v>
-    <v>207.69</v>
-    <v>39240380000</v>
+    <v>210.16</v>
+    <v>41057450000</v>
     <v>DOCUSIGN, INC.</v>
     <v>DOCUSIGN, INC.</v>
-    <v>215.81</v>
-    <v>225.22</v>
-    <v>210.34</v>
-    <v>210.3</v>
+    <v>221.68</v>
+    <v>220.08</v>
+    <v>211.18</v>
+    <v>211.34</v>
     <v>186556900</v>
     <v>DOCU</v>
     <v>DOCUSIGN, INC. (XNAS:DOCU)</v>
-    <v>9276632</v>
-    <v>3649348</v>
+    <v>3192881</v>
+    <v>3961964</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -1797,14 +1800,14 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>251.86</v>
     <v>29.95</v>
-    <v>1.6258999999999999</v>
-    <v>0.3</v>
-    <v>-1.537E-3</v>
-    <v>1.358E-3</v>
-    <v>-0.34</v>
+    <v>1.6193</v>
+    <v>-7.25</v>
+    <v>-6.8520000000000005E-3</v>
+    <v>-3.2478E-2</v>
+    <v>-1.48</v>
     <v>USD</v>
     <v>Etsy, Inc. (Etsy) operates a marketplace where people around the world connect, both online and offline, to make, sell and buy goods. The Company offers a range of seller services and tools that help entrepreneurs start, grow and manage their businesses. The Company's community includes Etsy sellers, Etsy buyers, Etsy employees, its partners and investors. As of December 31, 2016, its platform connected 1.7 million active Etsy sellers and 28.6 million active Etsy buyers. Etsy sellers join its community to participate in its markets to express their creativity. Etsy sellers range from hobbyists to professional merchants, and have a range of personal and professional goals. Its supports a group of artists, makers, designers and collectors from around the world. Its services platform includes seller services, seller tools and education. The Company's seller services include Direct Checkout, Promoted Listings, Shipping Labels and Pattern by Etsy.</v>
     <v>1414</v>
@@ -1812,25 +1815,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>117 Adams St, BROOKLYN, NY, 11201-1401 US</v>
-    <v>222.66</v>
+    <v>228</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>44267.911334571094</v>
+    <v>44271.999858310155</v>
     <v>62</v>
-    <v>205</v>
-    <v>27874540000</v>
+    <v>210.75</v>
+    <v>28137980000</v>
     <v>ETSY, INC.</v>
     <v>ETSY, INC.</v>
-    <v>211.24</v>
-    <v>86.5227</v>
-    <v>220.84</v>
-    <v>221.14</v>
-    <v>220.8</v>
+    <v>226.89</v>
+    <v>87.340500000000006</v>
+    <v>223.23</v>
+    <v>215.98</v>
+    <v>214.5</v>
     <v>126049300</v>
     <v>ETSY</v>
     <v>ETSY, INC. (XNAS:ETSY)</v>
-    <v>2763706</v>
-    <v>3653488</v>
+    <v>2451918</v>
+    <v>3587057</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -1846,7 +1849,7 @@
   </rv>
   <rv s="4">
     <v>9</v>
-    <v>https://www.bing.com/th?id=AMMS_8ddf76a14a2e3ad3ba62b46d49a75a74&amp;qlt=95</v>
+    <v>https://www.bing.com/th?id=AMMS_928a62c96ba821e882cb080907bbb897&amp;qlt=95</v>
     <v>66</v>
     <v>0</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=facebook</v>
@@ -1867,14 +1870,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>304.67</v>
     <v>137.10059999999999</v>
-    <v>1.2606999999999999</v>
-    <v>-5.48</v>
-    <v>-3.3529999999999996E-4</v>
-    <v>-2.0009000000000002E-2</v>
-    <v>-0.09</v>
+    <v>1.2638</v>
+    <v>5.53</v>
+    <v>3.6520000000000003E-3</v>
+    <v>2.0200999999999997E-2</v>
+    <v>1.02</v>
     <v>USD</v>
     <v>Facebook, Inc. is focused on building products that enable people to connect and share through mobile devices, personal computers and other surfaces. The Company's products include Facebook, Instagram, Messenger, WhatsApp and Oculus. Facebook enables people to connect, share, discover and communicate with each other on mobile devices and personal computers. Instagram enables people to take photos or videos, customize them with filter effects, and share them with friends and followers in a photo feed or send them directly to friends. Messenger allows communicating with people and businesses alike across a range of platforms and devices. WhatsApp Messenger is a messaging application that is used by people around the world and is available on a range of mobile platforms. Its Oculus virtual reality technology and content platform offers products that allow people to enter an interactive environment to play games, consume content and connect with others.</v>
     <v>58604</v>
@@ -1882,26 +1885,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1601 Willow Rd, MENLO PARK, CA, 94025-1452 US</v>
-    <v>269.74</v>
+    <v>282.14</v>
     <v>67</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44267.917484363279</v>
+    <v>44271.99989427031</v>
     <v>68</v>
-    <v>264.02620000000002</v>
-    <v>764314600000</v>
+    <v>274.8</v>
+    <v>779549600000</v>
     <v>FACEBOOK, INC.</v>
     <v>FACEBOOK, INC.</v>
-    <v>269.14</v>
-    <v>26.614799999999999</v>
-    <v>273.88</v>
-    <v>268.39999999999998</v>
-    <v>268.31</v>
+    <v>276.08499999999998</v>
+    <v>27.145299999999999</v>
+    <v>273.75</v>
+    <v>279.27999999999997</v>
+    <v>280.3</v>
     <v>2847670000</v>
     <v>FB</v>
     <v>FACEBOOK, INC. (XNAS:FB)</v>
-    <v>20600198</v>
-    <v>18044058</v>
+    <v>22437665</v>
+    <v>18401762</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -1938,14 +1941,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>305.66000000000003</v>
     <v>88.69</v>
-    <v>1.2677</v>
-    <v>1.56</v>
-    <v>1.2959999999999998E-3</v>
-    <v>5.8099999999999992E-3</v>
-    <v>0.35</v>
+    <v>1.2630999999999999</v>
+    <v>-6.08</v>
+    <v>7.2849999999999998E-4</v>
+    <v>-2.2782E-2</v>
+    <v>0.19</v>
     <v>USD</v>
     <v>FedEx Corporation (FedEx) provides a portfolio of transportation, e-commerce and business services through companies competing collectively, operating independently and managed collaboratively, under the FedEx brand. The Company's segments include FedEx Express, TNT Express, FedEx Ground, FedEx Freight and FedEx Services. The FedEx Express segment offers a range of the United States domestic and international shipping services for delivery of packages and freight. TNT Express segment collects, transports and delivers documents, parcels and freight on a day-definite or time-definite basis. The FedEx Ground segment provides business and residential money-back guaranteed ground package delivery services. The FedEx Freight segment offers less-than-truckload (LTL) freight services. The FedEx Services segment provides its other companies with sales, marketing, information technology, communications, customer service and other back-office support.</v>
     <v>183000</v>
@@ -1953,26 +1956,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>942 Shady Grove Rd S, MEMPHIS, TN, 38120-4117 US</v>
-    <v>271.18950000000001</v>
+    <v>267.02999999999997</v>
     <v>73</v>
     <v>Freight &amp; Logistics Services</v>
     <v>Stock</v>
-    <v>44267.942337892971</v>
+    <v>44271.999898113281</v>
     <v>74</v>
-    <v>265.26139999999998</v>
-    <v>71622070000</v>
+    <v>260.3</v>
+    <v>70742040000</v>
     <v>FEDEX CORPORATION</v>
     <v>FEDEX CORPORATION</v>
-    <v>267.54000000000002</v>
-    <v>29.372599999999998</v>
-    <v>268.49</v>
-    <v>270.05</v>
-    <v>270.39999999999998</v>
+    <v>267</v>
+    <v>29.011700000000001</v>
+    <v>266.88</v>
+    <v>260.8</v>
+    <v>260.99</v>
     <v>265070600</v>
     <v>FDX</v>
     <v>FEDEX CORPORATION (XNYS:FDX)</v>
-    <v>2137265</v>
-    <v>2015393</v>
+    <v>2131126</v>
+    <v>2000935</v>
     <v>1997</v>
   </rv>
   <rv s="2">
@@ -1988,18 +1991,18 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>22</v>
+    <v>20</v>
     <v>FIVERR INTERNATIONAL LTD (XNYS:FVRR)</v>
     <v>2</v>
-    <v>23</v>
+    <v>21</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>336</v>
     <v>20.420000000000002</v>
-    <v>-2.2149999999999999</v>
-    <v>8.7209999999999996E-3</v>
-    <v>-9.0089999999999996E-3</v>
-    <v>2.125</v>
+    <v>-4.6100000000000003</v>
+    <v>-2.957E-3</v>
+    <v>-1.9103999999999999E-2</v>
+    <v>-0.7</v>
     <v>USD</v>
     <v>Fiverr International Ltd is an Israel-based company that operates an online marketplace worldwide. Its platform connects businesses with freelancers offering digital services in more than 200 categories, across more than seven verticals including graphic design, digital marketing, programming, video and animation. Its buyers include businesses of various sizes, as well as sellers comprise a group of freelancers and small businesses. The Company’s global community of freelancers spans across more than 160 countries.</v>
     <v>545</v>
@@ -2007,25 +2010,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>8 Eliezer Kaplan St, TEL AVIV-YAFO, 6473409 IL</v>
-    <v>244.89</v>
+    <v>252</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44267.87513873828</v>
+    <v>44271.999908668753</v>
     <v>77</v>
-    <v>226.06</v>
-    <v>8741386000</v>
+    <v>229.02</v>
+    <v>8649270000</v>
     <v>FIVERR INTERNATIONAL LTD</v>
     <v>FIVERR INTERNATIONAL LTD</v>
-    <v>229.85</v>
+    <v>243.04</v>
     <v>0</v>
-    <v>245.87</v>
-    <v>243.655</v>
-    <v>245.78</v>
+    <v>241.31</v>
+    <v>236.7</v>
+    <v>236</v>
     <v>35842980</v>
     <v>FVRR</v>
     <v>FIVERR INTERNATIONAL LTD (XNYS:FVRR)</v>
-    <v>762656</v>
-    <v>1519445</v>
+    <v>902896</v>
+    <v>1382273</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -2041,7 +2044,7 @@
   </rv>
   <rv s="4">
     <v>9</v>
-    <v>https://www.bing.com/th?id=AMMS_269be79b624330f44ce58ba83b2d7100&amp;qlt=95</v>
+    <v>https://www.bing.com/th?id=AMMS_0f6107f2200a71882f4cb1dcec7e033d&amp;qlt=95</v>
     <v>81</v>
     <v>0</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=general+mills</v>
@@ -2065,11 +2068,11 @@
     <v>4</v>
     <v>66.14</v>
     <v>46.88</v>
-    <v>0.54849999999999999</v>
-    <v>0.62</v>
-    <v>7.489E-3</v>
-    <v>1.0666E-2</v>
-    <v>0.44</v>
+    <v>0.55220000000000002</v>
+    <v>0.36</v>
+    <v>-6.2309999999999996E-3</v>
+    <v>6.0999999999999995E-3</v>
+    <v>-0.37</v>
     <v>USD</v>
     <v>General Mills, Inc., is a manufacturer and marketer of branded consumer foods and pet food products sold through retail stores. The Company is a supplier of branded and unbranded consumer food products to the North American foodservice and commercial baking industries. It also provides pet food products through its subsidiary Blue Buffalo Pet Products Inc. The Company has four segments: U.S. Retail, International, Pet operating, and Convenience Stores and Foodservice. The Company offers a range of food products with a focus on categories, including ready-to-eat cereal; convenient meals, including meal kits, ethnic meals, pizza, soup, side dish mixes, frozen breakfast and frozen entrees; snacks, including grain, nutrition bars and frozen hot snacks; yogurt, and super-premium ice cream. The Company's other product categories include baking mixes and ingredients, and refrigerated and frozen dough. It also provides food products for dogs and cats.</v>
     <v>35000</v>
@@ -2077,26 +2080,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Number One General Mills Blvd, MINNEAPOLIS, MN, 55426 US</v>
-    <v>58.830100000000002</v>
+    <v>59.72</v>
     <v>82</v>
     <v>Food &amp; Tobacco</v>
     <v>Stock</v>
-    <v>44267.887816550778</v>
+    <v>44271.977820450782</v>
     <v>83</v>
-    <v>57.98</v>
-    <v>35921900000</v>
+    <v>58.85</v>
+    <v>36086990000</v>
     <v>GENERAL MILLS, INC.</v>
     <v>GENERAL MILLS, INC.</v>
-    <v>58.09</v>
-    <v>15.075200000000001</v>
-    <v>58.13</v>
-    <v>58.75</v>
-    <v>59.19</v>
+    <v>59</v>
+    <v>15.144399999999999</v>
+    <v>59.02</v>
+    <v>59.38</v>
+    <v>59.01</v>
     <v>611436600</v>
     <v>GIS</v>
     <v>GENERAL MILLS, INC. (XNYS:GIS)</v>
-    <v>4302340</v>
-    <v>3952176</v>
+    <v>3880922</v>
+    <v>4046843</v>
     <v>1928</v>
   </rv>
   <rv s="2">
@@ -2133,14 +2136,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>483</v>
     <v>2.57</v>
-    <v>-1.7092000000000001</v>
-    <v>4.4800000000000004</v>
-    <v>1.2553000000000002E-2</v>
-    <v>1.7231E-2</v>
-    <v>3.32</v>
+    <v>-1.7413000000000001</v>
+    <v>-11.97</v>
+    <v>-3.2041E-2</v>
+    <v>-5.4374000000000006E-2</v>
+    <v>-6.67</v>
     <v>USD</v>
     <v>GameStop Corp. is an omnichannel video game retailer. The Company sells video game hardware, physical and digital video game software, video game accessories, as well as mobile and consumer electronics products and other merchandise through its GameStop, EB Games and Micromania stores. It operating segments, which consists of Video Game Brands segments: United States, Canada and Australia and Europe. Each of the Video Game Brands segments consists primarily of retail operations, with all stores engaged in the sale of new and pre-owned video game systems, software and accessories, which it refers to as video game products. Its Video Game Brands stores sell various types of digital products, including downloadable content, network points cards, prepaid digital, and also sell certain mobile and consumer electronics products and collectible products.</v>
     <v>14000</v>
@@ -2148,26 +2151,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>625 Westport Pkwy, GRAPEVINE, TX, 76051-6740 US</v>
-    <v>295.5</v>
+    <v>220.7</v>
     <v>88</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>44267.997587870312</v>
+    <v>44271.999965103903</v>
     <v>89</v>
-    <v>262.39999999999998</v>
-    <v>18448070000</v>
+    <v>172.35</v>
+    <v>15354100000</v>
     <v>GAMESTOP CORP.</v>
     <v>GAMESTOP CORP.</v>
-    <v>274.48</v>
+    <v>203.16</v>
     <v>0</v>
-    <v>260</v>
-    <v>264.48</v>
-    <v>267.8</v>
+    <v>220.14</v>
+    <v>208.17</v>
+    <v>201.5</v>
     <v>69746960</v>
     <v>GME</v>
     <v>GAMESTOP CORP. (XNYS:GME)</v>
-    <v>25846019</v>
-    <v>41521506</v>
+    <v>35422867</v>
+    <v>37773498</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -2204,14 +2207,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>2145.14</v>
     <v>1008.87</v>
-    <v>0.998</v>
-    <v>-50.54</v>
-    <v>9.7559999999999997E-4</v>
-    <v>-2.4060000000000002E-2</v>
-    <v>2</v>
+    <v>0.99509999999999998</v>
+    <v>29.45</v>
+    <v>1.008E-3</v>
+    <v>1.4335000000000001E-2</v>
+    <v>2.1</v>
     <v>USD</v>
     <v>Alphabet Inc. is a holding company. The Company's businesses include Google Inc. (Google) and its Internet products, such as Access, Calico, CapitalG, GV, Nest, Verily, Waymo and X. The Company's segments include Google and Other Bets. The Google segment includes its Internet products, such as Search, Ads, Commerce, Maps, YouTube, Google Cloud, Android, Chrome and Google Play, as well as its hardware initiatives. The Google segment is engaged in advertising, sales of digital content, applications and cloud offerings, and sales of hardware products. The Other Bets segment is engaged in the sales of Internet and television services through Google Fiber, sales of Nest products and services, and licensing and research and development (R&amp;D) services through Verily. It offers Google Assistant, which allows users to type or talk with Google; Google Maps, which helps users navigate to a store, and Google Photos, which helps users store and organize all of their photos.</v>
     <v>135301</v>
@@ -2219,26 +2222,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1600 Amphitheatre Pkwy, MOUNTAIN VIEW, CA, 94043-1351 US</v>
-    <v>2077.0100000000002</v>
+    <v>2113.6799999999998</v>
     <v>94</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44267.985291631252</v>
+    <v>44271.999736296093</v>
     <v>95</v>
-    <v>2032.42</v>
-    <v>1385885000000</v>
+    <v>2059.29</v>
+    <v>1388920000000</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>2076.41</v>
-    <v>34.950699999999998</v>
-    <v>2100.54</v>
-    <v>2050</v>
-    <v>2052</v>
+    <v>2065.9899999999998</v>
+    <v>35.026400000000002</v>
+    <v>2054.44</v>
+    <v>2083.89</v>
+    <v>2085.9899999999998</v>
     <v>674136700</v>
     <v>GOOGL</v>
     <v>ALPHABET INC. (XNAS:GOOGL)</v>
-    <v>1690899</v>
-    <v>1574636</v>
+    <v>1595015</v>
+    <v>1537780</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -2275,14 +2278,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>92.215000000000003</v>
     <v>24.02</v>
-    <v>1.5643</v>
-    <v>0.25</v>
-    <v>3.2369999999999999E-3</v>
-    <v>2.8990000000000001E-3</v>
-    <v>0.28000000000000003</v>
+    <v>1.5654999999999999</v>
+    <v>-2.81</v>
+    <v>1.159E-4</v>
+    <v>-3.1551999999999997E-2</v>
+    <v>0.01</v>
     <v>USD</v>
     <v>Hyatt Hotels Corporation is a global hospitality company. The Company develops, owns, operates, manages, franchises, licenses or provides services to a portfolio of properties. The Company operates through four segments: owned and leased hotels; Americas management and franchising (Americas); ASPAC management and franchising (ASPAC), and EAME/SW Asia management and franchising (EAME/SW Asia). The owned and leased hotels segment consists of its owned and leased full service and select service hotels. The Americas segment consists of its management and franchising of properties located in the United States, Latin America, Canada and the Caribbean. The ASPAC segment consists of its management and franchising of properties located in Southeast Asia, as well as China, Australia, South Korea, Japan and Micronesia. The EAME/SW Asia segment consists of its management and franchising of properties located in Europe, Africa, the Middle East, India, Central Asia and Nepal.</v>
     <v>37000</v>
@@ -2290,26 +2293,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>150 N Riverside Plz Fl 8, CHICAGO, IL, 60606-1598 US</v>
-    <v>87.71</v>
+    <v>89.25</v>
     <v>100</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>44267.935324478909</v>
+    <v>44271.958333367969</v>
     <v>101</v>
-    <v>86.105000000000004</v>
-    <v>8752333000</v>
+    <v>85.88</v>
+    <v>9021791000</v>
     <v>HYATT HOTELS CORPORATION</v>
     <v>HYATT HOTELS CORPORATION</v>
-    <v>86.9</v>
+    <v>89.25</v>
     <v>0</v>
+    <v>89.06</v>
     <v>86.25</v>
-    <v>86.5</v>
-    <v>86.78</v>
+    <v>86.26</v>
     <v>101300100</v>
     <v>H</v>
     <v>HYATT HOTELS CORPORATION (XNYS:H)</v>
-    <v>904279</v>
-    <v>751102</v>
+    <v>583285</v>
+    <v>795885</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -2349,11 +2352,11 @@
     <v>4</v>
     <v>292.95</v>
     <v>140.63</v>
-    <v>1.012</v>
-    <v>4.25</v>
-    <v>0</v>
-    <v>1.5807999999999999E-2</v>
-    <v>0</v>
+    <v>1.0170999999999999</v>
+    <v>3.54</v>
+    <v>-1.3469999999999999E-3</v>
+    <v>1.2709E-2</v>
+    <v>-0.38</v>
     <v>USD</v>
     <v>The Home Depot, Inc. is a home improvement retailer. The Company offers its customers an assortment of building materials, home improvement products, lawn and garden products, and decor products and provide a number of services, including home improvement installation services and tool and equipment rental. It operates approximately 2,291 The Home Depot stores located throughout the United States (U.S.), including the Commonwealth of Puerto Rico and the territories of the U.S. Virgin Islands and Guam; Canada and Mexico. The Company serve two primary customer groups: do-it-yourself (DIY) Customers and Professional Customers (Pros). DIY Customers include home owners who purchase products and complete their own projects and installations. Professional Customers are primarily professional renovators/remodelers, general contractors, handymen, property managers, building service contractors and specialty tradesmen, such as electricians, plumbers and painters.</v>
     <v>415700</v>
@@ -2361,26 +2364,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2455 Paces Ferry Rd SE, ATLANTA, GA, 30339-6444 US</v>
-    <v>273.81</v>
+    <v>282.52</v>
     <v>106</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>44267.923843101562</v>
+    <v>44271.999055624998</v>
     <v>107</v>
-    <v>266.76</v>
-    <v>294019700000</v>
+    <v>277.64999999999998</v>
+    <v>299876400000</v>
     <v>THE HOME DEPOT, INC.</v>
     <v>THE HOME DEPOT, INC.</v>
-    <v>267.45</v>
-    <v>22.871300000000002</v>
-    <v>268.85000000000002</v>
-    <v>273.10000000000002</v>
-    <v>273.10000000000002</v>
+    <v>278.54000000000002</v>
+    <v>23.326899999999998</v>
+    <v>278.54000000000002</v>
+    <v>282.08</v>
+    <v>281.7</v>
     <v>1076601000</v>
     <v>HD</v>
     <v>THE HOME DEPOT, INC. (XNYS:HD)</v>
-    <v>4190460</v>
-    <v>4946950</v>
+    <v>4458875</v>
+    <v>5074180</v>
     <v>1978</v>
   </rv>
   <rv s="2">
@@ -2420,11 +2423,11 @@
     <v>4</v>
     <v>54.93</v>
     <v>36.270000000000003</v>
-    <v>0.60750000000000004</v>
-    <v>-0.1</v>
-    <v>-1.986E-4</v>
-    <v>-1.9819999999999998E-3</v>
-    <v>-0.01</v>
+    <v>0.61080000000000001</v>
+    <v>0.19</v>
+    <v>1.562E-3</v>
+    <v>3.7230000000000002E-3</v>
+    <v>0.08</v>
     <v>USD</v>
     <v>The Coca-Cola Company is a beverage company. The Company owns or licenses and markets non-alcoholic beverage brands, primarily sparkling beverages and a range of still beverages, such as waters, flavored waters and enhanced waters, juices and juice drinks, ready-to-drink teas and coffees, sports drinks, dairy and energy drinks. The Company's segments include Europe, Middle East and Africa; Latin America; North America; Asia Pacific; Bottling Investments, and Corporate. The Company owns and markets a range of non-alcoholic sparkling beverage brands, including Coca-Cola, Diet Coke, Fanta and Sprite. The Company owns or licenses and markets over 500 non-alcoholic beverage brands. The Company markets, manufactures and sells beverage concentrates, which are referred to as beverage bases, and syrups, including fountain syrups, and finished sparkling and still beverages.</v>
     <v>80300</v>
@@ -2432,26 +2435,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 Coca Cola Plz NW, ATLANTA, GA, 30313-2420 US</v>
-    <v>50.679000000000002</v>
+    <v>51.52</v>
     <v>112</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>44267.923846678124</v>
+    <v>44271.999259455471</v>
     <v>113</v>
-    <v>50.2</v>
-    <v>217016900000</v>
+    <v>51.04</v>
+    <v>219904200000</v>
     <v>THE COCA-COLA COMPANY</v>
     <v>THE COCA-COLA COMPANY</v>
-    <v>50.59</v>
-    <v>28.1005</v>
-    <v>50.46</v>
-    <v>50.36</v>
-    <v>50.35</v>
+    <v>51.2</v>
+    <v>28.474299999999999</v>
+    <v>51.03</v>
+    <v>51.22</v>
+    <v>51.3</v>
     <v>4309312000</v>
     <v>KO</v>
     <v>THE COCA-COLA COMPANY (XNYS:KO)</v>
-    <v>17598594</v>
-    <v>17385535</v>
+    <v>14214187</v>
+    <v>17292464</v>
     <v>1919</v>
   </rv>
   <rv s="2">
@@ -2467,18 +2470,18 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>22</v>
+    <v>20</v>
     <v>LEMONADE, INC. (XNYS:LMND)</v>
     <v>2</v>
-    <v>23</v>
+    <v>21</v>
     <v>Finance</v>
     <v>4</v>
     <v>188.3</v>
     <v>44.110100000000003</v>
-    <v>-1.34</v>
-    <v>1.9130000000000001E-4</v>
-    <v>-1.2656000000000001E-2</v>
-    <v>0.02</v>
+    <v>-2.65</v>
+    <v>2.3289999999999999E-3</v>
+    <v>-2.4094999999999998E-2</v>
+    <v>0.25</v>
     <v>USD</v>
     <v>Lemonade, Inc. is a peer-to-peer property and casualty insurance company. The Company offer its products to renters and homeowners in the United States and contents and liability insurance in Germany and the Netherlands. The insurance it offers in the United States covers stolen or damaged property, and also covers personal liability, which protects its customers if they are responsible for an accident or damage to another person or their property. It also offers landlord insurance policies to condo and co-op owners who rent out their property less than five times a year, to protect their real and personal properties. The Company enables homeowners and renters to get insured and settle claims from various devices through its Lemonade application. It uses bots to deliver insurance to consumers through its chatbot-driven application and at lemonade.com. It enables consumers to chat with artificial intelligence to file claims.</v>
     <v>567</v>
@@ -2486,25 +2489,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5 CROSBY STREET, 3RD FLOOR, NEW YORK, NY, 10013 US</v>
-    <v>105.005</v>
+    <v>113.17</v>
     <v>Insurance</v>
     <v>Stock</v>
-    <v>44267.875026503905</v>
+    <v>44271.99995255781</v>
     <v>116</v>
-    <v>98.405000000000001</v>
-    <v>6406404000</v>
+    <v>105.06</v>
+    <v>6739777000</v>
     <v>LEMONADE, INC.</v>
     <v>LEMONADE, INC.</v>
-    <v>105.005</v>
+    <v>110</v>
     <v>0</v>
-    <v>105.88</v>
-    <v>104.54</v>
-    <v>104.56</v>
+    <v>109.98</v>
+    <v>107.33</v>
+    <v>107.58</v>
     <v>61281840</v>
     <v>LMND</v>
     <v>LEMONADE, INC. (XNYS:LMND)</v>
-    <v>3462143</v>
-    <v>3462801</v>
+    <v>2634311</v>
+    <v>3565914</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -2542,13 +2545,13 @@
     <v>8</v>
     <v>Finance</v>
     <v>4</v>
-    <v>61.16</v>
+    <v>62.756100000000004</v>
     <v>22.465</v>
-    <v>1.2658</v>
-    <v>2.56</v>
-    <v>7.0460000000000002E-3</v>
-    <v>4.3783000000000002E-2</v>
-    <v>0.43</v>
+    <v>1.2692000000000001</v>
+    <v>-1.56</v>
+    <v>-6.6070000000000007E-4</v>
+    <v>-2.5121000000000001E-2</v>
+    <v>-0.04</v>
     <v>USD</v>
     <v>Southwest Airlines Co. (Southwest) operates Southwest Airlines, a passenger airline that provides scheduled air transportation in the United States and near-international markets. The Company provides point-to-point service. The Company offers ancillary service offerings, such as Southwest's EarlyBird Check-In and transportation of pets and unaccompanied minors, in accordance with Southwest's respective policies. Southwest's Rapid Rewards frequent flyer program enables program members (Members) to earn points for every dollar spent on Southwest fares. Its Internet Website, Southwest.com, is an avenue for Southwest customers to purchase and manage travel online. As of December 31, 2016, Southwest operated a total of 723 Boeing 737 aircraft and served 101 destinations in 40 states, the District of Columbia, the Commonwealth of Puerto Rico, and eight near-international countries: Mexico, Jamaica, The Bahamas, Aruba, Dominican Republic, Costa Rica, Belize, and Cuba.</v>
     <v>56500</v>
@@ -2556,26 +2559,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>PO Box 36611, 2702 Love Field Dr, DALLAS, TX, 75235-1611 US</v>
-    <v>61.16</v>
+    <v>62.3</v>
     <v>121</v>
     <v>Passenger Transportation Services</v>
     <v>Stock</v>
-    <v>44267.876562325779</v>
+    <v>44271.999241585159</v>
     <v>122</v>
-    <v>58.3</v>
-    <v>36049050000</v>
+    <v>60.53</v>
+    <v>36681070000</v>
     <v>SOUTHWEST AIRLINES CO.</v>
     <v>SOUTHWEST AIRLINES CO.</v>
-    <v>58.41</v>
+    <v>62.26</v>
     <v>0</v>
-    <v>58.47</v>
-    <v>61.03</v>
-    <v>61.46</v>
+    <v>62.1</v>
+    <v>60.54</v>
+    <v>60.5</v>
     <v>590677500</v>
     <v>LUV</v>
     <v>SOUTHWEST AIRLINES CO. (XNYS:LUV)</v>
-    <v>10182764</v>
-    <v>9353033</v>
+    <v>5928493</v>
+    <v>9363243</v>
     <v>1967</v>
   </rv>
   <rv s="2">
@@ -2612,14 +2615,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>231.91</v>
     <v>124.23</v>
-    <v>0.60409999999999997</v>
-    <v>0.93</v>
-    <v>-7.0589999999999997E-4</v>
-    <v>4.3959999999999997E-3</v>
-    <v>-0.15</v>
+    <v>0.61409999999999998</v>
+    <v>-0.6</v>
+    <v>4.5479999999999998E-5</v>
+    <v>-2.722E-3</v>
+    <v>0.01</v>
     <v>USD</v>
     <v>McDonald's Corporation (McDonald's) operates and franchises McDonald's restaurants. The Company's restaurants serve a locally relevant menu of food and drinks sold at various price points in over 100 countries. The Company's segments include U.S., International Lead Markets, High Growth Markets, and Foundational Markets and Corporate. The U.S. segment focuses on offering a platform for authentic ingredients that allows customers to customize their sandwiches. Its High Growth Markets segment includes its operations in markets, such as China, Italy, Korea, Poland, Russia, Spain, Switzerland, the Netherlands and related markets. The International Lead markets segment includes the Company's operations in various markets, such as Australia, Canada, France, Germany, the United Kingdom and related markets. The Foundational markets and Corporate segment is engaged in operating restaurants and increasing convenience to customers, including through drive-thru and delivery.</v>
     <v>200000</v>
@@ -2627,26 +2630,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>110 N Carpenter St, CHICAGO, IL, 60607-2104 US</v>
-    <v>214.24</v>
+    <v>221.3</v>
     <v>127</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>44267.9113171875</v>
+    <v>44271.990208714844</v>
     <v>128</v>
-    <v>211.42</v>
-    <v>158314800000</v>
+    <v>217.16</v>
+    <v>164368800000</v>
     <v>MCDONALD'S CORPORATION</v>
     <v>MCDONALD'S CORPORATION</v>
-    <v>212.22</v>
-    <v>33.679600000000001</v>
-    <v>211.57</v>
-    <v>212.5</v>
-    <v>212.35</v>
+    <v>219.58</v>
+    <v>34.967500000000001</v>
+    <v>220.46</v>
+    <v>219.86</v>
+    <v>219.87</v>
     <v>745572100</v>
     <v>MCD</v>
     <v>MCDONALD'S CORPORATION (XNYS:MCD)</v>
-    <v>2818192</v>
-    <v>3178465</v>
+    <v>3583426</v>
+    <v>3295416</v>
     <v>1964</v>
   </rv>
   <rv s="2">
@@ -2662,18 +2665,18 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>24</v>
+    <v>22</v>
     <v>MODERNA, INC. (XNAS:MRNA)</v>
     <v>2</v>
-    <v>25</v>
+    <v>23</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>189.26</v>
     <v>22.22</v>
-    <v>-3.48</v>
-    <v>-1.4599999999999999E-3</v>
-    <v>-2.4773999999999997E-2</v>
-    <v>-0.2</v>
+    <v>12.36</v>
+    <v>-1.0383E-2</v>
+    <v>8.6036000000000001E-2</v>
+    <v>-1.62</v>
     <v>USD</v>
     <v>Moderna, Inc. is engaged in transformative medicines based on messenger ribonucleic acid (mRNA). It has created a platform to improve the underlying pharmaceutical properties of our mRNA medicines. Its platform consists of three areas: mRNA technologies, delivery technologies, and manufacturing processes. It is pursuing mRNA science to minimize the undesirable activation of the immune system by mRNA and to maximize the potency of mRNA once in the target cells. It has advanced in parallel a diverse development pipeline of 21 programs, of which 10 have entered clinical studies and another three have open INDs. Its therapeutics and vaccine development programs span infectious diseases, oncology, cardiovascular diseases, and rare genetic diseases. It has created six modalities prophylactic vaccines, cancer vaccines, intratumoral immmuno-oncology, localized regenerative therapeutics, systemic secreted therapeutics and systemic intracellular therapeutics.</v>
     <v>1300</v>
@@ -2681,24 +2684,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>200 Technology Sq, Cambridge, MA, 02139-3578 US</v>
-    <v>138.69999999999999</v>
+    <v>157.75</v>
     <v>Biotechnology &amp; Medical Research</v>
     <v>Stock</v>
-    <v>44267.923645775001</v>
+    <v>44271.999852638284</v>
     <v>131</v>
-    <v>133.19999999999999</v>
-    <v>54820650000</v>
+    <v>145.84</v>
+    <v>57489850000</v>
     <v>MODERNA, INC.</v>
     <v>MODERNA, INC.</v>
-    <v>134.04</v>
-    <v>140.47</v>
-    <v>136.99</v>
-    <v>136.79</v>
+    <v>148.5</v>
+    <v>143.66</v>
+    <v>156.02000000000001</v>
+    <v>154.4</v>
     <v>400180000</v>
     <v>MRNA</v>
     <v>MODERNA, INC. (XNAS:MRNA)</v>
-    <v>4923074</v>
-    <v>9529577</v>
+    <v>16991599</v>
+    <v>9236632</v>
     <v>2016</v>
   </rv>
   <rv s="2">
@@ -2714,7 +2717,7 @@
   </rv>
   <rv s="4">
     <v>9</v>
-    <v>https://www.bing.com/th?id=AMMS_c6939a08cba290c186ef1b935254e91d&amp;qlt=95</v>
+    <v>https://www.bing.com/th?id=AMMS_9b63ca533bc25eee84cbb87485423d78&amp;qlt=95</v>
     <v>135</v>
     <v>0</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=microsoft</v>
@@ -2735,14 +2738,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>246.13</v>
     <v>132.52000000000001</v>
-    <v>0.79820000000000002</v>
-    <v>-1.38</v>
-    <v>0</v>
-    <v>-5.8199999999999997E-3</v>
-    <v>0</v>
+    <v>0.79379999999999995</v>
+    <v>2.9</v>
+    <v>-1.262E-4</v>
+    <v>1.2350000000000002E-2</v>
+    <v>-0.03</v>
     <v>USD</v>
     <v>Microsoft Corporation is a technology company. The Company develops, licenses, and supports a range of software products, services and devices. The Company's segments include Productivity and Business Processes, Intelligent Cloud and More Personal Computing. The Company's products include operating systems; cross-device productivity applications; server applications; business solution applications; desktop and server management tools; software development tools; video games, and training and certification of computer system integrators and developers. It also designs, manufactures, and sells devices, including personal computers (PCs), tablets, gaming and entertainment consoles, phones, other intelligent devices, and related accessories, that integrate with its cloud-based offerings. It offers an array of services, including cloud-based solutions that provide customers with software, services, platforms, and content, and it provides solution support and consulting services.</v>
     <v>163000</v>
@@ -2750,26 +2753,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Microsoft Way, REDMOND, WA, 98052-6399 US</v>
-    <v>235.82</v>
+    <v>240.05500000000001</v>
     <v>136</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44267.911317152342</v>
+    <v>44271.999993310157</v>
     <v>137</v>
-    <v>233.23</v>
-    <v>1778077000000</v>
+    <v>235.94</v>
+    <v>1770988000000</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>234</v>
-    <v>35.112400000000001</v>
-    <v>237.13</v>
-    <v>235.75</v>
-    <v>235.75</v>
+    <v>236.28</v>
+    <v>34.9724</v>
+    <v>234.81</v>
+    <v>237.71</v>
+    <v>237.68</v>
     <v>7542216000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>22653662</v>
-    <v>28054837</v>
+    <v>28092196</v>
+    <v>28268656</v>
     <v>1993</v>
   </rv>
   <rv s="2">
@@ -2785,19 +2788,19 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>26</v>
+    <v>24</v>
     <v>NOVAVAX, INC. (XNAS:NVAX)</v>
     <v>2</v>
-    <v>27</v>
+    <v>25</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>331.68</v>
     <v>6.77</v>
-    <v>1.5185999999999999</v>
-    <v>15.14</v>
-    <v>-1.3320000000000001E-3</v>
-    <v>8.0691000000000013E-2</v>
-    <v>-0.27</v>
+    <v>1.5183</v>
+    <v>4.7699999999999996</v>
+    <v>-4.4999999999999996E-5</v>
+    <v>2.1934999999999996E-2</v>
+    <v>-0.01</v>
     <v>USD</v>
     <v>Novavax, Inc. is a clinical-stage vaccine company focused on the discovery, development and commercialization of recombinant nanoparticle vaccines and adjuvants. The Company operates through developing recombinant vaccines segment. The Company, through its recombinant nanoparticle vaccine technology, produces vaccine candidates to respond to both known and newly emerging diseases. The Company's product pipeline focuses on a range of infectious diseases with vaccine candidates in clinical development for respiratory syncytial virus (RSV), seasonal influenza, pandemic influenza and the Ebola virus (EBOV). The Company's lead adjuvant for human applications, Matrix-M, is in a Phase I/II clinical trial for pandemic influenza H7N9 vaccine candidate. It is also testing Matrix-M in conjunction with its EBOV vaccine candidate in a Phase I clinical trial. It is developing additional pre-clinical stage programs in a range of infectious diseases, including Middle East respiratory syndrome (MERS).</v>
     <v>791</v>
@@ -2805,24 +2808,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>21 Firstfield Rd, GAITHERSBURG, MD, 20878-1757 US</v>
-    <v>217.21</v>
+    <v>235</v>
     <v>Biotechnology &amp; Medical Research</v>
     <v>Stock</v>
-    <v>44267.948954015628</v>
+    <v>44271.999807233595</v>
     <v>140</v>
-    <v>192.25749999999999</v>
-    <v>14976370000</v>
+    <v>216</v>
+    <v>16061350000</v>
     <v>NOVAVAX, INC.</v>
     <v>NOVAVAX, INC.</v>
-    <v>213.51</v>
-    <v>187.63</v>
-    <v>202.77</v>
-    <v>202.5</v>
+    <v>220.06</v>
+    <v>217.46</v>
+    <v>222.23</v>
+    <v>222.22</v>
     <v>73858880</v>
     <v>NVAX</v>
     <v>NOVAVAX, INC. (XNAS:NVAX)</v>
-    <v>8889903</v>
-    <v>3740085</v>
+    <v>3770378</v>
+    <v>3845992</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2859,14 +2862,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>614.9</v>
     <v>180.6807</v>
-    <v>1.3784000000000001</v>
-    <v>-5.5</v>
-    <v>5.0560000000000004E-4</v>
-    <v>-1.0582000000000001E-2</v>
-    <v>0.26</v>
+    <v>1.3734</v>
+    <v>4</v>
+    <v>-6.0190000000000005E-4</v>
+    <v>7.5810000000000001E-3</v>
+    <v>-0.32</v>
     <v>USD</v>
     <v>Nvidia Corporation focuses on personal computer (PC) graphics, graphics processing unit (GPU) and also on artificial intelligence (AI). It operates through two segments: GPU and Tegra Processor. Its GPU product brands are aimed at specialized markets, including GeForce for gamers; Quadro for designers; Tesla and DGX for AI data scientists and big data researchers; and GRID for cloud-based visual computing users. Its Tegra brand integrates an entire computer onto a single chip, and incorporates GPUs and multi-core central processing units (CPUs) to drive supercomputing for mobile gaming and entertainment devices, as well as autonomous robots, drones and cars. The Company's processor has created platforms that address four markets: Gaming, Professional Visualization, Datacenter, and Automotive. Its offerings include NVIDIA DGX AI supercomputer, the NVIDIA DRIVE AI car computing platform and the GeForce NOW cloud gaming service.</v>
     <v>18975</v>
@@ -2874,26 +2877,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2788 San Tomas Expy, SANTA CLARA, CA, 95051-0952 US</v>
-    <v>515.46</v>
+    <v>540.5</v>
     <v>145</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>44267.930750034378</v>
+    <v>44271.999907441408</v>
     <v>146</v>
-    <v>503.6</v>
-    <v>318828800000</v>
+    <v>524.66999999999996</v>
+    <v>327143000000</v>
     <v>NVIDIA CORPORATION</v>
     <v>NVIDIA CORPORATION</v>
-    <v>505.93</v>
-    <v>74.548199999999994</v>
-    <v>519.74</v>
-    <v>514.24</v>
-    <v>514.5</v>
+    <v>534.26</v>
+    <v>76.492199999999997</v>
+    <v>527.65</v>
+    <v>531.65</v>
+    <v>531.33000000000004</v>
     <v>620000000</v>
     <v>NVDA</v>
     <v>NVIDIA CORPORATION (XNAS:NVDA)</v>
-    <v>6099099</v>
-    <v>9858726</v>
+    <v>6803240</v>
+    <v>9954718</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -2909,18 +2912,18 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>28</v>
+    <v>26</v>
     <v>OPENDOOR TECHNOLOGIES INC. (XNAS:OPEN)</v>
     <v>2</v>
-    <v>29</v>
+    <v>27</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>39.24</v>
     <v>10.55</v>
-    <v>0.73</v>
-    <v>-1.0721000000000001E-2</v>
-    <v>2.7736E-2</v>
-    <v>-0.28999999999999998</v>
+    <v>-1.43</v>
+    <v>-5.1129999999999995E-3</v>
+    <v>-4.9635999999999993E-2</v>
+    <v>-0.14000000000000001</v>
     <v>USD</v>
     <v>Opendoor Technologies Inc. operates a digital platform for residential real estate that enables consumers to buy and sell their home. Home sellers can use the Company's mobile application or Website to request a competitive cash offer online. Home buyers can likewise utilize its app or Website to self-tour or virtually tour homes at their convenience, shop for financing, submit an offer and close on their timeline. It acquires homes directly from individual sellers and resell those homes to buyers, including both individual consumers and institutional investors. Upon acquiring a home, it typically makes necessary renovations and repairs before listing it for sale on its Website, its mobile app, Multiple Listing Services (MLS) and other online real estate portals. It also offers adjacent services, including title and escrow, Opendoor Home Loans, List with Opendoor and Buy with Opendoor.</v>
     <v>1048</v>
@@ -2928,68 +2931,52 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>410 N. Scottsdale Road, Suite 1600, TEMPE, AZ, 85281 US</v>
-    <v>27.14</v>
+    <v>30.04</v>
     <v>Real Estate Operations</v>
     <v>Stock</v>
-    <v>44267.875025173438</v>
+    <v>44271.999857094532</v>
     <v>149</v>
-    <v>24.6</v>
-    <v>15614010000</v>
+    <v>26.44</v>
+    <v>16629930000</v>
     <v>OPENDOOR TECHNOLOGIES INC.</v>
     <v>OPENDOOR TECHNOLOGIES INC.</v>
-    <v>24.89</v>
+    <v>28.65</v>
     <v>0</v>
-    <v>26.32</v>
-    <v>27.05</v>
-    <v>26.76</v>
+    <v>28.81</v>
+    <v>27.38</v>
+    <v>27.24</v>
     <v>577227600</v>
     <v>OPEN</v>
     <v>OPENDOOR TECHNOLOGIES INC. (XNAS:OPEN)</v>
-    <v>7782150</v>
-    <v>13042419</v>
+    <v>12390810</v>
+    <v>12558839</v>
   </rv>
   <rv s="2">
     <v>150</v>
   </rv>
   <rv s="0">
-    <v>http://en.wikipedia.org/wiki/Pfizer</v>
-    <v>Wikipedia</v>
-  </rv>
-  <rv s="3">
-    <v>3</v>
-    <v>152</v>
-  </rv>
-  <rv s="4">
-    <v>9</v>
-    <v>https://www.bing.com/th?id=AMMS_751a4e7277822d06b1b3a01f2e88a224&amp;qlt=95</v>
-    <v>153</v>
-    <v>0</v>
-    <v>https://www.bing.com/images/search?form=xlimg&amp;q=pfizer</v>
-    <v>Image of PFIZER INC.</v>
-  </rv>
-  <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1zqnm&amp;q=XNYS%3aPFE&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="5">
+  <rv s="1">
     <v>en-US</v>
     <v>a1zqnm</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>5</v>
+    <v>0</v>
     <v>PFIZER INC. (XNYS:PFE)</v>
-    <v>7</v>
-    <v>8</v>
+    <v>2</v>
+    <v>3</v>
     <v>Finance</v>
     <v>4</v>
     <v>43.079700000000003</v>
     <v>26.428799999999999</v>
-    <v>0.69420000000000004</v>
-    <v>0.23</v>
-    <v>-1.431E-3</v>
-    <v>6.6259999999999999E-3</v>
-    <v>-0.05</v>
+    <v>0.69810000000000005</v>
+    <v>0.42</v>
+    <v>2.7910000000000001E-4</v>
+    <v>1.1861E-2</v>
+    <v>0.01</v>
     <v>USD</v>
     <v>Pfizer Inc. (Pfizer) is a research-based global biopharmaceutical company. The Company is engaged in the discovery, development and manufacture of healthcare products. Its global portfolio includes medicines and vaccines. The Company manages its commercial operations through two business segments: Pfizer Innovative Health (IH) and Pfizer Essential Health (EH). IH focuses on developing and commercializing medicines and vaccines. IH therapeutic areas include internal medicine, vaccines, oncology, inflammation and immunology, rare diseases and consumer healthcare. EH includes legacy brands, branded generics, generic sterile injectable products, biosimilars and infusion systems. EH also includes a research and development (R&amp;D) organization, as well as its contract manufacturing business. Its brands include Prevnar 13, Xeljanz, Eliquis, Lipitor, Celebrex, Pristiq and Viagra.</v>
     <v>78500</v>
@@ -2997,69 +2984,52 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>235 E 42ND ST, NEW YORK, NY, 10017-5703 US</v>
-    <v>34.979999999999997</v>
-    <v>154</v>
+    <v>35.86</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>44267.911305613285</v>
-    <v>155</v>
-    <v>34.51</v>
-    <v>194882400000</v>
+    <v>44271.999752858595</v>
+    <v>152</v>
+    <v>35.31</v>
+    <v>197522800000</v>
     <v>PFIZER INC.</v>
     <v>PFIZER INC.</v>
-    <v>34.56</v>
-    <v>27.982399999999998</v>
-    <v>34.71</v>
-    <v>34.94</v>
-    <v>34.89</v>
-    <v>5577629000</v>
+    <v>35.47</v>
+    <v>28.358899999999998</v>
+    <v>35.409999999999997</v>
+    <v>35.83</v>
+    <v>35.840000000000003</v>
+    <v>5578164000</v>
     <v>PFE</v>
     <v>PFIZER INC. (XNYS:PFE)</v>
-    <v>16342437</v>
-    <v>31603597</v>
+    <v>25022393</v>
+    <v>30492957</v>
     <v>1942</v>
   </rv>
   <rv s="2">
-    <v>156</v>
-  </rv>
-  <rv s="0">
-    <v>http://en.wikipedia.org/wiki/Pinterest</v>
-    <v>Wikipedia</v>
-  </rv>
-  <rv s="3">
-    <v>3</v>
-    <v>158</v>
-  </rv>
-  <rv s="4">
-    <v>9</v>
-    <v>https://www.bing.com/th?id=AMMS_a951a3f8dd9dc8a8861228ca32631af3&amp;qlt=95</v>
-    <v>159</v>
-    <v>0</v>
-    <v>https://www.bing.com/images/search?form=xlimg&amp;q=pinterest</v>
-    <v>Image of PINTEREST, INC.</v>
+    <v>153</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bplhqh&amp;q=XNYS%3aPINS&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="13">
+  <rv s="9">
     <v>en-US</v>
     <v>bplhqh</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>30</v>
+    <v>20</v>
     <v>PINTEREST, INC. (XNYS:PINS)</v>
-    <v>7</v>
-    <v>31</v>
+    <v>2</v>
+    <v>21</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>89.9</v>
     <v>10.1</v>
-    <v>-0.13</v>
-    <v>1.1150000000000001E-3</v>
-    <v>-1.8090000000000001E-3</v>
-    <v>0.08</v>
+    <v>1</v>
+    <v>1.3549999999999999E-4</v>
+    <v>1.3737999999999998E-2</v>
+    <v>0.01</v>
     <v>USD</v>
     <v>Pinterest, Inc. is a visual discovery engine. The Company operates a visual discovery platform, where users can create and manage theme-based image collections and share inspirations for their lives. Its visual discovery platform acts like a virtual Pinboard, where people uses pins to share their weddings, home decorating ideas, travel destinations, save images and videos on Web and organize their favorite recipes. Its offered platform is also integrated with image recognition technology, which allows users to take pictures through their smartphones and provides related information and ideas to the object. It offers online marketing services to brands, which allows brands to connect with people on the basis of their shared tastes and interests. It offered Pins include Recipe Pins, Video Pins, Product Pins and Shop the Look.</v>
     <v>2545</v>
@@ -3067,75 +3037,74 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>505 BRANNAN STREET, SAN FRANCISCO, CA, 94107 US</v>
-    <v>71.760000000000005</v>
-    <v>160</v>
+    <v>75.098299999999995</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44267.915388668749</v>
-    <v>161</v>
-    <v>67.694999999999993</v>
-    <v>45095930000</v>
+    <v>44271.999390995312</v>
+    <v>155</v>
+    <v>72.510000000000005</v>
+    <v>45749580000</v>
     <v>PINTEREST, INC.</v>
     <v>PINTEREST, INC.</v>
-    <v>69</v>
+    <v>73.989999999999995</v>
     <v>0</v>
-    <v>71.88</v>
-    <v>71.75</v>
-    <v>71.83</v>
+    <v>72.790000000000006</v>
+    <v>73.790000000000006</v>
+    <v>73.8</v>
     <v>628514600</v>
     <v>PINS</v>
     <v>PINTEREST, INC. (XNYS:PINS)</v>
-    <v>9360397</v>
-    <v>16118875</v>
+    <v>10032089</v>
+    <v>13877533</v>
     <v>2008</v>
   </rv>
   <rv s="2">
-    <v>162</v>
+    <v>156</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=brjy5r&amp;q=XNAS%3aPOTX&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="14">
+  <rv s="13">
     <v>en-US</v>
     <v>brjy5r</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>32</v>
+    <v>28</v>
     <v>Glbl X Cannabis ETF (XNAS:POTX)</v>
-    <v>13</v>
-    <v>33</v>
+    <v>12</v>
+    <v>29</v>
     <v>Finance</v>
-    <v>16</v>
+    <v>14</v>
     <v>29.5</v>
     <v>6.5243000000000002</v>
-    <v>0.26</v>
-    <v>0</v>
-    <v>1.4917E-2</v>
-    <v>0</v>
+    <v>-1</v>
+    <v>2.2589999999999997E-3</v>
+    <v>-5.3446999999999995E-2</v>
+    <v>0.04</v>
     <v>USD</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>5.1000000000000004E-3</v>
-    <v>17.75</v>
+    <v>18.97</v>
     <v>ETF</v>
-    <v>44267.943659560158</v>
-    <v>164</v>
-    <v>16.75</v>
+    <v>44271.999118599218</v>
+    <v>158</v>
+    <v>17.329999999999998</v>
     <v>219459295.97999999</v>
     <v>Glbl X Cannabis ETF</v>
-    <v>16.86</v>
-    <v>17.43</v>
-    <v>17.690000000000001</v>
-    <v>17.690000000000001</v>
+    <v>18.95</v>
+    <v>18.71</v>
+    <v>17.71</v>
+    <v>17.75</v>
     <v>POTX</v>
     <v>Glbl X Cannabis ETF (XNAS:POTX)</v>
-    <v>417273</v>
-    <v>1400902</v>
+    <v>795105</v>
+    <v>1386049</v>
   </rv>
   <rv s="2">
-    <v>165</v>
+    <v>159</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a21mim&amp;q=XNAS%3aQQQ&amp;form=skydnc</v>
@@ -3147,41 +3116,41 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
+    <v>11</v>
+    <v>Invesco QQQ Trust 1 (XNAS:QQQ)</v>
     <v>12</v>
-    <v>Invesco QQQ Trust 1 (XNAS:QQQ)</v>
     <v>13</v>
+    <v>Finance</v>
     <v>14</v>
-    <v>Finance</v>
-    <v>15</v>
     <v>338.19</v>
     <v>164.93</v>
     <v>1.0201</v>
-    <v>-2.58</v>
-    <v>8.8760000000000011E-4</v>
-    <v>-8.1120000000000012E-3</v>
-    <v>0.28000000000000003</v>
+    <v>1.75</v>
+    <v>6.8629999999999993E-4</v>
+    <v>5.4890000000000008E-3</v>
+    <v>0.22</v>
     <v>USD</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>2E-3</v>
-    <v>318.23020000000002</v>
+    <v>324.2</v>
     <v>ETF</v>
-    <v>44267.95228578672</v>
-    <v>167</v>
-    <v>311.39100000000002</v>
+    <v>44271.999979941407</v>
+    <v>161</v>
+    <v>319.10000000000002</v>
     <v>150566164355.17001</v>
     <v>Invesco QQQ Trust 1</v>
-    <v>313.86</v>
-    <v>318.04000000000002</v>
-    <v>315.45999999999998</v>
-    <v>315.74</v>
+    <v>321.08999999999997</v>
+    <v>318.83</v>
+    <v>320.58</v>
+    <v>320.8</v>
     <v>QQQ</v>
     <v>Invesco QQQ Trust 1 (XNAS:QQQ)</v>
-    <v>69315601</v>
-    <v>57789968</v>
+    <v>54925896</v>
+    <v>60484203</v>
   </rv>
   <rv s="2">
-    <v>168</v>
+    <v>162</v>
   </rv>
   <rv s="0">
     <v>http://en.wikipedia.org/wiki/Redfin</v>
@@ -3189,12 +3158,12 @@
   </rv>
   <rv s="3">
     <v>3</v>
-    <v>170</v>
+    <v>164</v>
   </rv>
   <rv s="4">
     <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_a586c676d6950885516e2cb6f485bf08&amp;qlt=95</v>
-    <v>171</v>
+    <v>165</v>
     <v>0</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=redfin</v>
     <v>Image of REDFIN CORPORATION</v>
@@ -3203,25 +3172,25 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a21sk2&amp;q=XNAS%3aRDFN&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="15">
+  <rv s="14">
     <v>en-US</v>
     <v>a21sk2</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>34</v>
+    <v>30</v>
     <v>REDFIN CORPORATION (XNAS:RDFN)</v>
     <v>7</v>
-    <v>35</v>
+    <v>31</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>98.444999999999993</v>
     <v>9.6300000000000008</v>
-    <v>1.9283999999999999</v>
-    <v>-2.08</v>
-    <v>5.3609999999999997E-4</v>
-    <v>-2.7122E-2</v>
-    <v>0.04</v>
+    <v>1.9192</v>
+    <v>-1.67</v>
+    <v>1.503E-3</v>
+    <v>-2.2307999999999998E-2</v>
+    <v>0.11</v>
     <v>USD</v>
     <v>Redfin Corporation is engaged in providing residential real estate brokerage services. The customer can search for homes by neighborhood, city or MLS number, or can refine results using detailed parameters, such as price and number of beds or baths. The Company serves home buyers and sellers. The Company offers online tools to consumers, including Redfin Estimate, which is an automated home-valuation tool. The customer can search homes for sale in Austin, Atlanta, Baltimore, Boston, Charlotte, Chicago, Dallas, Denver, Fort Lauderdale, Houston, Lake Tahoe, Las Vegas, Los Angeles, Miami, Philadelphia, Phoenix, Portland, OR, Raleigh, San Antonio, San Diego, San Francisco, Sacramento, San Jose, Seattle and Washington. The Company serves over 80 metro areas across the United States.</v>
     <v>4185</v>
@@ -3229,29 +3198,29 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1099 Stewart St Ste 600, SEATTLE, WA, 98101-2161 US</v>
-    <v>75.19</v>
-    <v>172</v>
+    <v>76.8</v>
+    <v>166</v>
     <v>Real Estate Operations</v>
     <v>Stock</v>
-    <v>44267.875021307809</v>
-    <v>173</v>
-    <v>71.760000000000005</v>
-    <v>7700232000</v>
+    <v>44271.999323796095</v>
+    <v>167</v>
+    <v>71.88</v>
+    <v>7726034000</v>
     <v>REDFIN CORPORATION</v>
     <v>REDFIN CORPORATION</v>
-    <v>73.22</v>
-    <v>76.69</v>
-    <v>74.61</v>
-    <v>74.650000000000006</v>
+    <v>75.430000000000007</v>
+    <v>74.86</v>
+    <v>73.19</v>
+    <v>73.3</v>
     <v>103206400</v>
     <v>RDFN</v>
     <v>REDFIN CORPORATION (XNAS:RDFN)</v>
-    <v>1242736</v>
-    <v>2183262</v>
+    <v>1144438</v>
+    <v>2163896</v>
     <v>2005</v>
   </rv>
   <rv s="2">
-    <v>174</v>
+    <v>168</v>
   </rv>
   <rv s="0">
     <v>http://pl.wikipedia.org/wiki/Starbucks</v>
@@ -3259,12 +3228,12 @@
   </rv>
   <rv s="3">
     <v>3</v>
-    <v>176</v>
+    <v>170</v>
   </rv>
   <rv s="4">
     <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_e27b6f4d10a663f3cbffe838112b48be&amp;qlt=95</v>
-    <v>177</v>
+    <v>171</v>
     <v>0</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=starbucks</v>
     <v>Image of STARBUCKS CORPORATION</v>
@@ -3284,14 +3253,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>10</v>
-    <v>110.47</v>
+    <v>4</v>
+    <v>112.34</v>
     <v>50.02</v>
-    <v>0.88009999999999999</v>
-    <v>0.49</v>
-    <v>7.4200000000000004E-4</v>
-    <v>4.5659999999999997E-3</v>
-    <v>0.08</v>
+    <v>0.87909999999999999</v>
+    <v>2.44</v>
+    <v>1.6170000000000002E-3</v>
+    <v>2.2406000000000002E-2</v>
+    <v>0.18</v>
     <v>USD</v>
     <v>Starbucks Corp is a coffee roaster and retailer of specialty coffee with operations in approximately 82 markets around the world. The Company has over 32,000 Company-operated and licensed stores. It operates through three segments: Americas, International and Channel Development. It also sells a variety of coffee and tea products and license its trademarks through other channels, such as licensed stores, grocery and foodservice. It purchases and roasts coffees that it sells, along with handcrafted coffee, tea and other beverages and a variety of food items through Company-operated stores. In addition to its flagship Starbucks Coffee brand, it sells goods and services under various brands, including Teavana, Seattle’s Best Coffee, Evolution Fresh, Ethos, Starbucks Reserve and Princi.</v>
     <v>349000</v>
@@ -3299,30 +3268,30 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2401 Utah Ave S, SEATTLE, WA, 98134-1436 US</v>
-    <v>107.99</v>
-    <v>178</v>
+    <v>112.34</v>
+    <v>172</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>44267.973842430467</v>
-    <v>179</v>
-    <v>106.59</v>
-    <v>126924700000</v>
+    <v>44271.999904652344</v>
+    <v>173</v>
+    <v>109.89</v>
+    <v>128208000000</v>
     <v>STARBUCKS CORPORATION</v>
     <v>STARBUCKS CORPORATION</v>
-    <v>107.42</v>
-    <v>193.7321</v>
-    <v>107.32</v>
-    <v>107.81</v>
-    <v>107.89</v>
+    <v>110.568</v>
+    <v>195.6908</v>
+    <v>108.9</v>
+    <v>111.34</v>
+    <v>111.52</v>
     <v>1177300000</v>
     <v>SBUX</v>
     <v>STARBUCKS CORPORATION (XNAS:SBUX)</v>
-    <v>3356023</v>
-    <v>5992995</v>
+    <v>11376177</v>
+    <v>5811738</v>
     <v>1985</v>
   </rv>
   <rv s="2">
-    <v>180</v>
+    <v>174</v>
   </rv>
   <rv s="0">
     <v>http://en.wikipedia.org/wiki/Shopify</v>
@@ -3330,12 +3299,12 @@
   </rv>
   <rv s="3">
     <v>3</v>
-    <v>182</v>
+    <v>176</v>
   </rv>
   <rv s="4">
     <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_7e4364ddaa2b53548bce18826abc415c&amp;qlt=95</v>
-    <v>183</v>
+    <v>177</v>
     <v>0</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=shopify</v>
     <v>Image of SHOPIFY INC.</v>
@@ -3355,14 +3324,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>1499.75</v>
     <v>305.30009999999999</v>
-    <v>1.4674</v>
-    <v>-1.39</v>
-    <v>1.227E-4</v>
-    <v>-1.217E-3</v>
-    <v>0.14000000000000001</v>
+    <v>1.4555</v>
+    <v>-15.83</v>
+    <v>1.5129999999999998E-3</v>
+    <v>-1.3657999999999998E-2</v>
+    <v>1.73</v>
     <v>USD</v>
     <v>Shopify Inc. (Shopify) provides a cloud-based, multi-channel commerce platform designed for small and medium-sized businesses. The Company offers subscription solutions and merchant solutions. The Company's software is used by merchants to run their business across all of their sales channels, including Web and mobile storefronts, physical retail locations, social media storefronts and marketplaces. The Shopify platform provides merchants with a single view of their business and customers across all of their sales channels and enables them to manage products and inventory, process orders and payments, ship orders, build customer relationships and leverage analytics and reporting all from one integrated back office. The Shopify platform includes a mobile-optimized checkout system, which is designed to enable merchants' consumers to buy products over mobile Websites.</v>
     <v>7000</v>
@@ -3370,30 +3339,30 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>151 O'connor Street, Ground Floor, OTTAWA, ON, K2P 2L8 CA</v>
-    <v>1146</v>
-    <v>184</v>
+    <v>1190</v>
+    <v>178</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44267.911416075782</v>
-    <v>185</v>
-    <v>1093.4585</v>
-    <v>141123200000</v>
+    <v>44271.999768135938</v>
+    <v>179</v>
+    <v>1124.0001</v>
+    <v>143396000000</v>
     <v>SHOPIFY INC.</v>
     <v>SHOPIFY INC.</v>
-    <v>1119.23</v>
-    <v>446.49869999999999</v>
-    <v>1142.24</v>
-    <v>1140.8499999999999</v>
-    <v>1140.99</v>
+    <v>1183.1199999999999</v>
+    <v>453.68959999999998</v>
+    <v>1159</v>
+    <v>1143.17</v>
+    <v>1144.9000000000001</v>
     <v>123723900</v>
     <v>SHOP</v>
     <v>SHOPIFY INC. (XNYS:SHOP)</v>
-    <v>1088440</v>
-    <v>1810174</v>
+    <v>1069820</v>
+    <v>1783370</v>
     <v>2004</v>
   </rv>
   <rv s="2">
-    <v>186</v>
+    <v>180</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a237rw&amp;q=XNAS%3aSNBR&amp;form=skydnc</v>
@@ -3410,14 +3379,14 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>151.43989999999999</v>
     <v>15.27</v>
-    <v>2.0760000000000001</v>
-    <v>2.87</v>
-    <v>0</v>
-    <v>2.0594000000000001E-2</v>
-    <v>0</v>
+    <v>2.0779000000000001</v>
+    <v>-4.87</v>
+    <v>3.4480000000000001E-3</v>
+    <v>-3.3135999999999999E-2</v>
+    <v>0.49</v>
     <v>USD</v>
     <v>Sleep Number Corporation, formerly Select Comfort Corporation, is a designer, manufacturer, marketer, retailer and servicer of a line of Sleep Number beds. The Company offers consumers individualized sleep solutions and services, which include a complete line of Sleep Number beds, bases and bedding accessories. Its Sleep Number bed offers SleepIQ technology sensors that work directly with the bed's DualAir technology to track each individual's sleep. The Sleep Number bedding collection comprises a line of sleep products that are designed to solve sleep issues. It offers FlextFit adjustable bases, and Sleep Number pillows, sheets and other bedding products. It offers Sleep Number beds in ranges within the mattress category, and in a range of sizes, including twin, full, queen, eastern king and California king. It also offers an assortment of temperature-balancing products.</v>
     <v>4679</v>
@@ -3425,29 +3394,29 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1001 Third Avenue South, MINNEAPOLIS, MN, 55404 US</v>
-    <v>144.4436</v>
+    <v>149.97999999999999</v>
     <v>Household Goods</v>
     <v>Stock</v>
-    <v>44267.916358367969</v>
-    <v>188</v>
-    <v>138.01</v>
-    <v>3609086000</v>
+    <v>44271.975867835157</v>
+    <v>182</v>
+    <v>137.55629999999999</v>
+    <v>3729364000</v>
     <v>SLEEP NUMBER CORPORATION</v>
     <v>SLEEP NUMBER CORPORATION</v>
-    <v>138.78</v>
-    <v>29.049099999999999</v>
-    <v>139.36000000000001</v>
-    <v>142.22999999999999</v>
-    <v>142.22999999999999</v>
+    <v>148.5</v>
+    <v>30.017199999999999</v>
+    <v>146.97</v>
+    <v>142.1</v>
+    <v>142.59</v>
     <v>25375000</v>
     <v>SNBR</v>
     <v>SLEEP NUMBER CORPORATION (XNAS:SNBR)</v>
-    <v>518066</v>
-    <v>633444</v>
+    <v>570169</v>
+    <v>644858</v>
     <v>1987</v>
   </rv>
   <rv s="2">
-    <v>189</v>
+    <v>183</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=br41zr&amp;q=XNAS%3aSNDL&amp;form=skydnc</v>
@@ -3459,18 +3428,18 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>24</v>
+    <v>22</v>
     <v>SUNDIAL GROWERS INC. (XNAS:SNDL)</v>
     <v>2</v>
-    <v>36</v>
+    <v>32</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>3.96</v>
     <v>0.1381</v>
-    <v>0</v>
-    <v>0</v>
-    <v>0</v>
-    <v>0</v>
+    <v>-0.11</v>
+    <v>6.6230000000000004E-3</v>
+    <v>-6.7901000000000003E-2</v>
+    <v>0.01</v>
     <v>USD</v>
     <v>Sundial Growers Inc. (Sundial) is a cannabis company engaged in the production, distribution and sale of cannabis for the medical and adult-use market. The Company produces and markets premium cannabis for the adult-use market. In Sundial’s purpose-built indoor modular grow rooms, the Company produces consistent cannabis in individual and fully controlled room environments. The Company’s cannabis products are used as prescription medicines, and to enhance social, spiritual and recreational occasions. The Company sells Sundial Cannabis-branded dried flower cannabis products in a range of formats, such as pre-rolls, oils, capsules and sublingual.</v>
     <v>868</v>
@@ -3478,28 +3447,28 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>919 11 Ave SW Suite 200, Calgary, AB, T2R 1P3 CA</v>
-    <v>1.46</v>
+    <v>1.75</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>44267.875019606246</v>
-    <v>191</v>
-    <v>1.32</v>
-    <v>2217121000</v>
+    <v>44271.999987221876</v>
+    <v>185</v>
+    <v>1.45</v>
+    <v>2529391000</v>
     <v>SUNDIAL GROWERS INC.</v>
     <v>SUNDIAL GROWERS INC.</v>
-    <v>1.35</v>
-    <v>1.42</v>
-    <v>1.42</v>
-    <v>1.42</v>
+    <v>1.7450000000000001</v>
+    <v>1.62</v>
+    <v>1.51</v>
+    <v>1.52</v>
     <v>1561353000</v>
     <v>SNDL</v>
     <v>SUNDIAL GROWERS INC. (XNAS:SNDL)</v>
-    <v>244932542</v>
-    <v>642482332</v>
+    <v>472620764</v>
+    <v>631503482</v>
     <v>2006</v>
   </rv>
   <rv s="2">
-    <v>192</v>
+    <v>186</v>
   </rv>
   <rv s="0">
     <v>http://en.wikipedia.org/wiki/Square,_Inc.</v>
@@ -3507,12 +3476,12 @@
   </rv>
   <rv s="3">
     <v>3</v>
-    <v>194</v>
+    <v>188</v>
   </rv>
   <rv s="4">
     <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_878826beb4f985541f4b3b62b4e00be4&amp;qlt=95</v>
-    <v>195</v>
+    <v>189</v>
     <v>0</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=square+inc</v>
     <v>Image of SQUARE, INC.</v>
@@ -3532,14 +3501,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>283.18979999999999</v>
     <v>32.33</v>
-    <v>2.4605999999999999</v>
-    <v>0.38</v>
-    <v>1.2800000000000001E-3</v>
-    <v>1.572E-3</v>
-    <v>0.31</v>
+    <v>2.4628999999999999</v>
+    <v>-7.87</v>
+    <v>-8.2180000000000003E-5</v>
+    <v>-3.1326E-2</v>
+    <v>-0.02</v>
     <v>USD</v>
     <v>Square, Inc. (Square) is a commerce ecosystem. The Company enables its sellers start, run and grow their businesses. It combines software with hardware to enable sellers to turn mobile devices and computing devices into payments and point-of-sale solutions. Once a seller downloads the Square Point of Sale mobile application, they can take their first payment. With its offering, a seller can accept payments in person via magnetic stripe (a swipe), Europay, MasterCard, and Visa (EMV) (a dip), or Near Field Communication (NFC) (a tap); or online via Square Invoices, Square Virtual Terminal, or the seller's Website. Once on its system, sellers gain access to technology and features, such as reporting and analytics, next-day settlements, digital receipts, payment dispute management and chargeback protection, and Payment Card Industry (PCI) compliance. On the consumer (buyer) side, Square Cash offers individuals access to a way to send and receive money.</v>
     <v>5477</v>
@@ -3547,30 +3516,30 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1455 Market Street, Suite 600, SAN FRANCISCO, CA, 94103 US</v>
-    <v>242.22</v>
-    <v>196</v>
+    <v>252.5</v>
+    <v>190</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>44267.941292592186</v>
-    <v>197</v>
-    <v>230.08</v>
-    <v>110066800000</v>
+    <v>44271.999971897654</v>
+    <v>191</v>
+    <v>238.67</v>
+    <v>114212800000</v>
     <v>SQUARE, INC.</v>
     <v>SQUARE, INC.</v>
-    <v>232.68</v>
-    <v>830.99369999999999</v>
-    <v>241.72</v>
-    <v>242.1</v>
-    <v>242.41</v>
+    <v>252.26</v>
+    <v>862.2962</v>
+    <v>251.23</v>
+    <v>243.36</v>
+    <v>243.34</v>
     <v>454614700</v>
     <v>SQ</v>
     <v>SQUARE, INC. (XNYS:SQ)</v>
-    <v>8850054</v>
-    <v>12903710</v>
+    <v>7491649</v>
+    <v>13053927</v>
     <v>2009</v>
   </rv>
   <rv s="2">
-    <v>198</v>
+    <v>192</v>
   </rv>
   <rv s="0">
     <v>http://en.wikipedia.org/wiki/Steel_Dynamics</v>
@@ -3578,12 +3547,12 @@
   </rv>
   <rv s="3">
     <v>3</v>
-    <v>200</v>
+    <v>194</v>
   </rv>
   <rv s="4">
     <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_8d203761c16e76dae4999ae18bd56e7b&amp;qlt=95</v>
-    <v>201</v>
+    <v>195</v>
     <v>0</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=steel+dynamics</v>
     <v>Image of STEEL DYNAMICS, INC.</v>
@@ -3606,11 +3575,11 @@
     <v>4</v>
     <v>49.9</v>
     <v>14.98</v>
-    <v>1.4565999999999999</v>
-    <v>0.48</v>
-    <v>-5.692E-3</v>
-    <v>9.8539999999999999E-3</v>
-    <v>-0.28000000000000003</v>
+    <v>1.4579</v>
+    <v>-1.72</v>
+    <v>-6.4060000000000007E-4</v>
+    <v>-3.5427E-2</v>
+    <v>-0.03</v>
     <v>USD</v>
     <v>Steel Dynamics, Inc. is a steel producing and a metal recycling company. The Company is engaged in the manufacture and sale of steel products, processing and sale of recycled ferrous and nonferrous metals, and fabrication and sale of steel joists and deck products. Its segments include steel operations, metals recycling operations, steel fabrication operations and Other Operations. It offers a range of steel products, such as sheet products, long products and steel finishing. The steel operations segment includes Butler Flat Roll Division, Columbus Flat Roll Division, The Techs galvanizing lines, Structural and Rail Division, Engineered Bar Products Division, Roanoke Bar Division, Steel of West Virginia and Iron Dynamics. The metals recycling operations segment consists of OmniSource Corporation. The fabrication operations produce steel building components. The Other Operations segment consists of subsidiary operations and smaller joint ventures.</v>
     <v>9625</v>
@@ -3618,30 +3587,30 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>7575 W JEFFERSON BLVD, FORT WAYNE, IN, 46804-4131 US</v>
-    <v>49.9</v>
-    <v>202</v>
+    <v>48.865000000000002</v>
+    <v>196</v>
     <v>Metals &amp; Mining</v>
     <v>Stock</v>
-    <v>44267.961621481249</v>
-    <v>203</v>
-    <v>48.73</v>
-    <v>10379340000</v>
+    <v>44271.910163853907</v>
+    <v>197</v>
+    <v>46.82</v>
+    <v>10244300000</v>
     <v>STEEL DYNAMICS, INC.</v>
     <v>STEEL DYNAMICS, INC.</v>
-    <v>49.09</v>
-    <v>18.986000000000001</v>
-    <v>48.71</v>
-    <v>49.19</v>
-    <v>48.91</v>
+    <v>48.86</v>
+    <v>18.739000000000001</v>
+    <v>48.55</v>
+    <v>46.83</v>
+    <v>46.8</v>
     <v>211005100</v>
     <v>STLD</v>
     <v>STEEL DYNAMICS, INC. (XNAS:STLD)</v>
-    <v>2258998</v>
-    <v>1921807</v>
+    <v>3685147</v>
+    <v>1941675</v>
     <v>1994</v>
   </rv>
   <rv s="2">
-    <v>204</v>
+    <v>198</v>
   </rv>
   <rv s="0">
     <v>http://en.wikipedia.org/wiki/Sysco</v>
@@ -3649,12 +3618,12 @@
   </rv>
   <rv s="3">
     <v>3</v>
-    <v>206</v>
+    <v>200</v>
   </rv>
   <rv s="4">
     <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_883f0b8ce1936d44773796acec8a6906&amp;qlt=95</v>
-    <v>207</v>
+    <v>201</v>
     <v>0</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=sysco</v>
     <v>Image of SYSCO CORPORATION</v>
@@ -3674,14 +3643,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>10</v>
-    <v>83.45</v>
+    <v>4</v>
+    <v>83.97</v>
     <v>26</v>
-    <v>1.4388000000000001</v>
-    <v>2.33</v>
-    <v>-1.0677000000000001E-2</v>
-    <v>2.8755000000000003E-2</v>
-    <v>-0.89</v>
+    <v>1.4357</v>
+    <v>-2.79</v>
+    <v>6.8369999999999993E-3</v>
+    <v>-3.3517999999999999E-2</v>
+    <v>0.55000000000000004</v>
     <v>USD</v>
     <v>Sysco Corporation (Sysco) is a distributor of food and related products primarily to the foodservice or food-away-from-home industry. The Company's segments include Broadline, SYGMA and Other. The Broadline segment includes its Broadline operations located in the Bahamas, Canada, Costa Rica, Ireland, Mexico and the United States. Broadline operating companies distribute a full line of food products and a range of non-food products to both traditional and chain restaurant customers, hospitals, schools, hotels, industrial caterers and other venues where foodservice products are served. SYGMA operating companies distribute a full line of food products and a range of non-food products to certain chain restaurant customer locations. The Other segment includes the Company's specialty produce; custom-cut meat operations; lodging industry segments; a company that distributes specialty imported products; a company that distributes to international customers, and Sysco Ventures platform.</v>
     <v>57000</v>
@@ -3689,30 +3658,30 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1390 Enclave Pkwy, HOUSTON, TX, 77077-2025 US</v>
-    <v>83.45</v>
-    <v>208</v>
+    <v>82.64</v>
+    <v>202</v>
     <v>Food &amp; Drug Retailing</v>
     <v>Stock</v>
-    <v>44267.911299825784</v>
-    <v>209</v>
-    <v>81.39</v>
-    <v>42568360000</v>
+    <v>44271.998936249998</v>
+    <v>203</v>
+    <v>80.17</v>
+    <v>42486690000</v>
     <v>SYSCO CORPORATION</v>
     <v>SYSCO CORPORATION</v>
-    <v>81.515000000000001</v>
+    <v>82.38</v>
     <v>0</v>
-    <v>81.03</v>
-    <v>83.36</v>
-    <v>82.47</v>
+    <v>83.24</v>
+    <v>80.45</v>
+    <v>81</v>
     <v>510412000</v>
     <v>SYY</v>
     <v>SYSCO CORPORATION (XNYS:SYY)</v>
-    <v>1866513</v>
-    <v>2244606</v>
+    <v>2428750</v>
+    <v>2238307</v>
     <v>1969</v>
   </rv>
   <rv s="2">
-    <v>210</v>
+    <v>204</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bvsyhw&amp;q=XNYS%3aU&amp;form=skydnc</v>
@@ -3724,18 +3693,18 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>28</v>
+    <v>26</v>
     <v>Unity Software Inc (XNYS:U)</v>
     <v>2</v>
-    <v>29</v>
+    <v>27</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>174.94</v>
     <v>65.11</v>
-    <v>-0.8</v>
-    <v>9.452000000000001E-4</v>
-    <v>-7.5049999999999995E-3</v>
-    <v>0.1</v>
+    <v>-0.78</v>
+    <v>1.01E-3</v>
+    <v>-7.1120000000000003E-3</v>
+    <v>0.11</v>
     <v>USD</v>
     <v>Unity Software Inc. (Unity) is a platform for creating and operating interactive, real-time three-dimensional content. The platform provides a set of software solutions to create, run and monetize interactive, real-time two-dimensional (2D) and three-dimensional (3D) content for mobile phones, tablets, personal computers, consoles, and augmented and virtual reality devices. Content made with Unity is real-time, allowing it to instantly adapt to user's behavior and feedback. Unity’s Create Solutions are used by content creators, developers, artists, designers, engineers, and architects to create interactive, real-time 2D and 3D content. The Company’s Operate Solutions offers customers the ability to engage their end-user base, as well as run and monetize their content.</v>
     <v>4001</v>
@@ -3743,28 +3712,28 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>30 - 3Rd Street, SAN FRANCISCO, CA, 94103 US</v>
-    <v>105.88</v>
+    <v>114.14</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44267.966141921097</v>
-    <v>212</v>
-    <v>101.59</v>
-    <v>29374500000</v>
+    <v>44271.999844825783</v>
+    <v>206</v>
+    <v>106.67</v>
+    <v>30477780000</v>
     <v>Unity Software Inc</v>
     <v>Unity Software Inc</v>
-    <v>104.13</v>
+    <v>112.88</v>
     <v>0</v>
-    <v>106.6</v>
-    <v>105.8</v>
-    <v>105.9</v>
+    <v>109.67</v>
+    <v>108.89</v>
+    <v>109</v>
     <v>277904500</v>
     <v>U</v>
     <v>Unity Software Inc (XNYS:U)</v>
-    <v>2846781</v>
-    <v>7218138</v>
+    <v>4363675</v>
+    <v>6654588</v>
   </rv>
   <rv s="2">
-    <v>213</v>
+    <v>207</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a24xfr&amp;q=XNYS%3aUNFI&amp;form=skydnc</v>
@@ -3781,14 +3750,14 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>10</v>
-    <v>40.700000000000003</v>
+    <v>4</v>
+    <v>41.37</v>
     <v>5.16</v>
-    <v>1.3008</v>
-    <v>-0.14000000000000001</v>
-    <v>2.3019999999999998E-3</v>
-    <v>-3.568E-3</v>
-    <v>0.09</v>
+    <v>1.3004</v>
+    <v>-1.89</v>
+    <v>-1.433E-3</v>
+    <v>-5.1387000000000002E-2</v>
+    <v>-0.05</v>
     <v>USD</v>
     <v>United Natural Foods, Inc. is a distributor and retailer of natural, organic and specialty products. The Company's segments include Wholesale and Other. The Wholesale segment is engaged in the national distribution of natural, organic and specialty foods, produce and related products in the United States and Canada. The Other segment includes a retail division, which engages in the sale of natural foods and related products to the general public through retail storefronts on the east coast of the United States; a manufacturing division, which engages in importing, roasting and packaging of nuts, seeds, dried fruit and snack items, and its branded product lines. Its operations consist of three operating divisions: Wholesale Division, Retail Division, and Manufacturing and Branded Products divisions. As of October 22, 2018, the Company had offered 110,000 natural, organic and specialty foods, and non-food products, consisting of national, regional and private-label brands.</v>
     <v>28300</v>
@@ -3796,29 +3765,29 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>313 Iron Horse Way, PROVIDENCE, RI, 02908-5637 US</v>
-    <v>40.700000000000003</v>
+    <v>37.648600000000002</v>
     <v>Food &amp; Drug Retailing</v>
     <v>Stock</v>
-    <v>44267.911293957812</v>
-    <v>215</v>
-    <v>38.1</v>
-    <v>2205679000</v>
+    <v>44271.999342685158</v>
+    <v>209</v>
+    <v>34.823399999999999</v>
+    <v>2070568000</v>
     <v>UNITED NATURAL FOODS, INC.</v>
     <v>UNITED NATURAL FOODS, INC.</v>
-    <v>38.5</v>
-    <v>11.1746</v>
-    <v>39.24</v>
-    <v>39.1</v>
-    <v>39.19</v>
+    <v>36.4</v>
+    <v>10.49</v>
+    <v>36.78</v>
+    <v>34.89</v>
+    <v>34.840000000000003</v>
     <v>56296040</v>
     <v>UNFI</v>
     <v>UNITED NATURAL FOODS, INC. (XNYS:UNFI)</v>
-    <v>2819677</v>
-    <v>1281263</v>
+    <v>1188958</v>
+    <v>1404475</v>
     <v>1994</v>
   </rv>
   <rv s="2">
-    <v>216</v>
+    <v>210</v>
   </rv>
   <rv s="0">
     <v>http://en.wikipedia.org/wiki/United_Parcel_Service</v>
@@ -3826,12 +3795,12 @@
   </rv>
   <rv s="3">
     <v>3</v>
-    <v>218</v>
+    <v>212</v>
   </rv>
   <rv s="4">
     <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_5b37be53a6ed99b31f30d5033258ad9e&amp;qlt=95</v>
-    <v>219</v>
+    <v>213</v>
     <v>0</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=united+parcel+service</v>
     <v>Image of UNITED PARCEL SERVICE, INC.</v>
@@ -3851,14 +3820,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>178.01</v>
     <v>85.5</v>
-    <v>1.0012000000000001</v>
-    <v>0.38</v>
-    <v>9.5449999999999994E-4</v>
-    <v>2.2720000000000001E-3</v>
-    <v>0.16</v>
+    <v>0.99250000000000005</v>
+    <v>0.18</v>
+    <v>6.1420000000000005E-5</v>
+    <v>1.1070000000000001E-3</v>
+    <v>0.01</v>
     <v>USD</v>
     <v>United Parcel Service, Inc. (UPS) is a package delivery company. The Company is a provider of global supply chain management solutions. The Company operates through three segments: U.S. Domestic Package operations, International Package operations, and Supply Chain &amp; Freight operations. As of December 31, 2016, the Company delivered packages in over 220 countries and territories. The Company offers a spectrum of the United States domestic guaranteed ground and air package transportation services. The International Package segment includes the small package operations in Europe, Asia-Pacific, Canada and Latin America, the Indian sub-continent, the Middle East and Africa. The Supply Chain &amp; Freight segment includes its forwarding and logistics services, truckload freight brokerage, UPS Freight and its financial offerings through UPS Capital. The Company serves the global market for logistics services, which include transportation, distribution, contract logistics and ground freight.</v>
     <v>543000</v>
@@ -3866,53 +3835,53 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>55 Glenlake Parkway Ne, ATLANTA, GA, 30328 US</v>
-    <v>168.12989999999999</v>
-    <v>220</v>
+    <v>164.16</v>
+    <v>214</v>
     <v>Freight &amp; Logistics Services</v>
     <v>Stock</v>
-    <v>44267.916358274997</v>
-    <v>221</v>
-    <v>165.94</v>
-    <v>145393700000</v>
+    <v>44271.997140462503</v>
+    <v>215</v>
+    <v>161.43</v>
+    <v>141015100000</v>
     <v>UNITED PARCEL SERVICE, INC.</v>
     <v>UNITED PARCEL SERVICE, INC.</v>
-    <v>166.67</v>
-    <v>108.7724</v>
-    <v>167.24</v>
-    <v>167.62</v>
-    <v>167.78</v>
+    <v>162.78</v>
+    <v>105.4967</v>
+    <v>162.63999999999999</v>
+    <v>162.82</v>
+    <v>162.83000000000001</v>
     <v>867038500</v>
     <v>UPS</v>
     <v>UNITED PARCEL SERVICE, INC. (XNYS:UPS)</v>
-    <v>1914768</v>
-    <v>3053083</v>
+    <v>2397832</v>
+    <v>3096347</v>
     <v>1999</v>
   </rv>
   <rv s="2">
-    <v>222</v>
+    <v>216</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a2pg5r&amp;q=OTCM%3aVLNCF&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="16">
+  <rv s="15">
     <v>en-US</v>
     <v>a2pg5r</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>37</v>
+    <v>33</v>
     <v>The Valens Company Inc. (OTCM:VLNCF)</v>
     <v>2</v>
-    <v>38</v>
+    <v>34</v>
     <v>Finance</v>
-    <v>39</v>
+    <v>17</v>
     <v>2.33</v>
     <v>1.04</v>
-    <v>1.6032999999999999</v>
-    <v>0.12</v>
+    <v>1.6209</v>
+    <v>0.01</v>
     <v>0</v>
-    <v>0.08</v>
+    <v>5.7799999999999995E-3</v>
     <v>0</v>
     <v>USD</v>
     <v>The Valens Company Inc., formerly Valens GroWorks Corp., is a Canada-based cannabis company. The Company is focused on offering its solutions to Canadian and international cannabis brands. The Company’s services include carbon dioxide (CO2), ethanol, hydrocarbon, solvent-less and terpene extraction, analytical testing, formulation and white label product development. Its subsidiary Valens Labs operates a cannabis testing lab and provides analytical services. The Company is also focused on offering cannabis-infused beverages. The Company’s subsidiary, Southern Cliff Brands Inc., manufactures hard cider in the manufacturing facility in Greater Toronto Area.</v>
@@ -3920,28 +3889,28 @@
     <v>OTCM</v>
     <v>OTCM</v>
     <v>230 Carion Rd, KELOWNA, BC, V4V 2K5 CA</v>
-    <v>1.62</v>
+    <v>1.75</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>44267.875000902342</v>
-    <v>224</v>
-    <v>1.46</v>
-    <v>334188400</v>
+    <v>44272.006944444445</v>
+    <v>218</v>
+    <v>1.6671</v>
+    <v>345328000</v>
     <v>The Valens Company Inc.</v>
     <v>The Valens Company Inc.</v>
-    <v>1.4650000000000001</v>
+    <v>1.74</v>
     <v>404.61419999999998</v>
-    <v>1.5</v>
-    <v>1.62</v>
-    <v>1.62</v>
+    <v>1.73</v>
+    <v>1.74</v>
+    <v>1.74</v>
     <v>159137300</v>
     <v>VLNCF</v>
     <v>The Valens Company Inc. (OTCM:VLNCF)</v>
-    <v>261692</v>
+    <v>244890</v>
     <v>1981</v>
   </rv>
   <rv s="2">
-    <v>225</v>
+    <v>219</v>
   </rv>
   <rv s="0">
     <v>http://es.wikipedia.org/wiki/ViaSat</v>
@@ -3949,12 +3918,12 @@
   </rv>
   <rv s="3">
     <v>3</v>
-    <v>227</v>
+    <v>221</v>
   </rv>
   <rv s="4">
     <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_7164d75e5377c943c39f742c0b21f6b1&amp;qlt=95</v>
-    <v>228</v>
+    <v>222</v>
     <v>0</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=viasat</v>
     <v>Image of VIASAT, INC.</v>
@@ -3977,11 +3946,11 @@
     <v>4</v>
     <v>61.35</v>
     <v>25.1</v>
-    <v>1.1916</v>
-    <v>-0.19</v>
-    <v>4.8833000000000001E-2</v>
-    <v>-3.4250000000000001E-3</v>
-    <v>2.7</v>
+    <v>1.1999</v>
+    <v>-2.89</v>
+    <v>-1.0789E-2</v>
+    <v>-5.1014999999999998E-2</v>
+    <v>-0.57999999999999996</v>
     <v>USD</v>
     <v>ViaSat, Inc. is engaged in broadband technologies and services. The Company operates through three segments: satellite services, commercial networks and government systems. The satellite services segment provides satellite-based broadband services to consumers, enterprises, commercial airlines and mobile broadband customers primarily in the United States. The commercial networks segment develops and produces a range of end-to-end satellite and wireless communication systems, ground networking equipment and space-to-earth connectivity systems. The government systems segment develops and produces network-centric Internet Protocol (IP)-based fixed and mobile secure government communications systems, products, services and solutions, which are designed to enable the collection and dissemination of real-time digital information between command centers, communications nodes and air defense systems.</v>
     <v>6100</v>
@@ -3989,30 +3958,30 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>6155 El Camino Real, CARLSBAD, CA, 92009 US</v>
-    <v>56.47</v>
-    <v>229</v>
+    <v>56.71</v>
+    <v>223</v>
     <v>Communications &amp; Networking</v>
     <v>Stock</v>
-    <v>44267.972816805472</v>
-    <v>230</v>
-    <v>54.87</v>
-    <v>3787660000</v>
+    <v>44271.978595161716</v>
+    <v>224</v>
+    <v>52.83</v>
+    <v>3880827000</v>
     <v>VIASAT, INC.</v>
     <v>VIASAT, INC.</v>
-    <v>55.77</v>
+    <v>56.21</v>
     <v>6012.8379999999997</v>
-    <v>55.48</v>
-    <v>55.29</v>
-    <v>57.99</v>
+    <v>56.65</v>
+    <v>53.76</v>
+    <v>53.18</v>
     <v>68505330</v>
     <v>VSAT</v>
     <v>VIASAT, INC. (XNAS:VSAT)</v>
-    <v>4915212</v>
-    <v>734870</v>
+    <v>348258</v>
+    <v>848461</v>
     <v>1996</v>
   </rv>
   <rv s="2">
-    <v>231</v>
+    <v>225</v>
   </rv>
   <rv s="0">
     <v>http://en.wikipedia.org/wiki/Wells_Fargo</v>
@@ -4020,12 +3989,12 @@
   </rv>
   <rv s="3">
     <v>3</v>
-    <v>233</v>
+    <v>227</v>
   </rv>
   <rv s="4">
     <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_97bd8dad8c0360a49d8c3a8c9f408be5&amp;qlt=95</v>
-    <v>234</v>
+    <v>228</v>
     <v>0</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=wells+fargo</v>
     <v>Image of WELLS FARGO &amp; COMPANY</v>
@@ -4046,13 +4015,13 @@
     <v>8</v>
     <v>Finance</v>
     <v>4</v>
-    <v>40.020000000000003</v>
+    <v>40.229999999999997</v>
     <v>20.76</v>
-    <v>1.3265</v>
-    <v>1.0900000000000001</v>
-    <v>1.2509999999999999E-3</v>
-    <v>2.8035000000000001E-2</v>
-    <v>0.05</v>
+    <v>1.3266</v>
+    <v>-0.35</v>
+    <v>2.0330000000000001E-3</v>
+    <v>-8.8160000000000009E-3</v>
+    <v>0.08</v>
     <v>USD</v>
     <v>Wells Fargo &amp; Company is a bank holding company. The Company is a diversified financial services company. It has three operating segments: Community Banking, Wholesale Banking, and Wealth and Investment Management. The Company offers its services under three categories: personal, small business and commercial. It provides retail, commercial and corporate banking services through banking locations and offices, the Internet and other distribution channels to individuals, businesses and institutions in all 50 states, the District of Columbia and in other countries. It provides other financial services through its subsidiaries engaged in various businesses, including wholesale banking, mortgage banking, consumer finance, equipment leasing, agricultural finance, commercial finance, securities brokerage and investment banking, computer and data processing services, investment advisory services, mortgage-backed securities servicing and venture capital investment.</v>
     <v>200000</v>
@@ -4060,30 +4029,30 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>420 Montgomery St, SAN FRANCISCO, CA, 94104-1207 US</v>
-    <v>40.020000000000003</v>
-    <v>235</v>
+    <v>39.49</v>
+    <v>229</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>44267.932216353904</v>
-    <v>236</v>
-    <v>39.42</v>
-    <v>165240300000</v>
+    <v>44271.999968055468</v>
+    <v>230</v>
+    <v>38.72</v>
+    <v>164124000000</v>
     <v>WELLS FARGO &amp; COMPANY</v>
     <v>WELLS FARGO &amp; COMPANY</v>
-    <v>39.5</v>
-    <v>100.26090000000001</v>
-    <v>38.880000000000003</v>
-    <v>39.97</v>
-    <v>40.020000000000003</v>
+    <v>39.369999999999997</v>
+    <v>99.583600000000004</v>
+    <v>39.700000000000003</v>
+    <v>39.35</v>
+    <v>39.43</v>
     <v>4134106000</v>
     <v>WFC</v>
     <v>WELLS FARGO &amp; COMPANY (XNYS:WFC)</v>
-    <v>28754041</v>
-    <v>35276772</v>
+    <v>24668311</v>
+    <v>35233680</v>
     <v>1929</v>
   </rv>
   <rv s="2">
-    <v>237</v>
+    <v>231</v>
   </rv>
   <rv s="0">
     <v>http://sv.wikipedia.org/wiki/Wingstop</v>
@@ -4091,12 +4060,12 @@
   </rv>
   <rv s="3">
     <v>40</v>
-    <v>239</v>
+    <v>233</v>
   </rv>
   <rv s="4">
     <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_b17bb7db52aff24e38d640fab681ff30&amp;qlt=95</v>
-    <v>240</v>
+    <v>234</v>
     <v>0</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=wingstop</v>
     <v>Image of WINGSTOP INC.</v>
@@ -4119,11 +4088,11 @@
     <v>4</v>
     <v>172.87</v>
     <v>42.602600000000002</v>
-    <v>1.2541</v>
-    <v>0.86</v>
-    <v>1.5579999999999999E-3</v>
-    <v>6.7429999999999999E-3</v>
-    <v>0.2</v>
+    <v>1.2442</v>
+    <v>1.92</v>
+    <v>0</v>
+    <v>1.4951000000000001E-2</v>
+    <v>0</v>
     <v>USD</v>
     <v>Wingstop Inc. is franchisor and operator of restaurants that specializes in cooked-to-order, hand-sauced and tossed chicken wings. The Company operates through two segments: Franchise and Company. The Company operates its chicken wings-focused restaurant chain in over 1,400 locations worldwide. It offers classic wings, boneless wings and tenders, always cooked to order and hand-sauced-and-tossed in 11 distinctive flavors. It offers various order options, including eat-in, to go, individual, combo meals and family packs. It markets Wingstop products, services and restaurants through the Website, www.wingstop.com.</v>
     <v>819</v>
@@ -4131,30 +4100,30 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>5501 Lyndon B Johnson Fwy Fl 5, DALLAS, TX, 75240-6225 US</v>
-    <v>128.63</v>
-    <v>241</v>
+    <v>131.30000000000001</v>
+    <v>235</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>44267.984457916406</v>
-    <v>242</v>
-    <v>124.42</v>
-    <v>3811940000</v>
+    <v>44271.857067407029</v>
+    <v>236</v>
+    <v>127.51</v>
+    <v>3812534000</v>
     <v>WINGSTOP INC.</v>
     <v>WINGSTOP INC.</v>
-    <v>125.59</v>
-    <v>164.34360000000001</v>
-    <v>127.54</v>
-    <v>128.4</v>
-    <v>128.6</v>
+    <v>129.6</v>
+    <v>164.36920000000001</v>
+    <v>128.41999999999999</v>
+    <v>130.34</v>
+    <v>130.34</v>
     <v>29688010</v>
     <v>WING</v>
     <v>WINGSTOP INC. (XNAS:WING)</v>
-    <v>416250</v>
-    <v>656270</v>
+    <v>575426</v>
+    <v>664772</v>
     <v>2015</v>
   </rv>
   <rv s="2">
-    <v>243</v>
+    <v>237</v>
   </rv>
   <rv s="0">
     <v>http://en.wikipedia.org/wiki/Waste_Management_(corporation)</v>
@@ -4162,12 +4131,12 @@
   </rv>
   <rv s="3">
     <v>3</v>
-    <v>245</v>
+    <v>239</v>
   </rv>
   <rv s="4">
     <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_5e7d3642a4c7b151c5a535b3122e2f24&amp;qlt=95</v>
-    <v>246</v>
+    <v>240</v>
     <v>0</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=waste+management+inc</v>
     <v>Image of WASTE MANAGEMENT, INC.</v>
@@ -4187,14 +4156,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>125.56</v>
     <v>85.34</v>
-    <v>0.77470000000000006</v>
-    <v>1.84</v>
-    <v>-4.104E-4</v>
-    <v>1.5333000000000001E-2</v>
-    <v>-0.05</v>
+    <v>0.77949999999999997</v>
+    <v>0.28999999999999998</v>
+    <v>-4.8820000000000001E-3</v>
+    <v>2.3649999999999999E-3</v>
+    <v>-0.6</v>
     <v>USD</v>
     <v>Waste Management, Inc. (WM) is a holding company. The Company, through its subsidiaries, is a provider of waste management environmental services. The Company's segments include Solid Waste and Other. The Company's Solid Waste segment includes its solid waste business. The Other segment includes its Strategic Business Solutions (WMSBS) organization; its landfill gas-to-energy operations and third-party subcontract and administration services managed by its Energy and Environmental Services and WM Renewable Energy organizations; recycling, materials processing and recycling commodities services.</v>
     <v>48250</v>
@@ -4202,30 +4171,30 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1001 Fannin St, HOUSTON, TX, 77002-6706 US</v>
-    <v>121.93</v>
-    <v>247</v>
+    <v>123.1399</v>
+    <v>241</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>44267.948697048436</v>
-    <v>248</v>
-    <v>120.16</v>
-    <v>51535800000</v>
+    <v>44271.958333333336</v>
+    <v>242</v>
+    <v>122.2</v>
+    <v>51887020000</v>
     <v>WASTE MANAGEMENT, INC.</v>
     <v>WASTE MANAGEMENT, INC.</v>
-    <v>120.49</v>
-    <v>34.7029</v>
-    <v>120</v>
-    <v>121.84</v>
-    <v>121.79</v>
+    <v>122.71</v>
+    <v>34.939500000000002</v>
+    <v>122.62</v>
+    <v>122.91</v>
+    <v>122.31</v>
     <v>423153000</v>
     <v>WM</v>
     <v>WASTE MANAGEMENT, INC. (XNYS:WM)</v>
-    <v>1768941</v>
-    <v>2391147</v>
+    <v>1544353</v>
+    <v>2420642</v>
     <v>1995</v>
   </rv>
   <rv s="2">
-    <v>249</v>
+    <v>243</v>
   </rv>
   <rv s="0">
     <v>http://en.wikipedia.org/wiki/Walmart</v>
@@ -4233,12 +4202,12 @@
   </rv>
   <rv s="3">
     <v>3</v>
-    <v>251</v>
+    <v>245</v>
   </rv>
   <rv s="4">
     <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_bda71e2736b0e1c236099c12cbe43c51&amp;qlt=95</v>
-    <v>252</v>
+    <v>246</v>
     <v>0</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=walmart</v>
     <v>Image of WALMART INC.</v>
@@ -4261,11 +4230,11 @@
     <v>4</v>
     <v>153.65969999999999</v>
     <v>102</v>
-    <v>0.47599999999999998</v>
-    <v>1.99</v>
-    <v>-7.4560000000000002E-4</v>
-    <v>1.5061E-2</v>
-    <v>-0.1</v>
+    <v>0.47420000000000001</v>
+    <v>-0.04</v>
+    <v>0</v>
+    <v>-2.9980000000000002E-4</v>
+    <v>0</v>
     <v>USD</v>
     <v>Walmart Inc., formerly Wal-Mart Stores, Inc., is engaged in the operation of retail, wholesale and other units in various formats around the world. The Company offers an assortment of merchandise and services at everyday low prices (EDLP). The Company operates through three segments: Walmart U.S., Walmart International and Sam's Club. The Walmart U.S. segment includes the Company's mass merchant concept in the United States operating under the Walmart brands, as well as digital retail. The Walmart International segment consists of the Company's operations outside of the United States, including various retail Websites. The Sam's Club segment includes the warehouse membership clubs in the United States, as well as samsclub.com. The Company operates approximately 11,600 stores under 59 banners in 28 countries and e-commerce Websites in 11 countries.</v>
     <v>2200000</v>
@@ -4273,30 +4242,30 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>702 SW 8th St, BENTONVILLE, AR, 72716-6209 US</v>
-    <v>134.52000000000001</v>
-    <v>253</v>
+    <v>134.28</v>
+    <v>247</v>
     <v>Food &amp; Drug Retailing</v>
     <v>Stock</v>
-    <v>44267.923947557814</v>
-    <v>254</v>
-    <v>132.08009999999999</v>
-    <v>379463800000</v>
+    <v>44271.999359305468</v>
+    <v>248</v>
+    <v>132.82</v>
+    <v>377511600000</v>
     <v>WALMART INC.</v>
     <v>WALMART INC.</v>
-    <v>132.52000000000001</v>
-    <v>28.3142</v>
-    <v>132.13</v>
-    <v>134.12</v>
-    <v>134.02000000000001</v>
+    <v>132.82</v>
+    <v>28.168600000000001</v>
+    <v>133.43</v>
+    <v>133.38999999999999</v>
+    <v>133.38999999999999</v>
     <v>2829286000</v>
     <v>WMT</v>
     <v>WALMART INC. (XNYS:WMT)</v>
-    <v>9479187</v>
-    <v>11014155</v>
+    <v>6626953</v>
+    <v>11223990</v>
     <v>1969</v>
   </rv>
   <rv s="2">
-    <v>255</v>
+    <v>249</v>
   </rv>
   <rv s="0">
     <v>http://en.wikipedia.org/wiki/U.S._Steel</v>
@@ -4304,12 +4273,12 @@
   </rv>
   <rv s="3">
     <v>3</v>
-    <v>257</v>
+    <v>251</v>
   </rv>
   <rv s="4">
     <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_11f337f28f1d62127217daf91c38bf2e&amp;qlt=95</v>
-    <v>258</v>
+    <v>252</v>
     <v>0</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=u.s.+steel</v>
     <v>Image of UNITED STATES STEEL CORPORATION</v>
@@ -4332,11 +4301,11 @@
     <v>4</v>
     <v>24.71</v>
     <v>4.54</v>
-    <v>2.2780999999999998</v>
-    <v>1.84</v>
-    <v>2.8960000000000001E-3</v>
-    <v>8.2400000000000001E-2</v>
-    <v>7.0000000000000007E-2</v>
+    <v>2.2803</v>
+    <v>-1.83</v>
+    <v>-3.754E-3</v>
+    <v>-7.9084000000000002E-2</v>
+    <v>-0.08</v>
     <v>USD</v>
     <v>United States Steel Corporation (U.S Steel) is an integrated steel producer. The Company is engaged in producing flat-rolled and tubular products with production operations in North America and Europe. The Company operates through three segments: Flat-Rolled Products (Flat-Rolled), U. S. Steel Europe (USSE) and Tubular Products (Tubular). The Company's other businesses include railroad services and real estate operations. The Company owns, develops and manages various real estate assets, including approximately 50,000 acres of surface rights primarily in Alabama, Illinois, Michigan, Minnesota and Pennsylvania. In addition, the Company holds ownership interests in joint ventures that are developing real estate projects in Alabama.</v>
     <v>23350</v>
@@ -4344,30 +4313,30 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>600 Grant St Room 1500, PITTSBURGH, PA, 15219-2800 US</v>
-    <v>24.46</v>
-    <v>259</v>
+    <v>23.08</v>
+    <v>253</v>
     <v>Metals &amp; Mining</v>
     <v>Stock</v>
-    <v>44267.92507008047</v>
-    <v>260</v>
-    <v>22.1</v>
-    <v>6343945000</v>
+    <v>44271.999924120311</v>
+    <v>254</v>
+    <v>21.1</v>
+    <v>6219624000</v>
     <v>UNITED STATES STEEL CORPORATION</v>
     <v>UNITED STATES STEEL CORPORATION</v>
-    <v>22.24</v>
+    <v>22.98</v>
     <v>0</v>
-    <v>22.33</v>
-    <v>24.17</v>
-    <v>24.24</v>
-    <v>262471900</v>
+    <v>23.14</v>
+    <v>21.31</v>
+    <v>21.23</v>
+    <v>268782300</v>
     <v>X</v>
     <v>UNITED STATES STEEL CORPORATION (XNYS:X)</v>
-    <v>24718840</v>
-    <v>20775403</v>
+    <v>22376735</v>
+    <v>20547546</v>
     <v>2001</v>
   </rv>
   <rv s="2">
-    <v>261</v>
+    <v>255</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a265h7&amp;q=ARCX%3aXBI&amp;form=skydnc</v>
@@ -4379,41 +4348,41 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
+    <v>11</v>
+    <v>SPDR S&amp;P Biotech (ARCX:XBI)</v>
     <v>12</v>
-    <v>SPDR S&amp;P Biotech (ARCX:XBI)</v>
     <v>13</v>
+    <v>Finance</v>
     <v>14</v>
-    <v>Finance</v>
-    <v>16</v>
     <v>174.79</v>
     <v>62.94</v>
     <v>0.92320000000000002</v>
-    <v>-0.49</v>
-    <v>1.707E-3</v>
-    <v>-3.3339999999999997E-3</v>
-    <v>0.25</v>
+    <v>-2.33</v>
+    <v>-9.5960000000000001E-4</v>
+    <v>-1.5720000000000001E-2</v>
+    <v>-0.14000000000000001</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>3.4999999999999996E-3</v>
-    <v>146.685</v>
+    <v>149.23500000000001</v>
     <v>ETF</v>
-    <v>44267.887818089846</v>
-    <v>263</v>
-    <v>143.55000000000001</v>
+    <v>44272.000000022657</v>
+    <v>257</v>
+    <v>143.22999999999999</v>
     <v>7845924461.9300003</v>
     <v>SPDR S&amp;P Biotech</v>
-    <v>145.48500000000001</v>
-    <v>146.94999999999999</v>
-    <v>146.46</v>
-    <v>146.71</v>
+    <v>148.76</v>
+    <v>148.22</v>
+    <v>145.88999999999999</v>
+    <v>145.75</v>
     <v>XBI</v>
     <v>SPDR S&amp;P Biotech (ARCX:XBI)</v>
-    <v>4345058</v>
-    <v>6916220</v>
+    <v>5395472</v>
+    <v>6928713</v>
   </rv>
   <rv s="2">
-    <v>264</v>
+    <v>258</v>
   </rv>
   <rv s="0">
     <v>http://en.wikipedia.org/wiki/Zillow</v>
@@ -4421,12 +4390,12 @@
   </rv>
   <rv s="3">
     <v>3</v>
-    <v>266</v>
+    <v>260</v>
   </rv>
   <rv s="4">
     <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_66c7cc0d1d7e311c31b7691f3046610a&amp;qlt=95</v>
-    <v>267</v>
+    <v>261</v>
     <v>0</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=zillow</v>
     <v>Image of ZILLOW GROUP, INC.</v>
@@ -4435,25 +4404,25 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a26f77&amp;q=XNAS%3aZ&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="15">
+  <rv s="14">
     <v>en-US</v>
     <v>a26f77</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>34</v>
+    <v>30</v>
     <v>ZILLOW GROUP, INC. (XNAS:Z)</v>
     <v>7</v>
-    <v>35</v>
+    <v>31</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>208.11</v>
     <v>20.04</v>
-    <v>1.3949</v>
-    <v>-6.55</v>
-    <v>3.251E-3</v>
-    <v>-4.1651000000000001E-2</v>
-    <v>0.49</v>
+    <v>1.3816999999999999</v>
+    <v>-4.33</v>
+    <v>2.3259999999999999E-3</v>
+    <v>-2.8771000000000001E-2</v>
+    <v>0.34</v>
     <v>USD</v>
     <v>Zillow Group, Inc. owns and operates a portfolio of real estate and home related brands on mobile and Web. The Company's brands focus on all stages of the home lifecycle: renting, buying, selling and financing. The Company also provides consumers with data to find around homes, and connects them with the local professionals to help. The Company’s portfolio of consumer brands includes real estate and rental marketplaces Zillow, Trulia, StreetEasy, HotPads, Naked Apartments and RealEstate.com. In addition, Zillow Group provides a comprehensive suite of marketing software and technology solutions to help real estate, rental and mortgage professionals. The Company operates a number of business brands for real estate, rental and mortgage professionals, including Mortech, dotloop and Bridge Interactive.</v>
     <v>5504</v>
@@ -4461,53 +4430,53 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1301 2nd Ave Fl 31, SEATTLE, WA, 98101-0003 US</v>
-    <v>151.9699</v>
-    <v>268</v>
+    <v>156.84</v>
+    <v>262</v>
     <v>Real Estate Operations</v>
     <v>Stock</v>
-    <v>44267.875026157031</v>
-    <v>269</v>
-    <v>146.29</v>
-    <v>36681890000</v>
+    <v>44271.999599154689</v>
+    <v>263</v>
+    <v>142.125</v>
+    <v>36588930000</v>
     <v>ZILLOW GROUP, INC.</v>
     <v>ZILLOW GROUP, INC.</v>
-    <v>149.30000000000001</v>
-    <v>157.26</v>
-    <v>150.71</v>
-    <v>151.19999999999999</v>
+    <v>153.24</v>
+    <v>150.5</v>
+    <v>146.16999999999999</v>
+    <v>146.51</v>
     <v>240659600</v>
     <v>Z</v>
     <v>ZILLOW GROUP, INC. (XNAS:Z)</v>
-    <v>2725842</v>
-    <v>4794461</v>
+    <v>2979429</v>
+    <v>4916664</v>
     <v>2014</v>
   </rv>
   <rv s="2">
-    <v>270</v>
+    <v>264</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a26ghw&amp;q=XNAS%3aZG&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="15">
+  <rv s="14">
     <v>en-US</v>
     <v>a26ghw</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>34</v>
+    <v>30</v>
     <v>ZILLOW GROUP, INC. (XNAS:ZG)</v>
     <v>7</v>
-    <v>35</v>
+    <v>31</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>4</v>
     <v>212.4</v>
     <v>18.649999999999999</v>
-    <v>1.3949</v>
-    <v>-4.2699999999999996</v>
-    <v>-1.0329999999999999E-2</v>
-    <v>-2.6505000000000001E-2</v>
-    <v>-1.62</v>
+    <v>1.3816999999999999</v>
+    <v>-5.76</v>
+    <v>1.1781999999999999E-2</v>
+    <v>-3.6924999999999999E-2</v>
+    <v>1.77</v>
     <v>USD</v>
     <v>Zillow Group, Inc. owns and operates a portfolio of real estate and home related brands on mobile and Web. The Company's brands focus on all stages of the home lifecycle: renting, buying, selling and financing. The Company also provides consumers with data to find around homes, and connects them with the local professionals to help. The Company’s portfolio of consumer brands includes real estate and rental marketplaces Zillow, Trulia, StreetEasy, HotPads, Naked Apartments and RealEstate.com. In addition, Zillow Group provides a comprehensive suite of marketing software and technology solutions to help real estate, rental and mortgage professionals. The Company operates a number of business brands for real estate, rental and mortgage professionals, including Mortech, dotloop and Bridge Interactive.</v>
     <v>5504</v>
@@ -4515,35 +4484,35 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1301 2nd Ave Fl 31, SEATTLE, WA, 98101-0003 US</v>
-    <v>158</v>
-    <v>268</v>
+    <v>162</v>
+    <v>262</v>
     <v>Real Estate Operations</v>
     <v>Stock</v>
-    <v>44267.875973691407</v>
-    <v>272</v>
-    <v>151</v>
-    <v>36681890000</v>
+    <v>44271.994997106252</v>
+    <v>266</v>
+    <v>147.09</v>
+    <v>36588930000</v>
     <v>ZILLOW GROUP, INC.</v>
     <v>ZILLOW GROUP, INC.</v>
-    <v>154.76</v>
-    <v>161.1</v>
-    <v>156.83000000000001</v>
-    <v>155.21</v>
+    <v>159.88</v>
+    <v>155.99</v>
+    <v>150.22999999999999</v>
+    <v>152</v>
     <v>240659600</v>
     <v>ZG</v>
     <v>ZILLOW GROUP, INC. (XNAS:ZG)</v>
-    <v>554938</v>
-    <v>1137426</v>
+    <v>679446</v>
+    <v>1133986</v>
     <v>2014</v>
   </rv>
   <rv s="2">
-    <v>273</v>
+    <v>267</v>
   </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="17">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="16">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -4713,7 +4682,9 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -4733,6 +4704,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -4986,53 +4958,6 @@
     <k n="Change (%)"/>
     <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
-    <k n="Description" t="s"/>
-    <k n="Employees"/>
-    <k n="Exchange" t="s"/>
-    <k n="Exchange abbreviation" t="s"/>
-    <k n="ExchangeID" t="s"/>
-    <k n="Headquarters" t="s"/>
-    <k n="High"/>
-    <k n="Image" t="r"/>
-    <k n="Industry" t="s"/>
-    <k n="Instrument type" t="s"/>
-    <k n="Last trade time"/>
-    <k n="LearnMoreOnLink" t="r"/>
-    <k n="Low"/>
-    <k n="Market cap"/>
-    <k n="Name" t="s"/>
-    <k n="Official name" t="s"/>
-    <k n="Open"/>
-    <k n="P/E"/>
-    <k n="Previous close"/>
-    <k n="Price"/>
-    <k n="Price (Extended hours)"/>
-    <k n="Shares outstanding"/>
-    <k n="Ticker symbol" t="s"/>
-    <k n="UniqueName" t="s"/>
-    <k n="Volume"/>
-    <k n="Volume average"/>
-    <k n="Year incorporated"/>
-  </s>
-  <s t="_linkedentitycore">
-    <k n="%EntityCulture" t="s"/>
-    <k n="%EntityId" t="s"/>
-    <k n="%EntityServiceId"/>
-    <k n="%IsRefreshable" t="b"/>
-    <k n="%ProviderInfo" t="s"/>
-    <k n="_Display" t="spb"/>
-    <k n="_DisplayString" t="s"/>
-    <k n="_Flags" t="spb"/>
-    <k n="_Format" t="spb"/>
-    <k n="_Icon" t="s"/>
-    <k n="_SubLabel" t="spb"/>
-    <k n="52 week high"/>
-    <k n="52 week low"/>
-    <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
-    <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Currency" t="s"/>
     <k n="Exchange" t="s"/>
     <k n="Exchange abbreviation" t="s"/>
     <k n="Expense ratio"/>
@@ -5149,7 +5074,7 @@
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="13">
+  <spbArrays count="12">
     <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -5284,7 +5209,7 @@
       <v t="s">LearnMoreOnLink</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="40">
+    <a count="43">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -5295,13 +5220,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -5554,53 +5482,6 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="45">
-      <v t="s">%EntityServiceId</v>
-      <v t="s">_Format</v>
-      <v t="s">%IsRefreshable</v>
-      <v t="s">%EntityCulture</v>
-      <v t="s">%EntityId</v>
-      <v t="s">_Icon</v>
-      <v t="s">_Display</v>
-      <v t="s">Name</v>
-      <v t="s">_SubLabel</v>
-      <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
-      <v t="s">Exchange</v>
-      <v t="s">Official name</v>
-      <v t="s">Last trade time</v>
-      <v t="s">Ticker symbol</v>
-      <v t="s">Exchange abbreviation</v>
-      <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
-      <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
-      <v t="s">Currency</v>
-      <v t="s">Previous close</v>
-      <v t="s">Open</v>
-      <v t="s">High</v>
-      <v t="s">Low</v>
-      <v t="s">52 week high</v>
-      <v t="s">52 week low</v>
-      <v t="s">Volume</v>
-      <v t="s">Volume average</v>
-      <v t="s">Market cap</v>
-      <v t="s">P/E</v>
-      <v t="s">Shares outstanding</v>
-      <v t="s">Description</v>
-      <v t="s">Employees</v>
-      <v t="s">Headquarters</v>
-      <v t="s">Industry</v>
-      <v t="s">Instrument type</v>
-      <v t="s">Year incorporated</v>
-      <v t="s">_Flags</v>
-      <v t="s">UniqueName</v>
-      <v t="s">_DisplayString</v>
-      <v t="s">LearnMoreOnLink</v>
-      <v t="s">Image</v>
-      <v t="s">ExchangeID</v>
-      <v t="s">%ProviderInfo</v>
-    </a>
     <a count="36">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -5732,7 +5613,7 @@
       <v t="s">%ProviderInfo</v>
     </a>
   </spbArrays>
-  <spbData count="40">
+  <spbData count="35">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -5831,16 +5712,6 @@
     <spb s="8">
       <v>Powered by Refinitiv</v>
     </spb>
-    <spb s="4">
-      <v>at close</v>
-      <v>from previous close</v>
-      <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
-      <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
-    </spb>
     <spb s="3">
       <v>1</v>
       <v>2</v>
@@ -5910,16 +5781,6 @@
       <v>from close</v>
       <v>from close</v>
     </spb>
-    <spb s="11">
-      <v>at close</v>
-      <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
-      <v>from previous close</v>
-      <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
-    </spb>
     <spb s="0">
       <v>3</v>
       <v>Name</v>
@@ -5945,12 +5806,18 @@
       <v>9</v>
       <v>10</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="13">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
     <spb s="0">
       <v>4</v>
@@ -6107,26 +5974,22 @@
     </spb>
     <spb s="19">
       <v>1</v>
-      <v>2</v>
       <v>1</v>
       <v>3</v>
       <v>1</v>
-      <v>11</v>
-      <v>1</v>
-      <v>1</v>
-      <v>4</v>
+      <v>1</v>
+      <v>1</v>
       <v>4</v>
       <v>5</v>
       <v>6</v>
       <v>1</v>
       <v>1</v>
+      <v>5</v>
       <v>1</v>
       <v>4</v>
       <v>7</v>
       <v>8</v>
-      <v>9</v>
       <v>10</v>
-      <v>4</v>
       <v>1</v>
       <v>1</v>
       <v>5</v>
@@ -6138,22 +6001,50 @@
     </spb>
     <spb s="20">
       <v>1</v>
+      <v>2</v>
       <v>1</v>
       <v>3</v>
       <v>1</v>
-      <v>1</v>
-      <v>1</v>
+      <v>11</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
       <v>4</v>
       <v>5</v>
       <v>6</v>
       <v>1</v>
       <v>1</v>
-      <v>5</v>
       <v>1</v>
       <v>4</v>
       <v>7</v>
       <v>8</v>
+      <v>9</v>
       <v>10</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="16">
+      <v>1</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>12</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>10</v>
+      <v>4</v>
       <v>1</v>
       <v>1</v>
       <v>5</v>
@@ -6166,20 +6057,18 @@
     <spb s="21">
       <v>1</v>
       <v>2</v>
+      <v>2</v>
       <v>1</v>
       <v>3</v>
       <v>1</v>
-      <v>11</v>
-      <v>1</v>
-      <v>1</v>
-      <v>4</v>
+      <v>1</v>
+      <v>1</v>
       <v>4</v>
       <v>5</v>
-      <v>6</v>
-      <v>1</v>
-      <v>1</v>
-      <v>1</v>
-      <v>4</v>
+      <v>12</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
       <v>7</v>
       <v>8</v>
       <v>9</v>
@@ -6188,75 +6077,13 @@
       <v>1</v>
       <v>1</v>
       <v>5</v>
-    </spb>
-    <spb s="16">
-      <v>1</v>
-      <v>1</v>
-      <v>3</v>
-      <v>1</v>
-      <v>1</v>
-      <v>1</v>
-      <v>4</v>
-      <v>4</v>
-      <v>5</v>
-      <v>12</v>
-      <v>1</v>
-      <v>1</v>
-      <v>1</v>
-      <v>4</v>
-      <v>7</v>
-      <v>8</v>
-      <v>9</v>
-      <v>10</v>
-      <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
-    </spb>
-    <spb s="0">
-      <v>12</v>
-      <v>Name</v>
-      <v>LearnMoreOnLink</v>
-    </spb>
-    <spb s="22">
-      <v>1</v>
-      <v>2</v>
-      <v>2</v>
-      <v>1</v>
-      <v>3</v>
-      <v>1</v>
-      <v>1</v>
-      <v>1</v>
-      <v>4</v>
-      <v>5</v>
-      <v>12</v>
-      <v>1</v>
-      <v>1</v>
-      <v>1</v>
-      <v>7</v>
-      <v>8</v>
-      <v>9</v>
-      <v>10</v>
-      <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
-    </spb>
-    <spb s="23">
-      <v>at close</v>
-      <v>from previous close</v>
-      <v>from previous close</v>
-      <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="24">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="22">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -6408,12 +6235,18 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
     <k n="Change" t="s"/>
     <k n="Change (%)" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="Low" t="i"/>
@@ -6540,32 +6373,6 @@
   </s>
   <s>
     <k n="Low" t="i"/>
-    <k n="P/E" t="i"/>
-    <k n="High" t="i"/>
-    <k n="Name" t="i"/>
-    <k n="Open" t="i"/>
-    <k n="Image" t="i"/>
-    <k n="Price" t="i"/>
-    <k n="Change" t="i"/>
-    <k n="Volume" t="i"/>
-    <k n="Employees" t="i"/>
-    <k n="Change (%)" t="i"/>
-    <k n="Market cap" t="i"/>
-    <k n="52 week low" t="i"/>
-    <k n="52 week high" t="i"/>
-    <k n="Previous close" t="i"/>
-    <k n="Volume average" t="i"/>
-    <k n="Last trade time" t="i"/>
-    <k n="`_DisplayString" t="i"/>
-    <k n="Year incorporated" t="i"/>
-    <k n="`%EntityServiceId" t="i"/>
-    <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
-  </s>
-  <s>
-    <k n="Low" t="i"/>
     <k n="High" t="i"/>
     <k n="Name" t="i"/>
     <k n="Open" t="i"/>
@@ -6635,15 +6442,6 @@
     <k n="Price (Extended hours)" t="i"/>
     <k n="Change (Extended hours)" t="i"/>
     <k n="Change % (Extended hours)" t="i"/>
-  </s>
-  <s>
-    <k n="Price" t="s"/>
-    <k n="Change" t="s"/>
-    <k n="Change (%)" t="s"/>
-    <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -7007,7 +6805,7 @@
   <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7052,19 +6850,19 @@
       </c>
       <c r="D2" s="1" cm="1">
         <f t="array" ref="D2">_FV(B58,"Open")</f>
-        <v>22.18</v>
+        <v>25.11</v>
       </c>
       <c r="E2" s="1" cm="1">
         <f t="array" ref="E2">_FV(B58,"Previous close",TRUE)</f>
-        <v>22.15</v>
+        <v>25.17</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2">_FV(B58,"High")</f>
-        <v>23.54</v>
+        <v>25.25</v>
       </c>
       <c r="G2" s="1" cm="1">
         <f t="array" ref="G2">_FV(B58,"Low")</f>
-        <v>22.13</v>
+        <v>24.31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -7080,19 +6878,19 @@
       </c>
       <c r="D3" s="1" cm="1">
         <f t="array" ref="D3">_FV(B59,"Open")</f>
-        <v>10.16</v>
+        <v>13.62</v>
       </c>
       <c r="E3" s="1" cm="1">
         <f t="array" ref="E3">_FV(B59,"Previous close",TRUE)</f>
-        <v>10.28</v>
+        <v>14.04</v>
       </c>
       <c r="F3" s="1" cm="1">
         <f t="array" ref="F3">_FV(B59,"High")</f>
-        <v>11.4</v>
+        <v>13.62</v>
       </c>
       <c r="G3" s="1" cm="1">
         <f t="array" ref="G3">_FV(B59,"Low")</f>
-        <v>9.94</v>
+        <v>12.34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -7108,19 +6906,19 @@
       </c>
       <c r="D4" s="1" cm="1">
         <f t="array" ref="D4">_FV(B60,"Open")</f>
-        <v>79.62</v>
+        <v>83.66</v>
       </c>
       <c r="E4" s="1" cm="1">
         <f t="array" ref="E4">_FV(B60,"Previous close",TRUE)</f>
-        <v>81.23</v>
+        <v>82.5</v>
       </c>
       <c r="F4" s="1" cm="1">
         <f t="array" ref="F4">_FV(B60,"High")</f>
-        <v>81.19</v>
+        <v>84.75</v>
       </c>
       <c r="G4" s="1" cm="1">
         <f t="array" ref="G4">_FV(B60,"Low")</f>
-        <v>79.23</v>
+        <v>82.254999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -7136,19 +6934,19 @@
       </c>
       <c r="D5" s="1" cm="1">
         <f t="array" ref="D5">_FV(B61,"Open")</f>
-        <v>18.690000000000001</v>
+        <v>22.25</v>
       </c>
       <c r="E5" s="1" cm="1">
         <f t="array" ref="E5">_FV(B61,"Previous close",TRUE)</f>
-        <v>19.86</v>
+        <v>22.164999999999999</v>
       </c>
       <c r="F5" s="1" cm="1">
         <f t="array" ref="F5">_FV(B61,"High")</f>
-        <v>20.63</v>
+        <v>22.26</v>
       </c>
       <c r="G5" s="1" cm="1">
         <f t="array" ref="G5">_FV(B61,"Low")</f>
-        <v>18.52</v>
+        <v>19.940000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -7164,19 +6962,19 @@
       </c>
       <c r="D6" s="1" cm="1">
         <f t="array" ref="D6">_FV(B62,"Open")</f>
-        <v>125</v>
+        <v>130.51</v>
       </c>
       <c r="E6" s="1" cm="1">
         <f t="array" ref="E6">_FV(B62,"Previous close",TRUE)</f>
-        <v>128.68</v>
+        <v>128.88</v>
       </c>
       <c r="F6" s="1" cm="1">
         <f t="array" ref="F6">_FV(B62,"High")</f>
-        <v>126.69</v>
+        <v>130.80000000000001</v>
       </c>
       <c r="G6" s="1" cm="1">
         <f t="array" ref="G6">_FV(B62,"Low")</f>
-        <v>122.57</v>
+        <v>123.98</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -7192,19 +6990,19 @@
       </c>
       <c r="D7" s="1" cm="1">
         <f t="array" ref="D7">_FV(B63,"Open")</f>
-        <v>154.77000000000001</v>
+        <v>162.47999999999999</v>
       </c>
       <c r="E7" s="1" cm="1">
         <f t="array" ref="E7">_FV(B63,"Previous close",TRUE)</f>
-        <v>159.4</v>
+        <v>160.74</v>
       </c>
       <c r="F7" s="1" cm="1">
         <f t="array" ref="F7">_FV(B63,"High")</f>
-        <v>157.76</v>
+        <v>162.9</v>
       </c>
       <c r="G7" s="1" cm="1">
         <f t="array" ref="G7">_FV(B63,"Low")</f>
-        <v>152.63</v>
+        <v>155.80000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -7220,19 +7018,19 @@
       </c>
       <c r="D8" s="1" cm="1">
         <f t="array" ref="D8">_FV(B64,"Open")</f>
-        <v>91.89</v>
+        <v>93.56</v>
       </c>
       <c r="E8" s="1" cm="1">
         <f t="array" ref="E8">_FV(B64,"Previous close",TRUE)</f>
-        <v>92.94</v>
+        <v>92.575000000000003</v>
       </c>
       <c r="F8" s="1" cm="1">
         <f t="array" ref="F8">_FV(B64,"High")</f>
-        <v>93.13</v>
+        <v>94.8</v>
       </c>
       <c r="G8" s="1" cm="1">
         <f t="array" ref="G8">_FV(B64,"Low")</f>
-        <v>91.18</v>
+        <v>92.924999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -7248,19 +7046,19 @@
       </c>
       <c r="D9" s="1" cm="1">
         <f t="array" ref="D9">_FV(B65,"Open")</f>
-        <v>37.92</v>
+        <v>37.42</v>
       </c>
       <c r="E9" s="1" cm="1">
         <f t="array" ref="E9">_FV(B65,"Previous close",TRUE)</f>
-        <v>37.24</v>
+        <v>37.75</v>
       </c>
       <c r="F9" s="1" cm="1">
         <f t="array" ref="F9">_FV(B65,"High")</f>
-        <v>38.176600000000001</v>
+        <v>37.72</v>
       </c>
       <c r="G9" s="1" cm="1">
         <f t="array" ref="G9">_FV(B65,"Low")</f>
-        <v>37.58</v>
+        <v>36.97</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -7276,7 +7074,7 @@
       </c>
       <c r="D10" s="1" cm="1">
         <f t="array" ref="D10">_FV(B66,"Open")</f>
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="E10" s="1" cm="1">
         <f t="array" ref="E10">_FV(B66,"Previous close",TRUE)</f>
@@ -7284,11 +7082,11 @@
       </c>
       <c r="F10" s="1" cm="1">
         <f t="array" ref="F10">_FV(B66,"High")</f>
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="G10" s="1" cm="1">
         <f t="array" ref="G10">_FV(B66,"Low")</f>
-        <v>0.88949999999999996</v>
+        <v>0.88100000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -7304,19 +7102,19 @@
       </c>
       <c r="D11" s="1" cm="1">
         <f t="array" ref="D11">_FV(B67,"Open")</f>
-        <v>140.44999999999999</v>
+        <v>148.01</v>
       </c>
       <c r="E11" s="1" cm="1">
         <f t="array" ref="E11">_FV(B67,"Previous close",TRUE)</f>
-        <v>142.81</v>
+        <v>148.11000000000001</v>
       </c>
       <c r="F11" s="1" cm="1">
         <f t="array" ref="F11">_FV(B67,"High")</f>
-        <v>143.21</v>
+        <v>148.32</v>
       </c>
       <c r="G11" s="1" cm="1">
         <f t="array" ref="G11">_FV(B67,"Low")</f>
-        <v>138.36000000000001</v>
+        <v>137.01</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -7332,19 +7130,19 @@
       </c>
       <c r="D12" s="1" cm="1">
         <f t="array" ref="D12">_FV(B68,"Open")</f>
-        <v>39.68</v>
+        <v>39.83</v>
       </c>
       <c r="E12" s="1" cm="1">
         <f t="array" ref="E12">_FV(B68,"Previous close",TRUE)</f>
-        <v>39.549999999999997</v>
+        <v>39.840000000000003</v>
       </c>
       <c r="F12" s="1" cm="1">
         <f t="array" ref="F12">_FV(B68,"High")</f>
-        <v>40.26</v>
+        <v>40.229999999999997</v>
       </c>
       <c r="G12" s="1" cm="1">
         <f t="array" ref="G12">_FV(B68,"Low")</f>
-        <v>39.630000000000003</v>
+        <v>38.89</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -7360,19 +7158,19 @@
       </c>
       <c r="D13" s="1" cm="1">
         <f t="array" ref="D13">_FV(B69,"Open")</f>
-        <v>48.35</v>
+        <v>51.04</v>
       </c>
       <c r="E13" s="1" cm="1">
         <f t="array" ref="E13">_FV(B69,"Previous close",TRUE)</f>
-        <v>48.32</v>
+        <v>50.99</v>
       </c>
       <c r="F13" s="1" cm="1">
         <f t="array" ref="F13">_FV(B69,"High")</f>
-        <v>49.86</v>
+        <v>51.14</v>
       </c>
       <c r="G13" s="1" cm="1">
         <f t="array" ref="G13">_FV(B69,"Low")</f>
-        <v>48.08</v>
+        <v>49.03</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -7388,19 +7186,19 @@
       </c>
       <c r="D14" s="1" cm="1">
         <f t="array" ref="D14">_FV(B70,"Open")</f>
-        <v>215.81</v>
+        <v>221.68</v>
       </c>
       <c r="E14" s="1" cm="1">
         <f t="array" ref="E14">_FV(B70,"Previous close",TRUE)</f>
-        <v>225.22</v>
+        <v>220.08</v>
       </c>
       <c r="F14" s="1" cm="1">
         <f t="array" ref="F14">_FV(B70,"High")</f>
-        <v>216.86</v>
+        <v>224.53</v>
       </c>
       <c r="G14" s="1" cm="1">
         <f t="array" ref="G14">_FV(B70,"Low")</f>
-        <v>207.69</v>
+        <v>210.16</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -7416,19 +7214,19 @@
       </c>
       <c r="D15" s="1" cm="1">
         <f t="array" ref="D15">_FV(B71,"Open")</f>
-        <v>211.24</v>
+        <v>226.89</v>
       </c>
       <c r="E15" s="1" cm="1">
         <f t="array" ref="E15">_FV(B71,"Previous close",TRUE)</f>
-        <v>220.84</v>
+        <v>223.23</v>
       </c>
       <c r="F15" s="1" cm="1">
         <f t="array" ref="F15">_FV(B71,"High")</f>
-        <v>222.66</v>
+        <v>228</v>
       </c>
       <c r="G15" s="1" cm="1">
         <f t="array" ref="G15">_FV(B71,"Low")</f>
-        <v>205</v>
+        <v>210.75</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -7444,19 +7242,19 @@
       </c>
       <c r="D16" s="1" cm="1">
         <f t="array" ref="D16">_FV(B72,"Open")</f>
-        <v>269.14</v>
+        <v>276.08499999999998</v>
       </c>
       <c r="E16" s="1" cm="1">
         <f t="array" ref="E16">_FV(B72,"Previous close",TRUE)</f>
-        <v>273.88</v>
+        <v>273.75</v>
       </c>
       <c r="F16" s="1" cm="1">
         <f t="array" ref="F16">_FV(B72,"High")</f>
-        <v>269.74</v>
+        <v>282.14</v>
       </c>
       <c r="G16" s="1" cm="1">
         <f t="array" ref="G16">_FV(B72,"Low")</f>
-        <v>264.02620000000002</v>
+        <v>274.8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -7472,19 +7270,19 @@
       </c>
       <c r="D17" s="1" cm="1">
         <f t="array" ref="D17">_FV(B73,"Open")</f>
-        <v>267.54000000000002</v>
+        <v>267</v>
       </c>
       <c r="E17" s="1" cm="1">
         <f t="array" ref="E17">_FV(B73,"Previous close",TRUE)</f>
-        <v>268.49</v>
+        <v>266.88</v>
       </c>
       <c r="F17" s="1" cm="1">
         <f t="array" ref="F17">_FV(B73,"High")</f>
-        <v>271.18950000000001</v>
+        <v>267.02999999999997</v>
       </c>
       <c r="G17" s="1" cm="1">
         <f t="array" ref="G17">_FV(B73,"Low")</f>
-        <v>265.26139999999998</v>
+        <v>260.3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -7500,19 +7298,19 @@
       </c>
       <c r="D18" s="1" cm="1">
         <f t="array" ref="D18">_FV(B74,"Open")</f>
-        <v>229.85</v>
+        <v>243.04</v>
       </c>
       <c r="E18" s="1" cm="1">
         <f t="array" ref="E18">_FV(B74,"Previous close",TRUE)</f>
-        <v>245.87</v>
+        <v>241.31</v>
       </c>
       <c r="F18" s="1" cm="1">
         <f t="array" ref="F18">_FV(B74,"High")</f>
-        <v>244.89</v>
+        <v>252</v>
       </c>
       <c r="G18" s="1" cm="1">
         <f t="array" ref="G18">_FV(B74,"Low")</f>
-        <v>226.06</v>
+        <v>229.02</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -7528,19 +7326,19 @@
       </c>
       <c r="D19" s="1" cm="1">
         <f t="array" ref="D19">_FV(B75,"Open")</f>
-        <v>58.09</v>
+        <v>59</v>
       </c>
       <c r="E19" s="1" cm="1">
         <f t="array" ref="E19">_FV(B75,"Previous close",TRUE)</f>
-        <v>58.13</v>
+        <v>59.02</v>
       </c>
       <c r="F19" s="1" cm="1">
         <f t="array" ref="F19">_FV(B75,"High")</f>
-        <v>58.830100000000002</v>
+        <v>59.72</v>
       </c>
       <c r="G19" s="1" cm="1">
         <f t="array" ref="G19">_FV(B75,"Low")</f>
-        <v>57.98</v>
+        <v>58.85</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -7556,19 +7354,19 @@
       </c>
       <c r="D20" s="1" cm="1">
         <f t="array" ref="D20">_FV(B76,"Open")</f>
-        <v>274.48</v>
+        <v>203.16</v>
       </c>
       <c r="E20" s="1" cm="1">
         <f t="array" ref="E20">_FV(B76,"Previous close",TRUE)</f>
-        <v>260</v>
+        <v>220.14</v>
       </c>
       <c r="F20" s="1" cm="1">
         <f t="array" ref="F20">_FV(B76,"High")</f>
-        <v>295.5</v>
+        <v>220.7</v>
       </c>
       <c r="G20" s="1" cm="1">
         <f t="array" ref="G20">_FV(B76,"Low")</f>
-        <v>262.39999999999998</v>
+        <v>172.35</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -7584,19 +7382,19 @@
       </c>
       <c r="D21" s="1" cm="1">
         <f t="array" ref="D21">_FV(B77,"Open")</f>
-        <v>2076.41</v>
+        <v>2065.9899999999998</v>
       </c>
       <c r="E21" s="1" cm="1">
         <f t="array" ref="E21">_FV(B77,"Previous close",TRUE)</f>
-        <v>2100.54</v>
+        <v>2054.44</v>
       </c>
       <c r="F21" s="1" cm="1">
         <f t="array" ref="F21">_FV(B77,"High")</f>
-        <v>2077.0100000000002</v>
+        <v>2113.6799999999998</v>
       </c>
       <c r="G21" s="1" cm="1">
         <f t="array" ref="G21">_FV(B77,"Low")</f>
-        <v>2032.42</v>
+        <v>2059.29</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -7612,19 +7410,19 @@
       </c>
       <c r="D22" s="1" cm="1">
         <f t="array" ref="D22">_FV(B78,"Open")</f>
-        <v>86.9</v>
+        <v>89.25</v>
       </c>
       <c r="E22" s="1" cm="1">
         <f t="array" ref="E22">_FV(B78,"Previous close",TRUE)</f>
-        <v>86.25</v>
+        <v>89.06</v>
       </c>
       <c r="F22" s="1" cm="1">
         <f t="array" ref="F22">_FV(B78,"High")</f>
-        <v>87.71</v>
+        <v>89.25</v>
       </c>
       <c r="G22" s="1" cm="1">
         <f t="array" ref="G22">_FV(B78,"Low")</f>
-        <v>86.105000000000004</v>
+        <v>85.88</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -7640,19 +7438,19 @@
       </c>
       <c r="D23" s="1" cm="1">
         <f t="array" ref="D23">_FV(B79,"Open")</f>
-        <v>267.45</v>
+        <v>278.54000000000002</v>
       </c>
       <c r="E23" s="1" cm="1">
         <f t="array" ref="E23">_FV(B79,"Previous close",TRUE)</f>
-        <v>268.85000000000002</v>
+        <v>278.54000000000002</v>
       </c>
       <c r="F23" s="1" cm="1">
         <f t="array" ref="F23">_FV(B79,"High")</f>
-        <v>273.81</v>
+        <v>282.52</v>
       </c>
       <c r="G23" s="1" cm="1">
         <f t="array" ref="G23">_FV(B79,"Low")</f>
-        <v>266.76</v>
+        <v>277.64999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -7668,19 +7466,19 @@
       </c>
       <c r="D24" s="1" cm="1">
         <f t="array" ref="D24">_FV(B80,"Open")</f>
-        <v>50.59</v>
+        <v>51.2</v>
       </c>
       <c r="E24" s="1" cm="1">
         <f t="array" ref="E24">_FV(B80,"Previous close",TRUE)</f>
-        <v>50.46</v>
+        <v>51.03</v>
       </c>
       <c r="F24" s="1" cm="1">
         <f t="array" ref="F24">_FV(B80,"High")</f>
-        <v>50.679000000000002</v>
+        <v>51.52</v>
       </c>
       <c r="G24" s="1" cm="1">
         <f t="array" ref="G24">_FV(B80,"Low")</f>
-        <v>50.2</v>
+        <v>51.04</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -7696,19 +7494,19 @@
       </c>
       <c r="D25" s="1" cm="1">
         <f t="array" ref="D25">_FV(B81,"Open")</f>
-        <v>105.005</v>
+        <v>110</v>
       </c>
       <c r="E25" s="1" cm="1">
         <f t="array" ref="E25">_FV(B81,"Previous close",TRUE)</f>
-        <v>105.88</v>
+        <v>109.98</v>
       </c>
       <c r="F25" s="1" cm="1">
         <f t="array" ref="F25">_FV(B81,"High")</f>
-        <v>105.005</v>
+        <v>113.17</v>
       </c>
       <c r="G25" s="1" cm="1">
         <f t="array" ref="G25">_FV(B81,"Low")</f>
-        <v>98.405000000000001</v>
+        <v>105.06</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -7724,19 +7522,19 @@
       </c>
       <c r="D26" s="1" cm="1">
         <f t="array" ref="D26">_FV(B82,"Open")</f>
-        <v>58.41</v>
+        <v>62.26</v>
       </c>
       <c r="E26" s="1" cm="1">
         <f t="array" ref="E26">_FV(B82,"Previous close",TRUE)</f>
-        <v>58.47</v>
+        <v>62.1</v>
       </c>
       <c r="F26" s="1" cm="1">
         <f t="array" ref="F26">_FV(B82,"High")</f>
-        <v>61.16</v>
+        <v>62.3</v>
       </c>
       <c r="G26" s="1" cm="1">
         <f t="array" ref="G26">_FV(B82,"Low")</f>
-        <v>58.3</v>
+        <v>60.53</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -7752,19 +7550,19 @@
       </c>
       <c r="D27" s="1" cm="1">
         <f t="array" ref="D27">_FV(B83,"Open")</f>
-        <v>212.22</v>
+        <v>219.58</v>
       </c>
       <c r="E27" s="1" cm="1">
         <f t="array" ref="E27">_FV(B83,"Previous close",TRUE)</f>
-        <v>211.57</v>
+        <v>220.46</v>
       </c>
       <c r="F27" s="1" cm="1">
         <f t="array" ref="F27">_FV(B83,"High")</f>
-        <v>214.24</v>
+        <v>221.3</v>
       </c>
       <c r="G27" s="1" cm="1">
         <f t="array" ref="G27">_FV(B83,"Low")</f>
-        <v>211.42</v>
+        <v>217.16</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -7780,19 +7578,19 @@
       </c>
       <c r="D28" s="1" cm="1">
         <f t="array" ref="D28">_FV(B84,"Open")</f>
-        <v>134.04</v>
+        <v>148.5</v>
       </c>
       <c r="E28" s="1" cm="1">
         <f t="array" ref="E28">_FV(B84,"Previous close",TRUE)</f>
-        <v>140.47</v>
+        <v>143.66</v>
       </c>
       <c r="F28" s="1" cm="1">
         <f t="array" ref="F28">_FV(B84,"High")</f>
-        <v>138.69999999999999</v>
+        <v>157.75</v>
       </c>
       <c r="G28" s="1" cm="1">
         <f t="array" ref="G28">_FV(B84,"Low")</f>
-        <v>133.19999999999999</v>
+        <v>145.84</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -7808,19 +7606,19 @@
       </c>
       <c r="D29" s="1" cm="1">
         <f t="array" ref="D29">_FV(B85,"Open")</f>
-        <v>234</v>
+        <v>236.28</v>
       </c>
       <c r="E29" s="1" cm="1">
         <f t="array" ref="E29">_FV(B85,"Previous close",TRUE)</f>
-        <v>237.13</v>
+        <v>234.81</v>
       </c>
       <c r="F29" s="1" cm="1">
         <f t="array" ref="F29">_FV(B85,"High")</f>
-        <v>235.82</v>
+        <v>240.05500000000001</v>
       </c>
       <c r="G29" s="1" cm="1">
         <f t="array" ref="G29">_FV(B85,"Low")</f>
-        <v>233.23</v>
+        <v>235.94</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -7836,19 +7634,19 @@
       </c>
       <c r="D30" s="1" cm="1">
         <f t="array" ref="D30">_FV(B86,"Open")</f>
-        <v>213.51</v>
+        <v>220.06</v>
       </c>
       <c r="E30" s="1" cm="1">
         <f t="array" ref="E30">_FV(B86,"Previous close",TRUE)</f>
-        <v>187.63</v>
+        <v>217.46</v>
       </c>
       <c r="F30" s="1" cm="1">
         <f t="array" ref="F30">_FV(B86,"High")</f>
-        <v>217.21</v>
+        <v>235</v>
       </c>
       <c r="G30" s="1" cm="1">
         <f t="array" ref="G30">_FV(B86,"Low")</f>
-        <v>192.25749999999999</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -7864,19 +7662,19 @@
       </c>
       <c r="D31" s="1" cm="1">
         <f t="array" ref="D31">_FV(B87,"Open")</f>
-        <v>505.93</v>
+        <v>534.26</v>
       </c>
       <c r="E31" s="1" cm="1">
         <f t="array" ref="E31">_FV(B87,"Previous close",TRUE)</f>
-        <v>519.74</v>
+        <v>527.65</v>
       </c>
       <c r="F31" s="1" cm="1">
         <f t="array" ref="F31">_FV(B87,"High")</f>
-        <v>515.46</v>
+        <v>540.5</v>
       </c>
       <c r="G31" s="1" cm="1">
         <f t="array" ref="G31">_FV(B87,"Low")</f>
-        <v>503.6</v>
+        <v>524.66999999999996</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -7892,19 +7690,19 @@
       </c>
       <c r="D32" s="1" cm="1">
         <f t="array" ref="D32">_FV(B88,"Open")</f>
-        <v>24.89</v>
+        <v>28.65</v>
       </c>
       <c r="E32" s="1" cm="1">
         <f t="array" ref="E32">_FV(B88,"Previous close",TRUE)</f>
-        <v>26.32</v>
+        <v>28.81</v>
       </c>
       <c r="F32" s="1" cm="1">
         <f t="array" ref="F32">_FV(B88,"High")</f>
-        <v>27.14</v>
+        <v>30.04</v>
       </c>
       <c r="G32" s="1" cm="1">
         <f t="array" ref="G32">_FV(B88,"Low")</f>
-        <v>24.6</v>
+        <v>26.44</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -7920,19 +7718,19 @@
       </c>
       <c r="D33" s="1" cm="1">
         <f t="array" ref="D33">_FV(B89,"Open")</f>
-        <v>34.56</v>
+        <v>35.47</v>
       </c>
       <c r="E33" s="1" cm="1">
         <f t="array" ref="E33">_FV(B89,"Previous close",TRUE)</f>
-        <v>34.71</v>
+        <v>35.409999999999997</v>
       </c>
       <c r="F33" s="1" cm="1">
         <f t="array" ref="F33">_FV(B89,"High")</f>
-        <v>34.979999999999997</v>
+        <v>35.86</v>
       </c>
       <c r="G33" s="1" cm="1">
         <f t="array" ref="G33">_FV(B89,"Low")</f>
-        <v>34.51</v>
+        <v>35.31</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -7948,19 +7746,19 @@
       </c>
       <c r="D34" s="1" cm="1">
         <f t="array" ref="D34">_FV(B90,"Open")</f>
-        <v>69</v>
+        <v>73.989999999999995</v>
       </c>
       <c r="E34" s="1" cm="1">
         <f t="array" ref="E34">_FV(B90,"Previous close",TRUE)</f>
-        <v>71.88</v>
+        <v>72.790000000000006</v>
       </c>
       <c r="F34" s="1" cm="1">
         <f t="array" ref="F34">_FV(B90,"High")</f>
-        <v>71.760000000000005</v>
+        <v>75.098299999999995</v>
       </c>
       <c r="G34" s="1" cm="1">
         <f t="array" ref="G34">_FV(B90,"Low")</f>
-        <v>67.694999999999993</v>
+        <v>72.510000000000005</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -7976,19 +7774,19 @@
       </c>
       <c r="D35" s="1" cm="1">
         <f t="array" ref="D35">_FV(B91,"Open")</f>
-        <v>16.86</v>
+        <v>18.95</v>
       </c>
       <c r="E35" s="1" cm="1">
         <f t="array" ref="E35">_FV(B91,"Previous close",TRUE)</f>
-        <v>17.43</v>
+        <v>18.71</v>
       </c>
       <c r="F35" s="1" cm="1">
         <f t="array" ref="F35">_FV(B91,"High")</f>
-        <v>17.75</v>
+        <v>18.97</v>
       </c>
       <c r="G35" s="1" cm="1">
         <f t="array" ref="G35">_FV(B91,"Low")</f>
-        <v>16.75</v>
+        <v>17.329999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -8004,19 +7802,19 @@
       </c>
       <c r="D36" s="1" cm="1">
         <f t="array" ref="D36">_FV(B92,"Open")</f>
-        <v>313.86</v>
+        <v>321.08999999999997</v>
       </c>
       <c r="E36" s="1" cm="1">
         <f t="array" ref="E36">_FV(B92,"Previous close",TRUE)</f>
-        <v>318.04000000000002</v>
+        <v>318.83</v>
       </c>
       <c r="F36" s="1" cm="1">
         <f t="array" ref="F36">_FV(B92,"High")</f>
-        <v>318.23020000000002</v>
+        <v>324.2</v>
       </c>
       <c r="G36" s="1" cm="1">
         <f t="array" ref="G36">_FV(B92,"Low")</f>
-        <v>311.39100000000002</v>
+        <v>319.10000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -8032,19 +7830,19 @@
       </c>
       <c r="D37" s="1" cm="1">
         <f t="array" ref="D37">_FV(B93,"Open")</f>
-        <v>73.22</v>
+        <v>75.430000000000007</v>
       </c>
       <c r="E37" s="1" cm="1">
         <f t="array" ref="E37">_FV(B93,"Previous close",TRUE)</f>
-        <v>76.69</v>
+        <v>74.86</v>
       </c>
       <c r="F37" s="1" cm="1">
         <f t="array" ref="F37">_FV(B93,"High")</f>
-        <v>75.19</v>
+        <v>76.8</v>
       </c>
       <c r="G37" s="1" cm="1">
         <f t="array" ref="G37">_FV(B93,"Low")</f>
-        <v>71.760000000000005</v>
+        <v>71.88</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -8060,19 +7858,19 @@
       </c>
       <c r="D38" s="1" cm="1">
         <f t="array" ref="D38">_FV(B94,"Open")</f>
-        <v>107.42</v>
+        <v>110.568</v>
       </c>
       <c r="E38" s="1" cm="1">
         <f t="array" ref="E38">_FV(B94,"Previous close",TRUE)</f>
-        <v>107.32</v>
+        <v>108.9</v>
       </c>
       <c r="F38" s="1" cm="1">
         <f t="array" ref="F38">_FV(B94,"High")</f>
-        <v>107.99</v>
+        <v>112.34</v>
       </c>
       <c r="G38" s="1" cm="1">
         <f t="array" ref="G38">_FV(B94,"Low")</f>
-        <v>106.59</v>
+        <v>109.89</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -8088,19 +7886,19 @@
       </c>
       <c r="D39" s="1" cm="1">
         <f t="array" ref="D39">_FV(B95,"Open")</f>
-        <v>1119.23</v>
+        <v>1183.1199999999999</v>
       </c>
       <c r="E39" s="1" cm="1">
         <f t="array" ref="E39">_FV(B95,"Previous close",TRUE)</f>
-        <v>1142.24</v>
+        <v>1159</v>
       </c>
       <c r="F39" s="1" cm="1">
         <f t="array" ref="F39">_FV(B95,"High")</f>
-        <v>1146</v>
+        <v>1190</v>
       </c>
       <c r="G39" s="1" cm="1">
         <f t="array" ref="G39">_FV(B95,"Low")</f>
-        <v>1093.4585</v>
+        <v>1124.0001</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -8116,19 +7914,19 @@
       </c>
       <c r="D40" s="1" cm="1">
         <f t="array" ref="D40">_FV(B96,"Open")</f>
-        <v>138.78</v>
+        <v>148.5</v>
       </c>
       <c r="E40" s="1" cm="1">
         <f t="array" ref="E40">_FV(B96,"Previous close",TRUE)</f>
-        <v>139.36000000000001</v>
+        <v>146.97</v>
       </c>
       <c r="F40" s="1" cm="1">
         <f t="array" ref="F40">_FV(B96,"High")</f>
-        <v>144.4436</v>
+        <v>149.97999999999999</v>
       </c>
       <c r="G40" s="1" cm="1">
         <f t="array" ref="G40">_FV(B96,"Low")</f>
-        <v>138.01</v>
+        <v>137.55629999999999</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -8144,19 +7942,19 @@
       </c>
       <c r="D41" s="1" cm="1">
         <f t="array" ref="D41">_FV(B97,"Open")</f>
-        <v>1.35</v>
+        <v>1.7450000000000001</v>
       </c>
       <c r="E41" s="1" cm="1">
         <f t="array" ref="E41">_FV(B97,"Previous close",TRUE)</f>
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="F41" s="1" cm="1">
         <f t="array" ref="F41">_FV(B97,"High")</f>
-        <v>1.46</v>
+        <v>1.75</v>
       </c>
       <c r="G41" s="1" cm="1">
         <f t="array" ref="G41">_FV(B97,"Low")</f>
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -8172,19 +7970,19 @@
       </c>
       <c r="D42" s="1" cm="1">
         <f t="array" ref="D42">_FV(B98,"Open")</f>
-        <v>232.68</v>
+        <v>252.26</v>
       </c>
       <c r="E42" s="1" cm="1">
         <f t="array" ref="E42">_FV(B98,"Previous close",TRUE)</f>
-        <v>241.72</v>
+        <v>251.23</v>
       </c>
       <c r="F42" s="1" cm="1">
         <f t="array" ref="F42">_FV(B98,"High")</f>
-        <v>242.22</v>
+        <v>252.5</v>
       </c>
       <c r="G42" s="1" cm="1">
         <f t="array" ref="G42">_FV(B98,"Low")</f>
-        <v>230.08</v>
+        <v>238.67</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -8200,19 +7998,19 @@
       </c>
       <c r="D43" s="1" cm="1">
         <f t="array" ref="D43">_FV(B99,"Open")</f>
-        <v>49.09</v>
+        <v>48.86</v>
       </c>
       <c r="E43" s="1" cm="1">
         <f t="array" ref="E43">_FV(B99,"Previous close",TRUE)</f>
-        <v>48.71</v>
+        <v>48.55</v>
       </c>
       <c r="F43" s="1" cm="1">
         <f t="array" ref="F43">_FV(B99,"High")</f>
-        <v>49.9</v>
+        <v>48.865000000000002</v>
       </c>
       <c r="G43" s="1" cm="1">
         <f t="array" ref="G43">_FV(B99,"Low")</f>
-        <v>48.73</v>
+        <v>46.82</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -8228,19 +8026,19 @@
       </c>
       <c r="D44" s="1" cm="1">
         <f t="array" ref="D44">_FV(B100,"Open")</f>
-        <v>81.515000000000001</v>
+        <v>82.38</v>
       </c>
       <c r="E44" s="1" cm="1">
         <f t="array" ref="E44">_FV(B100,"Previous close",TRUE)</f>
-        <v>81.03</v>
+        <v>83.24</v>
       </c>
       <c r="F44" s="1" cm="1">
         <f t="array" ref="F44">_FV(B100,"High")</f>
-        <v>83.45</v>
+        <v>82.64</v>
       </c>
       <c r="G44" s="1" cm="1">
         <f t="array" ref="G44">_FV(B100,"Low")</f>
-        <v>81.39</v>
+        <v>80.17</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -8256,19 +8054,19 @@
       </c>
       <c r="D45" s="1" cm="1">
         <f t="array" ref="D45">_FV(B101,"Open")</f>
-        <v>104.13</v>
+        <v>112.88</v>
       </c>
       <c r="E45" s="1" cm="1">
         <f t="array" ref="E45">_FV(B101,"Previous close",TRUE)</f>
-        <v>106.6</v>
+        <v>109.67</v>
       </c>
       <c r="F45" s="1" cm="1">
         <f t="array" ref="F45">_FV(B101,"High")</f>
-        <v>105.88</v>
+        <v>114.14</v>
       </c>
       <c r="G45" s="1" cm="1">
         <f t="array" ref="G45">_FV(B101,"Low")</f>
-        <v>101.59</v>
+        <v>106.67</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -8284,19 +8082,19 @@
       </c>
       <c r="D46" s="1" cm="1">
         <f t="array" ref="D46">_FV(B102,"Open")</f>
-        <v>38.5</v>
+        <v>36.4</v>
       </c>
       <c r="E46" s="1" cm="1">
         <f t="array" ref="E46">_FV(B102,"Previous close",TRUE)</f>
-        <v>39.24</v>
+        <v>36.78</v>
       </c>
       <c r="F46" s="1" cm="1">
         <f t="array" ref="F46">_FV(B102,"High")</f>
-        <v>40.700000000000003</v>
+        <v>37.648600000000002</v>
       </c>
       <c r="G46" s="1" cm="1">
         <f t="array" ref="G46">_FV(B102,"Low")</f>
-        <v>38.1</v>
+        <v>34.823399999999999</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -8312,19 +8110,19 @@
       </c>
       <c r="D47" s="1" cm="1">
         <f t="array" ref="D47">_FV(B103,"Open")</f>
-        <v>166.67</v>
+        <v>162.78</v>
       </c>
       <c r="E47" s="1" cm="1">
         <f t="array" ref="E47">_FV(B103,"Previous close",TRUE)</f>
-        <v>167.24</v>
+        <v>162.63999999999999</v>
       </c>
       <c r="F47" s="1" cm="1">
         <f t="array" ref="F47">_FV(B103,"High")</f>
-        <v>168.12989999999999</v>
+        <v>164.16</v>
       </c>
       <c r="G47" s="1" cm="1">
         <f t="array" ref="G47">_FV(B103,"Low")</f>
-        <v>165.94</v>
+        <v>161.43</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -8340,19 +8138,19 @@
       </c>
       <c r="D48" s="1" cm="1">
         <f t="array" ref="D48">_FV(B104,"Open")</f>
-        <v>1.4650000000000001</v>
+        <v>1.74</v>
       </c>
       <c r="E48" s="1" cm="1">
         <f t="array" ref="E48">_FV(B104,"Previous close",TRUE)</f>
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="F48" s="1" cm="1">
         <f t="array" ref="F48">_FV(B104,"High")</f>
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="G48" s="1" cm="1">
         <f t="array" ref="G48">_FV(B104,"Low")</f>
-        <v>1.46</v>
+        <v>1.6671</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -8368,19 +8166,19 @@
       </c>
       <c r="D49" s="1" cm="1">
         <f t="array" ref="D49">_FV(B105,"Open")</f>
-        <v>55.77</v>
+        <v>56.21</v>
       </c>
       <c r="E49" s="1" cm="1">
         <f t="array" ref="E49">_FV(B105,"Previous close",TRUE)</f>
-        <v>55.48</v>
+        <v>56.65</v>
       </c>
       <c r="F49" s="1" cm="1">
         <f t="array" ref="F49">_FV(B105,"High")</f>
-        <v>56.47</v>
+        <v>56.71</v>
       </c>
       <c r="G49" s="1" cm="1">
         <f t="array" ref="G49">_FV(B105,"Low")</f>
-        <v>54.87</v>
+        <v>52.83</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -8396,19 +8194,19 @@
       </c>
       <c r="D50" s="1" cm="1">
         <f t="array" ref="D50">_FV(B106,"Open")</f>
-        <v>39.5</v>
+        <v>39.369999999999997</v>
       </c>
       <c r="E50" s="1" cm="1">
         <f t="array" ref="E50">_FV(B106,"Previous close",TRUE)</f>
-        <v>38.880000000000003</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="F50" s="1" cm="1">
         <f t="array" ref="F50">_FV(B106,"High")</f>
-        <v>40.020000000000003</v>
+        <v>39.49</v>
       </c>
       <c r="G50" s="1" cm="1">
         <f t="array" ref="G50">_FV(B106,"Low")</f>
-        <v>39.42</v>
+        <v>38.72</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -8424,19 +8222,19 @@
       </c>
       <c r="D51" s="1" cm="1">
         <f t="array" ref="D51">_FV(B107,"Open")</f>
-        <v>125.59</v>
+        <v>129.6</v>
       </c>
       <c r="E51" s="1" cm="1">
         <f t="array" ref="E51">_FV(B107,"Previous close",TRUE)</f>
-        <v>127.54</v>
+        <v>128.41999999999999</v>
       </c>
       <c r="F51" s="1" cm="1">
         <f t="array" ref="F51">_FV(B107,"High")</f>
-        <v>128.63</v>
+        <v>131.30000000000001</v>
       </c>
       <c r="G51" s="1" cm="1">
         <f t="array" ref="G51">_FV(B107,"Low")</f>
-        <v>124.42</v>
+        <v>127.51</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -8452,19 +8250,19 @@
       </c>
       <c r="D52" s="1" cm="1">
         <f t="array" ref="D52">_FV(B108,"Open")</f>
-        <v>120.49</v>
+        <v>122.71</v>
       </c>
       <c r="E52" s="1" cm="1">
         <f t="array" ref="E52">_FV(B108,"Previous close",TRUE)</f>
-        <v>120</v>
+        <v>122.62</v>
       </c>
       <c r="F52" s="1" cm="1">
         <f t="array" ref="F52">_FV(B108,"High")</f>
-        <v>121.93</v>
+        <v>123.1399</v>
       </c>
       <c r="G52" s="1" cm="1">
         <f t="array" ref="G52">_FV(B108,"Low")</f>
-        <v>120.16</v>
+        <v>122.2</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -8480,19 +8278,19 @@
       </c>
       <c r="D53" s="1" cm="1">
         <f t="array" ref="D53">_FV(B109,"Open")</f>
-        <v>132.52000000000001</v>
+        <v>132.82</v>
       </c>
       <c r="E53" s="1" cm="1">
         <f t="array" ref="E53">_FV(B109,"Previous close",TRUE)</f>
-        <v>132.13</v>
+        <v>133.43</v>
       </c>
       <c r="F53" s="1" cm="1">
         <f t="array" ref="F53">_FV(B109,"High")</f>
-        <v>134.52000000000001</v>
+        <v>134.28</v>
       </c>
       <c r="G53" s="1" cm="1">
         <f t="array" ref="G53">_FV(B109,"Low")</f>
-        <v>132.08009999999999</v>
+        <v>132.82</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -8508,19 +8306,19 @@
       </c>
       <c r="D54" s="1" cm="1">
         <f t="array" ref="D54">_FV(B110,"Open")</f>
-        <v>22.24</v>
+        <v>22.98</v>
       </c>
       <c r="E54" s="1" cm="1">
         <f t="array" ref="E54">_FV(B110,"Previous close",TRUE)</f>
-        <v>22.33</v>
+        <v>23.14</v>
       </c>
       <c r="F54" s="1" cm="1">
         <f t="array" ref="F54">_FV(B110,"High")</f>
-        <v>24.46</v>
+        <v>23.08</v>
       </c>
       <c r="G54" s="1" cm="1">
         <f t="array" ref="G54">_FV(B110,"Low")</f>
-        <v>22.1</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -8536,19 +8334,19 @@
       </c>
       <c r="D55" s="1" cm="1">
         <f t="array" ref="D55">_FV(B111,"Open")</f>
-        <v>145.48500000000001</v>
+        <v>148.76</v>
       </c>
       <c r="E55" s="1" cm="1">
         <f t="array" ref="E55">_FV(B111,"Previous close",TRUE)</f>
-        <v>146.94999999999999</v>
+        <v>148.22</v>
       </c>
       <c r="F55" s="1" cm="1">
         <f t="array" ref="F55">_FV(B111,"High")</f>
-        <v>146.685</v>
+        <v>149.23500000000001</v>
       </c>
       <c r="G55" s="1" cm="1">
         <f t="array" ref="G55">_FV(B111,"Low")</f>
-        <v>143.55000000000001</v>
+        <v>143.22999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -8564,19 +8362,19 @@
       </c>
       <c r="D56" s="1" cm="1">
         <f t="array" ref="D56">_FV(B112,"Open")</f>
-        <v>149.30000000000001</v>
+        <v>153.24</v>
       </c>
       <c r="E56" s="1" cm="1">
         <f t="array" ref="E56">_FV(B112,"Previous close",TRUE)</f>
-        <v>157.26</v>
+        <v>150.5</v>
       </c>
       <c r="F56" s="1" cm="1">
         <f t="array" ref="F56">_FV(B112,"High")</f>
-        <v>151.9699</v>
+        <v>156.84</v>
       </c>
       <c r="G56" s="1" cm="1">
         <f t="array" ref="G56">_FV(B112,"Low")</f>
-        <v>146.29</v>
+        <v>142.125</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -8592,19 +8390,19 @@
       </c>
       <c r="D57" s="1" cm="1">
         <f t="array" ref="D57">_FV(B113,"Open")</f>
-        <v>154.76</v>
+        <v>159.88</v>
       </c>
       <c r="E57" s="1" cm="1">
         <f t="array" ref="E57">_FV(B113,"Previous close",TRUE)</f>
-        <v>161.1</v>
+        <v>155.99</v>
       </c>
       <c r="F57" s="1" cm="1">
         <f t="array" ref="F57">_FV(B113,"High")</f>
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G57" s="1" cm="1">
         <f t="array" ref="G57">_FV(B113,"Low")</f>
-        <v>151</v>
+        <v>147.09</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">

--- a/StonkInput.xlsx
+++ b/StonkInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robby\Documents\GitHub\STONKS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35A9F51-7431-4A84-8F67-21C0AFF3043A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECB2BFC-0DD4-4936-965C-7579305D9759}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2895" yWindow="1155" windowWidth="28800" windowHeight="15435" xr2:uid="{D09550C1-7BA3-4017-B757-A891F06AF488}"/>
   </bookViews>
@@ -994,13 +994,13 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>25.94</v>
+    <v>26.09</v>
     <v>8.25</v>
-    <v>1.9466000000000001</v>
-    <v>-0.7</v>
-    <v>6.9470000000000001E-3</v>
-    <v>-2.7810999999999999E-2</v>
-    <v>0.17</v>
+    <v>1.9266000000000001</v>
+    <v>-1.56</v>
+    <v>-4.9389999999999998E-3</v>
+    <v>-6.5464000000000008E-2</v>
+    <v>-0.11</v>
     <v>USD</v>
     <v>American Airlines Group Inc. is a holding company. The Company's primary business activity is the operation of a network air carrier, providing scheduled air transportation for passengers and cargo. The Company operates through American segment, which provides air transportation for passengers and cargo. The Company's cargo division provides a range of freight and mail services with facilities and interline connections available across the globe. Together with its regional airline subsidiaries and third-party regional carriers operating as American Eagle, its airline operated an average of nearly 6,700 flights per day to nearly 350 destinations in more than 50 countries, principally from its hubs in Charlotte, Chicago, Dallas/Fort Worth, Los Angeles, Miami, New York, Philadelphia, Phoenix and Washington, District of Columbia, as of December 31, 2016. In the fiscal year ended December 31, 2016, approximately 199 million passengers boarded its mainline and regional flights.</v>
     <v>102700</v>
@@ -1008,25 +1008,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Skyview Dr, FORT WORTH, TX, 76155-1801 US</v>
-    <v>25.25</v>
+    <v>23.66</v>
     <v>Passenger Transportation Services</v>
     <v>Stock</v>
-    <v>44271.999844432816</v>
+    <v>44278.999925126562</v>
     <v>0</v>
-    <v>24.31</v>
-    <v>16100640000</v>
+    <v>22.08</v>
+    <v>15243470000</v>
     <v>AMERICAN AIRLINES GROUP INC.</v>
     <v>AMERICAN AIRLINES GROUP INC.</v>
-    <v>25.11</v>
+    <v>23.37</v>
     <v>3.3195999999999999</v>
-    <v>25.17</v>
-    <v>24.47</v>
-    <v>24.64</v>
+    <v>23.83</v>
+    <v>22.27</v>
+    <v>22.16</v>
     <v>639675800</v>
     <v>AAL</v>
     <v>AMERICAN AIRLINES GROUP INC. (XNAS:AAL)</v>
-    <v>47923579</v>
-    <v>49332255</v>
+    <v>55289194</v>
+    <v>51854156</v>
     <v>1982</v>
   </rv>
   <rv s="2">
@@ -1045,7 +1045,7 @@
     <v>4</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_beb35548a531e1b96429505c22a3eab4&amp;qlt=95</v>
     <v>5</v>
     <v>0</v>
@@ -1067,14 +1067,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>20.36</v>
     <v>1.91</v>
-    <v>1.5419</v>
-    <v>-1.02</v>
-    <v>3.0719999999999996E-3</v>
-    <v>-7.2649999999999992E-2</v>
-    <v>0.04</v>
+    <v>1.4614</v>
+    <v>-1.83</v>
+    <v>-4.0338000000000006E-2</v>
+    <v>-0.14651700000000001</v>
+    <v>-0.43</v>
     <v>USD</v>
     <v>AMC Entertainment Holdings, Inc. is a theatrical exhibition company. The Company conducts operations through two segments: U.S. markets and International markets. It licenses first-run films from distributors owned by film production companies and from independent distributors on a film-by-film and theatre-by-theatre basis. It also offers food and beverage products, including drinks and meals, popcorn, soft drinks, candy and hot dogs, coffee, snacks, beers, wine and mixed drinks, and other gourmet products. In U.S. markets, it operates theatres in approximately 44 states and the District of Columbia. In International markets, it operates theatres in approximately 13 European countries and in Saudi Arabia. It operates approximately 1,004 theatres and over 11,041 screens in approximately 15 countries, including over 636 theatres with a total of approximately 8,094 screens in the United States and over 368 theatres and approximately 2,947 screens in European markets and Saudi Arabia.</v>
     <v>3449</v>
@@ -1082,26 +1082,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>11500 Ash St, LEAWOOD, KS, 66211-7804 US</v>
-    <v>13.62</v>
+    <v>11.93</v>
     <v>6</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>44271.999969467186</v>
+    <v>44278.995832476561</v>
     <v>7</v>
-    <v>12.34</v>
-    <v>6320193000</v>
+    <v>10.37</v>
+    <v>5622451000</v>
     <v>AMC ENTERTAINMENT HOLDINGS, INC.</v>
     <v>AMC ENTERTAINMENT HOLDINGS, INC.</v>
-    <v>13.62</v>
+    <v>11.46</v>
     <v>0</v>
-    <v>14.04</v>
-    <v>13.02</v>
-    <v>13.06</v>
+    <v>12.49</v>
+    <v>10.66</v>
+    <v>10.23</v>
     <v>450156200</v>
     <v>AMC</v>
     <v>AMC ENTERTAINMENT HOLDINGS, INC. (XNYS:AMC)</v>
-    <v>125967622</v>
-    <v>142848944</v>
+    <v>87818138</v>
+    <v>146103000</v>
     <v>2007</v>
   </rv>
   <rv s="2">
@@ -1116,7 +1116,7 @@
     <v>10</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_fbc39ac25bb1332e8095cd72ec19dc8e&amp;qlt=95</v>
     <v>11</v>
     <v>0</v>
@@ -1140,12 +1140,12 @@
     <v>Finance</v>
     <v>4</v>
     <v>99.23</v>
-    <v>36.75</v>
-    <v>2.0706000000000002</v>
-    <v>0.25</v>
-    <v>5.1959999999999992E-3</v>
-    <v>3.0299999999999997E-3</v>
-    <v>0.43</v>
+    <v>38.950000000000003</v>
+    <v>2.0790999999999999</v>
+    <v>-1.92</v>
+    <v>-2.3730999999999999E-2</v>
+    <v>-2.3910000000000001E-2</v>
+    <v>-1.86</v>
     <v>USD</v>
     <v>Advanced Micro Devices, Inc. is a global semiconductor company. The Company is engaged in offering x86 microprocessors, as standalone devices or as incorporated into an accelerated processing unit (APU), chipsets, discrete graphics processing units (GPUs) and professional graphics, and server and embedded processors and semi-custom System-on-Chip (SoC) products and technology for game consoles. The Company's segments include the Computing and Graphics segment, and the Enterprise, Embedded and Semi-Custom segment. The Computing and Graphics segment primarily includes desktop and notebook processors and chipsets, discrete GPUs and professional graphics. The Enterprise, Embedded and Semi-Custom segment primarily includes server and embedded processors, semi-custom SoC products, development services, technology for game consoles and licensing portions of its intellectual property portfolio.</v>
     <v>12600</v>
@@ -1153,26 +1153,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2485 Augustine Dr, SANTA CLARA, CA, 95054-3002 US</v>
-    <v>84.75</v>
+    <v>80.34</v>
     <v>12</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>44271.999987858595</v>
+    <v>44278.999907140627</v>
     <v>13</v>
-    <v>82.254999999999995</v>
-    <v>99973780000</v>
+    <v>77.95</v>
+    <v>97307810000</v>
     <v>ADVANCED MICRO DEVICES, INC.</v>
     <v>ADVANCED MICRO DEVICES, INC.</v>
-    <v>83.66</v>
-    <v>40.430900000000001</v>
-    <v>82.5</v>
-    <v>82.75</v>
-    <v>83.18</v>
+    <v>80.11</v>
+    <v>39.352699999999999</v>
+    <v>80.3</v>
+    <v>78.38</v>
+    <v>76.52</v>
     <v>1211803000</v>
     <v>AMD</v>
     <v>ADVANCED MICRO DEVICES, INC. (XNAS:AMD)</v>
-    <v>42971552</v>
-    <v>42263204</v>
+    <v>40466256</v>
+    <v>42962149</v>
     <v>1969</v>
   </rv>
   <rv s="2">
@@ -1191,16 +1191,16 @@
     <v>0</v>
     <v>APHRIA INC. (XNAS:APHA)</v>
     <v>2</v>
-    <v>10</v>
+    <v>11</v>
     <v>Finance</v>
     <v>4</v>
     <v>32.29</v>
-    <v>1.95</v>
-    <v>2.6808999999999998</v>
-    <v>-1.9450000000000001</v>
-    <v>-7.9129999999999999E-3</v>
-    <v>-8.7750999999999996E-2</v>
-    <v>-0.16</v>
+    <v>2.4700000000000002</v>
+    <v>2.6046999999999998</v>
+    <v>-0.64</v>
+    <v>-1.2140999999999999E-2</v>
+    <v>-3.4114999999999999E-2</v>
+    <v>-0.22</v>
     <v>USD</v>
     <v>Aphria Inc is a Canada-based cannabis company. The Company's Canadian cannabis operations are comprised of its Aphria One greenhouse facility (Aphria One), facilities held through its wholly owned British Columbia-based subsidiary, Broken Coast Cannabis Ltd. (Broken Coast) and its Leamington-based subsidiary, 1974568 Ontario Limited (Aphria Diamond). Aphria One is the Company's greenhouse facility, which is located in Leamington, Ontario. Broken Coast's indoor cannabis production facility on Vancouver Island provides B.C. Bud, a cannabis brands in Canada. Its subsidiary, Avanti Rx Analytics Inc., provides testing services to its Canadian cannabis operations and allows to process, package, label and test cannabis oil as well as package, label and test dried cannabis for medicinal use. It also manufactures and distributes bottled, canned and draft craft beers. The Company has operations in Canada, Germany, Italy, Malta, Colombia and Argentina.</v>
     <v>1200</v>
@@ -1208,25 +1208,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>269 Erie St S, P.O. Box 20009, LEAMINGTON, ON, N8H 3C4 CA</v>
-    <v>22.26</v>
+    <v>19.065000000000001</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>44271.999767036716</v>
+    <v>44278.999549421096</v>
     <v>16</v>
-    <v>19.940000000000001</v>
-    <v>8758015000</v>
+    <v>17.64</v>
+    <v>7424516000</v>
     <v>APHRIA INC.</v>
     <v>APHRIA INC.</v>
-    <v>22.25</v>
+    <v>18.5</v>
     <v>67.805000000000007</v>
-    <v>22.164999999999999</v>
-    <v>20.22</v>
-    <v>20.059999999999999</v>
+    <v>18.760000000000002</v>
+    <v>18.12</v>
+    <v>17.899999999999999</v>
     <v>316745600</v>
     <v>APHA</v>
     <v>APHRIA INC. (XNAS:APHA)</v>
-    <v>19696375</v>
-    <v>34961231</v>
+    <v>15471005</v>
+    <v>22167669</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -1242,38 +1242,38 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>11</v>
+    <v>12</v>
     <v>ARK Innovation (ARCX:ARKK)</v>
-    <v>12</v>
     <v>13</v>
+    <v>14</v>
     <v>Finance</v>
-    <v>14</v>
+    <v>15</v>
     <v>159.69999999999999</v>
-    <v>33</v>
+    <v>36.630000000000003</v>
     <v>1.5241</v>
-    <v>-2.86</v>
-    <v>-2.6190000000000002E-3</v>
-    <v>-2.2191000000000002E-2</v>
-    <v>-0.33</v>
+    <v>-2.95</v>
+    <v>-5.7490000000000004E-4</v>
+    <v>-2.3653E-2</v>
+    <v>-7.0000000000000007E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>7.4999999999999997E-3</v>
-    <v>130.80000000000001</v>
+    <v>124.79049999999999</v>
     <v>ETF</v>
-    <v>44272.000000034372</v>
+    <v>44278.999988599222</v>
     <v>19</v>
-    <v>123.98</v>
+    <v>121.15</v>
     <v>23431999363.557999</v>
     <v>ARK Innovation</v>
-    <v>130.51</v>
-    <v>128.88</v>
-    <v>126.02</v>
-    <v>125.69</v>
+    <v>124.63500000000001</v>
+    <v>124.72</v>
+    <v>121.77</v>
+    <v>121.7</v>
     <v>ARKK</v>
     <v>ARK Innovation (ARCX:ARKK)</v>
-    <v>13908026</v>
-    <v>16385525</v>
+    <v>7454405</v>
+    <v>17113191</v>
   </rv>
   <rv s="2">
     <v>20</v>
@@ -1288,38 +1288,38 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>11</v>
+    <v>12</v>
     <v>ARK Next Gen Int ETF (ARCX:ARKW)</v>
-    <v>12</v>
     <v>13</v>
+    <v>14</v>
     <v>Finance</v>
-    <v>14</v>
+    <v>15</v>
     <v>191.13</v>
-    <v>40.494999999999997</v>
+    <v>44.79</v>
     <v>1.2591000000000001</v>
-    <v>-2.81</v>
-    <v>-1.8999999999999998E-4</v>
-    <v>-1.7482000000000001E-2</v>
-    <v>-0.03</v>
+    <v>-3.06</v>
+    <v>-6.6089999999999999E-5</v>
+    <v>-1.9823E-2</v>
+    <v>-0.01</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>7.4999999999999997E-3</v>
-    <v>162.9</v>
+    <v>154.74</v>
     <v>ETF</v>
-    <v>44272.000000034372</v>
+    <v>44278.996971654684</v>
     <v>22</v>
-    <v>155.80000000000001</v>
+    <v>150.77000000000001</v>
     <v>8075863834.1239996</v>
     <v>ARK Next Gen Int ETF</v>
-    <v>162.47999999999999</v>
-    <v>160.74</v>
-    <v>157.93</v>
-    <v>157.9</v>
+    <v>154.58000000000001</v>
+    <v>154.37</v>
+    <v>151.31</v>
+    <v>151.30000000000001</v>
     <v>ARKW</v>
     <v>ARK Next Gen Int ETF (ARCX:ARKW)</v>
-    <v>1338736</v>
-    <v>2835940</v>
+    <v>1009769</v>
+    <v>2658206</v>
   </rv>
   <rv s="2">
     <v>23</v>
@@ -1333,7 +1333,7 @@
     <v>25</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_eb453375bdf3af024dec0a3b4be34c46&amp;qlt=95</v>
     <v>26</v>
     <v>0</v>
@@ -1355,14 +1355,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>104.53</v>
-    <v>50.51</v>
-    <v>0.63470000000000004</v>
-    <v>0.70499999999999996</v>
-    <v>3.431E-3</v>
-    <v>7.6149999999999994E-3</v>
-    <v>0.32</v>
+    <v>52.33</v>
+    <v>0.63900000000000001</v>
+    <v>-0.49</v>
+    <v>-4.0489999999999996E-3</v>
+    <v>-5.3340000000000002E-3</v>
+    <v>-0.37</v>
     <v>USD</v>
     <v>Activision Blizzard, Inc. is a developer and publisher of interactive entertainment content and services. The Company develops and distributes content and services across various gaming platforms, including video game consoles, personal computers (PC) and mobile devices. Its segments include Activision Publishing, Inc. (Activision), Blizzard Entertainment, Inc. (Blizzard), King Digital Entertainment (King) and Other. Activision is a developer and publisher of interactive software products and content. Blizzard is engaged in developing and publishing of interactive software products and entertainment content, particularly in PC gaming. King is a mobile entertainment company. It is engaged in other businesses, including The Major League Gaming (MLG) business; The Activision Blizzard Studios (Studios) business, and The Activision Blizzard Distribution (Distribution) business. It also develops products spanning other genres, including action/adventure, role-playing and simulation.</v>
     <v>9500</v>
@@ -1370,26 +1370,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>3100 OCEAN PARK BLVD, SANTA MONICA, CA, 90405-3032 US</v>
-    <v>94.8</v>
+    <v>92.6</v>
     <v>27</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44271.997822430472</v>
+    <v>44278.976949721873</v>
     <v>28</v>
-    <v>92.924999999999997</v>
-    <v>71722850000</v>
+    <v>91.08</v>
+    <v>71176650000</v>
     <v>ACTIVISION BLIZZARD, INC.</v>
     <v>ACTIVISION BLIZZARD, INC.</v>
-    <v>93.56</v>
-    <v>32.747300000000003</v>
-    <v>92.575000000000003</v>
-    <v>93.28</v>
-    <v>93.6</v>
+    <v>92.59</v>
+    <v>32.497900000000001</v>
+    <v>91.87</v>
+    <v>91.38</v>
+    <v>91.01</v>
     <v>774754000</v>
     <v>ATVI</v>
     <v>ACTIVISION BLIZZARD, INC. (XNAS:ATVI)</v>
-    <v>4552788</v>
-    <v>5048426</v>
+    <v>4426367</v>
+    <v>5501899</v>
     <v>2000</v>
   </rv>
   <rv s="2">
@@ -1404,7 +1404,7 @@
     <v>31</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_0720042c42661f705c810fedd777349a&amp;qlt=95</v>
     <v>32</v>
     <v>0</v>
@@ -1427,13 +1427,13 @@
     <v>8</v>
     <v>Finance</v>
     <v>4</v>
-    <v>38.176600000000001</v>
+    <v>39.967799999999997</v>
     <v>17.95</v>
-    <v>1.5721000000000001</v>
-    <v>-0.11</v>
-    <v>-2.6570000000000001E-4</v>
-    <v>-2.9139999999999999E-3</v>
-    <v>-0.01</v>
+    <v>1.5726</v>
+    <v>-0.8</v>
+    <v>0</v>
+    <v>-2.1242999999999998E-2</v>
+    <v>0</v>
     <v>USD</v>
     <v>Bank of America Corporation is a bank holding company and a financial holding company. The Company is a financial institution, serving individual consumers and others with a range of banking, investing, asset management and other financial and risk management products and services. The Company, through its banking and various non-bank subsidiaries, throughout the United States and in international markets, provides a range of banking and non-bank financial services and products through four business segments: Consumer Banking, which comprises Deposits and Consumer Lending; Global Wealth &amp; Investment Management, which consists of two primary businesses: Merrill Lynch Global Wealth Management and U.S. Trust, Bank of America Private Wealth Management; Global Banking, which provides a range of lending-related products and services; Global Markets, which offers sales and trading services, and All Other, which consists of equity investments, residual expense allocations and other.</v>
     <v>213000</v>
@@ -1441,26 +1441,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Bank of America Corporate Center, 100 N Tryon St, CHARLOTTE, NC, 28255-0001 US</v>
-    <v>37.72</v>
+    <v>37.82</v>
     <v>33</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>44271.999110312499</v>
+    <v>44278.99952563594</v>
     <v>34</v>
-    <v>36.97</v>
-    <v>325678800000</v>
+    <v>36.781100000000002</v>
+    <v>324902300000</v>
     <v>BANK OF AMERICA CORPORATION</v>
     <v>BANK OF AMERICA CORPORATION</v>
-    <v>37.42</v>
-    <v>20.153400000000001</v>
-    <v>37.75</v>
-    <v>37.64</v>
-    <v>37.630000000000003</v>
+    <v>37.33</v>
+    <v>20.105399999999999</v>
+    <v>37.659999999999997</v>
+    <v>36.86</v>
+    <v>36.86</v>
     <v>8627253000</v>
     <v>BAC</v>
     <v>BANK OF AMERICA CORPORATION (XNYS:BAC)</v>
-    <v>50300421</v>
-    <v>54461901</v>
+    <v>49837443</v>
+    <v>61526991</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -1476,19 +1476,19 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>15</v>
+    <v>16</v>
     <v>WEED, INC. (OTCM:BUDZ)</v>
     <v>2</v>
-    <v>16</v>
+    <v>17</v>
     <v>Finance</v>
-    <v>17</v>
+    <v>18</v>
     <v>2.68</v>
     <v>0.17</v>
-    <v>0.753</v>
-    <v>-0.01</v>
-    <v>-2.2825999999999999E-2</v>
-    <v>-1.0752999999999999E-2</v>
-    <v>-2.1000000000000001E-2</v>
+    <v>0.751</v>
+    <v>-2.5000000000000001E-2</v>
+    <v>0</v>
+    <v>-2.7932999999999999E-2</v>
+    <v>0</v>
     <v>USD</v>
     <v>WEED, Inc. is an early-stage holding company. The Company is focused on the development and application of cannabis-derived compounds for the treatment of human disease. Through its subsidiary, Sangre AT, LLC, the Company is engaged in development and application of cannabis strains for the production of disease-specific medicines.The Company is also focused on purchasing land and building commercial grade Cultivation Centers to consult, assist, manage and lease to licensed dispensary owners and organic grow operators on a contract basis, with a concentration on the legal and medical marijuana (Cannabis) sector.</v>
     <v>2</v>
@@ -1496,23 +1496,23 @@
     <v>OTCM</v>
     <v>OTCM</v>
     <v>4920 N Post Trl, TUCSON, AZ, 85750-7111 US</v>
-    <v>0.99</v>
+    <v>0.9</v>
     <v>Biotechnology &amp; Medical Research</v>
     <v>Stock</v>
-    <v>44272.006944444445</v>
+    <v>44278.888888888891</v>
     <v>37</v>
-    <v>0.88100000000000001</v>
-    <v>105064600</v>
+    <v>0.83</v>
+    <v>101110500</v>
     <v>WEED, INC.</v>
     <v>WEED, INC.</v>
-    <v>0.93</v>
-    <v>0.93</v>
-    <v>0.92</v>
-    <v>0.89900000000000002</v>
+    <v>0.89249999999999996</v>
+    <v>0.89500000000000002</v>
+    <v>0.87</v>
+    <v>0.87</v>
     <v>112972700</v>
     <v>BUDZ</v>
     <v>WEED, INC. (OTCM:BUDZ)</v>
-    <v>97182</v>
+    <v>130052</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -1531,7 +1531,7 @@
     <v>41</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_2c7df23a6f6e883ede39d349a3cf04f6&amp;qlt=95</v>
     <v>42</v>
     <v>0</v>
@@ -1548,18 +1548,18 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>18</v>
+    <v>19</v>
     <v>BEYOND MEAT, INC. (XNAS:BYND)</v>
     <v>7</v>
-    <v>19</v>
+    <v>20</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>221</v>
-    <v>48.18</v>
-    <v>-8.94</v>
-    <v>-1.222E-3</v>
-    <v>-6.0361000000000005E-2</v>
-    <v>-0.17</v>
+    <v>55.11</v>
+    <v>-2.5</v>
+    <v>-2.48E-3</v>
+    <v>-1.7908E-2</v>
+    <v>-0.34</v>
     <v>USD</v>
     <v>Beyond Meat, Inc. offers plant-based burgers. The Company offers its products in a range of categories, such as The Beyond Burger, Beyond Sausage, Beyond Beef Crumbles and Beyond Chicken Strips. The Company sells a range of plant-based products across the three main meat platforms of beef, pork and poultry. It provides Beyond Mushroom Bacon Cheeseburger, Chef Spike’s Original Brat, Roasted Garlic &amp; Italian Sausage Pasta, Beyond Beef Tacos and April Ross’ Butternut Squash Mac-N-Cheese. The Company also offers Beyond Spring Burger, Beyond Nacho Burger, Beyond Sausage Stuffed Peppers, Tuscan Style Beyond Sausage Pasta, Beyond Brat Breakfast Burrito, Beyond Beef Fiesta Power Bowl, Beyond Beef Nachos, Truffle Mac &amp; Cheese Beyond Burger, Love &amp; Lemons Guacamole Beyond Burger and Beyond Burger Tostada With Marinated Kale.</v>
     <v>700</v>
@@ -1567,25 +1567,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>119 Standard St, EL SEGUNDO, CA, 90245-3833 US</v>
-    <v>148.32</v>
+    <v>139.99</v>
     <v>43</v>
     <v>Food &amp; Tobacco</v>
     <v>Stock</v>
-    <v>44271.999601469528</v>
+    <v>44278.993696064063</v>
     <v>44</v>
-    <v>137.01</v>
-    <v>9322094000</v>
+    <v>135.38999999999999</v>
+    <v>8786471000</v>
     <v>BEYOND MEAT, INC.</v>
     <v>BEYOND MEAT, INC.</v>
-    <v>148.01</v>
-    <v>148.11000000000001</v>
-    <v>139.16999999999999</v>
-    <v>139</v>
+    <v>139.99</v>
+    <v>139.6</v>
+    <v>137.1</v>
+    <v>136.76</v>
     <v>62940340</v>
     <v>BYND</v>
     <v>BEYOND MEAT, INC. (XNAS:BYND)</v>
-    <v>4002711</v>
-    <v>3369119</v>
+    <v>1908126</v>
+    <v>3430642</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -1606,13 +1606,13 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>40.26</v>
-    <v>20.934999999999999</v>
-    <v>0.3755</v>
-    <v>-0.43</v>
+    <v>22.53</v>
+    <v>0.35599999999999998</v>
+    <v>-1.03</v>
     <v>0</v>
-    <v>-1.0792999999999999E-2</v>
+    <v>-2.6608E-2</v>
     <v>0</v>
     <v>USD</v>
     <v>Core-Mark Holding Company, Inc. is a wholesale distributor to the convenience retail industry in North America. The Company provides sales, marketing, distribution and logistics services. As of December 31, 2016, the Company offered services to over 43,000 customer locations across the United States and Canada through 30 distribution centers. The Company's segments include the United States, Canada and Corporate. The Company's primary customer base consists of traditional convenience stores, as well as alternative outlets selling consumer packaged goods. The Company's traditional convenience store customers include various national and super-regional convenience store operators, as well as independently owned convenience stores. Its alternative outlet customers include a range of store formats, including grocery stores, drug stores, liquor stores, cigarette and tobacco shops, hotel gift shops, military exchanges, college and corporate campuses, casinos and hardware stores.</v>
@@ -1621,25 +1621,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1500 Solana Blvd Ste 3400, WESTLAKE, TX, 76262-1690 US</v>
-    <v>40.229999999999997</v>
+    <v>38.76</v>
     <v>Food &amp; Drug Retailing</v>
     <v>Stock</v>
-    <v>44271.837231839847</v>
+    <v>44278.838752546093</v>
     <v>47</v>
-    <v>38.89</v>
-    <v>1799278000</v>
+    <v>37.49</v>
+    <v>1748244000</v>
     <v>CORE-MARK HOLDING COMPANY, INC.</v>
     <v>CORE-MARK HOLDING COMPANY, INC.</v>
-    <v>39.83</v>
-    <v>28.658999999999999</v>
-    <v>39.840000000000003</v>
-    <v>39.409999999999997</v>
-    <v>39.409999999999997</v>
+    <v>38.36</v>
+    <v>27.8461</v>
+    <v>38.71</v>
+    <v>37.68</v>
+    <v>37.68</v>
     <v>45162600</v>
     <v>CORE</v>
     <v>CORE-MARK HOLDING COMPANY, INC. (XNAS:CORE)</v>
-    <v>169400</v>
-    <v>287289</v>
+    <v>155587</v>
+    <v>296447</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -1654,7 +1654,7 @@
     <v>50</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_914babebce972b61c210d9459046d6f7&amp;qlt=95</v>
     <v>51</v>
     <v>0</v>
@@ -1679,11 +1679,11 @@
     <v>4</v>
     <v>52.28</v>
     <v>17.510000000000002</v>
-    <v>1.5224</v>
-    <v>-1.6</v>
-    <v>1.6200000000000001E-3</v>
-    <v>-3.1379000000000004E-2</v>
-    <v>0.08</v>
+    <v>1.5109999999999999</v>
+    <v>-2.34</v>
+    <v>5.0410000000000003E-3</v>
+    <v>-4.8780000000000004E-2</v>
+    <v>0.23</v>
     <v>USD</v>
     <v>Delta Air Lines, Inc. provides scheduled air transportation for passengers and cargo throughout the United States and across the world. The Company's segments include Airline and Refinery. The Company's route network is centered around a system of hub, international gateway and airports that the Company operates in Amsterdam, Atlanta, Boston, Detroit, London-Heathrow, Los Angeles, Minneapolis-St. Paul, New York-LaGuardia, New York- John F Kennedy International Airport, Paris-Charles de Gaulle, Salt Lake City, Seattle and Tokyo-Narita. Each of these operations includes flights that gather and distribute traffic from markets in the geographic region surrounding the hub or gateway to domestic and international cities and to other hubs or gateways. The Company's route network includes its international joint ventures, its alliances with other foreign airlines, its membership in SkyTeam and agreements with multiple domestic regional carriers that operate as Delta Connection.</v>
     <v>74000</v>
@@ -1691,26 +1691,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1030 Delta Blvd, ATLANTA, GA, 30354-1989 US</v>
-    <v>51.14</v>
+    <v>47.82</v>
     <v>52</v>
     <v>Passenger Transportation Services</v>
     <v>Stock</v>
-    <v>44271.998991747656</v>
+    <v>44278.999700335153</v>
     <v>53</v>
-    <v>49.03</v>
-    <v>32539100000</v>
+    <v>45.45</v>
+    <v>30611900000</v>
     <v>DELTA AIR LINES, INC.</v>
     <v>DELTA AIR LINES, INC.</v>
-    <v>51.04</v>
+    <v>47.23</v>
     <v>0</v>
-    <v>50.99</v>
-    <v>49.39</v>
-    <v>49.47</v>
+    <v>47.97</v>
+    <v>45.63</v>
+    <v>45.86</v>
     <v>638146700</v>
     <v>DAL</v>
     <v>DELTA AIR LINES, INC. (XNYS:DAL)</v>
-    <v>14281495</v>
-    <v>14459998</v>
+    <v>13619462</v>
+    <v>14606213</v>
     <v>1967</v>
   </rv>
   <rv s="2">
@@ -1725,7 +1725,7 @@
     <v>56</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_f9e00cce32f84dd4a56203773406542e&amp;qlt=95</v>
     <v>57</v>
     <v>0</v>
@@ -1742,18 +1742,18 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>18</v>
+    <v>19</v>
     <v>DOCUSIGN, INC. (XNAS:DOCU)</v>
     <v>7</v>
-    <v>19</v>
+    <v>20</v>
     <v>Finance</v>
     <v>4</v>
     <v>290.23</v>
-    <v>65.61</v>
-    <v>-8.9</v>
-    <v>7.5759999999999998E-4</v>
-    <v>-4.0439999999999997E-2</v>
-    <v>0.16</v>
+    <v>78.72</v>
+    <v>0.53</v>
+    <v>1.9230000000000001E-4</v>
+    <v>2.555E-3</v>
+    <v>0.04</v>
     <v>USD</v>
     <v>DocuSign Inc offers DocuSign Agreement Cloud, a software suite for automating the agreement process. It includes DocuSign eSignature, an electronic signature solution that allows an agreement to be signed electronically on a variety of devices. The Agreement Cloud also includes several other applications for automating pre- and post-signature processes, such as automatically generating an agreement from data in other systems, supporting negotiation workflow, collecting payment after signatures, and using artificial intelligence (AI) to analyze a collection of agreements for risks and opportunities. The Agreement Cloud also includes hundreds of integrations to other systems, so agreement processes can integrate with other business processes and data. Its key Agreement Cloud products include DocuSign Contract Lifecycle Management (CLM), Intelligent Insights, Gen for Salesforce, Negotiate for Salesforce, Guided Forms, Click, Identify, Standards-Based Signatures, Payments and eNotary.</v>
     <v>3909</v>
@@ -1761,25 +1761,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>221 Main St Ste 1550, SAN FRANCISCO, CA, 94105-1947 US</v>
-    <v>224.53</v>
+    <v>209.8</v>
     <v>58</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44271.99993833281</v>
+    <v>44278.999875798436</v>
     <v>59</v>
-    <v>210.16</v>
-    <v>41057450000</v>
+    <v>206.11</v>
+    <v>38697500000</v>
     <v>DOCUSIGN, INC.</v>
     <v>DOCUSIGN, INC.</v>
-    <v>221.68</v>
-    <v>220.08</v>
-    <v>211.18</v>
-    <v>211.34</v>
+    <v>208</v>
+    <v>207.43</v>
+    <v>207.96</v>
+    <v>208</v>
     <v>186556900</v>
     <v>DOCU</v>
     <v>DOCUSIGN, INC. (XNAS:DOCU)</v>
-    <v>3192881</v>
-    <v>3961964</v>
+    <v>1661163</v>
+    <v>4191128</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -1803,11 +1803,11 @@
     <v>4</v>
     <v>251.86</v>
     <v>29.95</v>
-    <v>1.6193</v>
-    <v>-7.25</v>
-    <v>-6.8520000000000005E-3</v>
-    <v>-3.2478E-2</v>
-    <v>-1.48</v>
+    <v>1.6255999999999999</v>
+    <v>-0.1</v>
+    <v>-4.5519999999999998E-5</v>
+    <v>-4.55E-4</v>
+    <v>-0.01</v>
     <v>USD</v>
     <v>Etsy, Inc. (Etsy) operates a marketplace where people around the world connect, both online and offline, to make, sell and buy goods. The Company offers a range of seller services and tools that help entrepreneurs start, grow and manage their businesses. The Company's community includes Etsy sellers, Etsy buyers, Etsy employees, its partners and investors. As of December 31, 2016, its platform connected 1.7 million active Etsy sellers and 28.6 million active Etsy buyers. Etsy sellers join its community to participate in its markets to express their creativity. Etsy sellers range from hobbyists to professional merchants, and have a range of personal and professional goals. Its supports a group of artists, makers, designers and collectors from around the world. Its services platform includes seller services, seller tools and education. The Company's seller services include Direct Checkout, Promoted Listings, Shipping Labels and Pattern by Etsy.</v>
     <v>1414</v>
@@ -1815,25 +1815,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>117 Adams St, BROOKLYN, NY, 11201-1401 US</v>
-    <v>228</v>
+    <v>231.32</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>44271.999858310155</v>
+    <v>44278.999747210153</v>
     <v>62</v>
-    <v>210.75</v>
-    <v>28137980000</v>
+    <v>218.09</v>
+    <v>27701850000</v>
     <v>ETSY, INC.</v>
     <v>ETSY, INC.</v>
-    <v>226.89</v>
-    <v>87.340500000000006</v>
-    <v>223.23</v>
-    <v>215.98</v>
-    <v>214.5</v>
+    <v>222.1</v>
+    <v>81.972399999999993</v>
+    <v>219.77</v>
+    <v>219.67</v>
+    <v>219.66</v>
     <v>126049300</v>
     <v>ETSY</v>
     <v>ETSY, INC. (XNAS:ETSY)</v>
-    <v>2451918</v>
-    <v>3587057</v>
+    <v>3754823</v>
+    <v>3741286</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -1848,7 +1848,7 @@
     <v>65</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_928a62c96ba821e882cb080907bbb897&amp;qlt=95</v>
     <v>66</v>
     <v>0</v>
@@ -1872,12 +1872,12 @@
     <v>Finance</v>
     <v>4</v>
     <v>304.67</v>
-    <v>137.10059999999999</v>
-    <v>1.2638</v>
-    <v>5.53</v>
-    <v>3.6520000000000003E-3</v>
-    <v>2.0200999999999997E-2</v>
-    <v>1.02</v>
+    <v>142.25</v>
+    <v>1.2808999999999999</v>
+    <v>-2.91</v>
+    <v>-1.1349999999999999E-3</v>
+    <v>-9.9129999999999999E-3</v>
+    <v>-0.33</v>
     <v>USD</v>
     <v>Facebook, Inc. is focused on building products that enable people to connect and share through mobile devices, personal computers and other surfaces. The Company's products include Facebook, Instagram, Messenger, WhatsApp and Oculus. Facebook enables people to connect, share, discover and communicate with each other on mobile devices and personal computers. Instagram enables people to take photos or videos, customize them with filter effects, and share them with friends and followers in a photo feed or send them directly to friends. Messenger allows communicating with people and businesses alike across a range of platforms and devices. WhatsApp Messenger is a messaging application that is used by people around the world and is available on a range of mobile platforms. Its Oculus virtual reality technology and content platform offers products that allow people to enter an interactive environment to play games, consume content and connect with others.</v>
     <v>58604</v>
@@ -1885,26 +1885,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1601 Willow Rd, MENLO PARK, CA, 94025-1452 US</v>
-    <v>282.14</v>
+    <v>298</v>
     <v>67</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44271.99989427031</v>
+    <v>44278.998378448436</v>
     <v>68</v>
-    <v>274.8</v>
-    <v>779549600000</v>
+    <v>289.81</v>
+    <v>835905100000</v>
     <v>FACEBOOK, INC.</v>
     <v>FACEBOOK, INC.</v>
-    <v>276.08499999999998</v>
-    <v>27.145299999999999</v>
-    <v>273.75</v>
-    <v>279.27999999999997</v>
-    <v>280.3</v>
+    <v>293.37</v>
+    <v>29.107700000000001</v>
+    <v>293.54000000000002</v>
+    <v>290.63</v>
+    <v>290.3</v>
     <v>2847670000</v>
     <v>FB</v>
     <v>FACEBOOK, INC. (XNAS:FB)</v>
-    <v>22437665</v>
-    <v>18401762</v>
+    <v>23000527</v>
+    <v>20990934</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -1919,7 +1919,7 @@
     <v>71</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_c46198bfc8ae166b7756f487f8cd0106&amp;qlt=95</v>
     <v>72</v>
     <v>0</v>
@@ -1943,12 +1943,12 @@
     <v>Finance</v>
     <v>4</v>
     <v>305.66000000000003</v>
-    <v>88.69</v>
-    <v>1.2630999999999999</v>
-    <v>-6.08</v>
-    <v>7.2849999999999998E-4</v>
-    <v>-2.2782E-2</v>
-    <v>0.19</v>
+    <v>103.40009999999999</v>
+    <v>1.2708999999999999</v>
+    <v>-7.18</v>
+    <v>1.3489999999999999E-3</v>
+    <v>-2.6202E-2</v>
+    <v>0.36</v>
     <v>USD</v>
     <v>FedEx Corporation (FedEx) provides a portfolio of transportation, e-commerce and business services through companies competing collectively, operating independently and managed collaboratively, under the FedEx brand. The Company's segments include FedEx Express, TNT Express, FedEx Ground, FedEx Freight and FedEx Services. The FedEx Express segment offers a range of the United States domestic and international shipping services for delivery of packages and freight. TNT Express segment collects, transports and delivers documents, parcels and freight on a day-definite or time-definite basis. The FedEx Ground segment provides business and residential money-back guaranteed ground package delivery services. The FedEx Freight segment offers less-than-truckload (LTL) freight services. The FedEx Services segment provides its other companies with sales, marketing, information technology, communications, customer service and other back-office support.</v>
     <v>183000</v>
@@ -1956,26 +1956,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>942 Shady Grove Rd S, MEMPHIS, TN, 38120-4117 US</v>
-    <v>267.02999999999997</v>
+    <v>276.91989999999998</v>
     <v>73</v>
     <v>Freight &amp; Logistics Services</v>
     <v>Stock</v>
-    <v>44271.999898113281</v>
+    <v>44278.998495543747</v>
     <v>74</v>
-    <v>260.3</v>
-    <v>70742040000</v>
+    <v>265.55</v>
+    <v>72709040000</v>
     <v>FEDEX CORPORATION</v>
     <v>FEDEX CORPORATION</v>
-    <v>267</v>
-    <v>29.011700000000001</v>
-    <v>266.88</v>
-    <v>260.8</v>
-    <v>260.99</v>
-    <v>265070600</v>
+    <v>271.47000000000003</v>
+    <v>24.264199999999999</v>
+    <v>274.02</v>
+    <v>266.83999999999997</v>
+    <v>267.2</v>
+    <v>265342100</v>
     <v>FDX</v>
     <v>FEDEX CORPORATION (XNYS:FDX)</v>
-    <v>2131126</v>
-    <v>2000935</v>
+    <v>2277570</v>
+    <v>2579535</v>
     <v>1997</v>
   </rv>
   <rv s="2">
@@ -1991,18 +1991,18 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>20</v>
+    <v>21</v>
     <v>FIVERR INTERNATIONAL LTD (XNYS:FVRR)</v>
     <v>2</v>
-    <v>21</v>
+    <v>22</v>
     <v>Finance</v>
     <v>4</v>
     <v>336</v>
-    <v>20.420000000000002</v>
-    <v>-4.6100000000000003</v>
-    <v>-2.957E-3</v>
-    <v>-1.9103999999999999E-2</v>
-    <v>-0.7</v>
+    <v>20.66</v>
+    <v>-4.55</v>
+    <v>2.9420000000000002E-3</v>
+    <v>-2.0177E-2</v>
+    <v>0.65</v>
     <v>USD</v>
     <v>Fiverr International Ltd is an Israel-based company that operates an online marketplace worldwide. Its platform connects businesses with freelancers offering digital services in more than 200 categories, across more than seven verticals including graphic design, digital marketing, programming, video and animation. Its buyers include businesses of various sizes, as well as sellers comprise a group of freelancers and small businesses. The Company’s global community of freelancers spans across more than 160 countries.</v>
     <v>545</v>
@@ -2010,25 +2010,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>8 Eliezer Kaplan St, TEL AVIV-YAFO, 6473409 IL</v>
-    <v>252</v>
+    <v>229.4999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44271.999908668753</v>
+    <v>44278.999097546097</v>
     <v>77</v>
-    <v>229.02</v>
-    <v>8649270000</v>
+    <v>219.26400000000001</v>
+    <v>8082592000</v>
     <v>FIVERR INTERNATIONAL LTD</v>
     <v>FIVERR INTERNATIONAL LTD</v>
-    <v>243.04</v>
+    <v>225.31</v>
     <v>0</v>
-    <v>241.31</v>
-    <v>236.7</v>
-    <v>236</v>
+    <v>225.5</v>
+    <v>220.95</v>
+    <v>221.6</v>
     <v>35842980</v>
     <v>FVRR</v>
     <v>FIVERR INTERNATIONAL LTD (XNYS:FVRR)</v>
-    <v>902896</v>
-    <v>1382273</v>
+    <v>400420</v>
+    <v>1300580</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -2043,7 +2043,7 @@
     <v>80</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_0f6107f2200a71882f4cb1dcec7e033d&amp;qlt=95</v>
     <v>81</v>
     <v>0</v>
@@ -2065,14 +2065,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>66.14</v>
     <v>46.88</v>
-    <v>0.55220000000000002</v>
-    <v>0.36</v>
-    <v>-6.2309999999999996E-3</v>
-    <v>6.0999999999999995E-3</v>
-    <v>-0.37</v>
+    <v>0.55830000000000002</v>
+    <v>-0.26</v>
+    <v>-1.4710000000000001E-3</v>
+    <v>-4.2309999999999995E-3</v>
+    <v>-0.09</v>
     <v>USD</v>
     <v>General Mills, Inc., is a manufacturer and marketer of branded consumer foods and pet food products sold through retail stores. The Company is a supplier of branded and unbranded consumer food products to the North American foodservice and commercial baking industries. It also provides pet food products through its subsidiary Blue Buffalo Pet Products Inc. The Company has four segments: U.S. Retail, International, Pet operating, and Convenience Stores and Foodservice. The Company offers a range of food products with a focus on categories, including ready-to-eat cereal; convenient meals, including meal kits, ethnic meals, pizza, soup, side dish mixes, frozen breakfast and frozen entrees; snacks, including grain, nutrition bars and frozen hot snacks; yogurt, and super-premium ice cream. The Company's other product categories include baking mixes and ingredients, and refrigerated and frozen dough. It also provides food products for dogs and cats.</v>
     <v>35000</v>
@@ -2080,26 +2080,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Number One General Mills Blvd, MINNEAPOLIS, MN, 55426 US</v>
-    <v>59.72</v>
+    <v>62.02</v>
     <v>82</v>
     <v>Food &amp; Tobacco</v>
     <v>Stock</v>
-    <v>44271.977820450782</v>
+    <v>44278.995095589846</v>
     <v>83</v>
-    <v>58.85</v>
-    <v>36086990000</v>
+    <v>61</v>
+    <v>37572780000</v>
     <v>GENERAL MILLS, INC.</v>
     <v>GENERAL MILLS, INC.</v>
-    <v>59</v>
-    <v>15.144399999999999</v>
-    <v>59.02</v>
-    <v>59.38</v>
-    <v>59.01</v>
+    <v>61.7</v>
+    <v>15.768000000000001</v>
+    <v>61.45</v>
+    <v>61.19</v>
+    <v>61.1</v>
     <v>611436600</v>
     <v>GIS</v>
     <v>GENERAL MILLS, INC. (XNYS:GIS)</v>
-    <v>3880922</v>
-    <v>4046843</v>
+    <v>5231720</v>
+    <v>4550750</v>
     <v>1928</v>
   </rv>
   <rv s="2">
@@ -2114,7 +2114,7 @@
     <v>86</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_1af0820cdcad1e835487a08cdf869215&amp;qlt=95</v>
     <v>87</v>
     <v>0</v>
@@ -2139,11 +2139,11 @@
     <v>4</v>
     <v>483</v>
     <v>2.57</v>
-    <v>-1.7413000000000001</v>
-    <v>-11.97</v>
-    <v>-3.2041E-2</v>
-    <v>-5.4374000000000006E-2</v>
-    <v>-6.67</v>
+    <v>-1.8593</v>
+    <v>-13.37</v>
+    <v>-0.145097</v>
+    <v>-6.8744E-2</v>
+    <v>-26.28</v>
     <v>USD</v>
     <v>GameStop Corp. is an omnichannel video game retailer. The Company sells video game hardware, physical and digital video game software, video game accessories, as well as mobile and consumer electronics products and other merchandise through its GameStop, EB Games and Micromania stores. It operating segments, which consists of Video Game Brands segments: United States, Canada and Australia and Europe. Each of the Video Game Brands segments consists primarily of retail operations, with all stores engaged in the sale of new and pre-owned video game systems, software and accessories, which it refers to as video game products. Its Video Game Brands stores sell various types of digital products, including downloadable content, network points cards, prepaid digital, and also sell certain mobile and consumer electronics products and collectible products.</v>
     <v>14000</v>
@@ -2151,26 +2151,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>625 Westport Pkwy, GRAPEVINE, TX, 76051-6740 US</v>
-    <v>220.7</v>
+    <v>201.75</v>
     <v>88</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>44271.999965103903</v>
+    <v>44278.999533564063</v>
     <v>89</v>
-    <v>172.35</v>
-    <v>15354100000</v>
+    <v>177.55</v>
+    <v>13565090000</v>
     <v>GAMESTOP CORP.</v>
     <v>GAMESTOP CORP.</v>
-    <v>203.16</v>
+    <v>197.99</v>
     <v>0</v>
-    <v>220.14</v>
-    <v>208.17</v>
-    <v>201.5</v>
+    <v>194.49</v>
+    <v>181.12</v>
+    <v>154.84</v>
     <v>69746960</v>
     <v>GME</v>
     <v>GAMESTOP CORP. (XNYS:GME)</v>
-    <v>35422867</v>
-    <v>37773498</v>
+    <v>14429542</v>
+    <v>37046610</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -2185,7 +2185,7 @@
     <v>92</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_91f59ff6c9305ce24b1cf0389cd856f8&amp;qlt=95</v>
     <v>93</v>
     <v>0</v>
@@ -2210,11 +2210,11 @@
     <v>4</v>
     <v>2145.14</v>
     <v>1008.87</v>
-    <v>0.99509999999999998</v>
-    <v>29.45</v>
-    <v>1.008E-3</v>
-    <v>1.4335000000000001E-2</v>
-    <v>2.1</v>
+    <v>0.99639999999999995</v>
+    <v>10.6401</v>
+    <v>9.798E-6</v>
+    <v>5.2399999999999999E-3</v>
+    <v>0.02</v>
     <v>USD</v>
     <v>Alphabet Inc. is a holding company. The Company's businesses include Google Inc. (Google) and its Internet products, such as Access, Calico, CapitalG, GV, Nest, Verily, Waymo and X. The Company's segments include Google and Other Bets. The Google segment includes its Internet products, such as Search, Ads, Commerce, Maps, YouTube, Google Cloud, Android, Chrome and Google Play, as well as its hardware initiatives. The Google segment is engaged in advertising, sales of digital content, applications and cloud offerings, and sales of hardware products. The Other Bets segment is engaged in the sales of Internet and television services through Google Fiber, sales of Nest products and services, and licensing and research and development (R&amp;D) services through Verily. It offers Google Assistant, which allows users to type or talk with Google; Google Maps, which helps users navigate to a store, and Google Photos, which helps users store and organize all of their photos.</v>
     <v>135301</v>
@@ -2222,26 +2222,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1600 Amphitheatre Pkwy, MOUNTAIN VIEW, CA, 94043-1351 US</v>
-    <v>2113.6799999999998</v>
+    <v>2064.09</v>
     <v>94</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44271.999736296093</v>
+    <v>44278.999740659376</v>
     <v>95</v>
-    <v>2059.29</v>
-    <v>1388920000000</v>
+    <v>2028.0001</v>
+    <v>1371550000000</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>2065.9899999999998</v>
-    <v>35.026400000000002</v>
-    <v>2054.44</v>
-    <v>2083.89</v>
-    <v>2085.9899999999998</v>
+    <v>2039.95</v>
+    <v>34.621499999999997</v>
+    <v>2030.6899000000001</v>
+    <v>2041.33</v>
+    <v>2041.35</v>
     <v>674136700</v>
     <v>GOOGL</v>
     <v>ALPHABET INC. (XNAS:GOOGL)</v>
-    <v>1595015</v>
-    <v>1537780</v>
+    <v>1425456</v>
+    <v>1646400</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -2256,7 +2256,7 @@
     <v>98</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_93bf211680fd7a2264447bd907607e8f&amp;qlt=95</v>
     <v>99</v>
     <v>0</v>
@@ -2278,14 +2278,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>92.215000000000003</v>
-    <v>24.02</v>
-    <v>1.5654999999999999</v>
-    <v>-2.81</v>
-    <v>1.159E-4</v>
-    <v>-3.1551999999999997E-2</v>
-    <v>0.01</v>
+    <v>36.119999999999997</v>
+    <v>1.5629999999999999</v>
+    <v>-5.71</v>
+    <v>3.6340000000000001E-3</v>
+    <v>-6.6767999999999994E-2</v>
+    <v>0.28999999999999998</v>
     <v>USD</v>
     <v>Hyatt Hotels Corporation is a global hospitality company. The Company develops, owns, operates, manages, franchises, licenses or provides services to a portfolio of properties. The Company operates through four segments: owned and leased hotels; Americas management and franchising (Americas); ASPAC management and franchising (ASPAC), and EAME/SW Asia management and franchising (EAME/SW Asia). The owned and leased hotels segment consists of its owned and leased full service and select service hotels. The Americas segment consists of its management and franchising of properties located in the United States, Latin America, Canada and the Caribbean. The ASPAC segment consists of its management and franchising of properties located in Southeast Asia, as well as China, Australia, South Korea, Japan and Micronesia. The EAME/SW Asia segment consists of its management and franchising of properties located in Europe, Africa, the Middle East, India, Central Asia and Nepal.</v>
     <v>37000</v>
@@ -2293,26 +2293,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>150 N Riverside Plz Fl 8, CHICAGO, IL, 60606-1598 US</v>
-    <v>89.25</v>
+    <v>84.47</v>
     <v>100</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>44271.958333367969</v>
+    <v>44278.985625844529</v>
     <v>101</v>
-    <v>85.88</v>
-    <v>9021791000</v>
+    <v>79.38</v>
+    <v>8663188000</v>
     <v>HYATT HOTELS CORPORATION</v>
     <v>HYATT HOTELS CORPORATION</v>
-    <v>89.25</v>
+    <v>84.47</v>
     <v>0</v>
-    <v>89.06</v>
-    <v>86.25</v>
-    <v>86.26</v>
+    <v>85.52</v>
+    <v>79.81</v>
+    <v>80.099999999999994</v>
     <v>101300100</v>
     <v>H</v>
     <v>HYATT HOTELS CORPORATION (XNYS:H)</v>
-    <v>583285</v>
-    <v>795885</v>
+    <v>983088</v>
+    <v>811260</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -2327,7 +2327,7 @@
     <v>104</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_420c97329b2ef989466d21a3475da4c5&amp;qlt=95</v>
     <v>105</v>
     <v>0</v>
@@ -2349,14 +2349,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>4</v>
-    <v>292.95</v>
-    <v>140.63</v>
-    <v>1.0170999999999999</v>
-    <v>3.54</v>
-    <v>-1.3469999999999999E-3</v>
-    <v>1.2709E-2</v>
-    <v>-0.38</v>
+    <v>9</v>
+    <v>293.42700000000002</v>
+    <v>146.34</v>
+    <v>1.0245</v>
+    <v>1.04</v>
+    <v>0</v>
+    <v>3.5989999999999998E-3</v>
+    <v>0</v>
     <v>USD</v>
     <v>The Home Depot, Inc. is a home improvement retailer. The Company offers its customers an assortment of building materials, home improvement products, lawn and garden products, and decor products and provide a number of services, including home improvement installation services and tool and equipment rental. It operates approximately 2,291 The Home Depot stores located throughout the United States (U.S.), including the Commonwealth of Puerto Rico and the territories of the U.S. Virgin Islands and Guam; Canada and Mexico. The Company serve two primary customer groups: do-it-yourself (DIY) Customers and Professional Customers (Pros). DIY Customers include home owners who purchase products and complete their own projects and installations. Professional Customers are primarily professional renovators/remodelers, general contractors, handymen, property managers, building service contractors and specialty tradesmen, such as electricians, plumbers and painters.</v>
     <v>415700</v>
@@ -2364,26 +2364,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2455 Paces Ferry Rd SE, ATLANTA, GA, 30339-6444 US</v>
-    <v>282.52</v>
+    <v>293.42700000000002</v>
     <v>106</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>44271.999055624998</v>
+    <v>44278.994401585158</v>
     <v>107</v>
-    <v>277.64999999999998</v>
-    <v>299876400000</v>
+    <v>288.94</v>
+    <v>311073000000</v>
     <v>THE HOME DEPOT, INC.</v>
     <v>THE HOME DEPOT, INC.</v>
-    <v>278.54000000000002</v>
-    <v>23.326899999999998</v>
-    <v>278.54000000000002</v>
-    <v>282.08</v>
-    <v>281.7</v>
+    <v>289.61</v>
+    <v>24.197900000000001</v>
+    <v>288.94</v>
+    <v>289.98</v>
+    <v>289.98</v>
     <v>1076601000</v>
     <v>HD</v>
     <v>THE HOME DEPOT, INC. (XNYS:HD)</v>
-    <v>4458875</v>
-    <v>5074180</v>
+    <v>4801230</v>
+    <v>5917685</v>
     <v>1978</v>
   </rv>
   <rv s="2">
@@ -2398,7 +2398,7 @@
     <v>110</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_5c38a19703348515f2ba1542f244f1f6&amp;qlt=95</v>
     <v>111</v>
     <v>0</v>
@@ -2420,14 +2420,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>54.93</v>
     <v>36.270000000000003</v>
-    <v>0.61080000000000001</v>
-    <v>0.19</v>
-    <v>1.562E-3</v>
-    <v>3.7230000000000002E-3</v>
-    <v>0.08</v>
+    <v>0.61019999999999996</v>
+    <v>0.39</v>
+    <v>-3.1130000000000003E-3</v>
+    <v>7.6470000000000002E-3</v>
+    <v>-0.16</v>
     <v>USD</v>
     <v>The Coca-Cola Company is a beverage company. The Company owns or licenses and markets non-alcoholic beverage brands, primarily sparkling beverages and a range of still beverages, such as waters, flavored waters and enhanced waters, juices and juice drinks, ready-to-drink teas and coffees, sports drinks, dairy and energy drinks. The Company's segments include Europe, Middle East and Africa; Latin America; North America; Asia Pacific; Bottling Investments, and Corporate. The Company owns and markets a range of non-alcoholic sparkling beverage brands, including Coca-Cola, Diet Coke, Fanta and Sprite. The Company owns or licenses and markets over 500 non-alcoholic beverage brands. The Company markets, manufactures and sells beverage concentrates, which are referred to as beverage bases, and syrups, including fountain syrups, and finished sparkling and still beverages.</v>
     <v>80300</v>
@@ -2435,26 +2435,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 Coca Cola Plz NW, ATLANTA, GA, 30313-2420 US</v>
-    <v>51.52</v>
+    <v>51.65</v>
     <v>112</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>44271.999259455471</v>
+    <v>44278.992790219534</v>
     <v>113</v>
-    <v>51.04</v>
-    <v>219904200000</v>
+    <v>50.825000000000003</v>
+    <v>219774900000</v>
     <v>THE COCA-COLA COMPANY</v>
     <v>THE COCA-COLA COMPANY</v>
-    <v>51.2</v>
-    <v>28.474299999999999</v>
-    <v>51.03</v>
-    <v>51.22</v>
-    <v>51.3</v>
+    <v>50.99</v>
+    <v>28.457599999999999</v>
+    <v>51</v>
+    <v>51.39</v>
+    <v>51.23</v>
     <v>4309312000</v>
     <v>KO</v>
     <v>THE COCA-COLA COMPANY (XNYS:KO)</v>
-    <v>14214187</v>
-    <v>17292464</v>
+    <v>16936691</v>
+    <v>19093426</v>
     <v>1919</v>
   </rv>
   <rv s="2">
@@ -2470,18 +2470,18 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>20</v>
+    <v>21</v>
     <v>LEMONADE, INC. (XNYS:LMND)</v>
     <v>2</v>
-    <v>21</v>
+    <v>22</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>188.3</v>
     <v>44.110100000000003</v>
-    <v>-2.65</v>
-    <v>2.3289999999999999E-3</v>
-    <v>-2.4094999999999998E-2</v>
-    <v>0.25</v>
+    <v>-2.72</v>
+    <v>-1.9819999999999998E-3</v>
+    <v>-2.7585999999999999E-2</v>
+    <v>-0.19</v>
     <v>USD</v>
     <v>Lemonade, Inc. is a peer-to-peer property and casualty insurance company. The Company offer its products to renters and homeowners in the United States and contents and liability insurance in Germany and the Netherlands. The insurance it offers in the United States covers stolen or damaged property, and also covers personal liability, which protects its customers if they are responsible for an accident or damage to another person or their property. It also offers landlord insurance policies to condo and co-op owners who rent out their property less than five times a year, to protect their real and personal properties. The Company enables homeowners and renters to get insured and settle claims from various devices through its Lemonade application. It uses bots to deliver insurance to consumers through its chatbot-driven application and at lemonade.com. It enables consumers to chat with artificial intelligence to file claims.</v>
     <v>567</v>
@@ -2489,25 +2489,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5 CROSBY STREET, 3RD FLOOR, NEW YORK, NY, 10013 US</v>
-    <v>113.17</v>
+    <v>99.46</v>
     <v>Insurance</v>
     <v>Stock</v>
-    <v>44271.99995255781</v>
+    <v>44278.995390625001</v>
     <v>116</v>
-    <v>105.06</v>
-    <v>6739777000</v>
+    <v>94.38</v>
+    <v>6042390000</v>
     <v>LEMONADE, INC.</v>
     <v>LEMONADE, INC.</v>
-    <v>110</v>
+    <v>98</v>
     <v>0</v>
-    <v>109.98</v>
-    <v>107.33</v>
-    <v>107.58</v>
+    <v>98.6</v>
+    <v>95.88</v>
+    <v>95.69</v>
     <v>61281840</v>
     <v>LMND</v>
     <v>LEMONADE, INC. (XNYS:LMND)</v>
-    <v>2634311</v>
-    <v>3565914</v>
+    <v>1546986</v>
+    <v>3550114</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -2522,7 +2522,7 @@
     <v>119</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_d6782132aec4ede52f23cbfda8cac5e1&amp;qlt=95</v>
     <v>120</v>
     <v>0</v>
@@ -2547,11 +2547,11 @@
     <v>4</v>
     <v>62.756100000000004</v>
     <v>22.465</v>
-    <v>1.2692000000000001</v>
-    <v>-1.56</v>
-    <v>-6.6070000000000007E-4</v>
-    <v>-2.5121000000000001E-2</v>
-    <v>-0.04</v>
+    <v>1.2604</v>
+    <v>-1.87</v>
+    <v>1.042E-3</v>
+    <v>-3.1449999999999999E-2</v>
+    <v>0.06</v>
     <v>USD</v>
     <v>Southwest Airlines Co. (Southwest) operates Southwest Airlines, a passenger airline that provides scheduled air transportation in the United States and near-international markets. The Company provides point-to-point service. The Company offers ancillary service offerings, such as Southwest's EarlyBird Check-In and transportation of pets and unaccompanied minors, in accordance with Southwest's respective policies. Southwest's Rapid Rewards frequent flyer program enables program members (Members) to earn points for every dollar spent on Southwest fares. Its Internet Website, Southwest.com, is an avenue for Southwest customers to purchase and manage travel online. As of December 31, 2016, Southwest operated a total of 723 Boeing 737 aircraft and served 101 destinations in 40 states, the District of Columbia, the Commonwealth of Puerto Rico, and eight near-international countries: Mexico, Jamaica, The Bahamas, Aruba, Dominican Republic, Costa Rica, Belize, and Cuba.</v>
     <v>56500</v>
@@ -2559,26 +2559,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>PO Box 36611, 2702 Love Field Dr, DALLAS, TX, 75235-1611 US</v>
-    <v>62.3</v>
+    <v>60.37</v>
     <v>121</v>
     <v>Passenger Transportation Services</v>
     <v>Stock</v>
-    <v>44271.999241585159</v>
+    <v>44278.997154721874</v>
     <v>122</v>
-    <v>60.53</v>
-    <v>36681070000</v>
+    <v>57.06</v>
+    <v>35121680000</v>
     <v>SOUTHWEST AIRLINES CO.</v>
     <v>SOUTHWEST AIRLINES CO.</v>
-    <v>62.26</v>
+    <v>58.81</v>
     <v>0</v>
-    <v>62.1</v>
-    <v>60.54</v>
-    <v>60.5</v>
+    <v>59.46</v>
+    <v>57.59</v>
+    <v>57.65</v>
     <v>590677500</v>
     <v>LUV</v>
     <v>SOUTHWEST AIRLINES CO. (XNYS:LUV)</v>
-    <v>5928493</v>
-    <v>9363243</v>
+    <v>9849878</v>
+    <v>9500648</v>
     <v>1967</v>
   </rv>
   <rv s="2">
@@ -2593,7 +2593,7 @@
     <v>125</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_7d8255243964a8970376f8dd41121106&amp;qlt=95</v>
     <v>126</v>
     <v>0</v>
@@ -2615,14 +2615,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>231.91</v>
-    <v>124.23</v>
-    <v>0.61409999999999998</v>
-    <v>-0.6</v>
-    <v>4.5479999999999998E-5</v>
-    <v>-2.722E-3</v>
-    <v>0.01</v>
+    <v>136.5</v>
+    <v>0.61680000000000001</v>
+    <v>-0.7</v>
+    <v>-1.114E-3</v>
+    <v>-3.1099999999999999E-3</v>
+    <v>-0.25</v>
     <v>USD</v>
     <v>McDonald's Corporation (McDonald's) operates and franchises McDonald's restaurants. The Company's restaurants serve a locally relevant menu of food and drinks sold at various price points in over 100 countries. The Company's segments include U.S., International Lead Markets, High Growth Markets, and Foundational Markets and Corporate. The U.S. segment focuses on offering a platform for authentic ingredients that allows customers to customize their sandwiches. Its High Growth Markets segment includes its operations in markets, such as China, Italy, Korea, Poland, Russia, Spain, Switzerland, the Netherlands and related markets. The International Lead markets segment includes the Company's operations in various markets, such as Australia, Canada, France, Germany, the United Kingdom and related markets. The Foundational markets and Corporate segment is engaged in operating restaurants and increasing convenience to customers, including through drive-thru and delivery.</v>
     <v>200000</v>
@@ -2630,26 +2630,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>110 N Carpenter St, CHICAGO, IL, 60607-2104 US</v>
-    <v>221.3</v>
+    <v>226.4</v>
     <v>127</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>44271.990208714844</v>
+    <v>44278.969562510938</v>
     <v>128</v>
-    <v>217.16</v>
-    <v>164368800000</v>
+    <v>223.75129999999999</v>
+    <v>167805900000</v>
     <v>MCDONALD'S CORPORATION</v>
     <v>MCDONALD'S CORPORATION</v>
-    <v>219.58</v>
-    <v>34.967500000000001</v>
-    <v>220.46</v>
-    <v>219.86</v>
-    <v>219.87</v>
+    <v>223.96</v>
+    <v>35.698700000000002</v>
+    <v>225.07</v>
+    <v>224.37</v>
+    <v>224.12</v>
     <v>745572100</v>
     <v>MCD</v>
     <v>MCDONALD'S CORPORATION (XNYS:MCD)</v>
-    <v>3583426</v>
-    <v>3295416</v>
+    <v>2793925</v>
+    <v>3685368</v>
     <v>1964</v>
   </rv>
   <rv s="2">
@@ -2665,18 +2665,18 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>22</v>
+    <v>23</v>
     <v>MODERNA, INC. (XNAS:MRNA)</v>
     <v>2</v>
-    <v>23</v>
+    <v>24</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>189.26</v>
-    <v>22.22</v>
-    <v>12.36</v>
-    <v>-1.0383E-2</v>
-    <v>8.6036000000000001E-2</v>
-    <v>-1.62</v>
+    <v>24.36</v>
+    <v>-9.08</v>
+    <v>1.2672000000000001E-2</v>
+    <v>-6.2363000000000002E-2</v>
+    <v>1.73</v>
     <v>USD</v>
     <v>Moderna, Inc. is engaged in transformative medicines based on messenger ribonucleic acid (mRNA). It has created a platform to improve the underlying pharmaceutical properties of our mRNA medicines. Its platform consists of three areas: mRNA technologies, delivery technologies, and manufacturing processes. It is pursuing mRNA science to minimize the undesirable activation of the immune system by mRNA and to maximize the potency of mRNA once in the target cells. It has advanced in parallel a diverse development pipeline of 21 programs, of which 10 have entered clinical studies and another three have open INDs. Its therapeutics and vaccine development programs span infectious diseases, oncology, cardiovascular diseases, and rare genetic diseases. It has created six modalities prophylactic vaccines, cancer vaccines, intratumoral immmuno-oncology, localized regenerative therapeutics, systemic secreted therapeutics and systemic intracellular therapeutics.</v>
     <v>1300</v>
@@ -2684,24 +2684,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>200 Technology Sq, Cambridge, MA, 02139-3578 US</v>
-    <v>157.75</v>
+    <v>146.19</v>
     <v>Biotechnology &amp; Medical Research</v>
     <v>Stock</v>
-    <v>44271.999852638284</v>
+    <v>44278.995831863278</v>
     <v>131</v>
-    <v>145.84</v>
-    <v>57489850000</v>
+    <v>136.38</v>
+    <v>58266200000</v>
     <v>MODERNA, INC.</v>
     <v>MODERNA, INC.</v>
-    <v>148.5</v>
-    <v>143.66</v>
-    <v>156.02000000000001</v>
-    <v>154.4</v>
+    <v>145.61000000000001</v>
+    <v>145.6</v>
+    <v>136.52000000000001</v>
+    <v>138.25</v>
     <v>400180000</v>
     <v>MRNA</v>
     <v>MODERNA, INC. (XNAS:MRNA)</v>
-    <v>16991599</v>
-    <v>9236632</v>
+    <v>6959297</v>
+    <v>9654048</v>
     <v>2016</v>
   </rv>
   <rv s="2">
@@ -2716,7 +2716,7 @@
     <v>134</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_9b63ca533bc25eee84cbb87485423d78&amp;qlt=95</v>
     <v>135</v>
     <v>0</v>
@@ -2738,14 +2738,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>246.13</v>
     <v>132.52000000000001</v>
-    <v>0.79379999999999995</v>
-    <v>2.9</v>
-    <v>-1.262E-4</v>
-    <v>1.2350000000000002E-2</v>
-    <v>-0.03</v>
+    <v>0.79869999999999997</v>
+    <v>1.59</v>
+    <v>4.2090000000000004E-4</v>
+    <v>6.7379999999999992E-3</v>
+    <v>0.1</v>
     <v>USD</v>
     <v>Microsoft Corporation is a technology company. The Company develops, licenses, and supports a range of software products, services and devices. The Company's segments include Productivity and Business Processes, Intelligent Cloud and More Personal Computing. The Company's products include operating systems; cross-device productivity applications; server applications; business solution applications; desktop and server management tools; software development tools; video games, and training and certification of computer system integrators and developers. It also designs, manufactures, and sells devices, including personal computers (PCs), tablets, gaming and entertainment consoles, phones, other intelligent devices, and related accessories, that integrate with its cloud-based offerings. It offers an array of services, including cloud-based solutions that provide customers with software, services, platforms, and content, and it provides solution support and consulting services.</v>
     <v>163000</v>
@@ -2753,26 +2753,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Microsoft Way, REDMOND, WA, 98052-6399 US</v>
-    <v>240.05500000000001</v>
+    <v>241.05</v>
     <v>136</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44271.999993310157</v>
+    <v>44278.995796053125</v>
     <v>137</v>
-    <v>235.94</v>
-    <v>1770988000000</v>
+    <v>237.07</v>
+    <v>1779888000000</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>236.28</v>
-    <v>34.9724</v>
-    <v>234.81</v>
-    <v>237.71</v>
+    <v>237.48500000000001</v>
+    <v>35.148200000000003</v>
+    <v>235.99</v>
+    <v>237.58</v>
     <v>237.68</v>
     <v>7542216000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>28092196</v>
-    <v>28268656</v>
+    <v>31637475</v>
+    <v>31020199</v>
     <v>1993</v>
   </rv>
   <rv s="2">
@@ -2788,19 +2788,19 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>24</v>
+    <v>25</v>
     <v>NOVAVAX, INC. (XNAS:NVAX)</v>
     <v>2</v>
-    <v>25</v>
+    <v>26</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>331.68</v>
-    <v>6.77</v>
-    <v>1.5183</v>
-    <v>4.7699999999999996</v>
-    <v>-4.4999999999999996E-5</v>
-    <v>2.1934999999999996E-2</v>
-    <v>-0.01</v>
+    <v>10.029999999999999</v>
+    <v>1.5508999999999999</v>
+    <v>-17.36</v>
+    <v>3.457E-3</v>
+    <v>-7.3187000000000002E-2</v>
+    <v>0.76</v>
     <v>USD</v>
     <v>Novavax, Inc. is a clinical-stage vaccine company focused on the discovery, development and commercialization of recombinant nanoparticle vaccines and adjuvants. The Company operates through developing recombinant vaccines segment. The Company, through its recombinant nanoparticle vaccine technology, produces vaccine candidates to respond to both known and newly emerging diseases. The Company's product pipeline focuses on a range of infectious diseases with vaccine candidates in clinical development for respiratory syncytial virus (RSV), seasonal influenza, pandemic influenza and the Ebola virus (EBOV). The Company's lead adjuvant for human applications, Matrix-M, is in a Phase I/II clinical trial for pandemic influenza H7N9 vaccine candidate. It is also testing Matrix-M in conjunction with its EBOV vaccine candidate in a Phase I clinical trial. It is developing additional pre-clinical stage programs in a range of infectious diseases, including Middle East respiratory syndrome (MERS).</v>
     <v>791</v>
@@ -2808,24 +2808,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>21 Firstfield Rd, GAITHERSBURG, MD, 20878-1757 US</v>
-    <v>235</v>
+    <v>239.54</v>
     <v>Biotechnology &amp; Medical Research</v>
     <v>Stock</v>
-    <v>44271.999807233595</v>
+    <v>44278.995243888283</v>
     <v>140</v>
-    <v>216</v>
-    <v>16061350000</v>
+    <v>218.61</v>
+    <v>17519330000</v>
     <v>NOVAVAX, INC.</v>
     <v>NOVAVAX, INC.</v>
-    <v>220.06</v>
-    <v>217.46</v>
-    <v>222.23</v>
-    <v>222.22</v>
+    <v>237.5</v>
+    <v>237.2</v>
+    <v>219.84</v>
+    <v>220.6</v>
     <v>73858880</v>
     <v>NVAX</v>
     <v>NOVAVAX, INC. (XNAS:NVAX)</v>
-    <v>3770378</v>
-    <v>3845992</v>
+    <v>2023261</v>
+    <v>3600868</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2840,7 +2840,7 @@
     <v>143</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_a1316160b9d7d0e339f77550180e6aa0&amp;qlt=95</v>
     <v>144</v>
     <v>0</v>
@@ -2864,12 +2864,12 @@
     <v>Finance</v>
     <v>4</v>
     <v>614.9</v>
-    <v>180.6807</v>
-    <v>1.3734</v>
-    <v>4</v>
-    <v>-6.0190000000000005E-4</v>
-    <v>7.5810000000000001E-3</v>
-    <v>-0.32</v>
+    <v>198.52</v>
+    <v>1.3845000000000001</v>
+    <v>-4.62</v>
+    <v>-1.109E-3</v>
+    <v>-8.7589999999999994E-3</v>
+    <v>-0.57999999999999996</v>
     <v>USD</v>
     <v>Nvidia Corporation focuses on personal computer (PC) graphics, graphics processing unit (GPU) and also on artificial intelligence (AI). It operates through two segments: GPU and Tegra Processor. Its GPU product brands are aimed at specialized markets, including GeForce for gamers; Quadro for designers; Tesla and DGX for AI data scientists and big data researchers; and GRID for cloud-based visual computing users. Its Tegra brand integrates an entire computer onto a single chip, and incorporates GPUs and multi-core central processing units (CPUs) to drive supercomputing for mobile gaming and entertainment devices, as well as autonomous robots, drones and cars. The Company's processor has created platforms that address four markets: Gaming, Professional Visualization, Datacenter, and Automotive. Its offerings include NVIDIA DGX AI supercomputer, the NVIDIA DRIVE AI car computing platform and the GeForce NOW cloud gaming service.</v>
     <v>18975</v>
@@ -2877,26 +2877,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2788 San Tomas Expy, SANTA CLARA, CA, 95051-0952 US</v>
-    <v>540.5</v>
+    <v>533.78</v>
     <v>145</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>44271.999907441408</v>
+    <v>44278.998052267969</v>
     <v>146</v>
-    <v>524.66999999999996</v>
-    <v>327143000000</v>
+    <v>520.86</v>
+    <v>327019000000</v>
     <v>NVIDIA CORPORATION</v>
     <v>NVIDIA CORPORATION</v>
-    <v>534.26</v>
-    <v>76.492199999999997</v>
-    <v>527.65</v>
-    <v>531.65</v>
-    <v>531.33000000000004</v>
+    <v>530.17999999999995</v>
+    <v>76.463200000000001</v>
+    <v>527.45000000000005</v>
+    <v>522.83000000000004</v>
+    <v>522.25</v>
     <v>620000000</v>
     <v>NVDA</v>
     <v>NVIDIA CORPORATION (XNAS:NVDA)</v>
-    <v>6803240</v>
-    <v>9954718</v>
+    <v>5550433</v>
+    <v>9328789</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -2912,18 +2912,18 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>26</v>
+    <v>27</v>
     <v>OPENDOOR TECHNOLOGIES INC. (XNAS:OPEN)</v>
     <v>2</v>
-    <v>27</v>
+    <v>28</v>
     <v>Finance</v>
     <v>4</v>
     <v>39.24</v>
     <v>10.55</v>
-    <v>-1.43</v>
-    <v>-5.1129999999999995E-3</v>
-    <v>-4.9635999999999993E-2</v>
-    <v>-0.14000000000000001</v>
+    <v>-2.2799999999999998</v>
+    <v>2.3419999999999999E-3</v>
+    <v>-8.1720000000000001E-2</v>
+    <v>0.06</v>
     <v>USD</v>
     <v>Opendoor Technologies Inc. operates a digital platform for residential real estate that enables consumers to buy and sell their home. Home sellers can use the Company's mobile application or Website to request a competitive cash offer online. Home buyers can likewise utilize its app or Website to self-tour or virtually tour homes at their convenience, shop for financing, submit an offer and close on their timeline. It acquires homes directly from individual sellers and resell those homes to buyers, including both individual consumers and institutional investors. Upon acquiring a home, it typically makes necessary renovations and repairs before listing it for sale on its Website, its mobile app, Multiple Listing Services (MLS) and other online real estate portals. It also offers adjacent services, including title and escrow, Opendoor Home Loans, List with Opendoor and Buy with Opendoor.</v>
     <v>1048</v>
@@ -2931,25 +2931,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>410 N. Scottsdale Road, Suite 1600, TEMPE, AZ, 85281 US</v>
-    <v>30.04</v>
+    <v>27.5</v>
     <v>Real Estate Operations</v>
     <v>Stock</v>
-    <v>44271.999857094532</v>
+    <v>44278.999755601566</v>
     <v>149</v>
-    <v>26.44</v>
-    <v>16629930000</v>
+    <v>25.1</v>
+    <v>16104650000</v>
     <v>OPENDOOR TECHNOLOGIES INC.</v>
     <v>OPENDOOR TECHNOLOGIES INC.</v>
-    <v>28.65</v>
+    <v>27.3</v>
     <v>0</v>
-    <v>28.81</v>
-    <v>27.38</v>
-    <v>27.24</v>
+    <v>27.9</v>
+    <v>25.62</v>
+    <v>25.68</v>
     <v>577227600</v>
     <v>OPEN</v>
     <v>OPENDOOR TECHNOLOGIES INC. (XNAS:OPEN)</v>
-    <v>12390810</v>
-    <v>12558839</v>
+    <v>14473978</v>
+    <v>12498100</v>
   </rv>
   <rv s="2">
     <v>150</v>
@@ -2969,13 +2969,13 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>43.079700000000003</v>
     <v>26.428799999999999</v>
-    <v>0.69810000000000005</v>
-    <v>0.42</v>
-    <v>2.7910000000000001E-4</v>
-    <v>1.1861E-2</v>
+    <v>0.7006</v>
+    <v>-0.64</v>
+    <v>2.8279999999999999E-4</v>
+    <v>-1.7778000000000002E-2</v>
     <v>0.01</v>
     <v>USD</v>
     <v>Pfizer Inc. (Pfizer) is a research-based global biopharmaceutical company. The Company is engaged in the discovery, development and manufacture of healthcare products. Its global portfolio includes medicines and vaccines. The Company manages its commercial operations through two business segments: Pfizer Innovative Health (IH) and Pfizer Essential Health (EH). IH focuses on developing and commercializing medicines and vaccines. IH therapeutic areas include internal medicine, vaccines, oncology, inflammation and immunology, rare diseases and consumer healthcare. EH includes legacy brands, branded generics, generic sterile injectable products, biosimilars and infusion systems. EH also includes a research and development (R&amp;D) organization, as well as its contract manufacturing business. Its brands include Prevnar 13, Xeljanz, Eliquis, Lipitor, Celebrex, Pristiq and Viagra.</v>
@@ -2984,25 +2984,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>235 E 42ND ST, NEW YORK, NY, 10017-5703 US</v>
-    <v>35.86</v>
+    <v>35.93</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>44271.999752858595</v>
+    <v>44278.994957349219</v>
     <v>152</v>
-    <v>35.31</v>
-    <v>197522800000</v>
+    <v>35.32</v>
+    <v>200813900000</v>
     <v>PFIZER INC.</v>
     <v>PFIZER INC.</v>
-    <v>35.47</v>
-    <v>28.358899999999998</v>
-    <v>35.409999999999997</v>
-    <v>35.83</v>
-    <v>35.840000000000003</v>
+    <v>35.82</v>
+    <v>28.831399999999999</v>
+    <v>36</v>
+    <v>35.36</v>
+    <v>35.369999999999997</v>
     <v>5578164000</v>
     <v>PFE</v>
     <v>PFIZER INC. (XNYS:PFE)</v>
-    <v>25022393</v>
-    <v>30492957</v>
+    <v>27968871</v>
+    <v>31243390</v>
     <v>1942</v>
   </rv>
   <rv s="2">
@@ -3018,18 +3018,18 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>20</v>
+    <v>21</v>
     <v>PINTEREST, INC. (XNYS:PINS)</v>
     <v>2</v>
-    <v>21</v>
+    <v>22</v>
     <v>Finance</v>
     <v>4</v>
     <v>89.9</v>
-    <v>10.1</v>
-    <v>1</v>
-    <v>1.3549999999999999E-4</v>
-    <v>1.3737999999999998E-2</v>
-    <v>0.01</v>
+    <v>11.47</v>
+    <v>-1.08</v>
+    <v>0</v>
+    <v>-1.4926999999999999E-2</v>
+    <v>0</v>
     <v>USD</v>
     <v>Pinterest, Inc. is a visual discovery engine. The Company operates a visual discovery platform, where users can create and manage theme-based image collections and share inspirations for their lives. Its visual discovery platform acts like a virtual Pinboard, where people uses pins to share their weddings, home decorating ideas, travel destinations, save images and videos on Web and organize their favorite recipes. Its offered platform is also integrated with image recognition technology, which allows users to take pictures through their smartphones and provides related information and ideas to the object. It offers online marketing services to brands, which allows brands to connect with people on the basis of their shared tastes and interests. It offered Pins include Recipe Pins, Video Pins, Product Pins and Shop the Look.</v>
     <v>2545</v>
@@ -3037,25 +3037,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>505 BRANNAN STREET, SAN FRANCISCO, CA, 94107 US</v>
-    <v>75.098299999999995</v>
+    <v>72.09</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44271.999390995312</v>
+    <v>44278.999535149997</v>
     <v>155</v>
-    <v>72.510000000000005</v>
-    <v>45749580000</v>
+    <v>70.599999999999994</v>
+    <v>45473040000</v>
     <v>PINTEREST, INC.</v>
     <v>PINTEREST, INC.</v>
-    <v>73.989999999999995</v>
+    <v>72</v>
     <v>0</v>
-    <v>72.790000000000006</v>
-    <v>73.790000000000006</v>
-    <v>73.8</v>
+    <v>72.349999999999994</v>
+    <v>71.27</v>
+    <v>71.27</v>
     <v>628514600</v>
     <v>PINS</v>
     <v>PINTEREST, INC. (XNYS:PINS)</v>
-    <v>10032089</v>
-    <v>13877533</v>
+    <v>9351413</v>
+    <v>12738827</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -3071,37 +3071,37 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>28</v>
+    <v>29</v>
     <v>Glbl X Cannabis ETF (XNAS:POTX)</v>
-    <v>12</v>
-    <v>29</v>
+    <v>13</v>
+    <v>30</v>
     <v>Finance</v>
-    <v>14</v>
+    <v>31</v>
     <v>29.5</v>
-    <v>6.5243000000000002</v>
-    <v>-1</v>
-    <v>2.2589999999999997E-3</v>
-    <v>-5.3446999999999995E-2</v>
-    <v>0.04</v>
+    <v>7.17</v>
+    <v>-0.8</v>
+    <v>8.6899999999999998E-3</v>
+    <v>-4.7309000000000004E-2</v>
+    <v>0.14000000000000001</v>
     <v>USD</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>5.1000000000000004E-3</v>
-    <v>18.97</v>
+    <v>16.869</v>
     <v>ETF</v>
-    <v>44271.999118599218</v>
+    <v>44278.994775578125</v>
     <v>158</v>
-    <v>17.329999999999998</v>
+    <v>16.05</v>
     <v>219459295.97999999</v>
     <v>Glbl X Cannabis ETF</v>
-    <v>18.95</v>
-    <v>18.71</v>
-    <v>17.71</v>
-    <v>17.75</v>
+    <v>16.760000000000002</v>
+    <v>16.91</v>
+    <v>16.11</v>
+    <v>16.25</v>
     <v>POTX</v>
     <v>Glbl X Cannabis ETF (XNAS:POTX)</v>
-    <v>795105</v>
-    <v>1386049</v>
+    <v>443469</v>
+    <v>730673</v>
   </rv>
   <rv s="2">
     <v>159</v>
@@ -3116,38 +3116,38 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>11</v>
+    <v>12</v>
     <v>Invesco QQQ Trust 1 (XNAS:QQQ)</v>
-    <v>12</v>
     <v>13</v>
+    <v>14</v>
     <v>Finance</v>
-    <v>14</v>
+    <v>15</v>
     <v>338.19</v>
     <v>164.93</v>
     <v>1.0201</v>
-    <v>1.75</v>
-    <v>6.8629999999999993E-4</v>
-    <v>5.4890000000000008E-3</v>
-    <v>0.22</v>
+    <v>-1.39</v>
+    <v>1.103E-3</v>
+    <v>-4.3630000000000006E-3</v>
+    <v>0.35</v>
     <v>USD</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>2E-3</v>
-    <v>324.2</v>
+    <v>321.08010000000002</v>
     <v>ETF</v>
-    <v>44271.999979941407</v>
+    <v>44278.999913228909</v>
     <v>161</v>
-    <v>319.10000000000002</v>
+    <v>316.375</v>
     <v>150566164355.17001</v>
     <v>Invesco QQQ Trust 1</v>
-    <v>321.08999999999997</v>
-    <v>318.83</v>
-    <v>320.58</v>
-    <v>320.8</v>
+    <v>319.68</v>
+    <v>318.61</v>
+    <v>317.22000000000003</v>
+    <v>317.57</v>
     <v>QQQ</v>
     <v>Invesco QQQ Trust 1 (XNAS:QQQ)</v>
-    <v>54925896</v>
-    <v>60484203</v>
+    <v>53460107</v>
+    <v>66484119</v>
   </rv>
   <rv s="2">
     <v>162</v>
@@ -3161,7 +3161,7 @@
     <v>164</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_a586c676d6950885516e2cb6f485bf08&amp;qlt=95</v>
     <v>165</v>
     <v>0</v>
@@ -3178,19 +3178,19 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>30</v>
+    <v>32</v>
     <v>REDFIN CORPORATION (XNAS:RDFN)</v>
     <v>7</v>
-    <v>31</v>
+    <v>33</v>
     <v>Finance</v>
     <v>4</v>
     <v>98.444999999999993</v>
-    <v>9.6300000000000008</v>
-    <v>1.9192</v>
-    <v>-1.67</v>
-    <v>1.503E-3</v>
-    <v>-2.2307999999999998E-2</v>
-    <v>0.11</v>
+    <v>11.06</v>
+    <v>1.9145000000000001</v>
+    <v>-3</v>
+    <v>6.6390000000000008E-3</v>
+    <v>-4.3303000000000001E-2</v>
+    <v>0.44</v>
     <v>USD</v>
     <v>Redfin Corporation is engaged in providing residential real estate brokerage services. The customer can search for homes by neighborhood, city or MLS number, or can refine results using detailed parameters, such as price and number of beds or baths. The Company serves home buyers and sellers. The Company offers online tools to consumers, including Redfin Estimate, which is an automated home-valuation tool. The customer can search homes for sale in Austin, Atlanta, Baltimore, Boston, Charlotte, Chicago, Dallas, Denver, Fort Lauderdale, Houston, Lake Tahoe, Las Vegas, Los Angeles, Miami, Philadelphia, Phoenix, Portland, OR, Raleigh, San Antonio, San Diego, San Francisco, Sacramento, San Jose, Seattle and Washington. The Company serves over 80 metro areas across the United States.</v>
     <v>4185</v>
@@ -3198,25 +3198,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1099 Stewart St Ste 600, SEATTLE, WA, 98101-2161 US</v>
-    <v>76.8</v>
+    <v>68.5</v>
     <v>166</v>
     <v>Real Estate Operations</v>
     <v>Stock</v>
-    <v>44271.999323796095</v>
+    <v>44278.997283483593</v>
     <v>167</v>
-    <v>71.88</v>
-    <v>7726034000</v>
+    <v>65.650000000000006</v>
+    <v>7150142000</v>
     <v>REDFIN CORPORATION</v>
     <v>REDFIN CORPORATION</v>
-    <v>75.430000000000007</v>
-    <v>74.86</v>
-    <v>73.19</v>
-    <v>73.3</v>
+    <v>68.180000000000007</v>
+    <v>69.28</v>
+    <v>66.28</v>
+    <v>66.72</v>
     <v>103206400</v>
     <v>RDFN</v>
     <v>REDFIN CORPORATION (XNAS:RDFN)</v>
-    <v>1144438</v>
-    <v>2163896</v>
+    <v>3662297</v>
+    <v>2155980</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -3231,7 +3231,7 @@
     <v>170</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_e27b6f4d10a663f3cbffe838112b48be&amp;qlt=95</v>
     <v>171</v>
     <v>0</v>
@@ -3255,12 +3255,12 @@
     <v>Finance</v>
     <v>4</v>
     <v>112.34</v>
-    <v>50.02</v>
-    <v>0.87909999999999999</v>
-    <v>2.44</v>
-    <v>1.6170000000000002E-3</v>
-    <v>2.2406000000000002E-2</v>
-    <v>0.18</v>
+    <v>54</v>
+    <v>0.88</v>
+    <v>-1.32</v>
+    <v>0</v>
+    <v>-1.2271000000000001E-2</v>
+    <v>0</v>
     <v>USD</v>
     <v>Starbucks Corp is a coffee roaster and retailer of specialty coffee with operations in approximately 82 markets around the world. The Company has over 32,000 Company-operated and licensed stores. It operates through three segments: Americas, International and Channel Development. It also sells a variety of coffee and tea products and license its trademarks through other channels, such as licensed stores, grocery and foodservice. It purchases and roasts coffees that it sells, along with handcrafted coffee, tea and other beverages and a variety of food items through Company-operated stores. In addition to its flagship Starbucks Coffee brand, it sells goods and services under various brands, including Teavana, Seattle’s Best Coffee, Evolution Fresh, Ethos, Starbucks Reserve and Princi.</v>
     <v>349000</v>
@@ -3268,26 +3268,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2401 Utah Ave S, SEATTLE, WA, 98134-1436 US</v>
-    <v>112.34</v>
+    <v>107.9477</v>
     <v>172</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>44271.999904652344</v>
+    <v>44278.999166805472</v>
     <v>173</v>
-    <v>109.89</v>
-    <v>128208000000</v>
+    <v>105.6738</v>
+    <v>126642200000</v>
     <v>STARBUCKS CORPORATION</v>
     <v>STARBUCKS CORPORATION</v>
-    <v>110.568</v>
-    <v>195.6908</v>
-    <v>108.9</v>
-    <v>111.34</v>
-    <v>111.52</v>
+    <v>107.74</v>
+    <v>193.30090000000001</v>
+    <v>107.57</v>
+    <v>106.25</v>
+    <v>106.25</v>
     <v>1177300000</v>
     <v>SBUX</v>
     <v>STARBUCKS CORPORATION (XNAS:SBUX)</v>
-    <v>11376177</v>
-    <v>5811738</v>
+    <v>5657840</v>
+    <v>7371908</v>
     <v>1985</v>
   </rv>
   <rv s="2">
@@ -3302,7 +3302,7 @@
     <v>176</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_7e4364ddaa2b53548bce18826abc415c&amp;qlt=95</v>
     <v>177</v>
     <v>0</v>
@@ -3326,12 +3326,12 @@
     <v>Finance</v>
     <v>4</v>
     <v>1499.75</v>
-    <v>305.30009999999999</v>
-    <v>1.4555</v>
-    <v>-15.83</v>
-    <v>1.5129999999999998E-3</v>
-    <v>-1.3657999999999998E-2</v>
-    <v>1.73</v>
+    <v>334.55</v>
+    <v>1.4722</v>
+    <v>3</v>
+    <v>8.2550000000000002E-3</v>
+    <v>2.5859999999999998E-3</v>
+    <v>9.6</v>
     <v>USD</v>
     <v>Shopify Inc. (Shopify) provides a cloud-based, multi-channel commerce platform designed for small and medium-sized businesses. The Company offers subscription solutions and merchant solutions. The Company's software is used by merchants to run their business across all of their sales channels, including Web and mobile storefronts, physical retail locations, social media storefronts and marketplaces. The Shopify platform provides merchants with a single view of their business and customers across all of their sales channels and enables them to manage products and inventory, process orders and payments, ship orders, build customer relationships and leverage analytics and reporting all from one integrated back office. The Shopify platform includes a mobile-optimized checkout system, which is designed to enable merchants' consumers to buy products over mobile Websites.</v>
     <v>7000</v>
@@ -3339,26 +3339,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>151 O'connor Street, Ground Floor, OTTAWA, ON, K2P 2L8 CA</v>
-    <v>1190</v>
+    <v>1167.9974</v>
     <v>178</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44271.999768135938</v>
+    <v>44278.999397997657</v>
     <v>179</v>
-    <v>1124.0001</v>
-    <v>143396000000</v>
+    <v>1142.3</v>
+    <v>143519700000</v>
     <v>SHOPIFY INC.</v>
     <v>SHOPIFY INC.</v>
-    <v>1183.1199999999999</v>
-    <v>453.68959999999998</v>
-    <v>1159</v>
-    <v>1143.17</v>
-    <v>1144.9000000000001</v>
+    <v>1165</v>
+    <v>454.08109999999999</v>
+    <v>1160</v>
+    <v>1163</v>
+    <v>1172.5999999999999</v>
     <v>123723900</v>
     <v>SHOP</v>
     <v>SHOPIFY INC. (XNYS:SHOP)</v>
-    <v>1069820</v>
-    <v>1783370</v>
+    <v>896648</v>
+    <v>1676697</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -3379,14 +3379,14 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>151.43989999999999</v>
     <v>15.27</v>
-    <v>2.0779000000000001</v>
-    <v>-4.87</v>
-    <v>3.4480000000000001E-3</v>
-    <v>-3.3135999999999999E-2</v>
-    <v>0.49</v>
+    <v>2.0743</v>
+    <v>-3.81</v>
+    <v>0</v>
+    <v>-2.7092000000000001E-2</v>
+    <v>0</v>
     <v>USD</v>
     <v>Sleep Number Corporation, formerly Select Comfort Corporation, is a designer, manufacturer, marketer, retailer and servicer of a line of Sleep Number beds. The Company offers consumers individualized sleep solutions and services, which include a complete line of Sleep Number beds, bases and bedding accessories. Its Sleep Number bed offers SleepIQ technology sensors that work directly with the bed's DualAir technology to track each individual's sleep. The Sleep Number bedding collection comprises a line of sleep products that are designed to solve sleep issues. It offers FlextFit adjustable bases, and Sleep Number pillows, sheets and other bedding products. It offers Sleep Number beds in ranges within the mattress category, and in a range of sizes, including twin, full, queen, eastern king and California king. It also offers an assortment of temperature-balancing products.</v>
     <v>4679</v>
@@ -3394,25 +3394,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1001 Third Avenue South, MINNEAPOLIS, MN, 55404 US</v>
-    <v>149.97999999999999</v>
+    <v>143.34</v>
     <v>Household Goods</v>
     <v>Stock</v>
-    <v>44271.975867835157</v>
+    <v>44278.878319409378</v>
     <v>182</v>
-    <v>137.55629999999999</v>
-    <v>3729364000</v>
+    <v>135.44999999999999</v>
+    <v>3568486000</v>
     <v>SLEEP NUMBER CORPORATION</v>
     <v>SLEEP NUMBER CORPORATION</v>
-    <v>148.5</v>
-    <v>30.017199999999999</v>
-    <v>146.97</v>
-    <v>142.1</v>
-    <v>142.59</v>
+    <v>139.44</v>
+    <v>28.722300000000001</v>
+    <v>140.63</v>
+    <v>136.82</v>
+    <v>136.82</v>
     <v>25375000</v>
     <v>SNBR</v>
     <v>SLEEP NUMBER CORPORATION (XNAS:SNBR)</v>
-    <v>570169</v>
-    <v>644858</v>
+    <v>383084</v>
+    <v>679611</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -3428,18 +3428,18 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>22</v>
+    <v>23</v>
     <v>SUNDIAL GROWERS INC. (XNAS:SNDL)</v>
     <v>2</v>
-    <v>32</v>
+    <v>34</v>
     <v>Finance</v>
     <v>4</v>
     <v>3.96</v>
     <v>0.1381</v>
-    <v>-0.11</v>
-    <v>6.6230000000000004E-3</v>
-    <v>-6.7901000000000003E-2</v>
-    <v>0.01</v>
+    <v>-0.09</v>
+    <v>0</v>
+    <v>-6.9231000000000001E-2</v>
+    <v>0</v>
     <v>USD</v>
     <v>Sundial Growers Inc. (Sundial) is a cannabis company engaged in the production, distribution and sale of cannabis for the medical and adult-use market. The Company produces and markets premium cannabis for the adult-use market. In Sundial’s purpose-built indoor modular grow rooms, the Company produces consistent cannabis in individual and fully controlled room environments. The Company’s cannabis products are used as prescription medicines, and to enhance social, spiritual and recreational occasions. The Company sells Sundial Cannabis-branded dried flower cannabis products in a range of formats, such as pre-rolls, oils, capsules and sublingual.</v>
     <v>868</v>
@@ -3447,24 +3447,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>919 11 Ave SW Suite 200, Calgary, AB, T2R 1P3 CA</v>
-    <v>1.75</v>
+    <v>1.29</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>44271.999987221876</v>
+    <v>44278.999806017971</v>
     <v>185</v>
-    <v>1.45</v>
-    <v>2529391000</v>
+    <v>1.1599999999999999</v>
+    <v>2158294000</v>
     <v>SUNDIAL GROWERS INC.</v>
     <v>SUNDIAL GROWERS INC.</v>
-    <v>1.7450000000000001</v>
-    <v>1.62</v>
-    <v>1.51</v>
-    <v>1.52</v>
-    <v>1561353000</v>
+    <v>1.25</v>
+    <v>1.3</v>
+    <v>1.21</v>
+    <v>1.21</v>
+    <v>1660226000</v>
     <v>SNDL</v>
     <v>SUNDIAL GROWERS INC. (XNAS:SNDL)</v>
-    <v>472620764</v>
-    <v>631503482</v>
+    <v>265486133</v>
+    <v>361670634</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -3479,7 +3479,7 @@
     <v>188</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_878826beb4f985541f4b3b62b4e00be4&amp;qlt=95</v>
     <v>189</v>
     <v>0</v>
@@ -3503,12 +3503,12 @@
     <v>Finance</v>
     <v>4</v>
     <v>283.18979999999999</v>
-    <v>32.33</v>
-    <v>2.4628999999999999</v>
-    <v>-7.87</v>
-    <v>-8.2180000000000003E-5</v>
-    <v>-3.1326E-2</v>
-    <v>-0.02</v>
+    <v>36.11</v>
+    <v>2.4470999999999998</v>
+    <v>-3.04</v>
+    <v>-3.9889999999999995E-3</v>
+    <v>-1.3444000000000001E-2</v>
+    <v>-0.89</v>
     <v>USD</v>
     <v>Square, Inc. (Square) is a commerce ecosystem. The Company enables its sellers start, run and grow their businesses. It combines software with hardware to enable sellers to turn mobile devices and computing devices into payments and point-of-sale solutions. Once a seller downloads the Square Point of Sale mobile application, they can take their first payment. With its offering, a seller can accept payments in person via magnetic stripe (a swipe), Europay, MasterCard, and Visa (EMV) (a dip), or Near Field Communication (NFC) (a tap); or online via Square Invoices, Square Virtual Terminal, or the seller's Website. Once on its system, sellers gain access to technology and features, such as reporting and analytics, next-day settlements, digital receipts, payment dispute management and chargeback protection, and Payment Card Industry (PCI) compliance. On the consumer (buyer) side, Square Cash offers individuals access to a way to send and receive money.</v>
     <v>5477</v>
@@ -3516,26 +3516,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1455 Market Street, Suite 600, SAN FRANCISCO, CA, 94103 US</v>
-    <v>252.5</v>
+    <v>228.3399</v>
     <v>190</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>44271.999971897654</v>
+    <v>44278.999730185154</v>
     <v>191</v>
-    <v>238.67</v>
-    <v>114212800000</v>
+    <v>221.52</v>
+    <v>102802000000</v>
     <v>SQUARE, INC.</v>
     <v>SQUARE, INC.</v>
-    <v>252.26</v>
-    <v>862.2962</v>
-    <v>251.23</v>
-    <v>243.36</v>
-    <v>243.34</v>
+    <v>226.31</v>
+    <v>776.14549999999997</v>
+    <v>226.13</v>
+    <v>223.09</v>
+    <v>222.2</v>
     <v>454614700</v>
     <v>SQ</v>
     <v>SQUARE, INC. (XNYS:SQ)</v>
-    <v>7491649</v>
-    <v>13053927</v>
+    <v>5591468</v>
+    <v>12789502</v>
     <v>2009</v>
   </rv>
   <rv s="2">
@@ -3550,7 +3550,7 @@
     <v>194</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_8d203761c16e76dae4999ae18bd56e7b&amp;qlt=95</v>
     <v>195</v>
     <v>0</v>
@@ -3574,12 +3574,12 @@
     <v>Finance</v>
     <v>4</v>
     <v>49.9</v>
-    <v>14.98</v>
-    <v>1.4579</v>
-    <v>-1.72</v>
-    <v>-6.4060000000000007E-4</v>
-    <v>-3.5427E-2</v>
-    <v>-0.03</v>
+    <v>17.260000000000002</v>
+    <v>1.4453</v>
+    <v>-2.23</v>
+    <v>-4.4640000000000001E-3</v>
+    <v>-4.7417000000000001E-2</v>
+    <v>-0.2</v>
     <v>USD</v>
     <v>Steel Dynamics, Inc. is a steel producing and a metal recycling company. The Company is engaged in the manufacture and sale of steel products, processing and sale of recycled ferrous and nonferrous metals, and fabrication and sale of steel joists and deck products. Its segments include steel operations, metals recycling operations, steel fabrication operations and Other Operations. It offers a range of steel products, such as sheet products, long products and steel finishing. The steel operations segment includes Butler Flat Roll Division, Columbus Flat Roll Division, The Techs galvanizing lines, Structural and Rail Division, Engineered Bar Products Division, Roanoke Bar Division, Steel of West Virginia and Iron Dynamics. The metals recycling operations segment consists of OmniSource Corporation. The fabrication operations produce steel building components. The Other Operations segment consists of subsidiary operations and smaller joint ventures.</v>
     <v>9625</v>
@@ -3587,26 +3587,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>7575 W JEFFERSON BLVD, FORT WAYNE, IN, 46804-4131 US</v>
-    <v>48.865000000000002</v>
+    <v>46.71</v>
     <v>196</v>
     <v>Metals &amp; Mining</v>
     <v>Stock</v>
-    <v>44271.910163853907</v>
+    <v>44278.998558240623</v>
     <v>197</v>
-    <v>46.82</v>
-    <v>10244300000</v>
+    <v>44.44</v>
+    <v>9923570000</v>
     <v>STEEL DYNAMICS, INC.</v>
     <v>STEEL DYNAMICS, INC.</v>
-    <v>48.86</v>
-    <v>18.739000000000001</v>
-    <v>48.55</v>
-    <v>46.83</v>
-    <v>46.8</v>
+    <v>46.14</v>
+    <v>18.1523</v>
+    <v>47.03</v>
+    <v>44.8</v>
+    <v>44.6</v>
     <v>211005100</v>
     <v>STLD</v>
     <v>STEEL DYNAMICS, INC. (XNAS:STLD)</v>
-    <v>3685147</v>
-    <v>1941675</v>
+    <v>3148763</v>
+    <v>2371767</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -3621,7 +3621,7 @@
     <v>200</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_883f0b8ce1936d44773796acec8a6906&amp;qlt=95</v>
     <v>201</v>
     <v>0</v>
@@ -3643,14 +3643,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>83.97</v>
-    <v>26</v>
-    <v>1.4357</v>
-    <v>-2.79</v>
-    <v>6.8369999999999993E-3</v>
-    <v>-3.3517999999999999E-2</v>
-    <v>0.55000000000000004</v>
+    <v>32.369999999999997</v>
+    <v>1.4266000000000001</v>
+    <v>-0.82</v>
+    <v>2.0569999999999998E-3</v>
+    <v>-1.0433E-2</v>
+    <v>0.16</v>
     <v>USD</v>
     <v>Sysco Corporation (Sysco) is a distributor of food and related products primarily to the foodservice or food-away-from-home industry. The Company's segments include Broadline, SYGMA and Other. The Broadline segment includes its Broadline operations located in the Bahamas, Canada, Costa Rica, Ireland, Mexico and the United States. Broadline operating companies distribute a full line of food products and a range of non-food products to both traditional and chain restaurant customers, hospitals, schools, hotels, industrial caterers and other venues where foodservice products are served. SYGMA operating companies distribute a full line of food products and a range of non-food products to certain chain restaurant customer locations. The Other segment includes the Company's specialty produce; custom-cut meat operations; lodging industry segments; a company that distributes specialty imported products; a company that distributes to international customers, and Sysco Ventures platform.</v>
     <v>57000</v>
@@ -3658,26 +3658,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1390 Enclave Pkwy, HOUSTON, TX, 77077-2025 US</v>
-    <v>82.64</v>
+    <v>78.27</v>
     <v>202</v>
     <v>Food &amp; Drug Retailing</v>
     <v>Stock</v>
-    <v>44271.998936249998</v>
+    <v>44278.958333344533</v>
     <v>203</v>
-    <v>80.17</v>
-    <v>42486690000</v>
+    <v>76.41</v>
+    <v>40118380000</v>
     <v>SYSCO CORPORATION</v>
     <v>SYSCO CORPORATION</v>
-    <v>82.38</v>
+    <v>77.86</v>
     <v>0</v>
-    <v>83.24</v>
-    <v>80.45</v>
-    <v>81</v>
+    <v>78.599999999999994</v>
+    <v>77.78</v>
+    <v>77.94</v>
     <v>510412000</v>
     <v>SYY</v>
     <v>SYSCO CORPORATION (XNYS:SYY)</v>
-    <v>2428750</v>
-    <v>2238307</v>
+    <v>3149016</v>
+    <v>2475204</v>
     <v>1969</v>
   </rv>
   <rv s="2">
@@ -3693,18 +3693,18 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>26</v>
+    <v>27</v>
     <v>Unity Software Inc (XNYS:U)</v>
     <v>2</v>
-    <v>27</v>
+    <v>28</v>
     <v>Finance</v>
     <v>4</v>
     <v>174.94</v>
     <v>65.11</v>
-    <v>-0.78</v>
-    <v>1.01E-3</v>
-    <v>-7.1120000000000003E-3</v>
-    <v>0.11</v>
+    <v>-3.03</v>
+    <v>-3.0830000000000002E-3</v>
+    <v>-3.0196999999999998E-2</v>
+    <v>-0.3</v>
     <v>USD</v>
     <v>Unity Software Inc. (Unity) is a platform for creating and operating interactive, real-time three-dimensional content. The platform provides a set of software solutions to create, run and monetize interactive, real-time two-dimensional (2D) and three-dimensional (3D) content for mobile phones, tablets, personal computers, consoles, and augmented and virtual reality devices. Content made with Unity is real-time, allowing it to instantly adapt to user's behavior and feedback. Unity’s Create Solutions are used by content creators, developers, artists, designers, engineers, and architects to create interactive, real-time 2D and 3D content. The Company’s Operate Solutions offers customers the ability to engage their end-user base, as well as run and monetize their content.</v>
     <v>4001</v>
@@ -3712,25 +3712,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>30 - 3Rd Street, SAN FRANCISCO, CA, 94103 US</v>
-    <v>114.14</v>
+    <v>100.76</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44271.999844825783</v>
+    <v>44278.999373367966</v>
     <v>206</v>
-    <v>106.67</v>
-    <v>30477780000</v>
+    <v>96.75</v>
+    <v>27884940000</v>
     <v>Unity Software Inc</v>
     <v>Unity Software Inc</v>
-    <v>112.88</v>
+    <v>99.66</v>
     <v>0</v>
-    <v>109.67</v>
-    <v>108.89</v>
-    <v>109</v>
+    <v>100.34</v>
+    <v>97.31</v>
+    <v>97.01</v>
     <v>277904500</v>
     <v>U</v>
     <v>Unity Software Inc (XNYS:U)</v>
-    <v>4363675</v>
-    <v>6654588</v>
+    <v>5384782</v>
+    <v>5740714</v>
   </rv>
   <rv s="2">
     <v>207</v>
@@ -3750,14 +3750,14 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>41.37</v>
-    <v>5.16</v>
-    <v>1.3004</v>
-    <v>-1.89</v>
-    <v>-1.433E-3</v>
-    <v>-5.1387000000000002E-2</v>
-    <v>-0.05</v>
+    <v>8.2799999999999994</v>
+    <v>1.2678</v>
+    <v>-0.71</v>
+    <v>1.3318000000000002E-2</v>
+    <v>-2.0142000000000004E-2</v>
+    <v>0.46</v>
     <v>USD</v>
     <v>United Natural Foods, Inc. is a distributor and retailer of natural, organic and specialty products. The Company's segments include Wholesale and Other. The Wholesale segment is engaged in the national distribution of natural, organic and specialty foods, produce and related products in the United States and Canada. The Other segment includes a retail division, which engages in the sale of natural foods and related products to the general public through retail storefronts on the east coast of the United States; a manufacturing division, which engages in importing, roasting and packaging of nuts, seeds, dried fruit and snack items, and its branded product lines. Its operations consist of three operating divisions: Wholesale Division, Retail Division, and Manufacturing and Branded Products divisions. As of October 22, 2018, the Company had offered 110,000 natural, organic and specialty foods, and non-food products, consisting of national, regional and private-label brands.</v>
     <v>28300</v>
@@ -3765,25 +3765,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>313 Iron Horse Way, PROVIDENCE, RI, 02908-5637 US</v>
-    <v>37.648600000000002</v>
+    <v>35.520099999999999</v>
     <v>Food &amp; Drug Retailing</v>
     <v>Stock</v>
-    <v>44271.999342685158</v>
+    <v>44278.958333378905</v>
     <v>209</v>
-    <v>34.823399999999999</v>
-    <v>2070568000</v>
+    <v>33.04</v>
+    <v>1984435000</v>
     <v>UNITED NATURAL FOODS, INC.</v>
     <v>UNITED NATURAL FOODS, INC.</v>
-    <v>36.4</v>
-    <v>10.49</v>
-    <v>36.78</v>
-    <v>34.89</v>
-    <v>34.840000000000003</v>
+    <v>34.71</v>
+    <v>10.053699999999999</v>
+    <v>35.25</v>
+    <v>34.54</v>
+    <v>35</v>
     <v>56296040</v>
     <v>UNFI</v>
     <v>UNITED NATURAL FOODS, INC. (XNYS:UNFI)</v>
-    <v>1188958</v>
-    <v>1404475</v>
+    <v>877089</v>
+    <v>1505760</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -3798,7 +3798,7 @@
     <v>212</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_5b37be53a6ed99b31f30d5033258ad9e&amp;qlt=95</v>
     <v>213</v>
     <v>0</v>
@@ -3822,12 +3822,12 @@
     <v>Finance</v>
     <v>4</v>
     <v>178.01</v>
-    <v>85.5</v>
+    <v>88.35</v>
     <v>0.99250000000000005</v>
-    <v>0.18</v>
-    <v>6.1420000000000005E-5</v>
-    <v>1.1070000000000001E-3</v>
-    <v>0.01</v>
+    <v>-1.1499999999999999</v>
+    <v>-3.1270000000000001E-4</v>
+    <v>-7.1399999999999996E-3</v>
+    <v>-0.05</v>
     <v>USD</v>
     <v>United Parcel Service, Inc. (UPS) is a package delivery company. The Company is a provider of global supply chain management solutions. The Company operates through three segments: U.S. Domestic Package operations, International Package operations, and Supply Chain &amp; Freight operations. As of December 31, 2016, the Company delivered packages in over 220 countries and territories. The Company offers a spectrum of the United States domestic guaranteed ground and air package transportation services. The International Package segment includes the small package operations in Europe, Asia-Pacific, Canada and Latin America, the Indian sub-continent, the Middle East and Africa. The Supply Chain &amp; Freight segment includes its forwarding and logistics services, truckload freight brokerage, UPS Freight and its financial offerings through UPS Capital. The Company serves the global market for logistics services, which include transportation, distribution, contract logistics and ground freight.</v>
     <v>543000</v>
@@ -3835,26 +3835,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>55 Glenlake Parkway Ne, ATLANTA, GA, 30328 US</v>
-    <v>164.16</v>
+    <v>162.16</v>
     <v>214</v>
     <v>Freight &amp; Logistics Services</v>
     <v>Stock</v>
-    <v>44271.997140462503</v>
+    <v>44278.996698760937</v>
     <v>215</v>
-    <v>161.43</v>
-    <v>141015100000</v>
+    <v>159.2345</v>
+    <v>139645200000</v>
     <v>UNITED PARCEL SERVICE, INC.</v>
     <v>UNITED PARCEL SERVICE, INC.</v>
-    <v>162.78</v>
-    <v>105.4967</v>
-    <v>162.63999999999999</v>
-    <v>162.82</v>
-    <v>162.83000000000001</v>
+    <v>159.69999999999999</v>
+    <v>104.4718</v>
+    <v>161.06</v>
+    <v>159.91</v>
+    <v>159.86000000000001</v>
     <v>867038500</v>
     <v>UPS</v>
     <v>UNITED PARCEL SERVICE, INC. (XNYS:UPS)</v>
-    <v>2397832</v>
-    <v>3096347</v>
+    <v>2920656</v>
+    <v>3649334</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -3870,43 +3870,43 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>33</v>
+    <v>35</v>
     <v>The Valens Company Inc. (OTCM:VLNCF)</v>
     <v>2</v>
-    <v>34</v>
+    <v>36</v>
     <v>Finance</v>
-    <v>17</v>
+    <v>18</v>
     <v>2.33</v>
     <v>1.04</v>
-    <v>1.6209</v>
-    <v>0.01</v>
-    <v>0</v>
-    <v>5.7799999999999995E-3</v>
-    <v>0</v>
+    <v>1.6560999999999999</v>
+    <v>0.02</v>
+    <v>-5.2910000000000006E-3</v>
+    <v>1.0695E-2</v>
+    <v>-0.01</v>
     <v>USD</v>
     <v>The Valens Company Inc., formerly Valens GroWorks Corp., is a Canada-based cannabis company. The Company is focused on offering its solutions to Canadian and international cannabis brands. The Company’s services include carbon dioxide (CO2), ethanol, hydrocarbon, solvent-less and terpene extraction, analytical testing, formulation and white label product development. Its subsidiary Valens Labs operates a cannabis testing lab and provides analytical services. The Company is also focused on offering cannabis-infused beverages. The Company’s subsidiary, Southern Cliff Brands Inc., manufactures hard cider in the manufacturing facility in Greater Toronto Area.</v>
     <v>OTC Markets</v>
     <v>OTCM</v>
     <v>OTCM</v>
     <v>230 Carion Rd, KELOWNA, BC, V4V 2K5 CA</v>
-    <v>1.75</v>
+    <v>1.9</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>44272.006944444445</v>
+    <v>44278.888888888891</v>
     <v>218</v>
-    <v>1.6671</v>
-    <v>345328000</v>
+    <v>1.75</v>
+    <v>368167500</v>
     <v>The Valens Company Inc.</v>
     <v>The Valens Company Inc.</v>
-    <v>1.74</v>
+    <v>1.87</v>
     <v>404.61419999999998</v>
-    <v>1.73</v>
-    <v>1.74</v>
-    <v>1.74</v>
-    <v>159137300</v>
+    <v>1.87</v>
+    <v>1.89</v>
+    <v>1.88</v>
+    <v>159379900</v>
     <v>VLNCF</v>
     <v>The Valens Company Inc. (OTCM:VLNCF)</v>
-    <v>244890</v>
+    <v>273832</v>
     <v>1981</v>
   </rv>
   <rv s="2">
@@ -3921,7 +3921,7 @@
     <v>221</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_7164d75e5377c943c39f742c0b21f6b1&amp;qlt=95</v>
     <v>222</v>
     <v>0</v>
@@ -3943,14 +3943,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>61.35</v>
     <v>25.1</v>
-    <v>1.1999</v>
-    <v>-2.89</v>
-    <v>-1.0789E-2</v>
-    <v>-5.1014999999999998E-2</v>
-    <v>-0.57999999999999996</v>
+    <v>1.1776</v>
+    <v>-2.44</v>
+    <v>1.0526000000000001E-2</v>
+    <v>-4.7068000000000006E-2</v>
+    <v>0.52</v>
     <v>USD</v>
     <v>ViaSat, Inc. is engaged in broadband technologies and services. The Company operates through three segments: satellite services, commercial networks and government systems. The satellite services segment provides satellite-based broadband services to consumers, enterprises, commercial airlines and mobile broadband customers primarily in the United States. The commercial networks segment develops and produces a range of end-to-end satellite and wireless communication systems, ground networking equipment and space-to-earth connectivity systems. The government systems segment develops and produces network-centric Internet Protocol (IP)-based fixed and mobile secure government communications systems, products, services and solutions, which are designed to enable the collection and dissemination of real-time digital information between command centers, communications nodes and air defense systems.</v>
     <v>6100</v>
@@ -3958,26 +3958,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>6155 El Camino Real, CARLSBAD, CA, 92009 US</v>
-    <v>56.71</v>
+    <v>52.6</v>
     <v>223</v>
     <v>Communications &amp; Networking</v>
     <v>Stock</v>
-    <v>44271.978595161716</v>
+    <v>44278.988237835154</v>
     <v>224</v>
-    <v>52.83</v>
-    <v>3880827000</v>
+    <v>48.81</v>
+    <v>3551316000</v>
     <v>VIASAT, INC.</v>
     <v>VIASAT, INC.</v>
-    <v>56.21</v>
+    <v>52.145000000000003</v>
     <v>6012.8379999999997</v>
-    <v>56.65</v>
-    <v>53.76</v>
-    <v>53.18</v>
+    <v>51.84</v>
+    <v>49.4</v>
+    <v>49.92</v>
     <v>68505330</v>
     <v>VSAT</v>
     <v>VIASAT, INC. (XNAS:VSAT)</v>
-    <v>348258</v>
-    <v>848461</v>
+    <v>502688</v>
+    <v>712991</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -3992,7 +3992,7 @@
     <v>227</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_97bd8dad8c0360a49d8c3a8c9f408be5&amp;qlt=95</v>
     <v>228</v>
     <v>0</v>
@@ -4015,13 +4015,13 @@
     <v>8</v>
     <v>Finance</v>
     <v>4</v>
-    <v>40.229999999999997</v>
+    <v>41.54</v>
     <v>20.76</v>
-    <v>1.3266</v>
-    <v>-0.35</v>
-    <v>2.0330000000000001E-3</v>
-    <v>-8.8160000000000009E-3</v>
-    <v>0.08</v>
+    <v>1.3205</v>
+    <v>-0.74</v>
+    <v>-3.4000000000000002E-3</v>
+    <v>-1.8988999999999999E-2</v>
+    <v>-0.13</v>
     <v>USD</v>
     <v>Wells Fargo &amp; Company is a bank holding company. The Company is a diversified financial services company. It has three operating segments: Community Banking, Wholesale Banking, and Wealth and Investment Management. The Company offers its services under three categories: personal, small business and commercial. It provides retail, commercial and corporate banking services through banking locations and offices, the Internet and other distribution channels to individuals, businesses and institutions in all 50 states, the District of Columbia and in other countries. It provides other financial services through its subsidiaries engaged in various businesses, including wholesale banking, mortgage banking, consumer finance, equipment leasing, agricultural finance, commercial finance, securities brokerage and investment banking, computer and data processing services, investment advisory services, mortgage-backed securities servicing and venture capital investment.</v>
     <v>200000</v>
@@ -4029,26 +4029,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>420 Montgomery St, SAN FRANCISCO, CA, 94104-1207 US</v>
-    <v>39.49</v>
+    <v>39.046599999999998</v>
     <v>229</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>44271.999968055468</v>
+    <v>44278.999158587503</v>
     <v>230</v>
-    <v>38.72</v>
-    <v>164124000000</v>
+    <v>38.049999999999997</v>
+    <v>161107600000</v>
     <v>WELLS FARGO &amp; COMPANY</v>
     <v>WELLS FARGO &amp; COMPANY</v>
-    <v>39.369999999999997</v>
-    <v>99.583600000000004</v>
-    <v>39.700000000000003</v>
-    <v>39.35</v>
-    <v>39.43</v>
-    <v>4134106000</v>
+    <v>38.479999999999997</v>
+    <v>97.752499999999998</v>
+    <v>38.97</v>
+    <v>38.229999999999997</v>
+    <v>38.1</v>
+    <v>4134145000</v>
     <v>WFC</v>
     <v>WELLS FARGO &amp; COMPANY (XNYS:WFC)</v>
-    <v>24668311</v>
-    <v>35233680</v>
+    <v>32492294</v>
+    <v>38265956</v>
     <v>1929</v>
   </rv>
   <rv s="2">
@@ -4063,7 +4063,7 @@
     <v>233</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_b17bb7db52aff24e38d640fab681ff30&amp;qlt=95</v>
     <v>234</v>
     <v>0</v>
@@ -4085,14 +4085,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>172.87</v>
-    <v>42.602600000000002</v>
-    <v>1.2442</v>
-    <v>1.92</v>
-    <v>0</v>
-    <v>1.4951000000000001E-2</v>
-    <v>0</v>
+    <v>54.814599999999999</v>
+    <v>1.2597</v>
+    <v>-1.48</v>
+    <v>5.3879999999999998E-4</v>
+    <v>-1.1262000000000001E-2</v>
+    <v>7.0000000000000007E-2</v>
     <v>USD</v>
     <v>Wingstop Inc. is franchisor and operator of restaurants that specializes in cooked-to-order, hand-sauced and tossed chicken wings. The Company operates through two segments: Franchise and Company. The Company operates its chicken wings-focused restaurant chain in over 1,400 locations worldwide. It offers classic wings, boneless wings and tenders, always cooked to order and hand-sauced-and-tossed in 11 distinctive flavors. It offers various order options, including eat-in, to go, individual, combo meals and family packs. It markets Wingstop products, services and restaurants through the Website, www.wingstop.com.</v>
     <v>819</v>
@@ -4100,26 +4100,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>5501 Lyndon B Johnson Fwy Fl 5, DALLAS, TX, 75240-6225 US</v>
-    <v>131.30000000000001</v>
+    <v>132.5</v>
     <v>235</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>44271.857067407029</v>
+    <v>44278.988456388281</v>
     <v>236</v>
-    <v>127.51</v>
-    <v>3812534000</v>
+    <v>129.54</v>
+    <v>3901301000</v>
     <v>WINGSTOP INC.</v>
     <v>WINGSTOP INC.</v>
-    <v>129.6</v>
-    <v>164.36920000000001</v>
-    <v>128.41999999999999</v>
-    <v>130.34</v>
-    <v>130.34</v>
+    <v>131.08000000000001</v>
+    <v>168.1962</v>
+    <v>131.41</v>
+    <v>129.93</v>
+    <v>130</v>
     <v>29688010</v>
     <v>WING</v>
     <v>WINGSTOP INC. (XNAS:WING)</v>
-    <v>575426</v>
-    <v>664772</v>
+    <v>429848</v>
+    <v>709159</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -4134,7 +4134,7 @@
     <v>239</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_5e7d3642a4c7b151c5a535b3122e2f24&amp;qlt=95</v>
     <v>240</v>
     <v>0</v>
@@ -4156,14 +4156,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>125.56</v>
     <v>85.34</v>
-    <v>0.77949999999999997</v>
-    <v>0.28999999999999998</v>
-    <v>-4.8820000000000001E-3</v>
-    <v>2.3649999999999999E-3</v>
-    <v>-0.6</v>
+    <v>0.77729999999999999</v>
+    <v>0.73</v>
+    <v>0</v>
+    <v>5.9170000000000004E-3</v>
+    <v>0</v>
     <v>USD</v>
     <v>Waste Management, Inc. (WM) is a holding company. The Company, through its subsidiaries, is a provider of waste management environmental services. The Company's segments include Solid Waste and Other. The Company's Solid Waste segment includes its solid waste business. The Other segment includes its Strategic Business Solutions (WMSBS) organization; its landfill gas-to-energy operations and third-party subcontract and administration services managed by its Energy and Environmental Services and WM Renewable Energy organizations; recycling, materials processing and recycling commodities services.</v>
     <v>48250</v>
@@ -4171,26 +4171,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1001 Fannin St, HOUSTON, TX, 77002-6706 US</v>
-    <v>123.1399</v>
+    <v>124.81</v>
     <v>241</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>44271.958333333336</v>
+    <v>44278.981225671094</v>
     <v>242</v>
-    <v>122.2</v>
-    <v>51887020000</v>
+    <v>122.76</v>
+    <v>52204380000</v>
     <v>WASTE MANAGEMENT, INC.</v>
     <v>WASTE MANAGEMENT, INC.</v>
-    <v>122.71</v>
-    <v>34.939500000000002</v>
-    <v>122.62</v>
-    <v>122.91</v>
-    <v>122.31</v>
+    <v>123.26</v>
+    <v>35.153199999999998</v>
+    <v>123.37</v>
+    <v>124.1</v>
+    <v>124.1</v>
     <v>423153000</v>
     <v>WM</v>
     <v>WASTE MANAGEMENT, INC. (XNYS:WM)</v>
-    <v>1544353</v>
-    <v>2420642</v>
+    <v>1961525</v>
+    <v>2672536</v>
     <v>1995</v>
   </rv>
   <rv s="2">
@@ -4205,7 +4205,7 @@
     <v>245</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_bda71e2736b0e1c236099c12cbe43c51&amp;qlt=95</v>
     <v>246</v>
     <v>0</v>
@@ -4229,12 +4229,12 @@
     <v>Finance</v>
     <v>4</v>
     <v>153.65969999999999</v>
-    <v>102</v>
-    <v>0.47420000000000001</v>
-    <v>-0.04</v>
-    <v>0</v>
-    <v>-2.9980000000000002E-4</v>
-    <v>0</v>
+    <v>106.8466</v>
+    <v>0.47320000000000001</v>
+    <v>1.59</v>
+    <v>2.9110000000000004E-3</v>
+    <v>1.2012E-2</v>
+    <v>0.39</v>
     <v>USD</v>
     <v>Walmart Inc., formerly Wal-Mart Stores, Inc., is engaged in the operation of retail, wholesale and other units in various formats around the world. The Company offers an assortment of merchandise and services at everyday low prices (EDLP). The Company operates through three segments: Walmart U.S., Walmart International and Sam's Club. The Walmart U.S. segment includes the Company's mass merchant concept in the United States operating under the Walmart brands, as well as digital retail. The Walmart International segment consists of the Company's operations outside of the United States, including various retail Websites. The Sam's Club segment includes the warehouse membership clubs in the United States, as well as samsclub.com. The Company operates approximately 11,600 stores under 59 banners in 28 countries and e-commerce Websites in 11 countries.</v>
     <v>2200000</v>
@@ -4242,26 +4242,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>702 SW 8th St, BENTONVILLE, AR, 72716-6209 US</v>
-    <v>134.28</v>
+    <v>134.30000000000001</v>
     <v>247</v>
     <v>Food &amp; Drug Retailing</v>
     <v>Stock</v>
-    <v>44271.999359305468</v>
+    <v>44278.999978796091</v>
     <v>248</v>
-    <v>132.82</v>
-    <v>377511600000</v>
+    <v>131.63999999999999</v>
+    <v>372895800000</v>
     <v>WALMART INC.</v>
     <v>WALMART INC.</v>
-    <v>132.82</v>
-    <v>28.168600000000001</v>
-    <v>133.43</v>
-    <v>133.38999999999999</v>
-    <v>133.38999999999999</v>
-    <v>2829286000</v>
+    <v>131.72</v>
+    <v>27.941700000000001</v>
+    <v>132.37</v>
+    <v>133.96</v>
+    <v>134.35</v>
+    <v>2817072000</v>
     <v>WMT</v>
     <v>WALMART INC. (XNYS:WMT)</v>
-    <v>6626953</v>
-    <v>11223990</v>
+    <v>9718262</v>
+    <v>12286463</v>
     <v>1969</v>
   </rv>
   <rv s="2">
@@ -4276,7 +4276,7 @@
     <v>251</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_11f337f28f1d62127217daf91c38bf2e&amp;qlt=95</v>
     <v>252</v>
     <v>0</v>
@@ -4298,14 +4298,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>24.71</v>
-    <v>4.54</v>
-    <v>2.2803</v>
-    <v>-1.83</v>
-    <v>-3.754E-3</v>
-    <v>-7.9084000000000002E-2</v>
-    <v>-0.08</v>
+    <v>5.0999999999999996</v>
+    <v>2.2465999999999999</v>
+    <v>-1.93</v>
+    <v>-2.5180000000000003E-3</v>
+    <v>-8.8572999999999999E-2</v>
+    <v>-0.05</v>
     <v>USD</v>
     <v>United States Steel Corporation (U.S Steel) is an integrated steel producer. The Company is engaged in producing flat-rolled and tubular products with production operations in North America and Europe. The Company operates through three segments: Flat-Rolled Products (Flat-Rolled), U. S. Steel Europe (USSE) and Tubular Products (Tubular). The Company's other businesses include railroad services and real estate operations. The Company owns, develops and manages various real estate assets, including approximately 50,000 acres of surface rights primarily in Alabama, Illinois, Michigan, Minnesota and Pennsylvania. In addition, the Company holds ownership interests in joint ventures that are developing real estate projects in Alabama.</v>
     <v>23350</v>
@@ -4313,26 +4313,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>600 Grant St Room 1500, PITTSBURGH, PA, 15219-2800 US</v>
-    <v>23.08</v>
+    <v>21.8</v>
     <v>253</v>
     <v>Metals &amp; Mining</v>
     <v>Stock</v>
-    <v>44271.999924120311</v>
+    <v>44278.995860647658</v>
     <v>254</v>
-    <v>21.1</v>
-    <v>6219624000</v>
+    <v>19.29</v>
+    <v>5856767000</v>
     <v>UNITED STATES STEEL CORPORATION</v>
     <v>UNITED STATES STEEL CORPORATION</v>
-    <v>22.98</v>
+    <v>21.17</v>
     <v>0</v>
-    <v>23.14</v>
-    <v>21.31</v>
-    <v>21.23</v>
+    <v>21.79</v>
+    <v>19.86</v>
+    <v>19.809999999999999</v>
     <v>268782300</v>
     <v>X</v>
     <v>UNITED STATES STEEL CORPORATION (XNYS:X)</v>
-    <v>22376735</v>
-    <v>20547546</v>
+    <v>19238848</v>
+    <v>21571383</v>
     <v>2001</v>
   </rv>
   <rv s="2">
@@ -4348,38 +4348,38 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>11</v>
+    <v>12</v>
     <v>SPDR S&amp;P Biotech (ARCX:XBI)</v>
-    <v>12</v>
     <v>13</v>
+    <v>14</v>
     <v>Finance</v>
-    <v>14</v>
+    <v>15</v>
     <v>174.79</v>
-    <v>62.94</v>
+    <v>66.075000000000003</v>
     <v>0.92320000000000002</v>
-    <v>-2.33</v>
-    <v>-9.5960000000000001E-4</v>
-    <v>-1.5720000000000001E-2</v>
-    <v>-0.14000000000000001</v>
+    <v>-8.58</v>
+    <v>-5.775E-4</v>
+    <v>-5.8319999999999997E-2</v>
+    <v>-0.08</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>3.4999999999999996E-3</v>
-    <v>149.23500000000001</v>
+    <v>145.97999999999999</v>
     <v>ETF</v>
-    <v>44272.000000022657</v>
+    <v>44278.997923414063</v>
     <v>257</v>
-    <v>143.22999999999999</v>
+    <v>137.733</v>
     <v>7845924461.9300003</v>
     <v>SPDR S&amp;P Biotech</v>
-    <v>148.76</v>
-    <v>148.22</v>
-    <v>145.88999999999999</v>
-    <v>145.75</v>
+    <v>145.68</v>
+    <v>147.12</v>
+    <v>138.54</v>
+    <v>138.46</v>
     <v>XBI</v>
     <v>SPDR S&amp;P Biotech (ARCX:XBI)</v>
-    <v>5395472</v>
-    <v>6928713</v>
+    <v>9515504</v>
+    <v>7484539</v>
   </rv>
   <rv s="2">
     <v>258</v>
@@ -4393,7 +4393,7 @@
     <v>260</v>
   </rv>
   <rv s="4">
-    <v>9</v>
+    <v>10</v>
     <v>https://www.bing.com/th?id=AMMS_66c7cc0d1d7e311c31b7691f3046610a&amp;qlt=95</v>
     <v>261</v>
     <v>0</v>
@@ -4410,19 +4410,19 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>30</v>
+    <v>32</v>
     <v>ZILLOW GROUP, INC. (XNAS:Z)</v>
     <v>7</v>
-    <v>31</v>
+    <v>33</v>
     <v>Finance</v>
     <v>4</v>
     <v>208.11</v>
-    <v>20.04</v>
-    <v>1.3816999999999999</v>
-    <v>-4.33</v>
-    <v>2.3259999999999999E-3</v>
-    <v>-2.8771000000000001E-2</v>
-    <v>0.34</v>
+    <v>26.22</v>
+    <v>1.3805000000000001</v>
+    <v>-3.42</v>
+    <v>7.4349999999999991E-5</v>
+    <v>-2.4799000000000002E-2</v>
+    <v>0.01</v>
     <v>USD</v>
     <v>Zillow Group, Inc. owns and operates a portfolio of real estate and home related brands on mobile and Web. The Company's brands focus on all stages of the home lifecycle: renting, buying, selling and financing. The Company also provides consumers with data to find around homes, and connects them with the local professionals to help. The Company’s portfolio of consumer brands includes real estate and rental marketplaces Zillow, Trulia, StreetEasy, HotPads, Naked Apartments and RealEstate.com. In addition, Zillow Group provides a comprehensive suite of marketing software and technology solutions to help real estate, rental and mortgage professionals. The Company operates a number of business brands for real estate, rental and mortgage professionals, including Mortech, dotloop and Bridge Interactive.</v>
     <v>5504</v>
@@ -4430,25 +4430,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1301 2nd Ave Fl 31, SEATTLE, WA, 98101-0003 US</v>
-    <v>156.84</v>
+    <v>139.16</v>
     <v>262</v>
     <v>Real Estate Operations</v>
     <v>Stock</v>
-    <v>44271.999599154689</v>
+    <v>44278.999557383591</v>
     <v>263</v>
-    <v>142.125</v>
-    <v>36588930000</v>
+    <v>132.68010000000001</v>
+    <v>33592020000</v>
     <v>ZILLOW GROUP, INC.</v>
     <v>ZILLOW GROUP, INC.</v>
-    <v>153.24</v>
-    <v>150.5</v>
-    <v>146.16999999999999</v>
-    <v>146.51</v>
+    <v>137.94999999999999</v>
+    <v>137.91</v>
+    <v>134.49</v>
+    <v>134.5</v>
     <v>240659600</v>
     <v>Z</v>
     <v>ZILLOW GROUP, INC. (XNAS:Z)</v>
-    <v>2979429</v>
-    <v>4916664</v>
+    <v>1867480</v>
+    <v>4515466</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -4464,19 +4464,19 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>30</v>
+    <v>32</v>
     <v>ZILLOW GROUP, INC. (XNAS:ZG)</v>
     <v>7</v>
-    <v>31</v>
+    <v>33</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>212.4</v>
-    <v>18.649999999999999</v>
-    <v>1.3816999999999999</v>
-    <v>-5.76</v>
-    <v>1.1781999999999999E-2</v>
-    <v>-3.6924999999999999E-2</v>
-    <v>1.77</v>
+    <v>25.17</v>
+    <v>1.3805000000000001</v>
+    <v>-3.01</v>
+    <v>5.2529999999999999E-3</v>
+    <v>-2.0919E-2</v>
+    <v>0.74</v>
     <v>USD</v>
     <v>Zillow Group, Inc. owns and operates a portfolio of real estate and home related brands on mobile and Web. The Company's brands focus on all stages of the home lifecycle: renting, buying, selling and financing. The Company also provides consumers with data to find around homes, and connects them with the local professionals to help. The Company’s portfolio of consumer brands includes real estate and rental marketplaces Zillow, Trulia, StreetEasy, HotPads, Naked Apartments and RealEstate.com. In addition, Zillow Group provides a comprehensive suite of marketing software and technology solutions to help real estate, rental and mortgage professionals. The Company operates a number of business brands for real estate, rental and mortgage professionals, including Mortech, dotloop and Bridge Interactive.</v>
     <v>5504</v>
@@ -4484,25 +4484,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1301 2nd Ave Fl 31, SEATTLE, WA, 98101-0003 US</v>
-    <v>162</v>
+    <v>144.97999999999999</v>
     <v>262</v>
     <v>Real Estate Operations</v>
     <v>Stock</v>
-    <v>44271.994997106252</v>
+    <v>44278.915001863279</v>
     <v>266</v>
-    <v>147.09</v>
-    <v>36588930000</v>
+    <v>138.96</v>
+    <v>33592020000</v>
     <v>ZILLOW GROUP, INC.</v>
     <v>ZILLOW GROUP, INC.</v>
-    <v>159.88</v>
-    <v>155.99</v>
-    <v>150.22999999999999</v>
-    <v>152</v>
+    <v>144.15</v>
+    <v>143.88999999999999</v>
+    <v>140.88</v>
+    <v>141.62</v>
     <v>240659600</v>
     <v>ZG</v>
     <v>ZILLOW GROUP, INC. (XNAS:ZG)</v>
-    <v>679446</v>
-    <v>1133986</v>
+    <v>441992</v>
+    <v>1040553</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -5613,7 +5613,7 @@
       <v t="s">%ProviderInfo</v>
     </a>
   </spbArrays>
-  <spbData count="35">
+  <spbData count="37">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -5637,6 +5637,59 @@
       <v>1</v>
       <v>3</v>
       <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>10</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq Last Sale</v>
+      <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+    <spb s="0">
+      <v>1</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="5">
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="6">
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="7">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>11</v>
       <v>1</v>
       <v>1</v>
       <v>4</v>
@@ -5666,49 +5719,6 @@
       <v>from close</v>
       <v>from close</v>
     </spb>
-    <spb s="0">
-      <v>1</v>
-      <v>Name</v>
-      <v>LearnMoreOnLink</v>
-    </spb>
-    <spb s="5">
-      <v>0</v>
-      <v>0</v>
-    </spb>
-    <spb s="6">
-      <v>6</v>
-      <v>1</v>
-      <v>1</v>
-      <v>1</v>
-      <v>1</v>
-    </spb>
-    <spb s="7">
-      <v>1</v>
-      <v>2</v>
-      <v>2</v>
-      <v>1</v>
-      <v>3</v>
-      <v>1</v>
-      <v>11</v>
-      <v>1</v>
-      <v>1</v>
-      <v>4</v>
-      <v>4</v>
-      <v>5</v>
-      <v>6</v>
-      <v>1</v>
-      <v>1</v>
-      <v>1</v>
-      <v>4</v>
-      <v>7</v>
-      <v>8</v>
-      <v>9</v>
-      <v>10</v>
-      <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
-    </spb>
     <spb s="8">
       <v>Powered by Refinitiv</v>
     </spb>
@@ -5774,10 +5784,10 @@
     <spb s="11">
       <v>at close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -5993,6 +6003,16 @@
       <v>1</v>
       <v>1</v>
       <v>5</v>
+    </spb>
+    <spb s="11">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>from previous close</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
     <spb s="0">
       <v>10</v>
@@ -6850,19 +6870,19 @@
       </c>
       <c r="D2" s="1" cm="1">
         <f t="array" ref="D2">_FV(B58,"Open")</f>
-        <v>25.11</v>
+        <v>23.37</v>
       </c>
       <c r="E2" s="1" cm="1">
         <f t="array" ref="E2">_FV(B58,"Previous close",TRUE)</f>
-        <v>25.17</v>
+        <v>23.83</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2">_FV(B58,"High")</f>
-        <v>25.25</v>
+        <v>23.66</v>
       </c>
       <c r="G2" s="1" cm="1">
         <f t="array" ref="G2">_FV(B58,"Low")</f>
-        <v>24.31</v>
+        <v>22.08</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -6878,19 +6898,19 @@
       </c>
       <c r="D3" s="1" cm="1">
         <f t="array" ref="D3">_FV(B59,"Open")</f>
-        <v>13.62</v>
+        <v>11.46</v>
       </c>
       <c r="E3" s="1" cm="1">
         <f t="array" ref="E3">_FV(B59,"Previous close",TRUE)</f>
-        <v>14.04</v>
+        <v>12.49</v>
       </c>
       <c r="F3" s="1" cm="1">
         <f t="array" ref="F3">_FV(B59,"High")</f>
-        <v>13.62</v>
+        <v>11.93</v>
       </c>
       <c r="G3" s="1" cm="1">
         <f t="array" ref="G3">_FV(B59,"Low")</f>
-        <v>12.34</v>
+        <v>10.37</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -6906,19 +6926,19 @@
       </c>
       <c r="D4" s="1" cm="1">
         <f t="array" ref="D4">_FV(B60,"Open")</f>
-        <v>83.66</v>
+        <v>80.11</v>
       </c>
       <c r="E4" s="1" cm="1">
         <f t="array" ref="E4">_FV(B60,"Previous close",TRUE)</f>
-        <v>82.5</v>
+        <v>80.3</v>
       </c>
       <c r="F4" s="1" cm="1">
         <f t="array" ref="F4">_FV(B60,"High")</f>
-        <v>84.75</v>
+        <v>80.34</v>
       </c>
       <c r="G4" s="1" cm="1">
         <f t="array" ref="G4">_FV(B60,"Low")</f>
-        <v>82.254999999999995</v>
+        <v>77.95</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -6934,19 +6954,19 @@
       </c>
       <c r="D5" s="1" cm="1">
         <f t="array" ref="D5">_FV(B61,"Open")</f>
-        <v>22.25</v>
+        <v>18.5</v>
       </c>
       <c r="E5" s="1" cm="1">
         <f t="array" ref="E5">_FV(B61,"Previous close",TRUE)</f>
-        <v>22.164999999999999</v>
+        <v>18.760000000000002</v>
       </c>
       <c r="F5" s="1" cm="1">
         <f t="array" ref="F5">_FV(B61,"High")</f>
-        <v>22.26</v>
+        <v>19.065000000000001</v>
       </c>
       <c r="G5" s="1" cm="1">
         <f t="array" ref="G5">_FV(B61,"Low")</f>
-        <v>19.940000000000001</v>
+        <v>17.64</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -6962,19 +6982,19 @@
       </c>
       <c r="D6" s="1" cm="1">
         <f t="array" ref="D6">_FV(B62,"Open")</f>
-        <v>130.51</v>
+        <v>124.63500000000001</v>
       </c>
       <c r="E6" s="1" cm="1">
         <f t="array" ref="E6">_FV(B62,"Previous close",TRUE)</f>
-        <v>128.88</v>
+        <v>124.72</v>
       </c>
       <c r="F6" s="1" cm="1">
         <f t="array" ref="F6">_FV(B62,"High")</f>
-        <v>130.80000000000001</v>
+        <v>124.79049999999999</v>
       </c>
       <c r="G6" s="1" cm="1">
         <f t="array" ref="G6">_FV(B62,"Low")</f>
-        <v>123.98</v>
+        <v>121.15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -6990,19 +7010,19 @@
       </c>
       <c r="D7" s="1" cm="1">
         <f t="array" ref="D7">_FV(B63,"Open")</f>
-        <v>162.47999999999999</v>
+        <v>154.58000000000001</v>
       </c>
       <c r="E7" s="1" cm="1">
         <f t="array" ref="E7">_FV(B63,"Previous close",TRUE)</f>
-        <v>160.74</v>
+        <v>154.37</v>
       </c>
       <c r="F7" s="1" cm="1">
         <f t="array" ref="F7">_FV(B63,"High")</f>
-        <v>162.9</v>
+        <v>154.74</v>
       </c>
       <c r="G7" s="1" cm="1">
         <f t="array" ref="G7">_FV(B63,"Low")</f>
-        <v>155.80000000000001</v>
+        <v>150.77000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -7018,19 +7038,19 @@
       </c>
       <c r="D8" s="1" cm="1">
         <f t="array" ref="D8">_FV(B64,"Open")</f>
-        <v>93.56</v>
+        <v>92.59</v>
       </c>
       <c r="E8" s="1" cm="1">
         <f t="array" ref="E8">_FV(B64,"Previous close",TRUE)</f>
-        <v>92.575000000000003</v>
+        <v>91.87</v>
       </c>
       <c r="F8" s="1" cm="1">
         <f t="array" ref="F8">_FV(B64,"High")</f>
-        <v>94.8</v>
+        <v>92.6</v>
       </c>
       <c r="G8" s="1" cm="1">
         <f t="array" ref="G8">_FV(B64,"Low")</f>
-        <v>92.924999999999997</v>
+        <v>91.08</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -7046,19 +7066,19 @@
       </c>
       <c r="D9" s="1" cm="1">
         <f t="array" ref="D9">_FV(B65,"Open")</f>
-        <v>37.42</v>
+        <v>37.33</v>
       </c>
       <c r="E9" s="1" cm="1">
         <f t="array" ref="E9">_FV(B65,"Previous close",TRUE)</f>
-        <v>37.75</v>
+        <v>37.659999999999997</v>
       </c>
       <c r="F9" s="1" cm="1">
         <f t="array" ref="F9">_FV(B65,"High")</f>
-        <v>37.72</v>
+        <v>37.82</v>
       </c>
       <c r="G9" s="1" cm="1">
         <f t="array" ref="G9">_FV(B65,"Low")</f>
-        <v>36.97</v>
+        <v>36.781100000000002</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -7074,19 +7094,19 @@
       </c>
       <c r="D10" s="1" cm="1">
         <f t="array" ref="D10">_FV(B66,"Open")</f>
-        <v>0.93</v>
+        <v>0.89249999999999996</v>
       </c>
       <c r="E10" s="1" cm="1">
         <f t="array" ref="E10">_FV(B66,"Previous close",TRUE)</f>
-        <v>0.93</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="F10" s="1" cm="1">
         <f t="array" ref="F10">_FV(B66,"High")</f>
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="G10" s="1" cm="1">
         <f t="array" ref="G10">_FV(B66,"Low")</f>
-        <v>0.88100000000000001</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -7102,19 +7122,19 @@
       </c>
       <c r="D11" s="1" cm="1">
         <f t="array" ref="D11">_FV(B67,"Open")</f>
-        <v>148.01</v>
+        <v>139.99</v>
       </c>
       <c r="E11" s="1" cm="1">
         <f t="array" ref="E11">_FV(B67,"Previous close",TRUE)</f>
-        <v>148.11000000000001</v>
+        <v>139.6</v>
       </c>
       <c r="F11" s="1" cm="1">
         <f t="array" ref="F11">_FV(B67,"High")</f>
-        <v>148.32</v>
+        <v>139.99</v>
       </c>
       <c r="G11" s="1" cm="1">
         <f t="array" ref="G11">_FV(B67,"Low")</f>
-        <v>137.01</v>
+        <v>135.38999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -7130,19 +7150,19 @@
       </c>
       <c r="D12" s="1" cm="1">
         <f t="array" ref="D12">_FV(B68,"Open")</f>
-        <v>39.83</v>
+        <v>38.36</v>
       </c>
       <c r="E12" s="1" cm="1">
         <f t="array" ref="E12">_FV(B68,"Previous close",TRUE)</f>
-        <v>39.840000000000003</v>
+        <v>38.71</v>
       </c>
       <c r="F12" s="1" cm="1">
         <f t="array" ref="F12">_FV(B68,"High")</f>
-        <v>40.229999999999997</v>
+        <v>38.76</v>
       </c>
       <c r="G12" s="1" cm="1">
         <f t="array" ref="G12">_FV(B68,"Low")</f>
-        <v>38.89</v>
+        <v>37.49</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -7158,19 +7178,19 @@
       </c>
       <c r="D13" s="1" cm="1">
         <f t="array" ref="D13">_FV(B69,"Open")</f>
-        <v>51.04</v>
+        <v>47.23</v>
       </c>
       <c r="E13" s="1" cm="1">
         <f t="array" ref="E13">_FV(B69,"Previous close",TRUE)</f>
-        <v>50.99</v>
+        <v>47.97</v>
       </c>
       <c r="F13" s="1" cm="1">
         <f t="array" ref="F13">_FV(B69,"High")</f>
-        <v>51.14</v>
+        <v>47.82</v>
       </c>
       <c r="G13" s="1" cm="1">
         <f t="array" ref="G13">_FV(B69,"Low")</f>
-        <v>49.03</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -7186,19 +7206,19 @@
       </c>
       <c r="D14" s="1" cm="1">
         <f t="array" ref="D14">_FV(B70,"Open")</f>
-        <v>221.68</v>
+        <v>208</v>
       </c>
       <c r="E14" s="1" cm="1">
         <f t="array" ref="E14">_FV(B70,"Previous close",TRUE)</f>
-        <v>220.08</v>
+        <v>207.43</v>
       </c>
       <c r="F14" s="1" cm="1">
         <f t="array" ref="F14">_FV(B70,"High")</f>
-        <v>224.53</v>
+        <v>209.8</v>
       </c>
       <c r="G14" s="1" cm="1">
         <f t="array" ref="G14">_FV(B70,"Low")</f>
-        <v>210.16</v>
+        <v>206.11</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -7214,19 +7234,19 @@
       </c>
       <c r="D15" s="1" cm="1">
         <f t="array" ref="D15">_FV(B71,"Open")</f>
-        <v>226.89</v>
+        <v>222.1</v>
       </c>
       <c r="E15" s="1" cm="1">
         <f t="array" ref="E15">_FV(B71,"Previous close",TRUE)</f>
-        <v>223.23</v>
+        <v>219.77</v>
       </c>
       <c r="F15" s="1" cm="1">
         <f t="array" ref="F15">_FV(B71,"High")</f>
-        <v>228</v>
+        <v>231.32</v>
       </c>
       <c r="G15" s="1" cm="1">
         <f t="array" ref="G15">_FV(B71,"Low")</f>
-        <v>210.75</v>
+        <v>218.09</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -7242,19 +7262,19 @@
       </c>
       <c r="D16" s="1" cm="1">
         <f t="array" ref="D16">_FV(B72,"Open")</f>
-        <v>276.08499999999998</v>
+        <v>293.37</v>
       </c>
       <c r="E16" s="1" cm="1">
         <f t="array" ref="E16">_FV(B72,"Previous close",TRUE)</f>
-        <v>273.75</v>
+        <v>293.54000000000002</v>
       </c>
       <c r="F16" s="1" cm="1">
         <f t="array" ref="F16">_FV(B72,"High")</f>
-        <v>282.14</v>
+        <v>298</v>
       </c>
       <c r="G16" s="1" cm="1">
         <f t="array" ref="G16">_FV(B72,"Low")</f>
-        <v>274.8</v>
+        <v>289.81</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -7270,19 +7290,19 @@
       </c>
       <c r="D17" s="1" cm="1">
         <f t="array" ref="D17">_FV(B73,"Open")</f>
-        <v>267</v>
+        <v>271.47000000000003</v>
       </c>
       <c r="E17" s="1" cm="1">
         <f t="array" ref="E17">_FV(B73,"Previous close",TRUE)</f>
-        <v>266.88</v>
+        <v>274.02</v>
       </c>
       <c r="F17" s="1" cm="1">
         <f t="array" ref="F17">_FV(B73,"High")</f>
-        <v>267.02999999999997</v>
+        <v>276.91989999999998</v>
       </c>
       <c r="G17" s="1" cm="1">
         <f t="array" ref="G17">_FV(B73,"Low")</f>
-        <v>260.3</v>
+        <v>265.55</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -7298,19 +7318,19 @@
       </c>
       <c r="D18" s="1" cm="1">
         <f t="array" ref="D18">_FV(B74,"Open")</f>
-        <v>243.04</v>
+        <v>225.31</v>
       </c>
       <c r="E18" s="1" cm="1">
         <f t="array" ref="E18">_FV(B74,"Previous close",TRUE)</f>
-        <v>241.31</v>
+        <v>225.5</v>
       </c>
       <c r="F18" s="1" cm="1">
         <f t="array" ref="F18">_FV(B74,"High")</f>
-        <v>252</v>
+        <v>229.4999</v>
       </c>
       <c r="G18" s="1" cm="1">
         <f t="array" ref="G18">_FV(B74,"Low")</f>
-        <v>229.02</v>
+        <v>219.26400000000001</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -7326,19 +7346,19 @@
       </c>
       <c r="D19" s="1" cm="1">
         <f t="array" ref="D19">_FV(B75,"Open")</f>
-        <v>59</v>
+        <v>61.7</v>
       </c>
       <c r="E19" s="1" cm="1">
         <f t="array" ref="E19">_FV(B75,"Previous close",TRUE)</f>
-        <v>59.02</v>
+        <v>61.45</v>
       </c>
       <c r="F19" s="1" cm="1">
         <f t="array" ref="F19">_FV(B75,"High")</f>
-        <v>59.72</v>
+        <v>62.02</v>
       </c>
       <c r="G19" s="1" cm="1">
         <f t="array" ref="G19">_FV(B75,"Low")</f>
-        <v>58.85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -7354,19 +7374,19 @@
       </c>
       <c r="D20" s="1" cm="1">
         <f t="array" ref="D20">_FV(B76,"Open")</f>
-        <v>203.16</v>
+        <v>197.99</v>
       </c>
       <c r="E20" s="1" cm="1">
         <f t="array" ref="E20">_FV(B76,"Previous close",TRUE)</f>
-        <v>220.14</v>
+        <v>194.49</v>
       </c>
       <c r="F20" s="1" cm="1">
         <f t="array" ref="F20">_FV(B76,"High")</f>
-        <v>220.7</v>
+        <v>201.75</v>
       </c>
       <c r="G20" s="1" cm="1">
         <f t="array" ref="G20">_FV(B76,"Low")</f>
-        <v>172.35</v>
+        <v>177.55</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -7382,19 +7402,19 @@
       </c>
       <c r="D21" s="1" cm="1">
         <f t="array" ref="D21">_FV(B77,"Open")</f>
-        <v>2065.9899999999998</v>
+        <v>2039.95</v>
       </c>
       <c r="E21" s="1" cm="1">
         <f t="array" ref="E21">_FV(B77,"Previous close",TRUE)</f>
-        <v>2054.44</v>
+        <v>2030.6899000000001</v>
       </c>
       <c r="F21" s="1" cm="1">
         <f t="array" ref="F21">_FV(B77,"High")</f>
-        <v>2113.6799999999998</v>
+        <v>2064.09</v>
       </c>
       <c r="G21" s="1" cm="1">
         <f t="array" ref="G21">_FV(B77,"Low")</f>
-        <v>2059.29</v>
+        <v>2028.0001</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -7410,19 +7430,19 @@
       </c>
       <c r="D22" s="1" cm="1">
         <f t="array" ref="D22">_FV(B78,"Open")</f>
-        <v>89.25</v>
+        <v>84.47</v>
       </c>
       <c r="E22" s="1" cm="1">
         <f t="array" ref="E22">_FV(B78,"Previous close",TRUE)</f>
-        <v>89.06</v>
+        <v>85.52</v>
       </c>
       <c r="F22" s="1" cm="1">
         <f t="array" ref="F22">_FV(B78,"High")</f>
-        <v>89.25</v>
+        <v>84.47</v>
       </c>
       <c r="G22" s="1" cm="1">
         <f t="array" ref="G22">_FV(B78,"Low")</f>
-        <v>85.88</v>
+        <v>79.38</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -7438,19 +7458,19 @@
       </c>
       <c r="D23" s="1" cm="1">
         <f t="array" ref="D23">_FV(B79,"Open")</f>
-        <v>278.54000000000002</v>
+        <v>289.61</v>
       </c>
       <c r="E23" s="1" cm="1">
         <f t="array" ref="E23">_FV(B79,"Previous close",TRUE)</f>
-        <v>278.54000000000002</v>
+        <v>288.94</v>
       </c>
       <c r="F23" s="1" cm="1">
         <f t="array" ref="F23">_FV(B79,"High")</f>
-        <v>282.52</v>
+        <v>293.42700000000002</v>
       </c>
       <c r="G23" s="1" cm="1">
         <f t="array" ref="G23">_FV(B79,"Low")</f>
-        <v>277.64999999999998</v>
+        <v>288.94</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -7466,19 +7486,19 @@
       </c>
       <c r="D24" s="1" cm="1">
         <f t="array" ref="D24">_FV(B80,"Open")</f>
-        <v>51.2</v>
+        <v>50.99</v>
       </c>
       <c r="E24" s="1" cm="1">
         <f t="array" ref="E24">_FV(B80,"Previous close",TRUE)</f>
-        <v>51.03</v>
+        <v>51</v>
       </c>
       <c r="F24" s="1" cm="1">
         <f t="array" ref="F24">_FV(B80,"High")</f>
-        <v>51.52</v>
+        <v>51.65</v>
       </c>
       <c r="G24" s="1" cm="1">
         <f t="array" ref="G24">_FV(B80,"Low")</f>
-        <v>51.04</v>
+        <v>50.825000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -7494,19 +7514,19 @@
       </c>
       <c r="D25" s="1" cm="1">
         <f t="array" ref="D25">_FV(B81,"Open")</f>
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E25" s="1" cm="1">
         <f t="array" ref="E25">_FV(B81,"Previous close",TRUE)</f>
-        <v>109.98</v>
+        <v>98.6</v>
       </c>
       <c r="F25" s="1" cm="1">
         <f t="array" ref="F25">_FV(B81,"High")</f>
-        <v>113.17</v>
+        <v>99.46</v>
       </c>
       <c r="G25" s="1" cm="1">
         <f t="array" ref="G25">_FV(B81,"Low")</f>
-        <v>105.06</v>
+        <v>94.38</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -7522,19 +7542,19 @@
       </c>
       <c r="D26" s="1" cm="1">
         <f t="array" ref="D26">_FV(B82,"Open")</f>
-        <v>62.26</v>
+        <v>58.81</v>
       </c>
       <c r="E26" s="1" cm="1">
         <f t="array" ref="E26">_FV(B82,"Previous close",TRUE)</f>
-        <v>62.1</v>
+        <v>59.46</v>
       </c>
       <c r="F26" s="1" cm="1">
         <f t="array" ref="F26">_FV(B82,"High")</f>
-        <v>62.3</v>
+        <v>60.37</v>
       </c>
       <c r="G26" s="1" cm="1">
         <f t="array" ref="G26">_FV(B82,"Low")</f>
-        <v>60.53</v>
+        <v>57.06</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -7550,19 +7570,19 @@
       </c>
       <c r="D27" s="1" cm="1">
         <f t="array" ref="D27">_FV(B83,"Open")</f>
-        <v>219.58</v>
+        <v>223.96</v>
       </c>
       <c r="E27" s="1" cm="1">
         <f t="array" ref="E27">_FV(B83,"Previous close",TRUE)</f>
-        <v>220.46</v>
+        <v>225.07</v>
       </c>
       <c r="F27" s="1" cm="1">
         <f t="array" ref="F27">_FV(B83,"High")</f>
-        <v>221.3</v>
+        <v>226.4</v>
       </c>
       <c r="G27" s="1" cm="1">
         <f t="array" ref="G27">_FV(B83,"Low")</f>
-        <v>217.16</v>
+        <v>223.75129999999999</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -7578,19 +7598,19 @@
       </c>
       <c r="D28" s="1" cm="1">
         <f t="array" ref="D28">_FV(B84,"Open")</f>
-        <v>148.5</v>
+        <v>145.61000000000001</v>
       </c>
       <c r="E28" s="1" cm="1">
         <f t="array" ref="E28">_FV(B84,"Previous close",TRUE)</f>
-        <v>143.66</v>
+        <v>145.6</v>
       </c>
       <c r="F28" s="1" cm="1">
         <f t="array" ref="F28">_FV(B84,"High")</f>
-        <v>157.75</v>
+        <v>146.19</v>
       </c>
       <c r="G28" s="1" cm="1">
         <f t="array" ref="G28">_FV(B84,"Low")</f>
-        <v>145.84</v>
+        <v>136.38</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -7606,19 +7626,19 @@
       </c>
       <c r="D29" s="1" cm="1">
         <f t="array" ref="D29">_FV(B85,"Open")</f>
-        <v>236.28</v>
+        <v>237.48500000000001</v>
       </c>
       <c r="E29" s="1" cm="1">
         <f t="array" ref="E29">_FV(B85,"Previous close",TRUE)</f>
-        <v>234.81</v>
+        <v>235.99</v>
       </c>
       <c r="F29" s="1" cm="1">
         <f t="array" ref="F29">_FV(B85,"High")</f>
-        <v>240.05500000000001</v>
+        <v>241.05</v>
       </c>
       <c r="G29" s="1" cm="1">
         <f t="array" ref="G29">_FV(B85,"Low")</f>
-        <v>235.94</v>
+        <v>237.07</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -7634,19 +7654,19 @@
       </c>
       <c r="D30" s="1" cm="1">
         <f t="array" ref="D30">_FV(B86,"Open")</f>
-        <v>220.06</v>
+        <v>237.5</v>
       </c>
       <c r="E30" s="1" cm="1">
         <f t="array" ref="E30">_FV(B86,"Previous close",TRUE)</f>
-        <v>217.46</v>
+        <v>237.2</v>
       </c>
       <c r="F30" s="1" cm="1">
         <f t="array" ref="F30">_FV(B86,"High")</f>
-        <v>235</v>
+        <v>239.54</v>
       </c>
       <c r="G30" s="1" cm="1">
         <f t="array" ref="G30">_FV(B86,"Low")</f>
-        <v>216</v>
+        <v>218.61</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -7662,19 +7682,19 @@
       </c>
       <c r="D31" s="1" cm="1">
         <f t="array" ref="D31">_FV(B87,"Open")</f>
-        <v>534.26</v>
+        <v>530.17999999999995</v>
       </c>
       <c r="E31" s="1" cm="1">
         <f t="array" ref="E31">_FV(B87,"Previous close",TRUE)</f>
-        <v>527.65</v>
+        <v>527.45000000000005</v>
       </c>
       <c r="F31" s="1" cm="1">
         <f t="array" ref="F31">_FV(B87,"High")</f>
-        <v>540.5</v>
+        <v>533.78</v>
       </c>
       <c r="G31" s="1" cm="1">
         <f t="array" ref="G31">_FV(B87,"Low")</f>
-        <v>524.66999999999996</v>
+        <v>520.86</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -7690,19 +7710,19 @@
       </c>
       <c r="D32" s="1" cm="1">
         <f t="array" ref="D32">_FV(B88,"Open")</f>
-        <v>28.65</v>
+        <v>27.3</v>
       </c>
       <c r="E32" s="1" cm="1">
         <f t="array" ref="E32">_FV(B88,"Previous close",TRUE)</f>
-        <v>28.81</v>
+        <v>27.9</v>
       </c>
       <c r="F32" s="1" cm="1">
         <f t="array" ref="F32">_FV(B88,"High")</f>
-        <v>30.04</v>
+        <v>27.5</v>
       </c>
       <c r="G32" s="1" cm="1">
         <f t="array" ref="G32">_FV(B88,"Low")</f>
-        <v>26.44</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -7718,19 +7738,19 @@
       </c>
       <c r="D33" s="1" cm="1">
         <f t="array" ref="D33">_FV(B89,"Open")</f>
-        <v>35.47</v>
+        <v>35.82</v>
       </c>
       <c r="E33" s="1" cm="1">
         <f t="array" ref="E33">_FV(B89,"Previous close",TRUE)</f>
-        <v>35.409999999999997</v>
+        <v>36</v>
       </c>
       <c r="F33" s="1" cm="1">
         <f t="array" ref="F33">_FV(B89,"High")</f>
-        <v>35.86</v>
+        <v>35.93</v>
       </c>
       <c r="G33" s="1" cm="1">
         <f t="array" ref="G33">_FV(B89,"Low")</f>
-        <v>35.31</v>
+        <v>35.32</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -7746,19 +7766,19 @@
       </c>
       <c r="D34" s="1" cm="1">
         <f t="array" ref="D34">_FV(B90,"Open")</f>
-        <v>73.989999999999995</v>
+        <v>72</v>
       </c>
       <c r="E34" s="1" cm="1">
         <f t="array" ref="E34">_FV(B90,"Previous close",TRUE)</f>
-        <v>72.790000000000006</v>
+        <v>72.349999999999994</v>
       </c>
       <c r="F34" s="1" cm="1">
         <f t="array" ref="F34">_FV(B90,"High")</f>
-        <v>75.098299999999995</v>
+        <v>72.09</v>
       </c>
       <c r="G34" s="1" cm="1">
         <f t="array" ref="G34">_FV(B90,"Low")</f>
-        <v>72.510000000000005</v>
+        <v>70.599999999999994</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -7774,19 +7794,19 @@
       </c>
       <c r="D35" s="1" cm="1">
         <f t="array" ref="D35">_FV(B91,"Open")</f>
-        <v>18.95</v>
+        <v>16.760000000000002</v>
       </c>
       <c r="E35" s="1" cm="1">
         <f t="array" ref="E35">_FV(B91,"Previous close",TRUE)</f>
-        <v>18.71</v>
+        <v>16.91</v>
       </c>
       <c r="F35" s="1" cm="1">
         <f t="array" ref="F35">_FV(B91,"High")</f>
-        <v>18.97</v>
+        <v>16.869</v>
       </c>
       <c r="G35" s="1" cm="1">
         <f t="array" ref="G35">_FV(B91,"Low")</f>
-        <v>17.329999999999998</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -7802,19 +7822,19 @@
       </c>
       <c r="D36" s="1" cm="1">
         <f t="array" ref="D36">_FV(B92,"Open")</f>
-        <v>321.08999999999997</v>
+        <v>319.68</v>
       </c>
       <c r="E36" s="1" cm="1">
         <f t="array" ref="E36">_FV(B92,"Previous close",TRUE)</f>
-        <v>318.83</v>
+        <v>318.61</v>
       </c>
       <c r="F36" s="1" cm="1">
         <f t="array" ref="F36">_FV(B92,"High")</f>
-        <v>324.2</v>
+        <v>321.08010000000002</v>
       </c>
       <c r="G36" s="1" cm="1">
         <f t="array" ref="G36">_FV(B92,"Low")</f>
-        <v>319.10000000000002</v>
+        <v>316.375</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -7830,19 +7850,19 @@
       </c>
       <c r="D37" s="1" cm="1">
         <f t="array" ref="D37">_FV(B93,"Open")</f>
-        <v>75.430000000000007</v>
+        <v>68.180000000000007</v>
       </c>
       <c r="E37" s="1" cm="1">
         <f t="array" ref="E37">_FV(B93,"Previous close",TRUE)</f>
-        <v>74.86</v>
+        <v>69.28</v>
       </c>
       <c r="F37" s="1" cm="1">
         <f t="array" ref="F37">_FV(B93,"High")</f>
-        <v>76.8</v>
+        <v>68.5</v>
       </c>
       <c r="G37" s="1" cm="1">
         <f t="array" ref="G37">_FV(B93,"Low")</f>
-        <v>71.88</v>
+        <v>65.650000000000006</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -7858,19 +7878,19 @@
       </c>
       <c r="D38" s="1" cm="1">
         <f t="array" ref="D38">_FV(B94,"Open")</f>
-        <v>110.568</v>
+        <v>107.74</v>
       </c>
       <c r="E38" s="1" cm="1">
         <f t="array" ref="E38">_FV(B94,"Previous close",TRUE)</f>
-        <v>108.9</v>
+        <v>107.57</v>
       </c>
       <c r="F38" s="1" cm="1">
         <f t="array" ref="F38">_FV(B94,"High")</f>
-        <v>112.34</v>
+        <v>107.9477</v>
       </c>
       <c r="G38" s="1" cm="1">
         <f t="array" ref="G38">_FV(B94,"Low")</f>
-        <v>109.89</v>
+        <v>105.6738</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -7886,19 +7906,19 @@
       </c>
       <c r="D39" s="1" cm="1">
         <f t="array" ref="D39">_FV(B95,"Open")</f>
-        <v>1183.1199999999999</v>
+        <v>1165</v>
       </c>
       <c r="E39" s="1" cm="1">
         <f t="array" ref="E39">_FV(B95,"Previous close",TRUE)</f>
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="F39" s="1" cm="1">
         <f t="array" ref="F39">_FV(B95,"High")</f>
-        <v>1190</v>
+        <v>1167.9974</v>
       </c>
       <c r="G39" s="1" cm="1">
         <f t="array" ref="G39">_FV(B95,"Low")</f>
-        <v>1124.0001</v>
+        <v>1142.3</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -7914,19 +7934,19 @@
       </c>
       <c r="D40" s="1" cm="1">
         <f t="array" ref="D40">_FV(B96,"Open")</f>
-        <v>148.5</v>
+        <v>139.44</v>
       </c>
       <c r="E40" s="1" cm="1">
         <f t="array" ref="E40">_FV(B96,"Previous close",TRUE)</f>
-        <v>146.97</v>
+        <v>140.63</v>
       </c>
       <c r="F40" s="1" cm="1">
         <f t="array" ref="F40">_FV(B96,"High")</f>
-        <v>149.97999999999999</v>
+        <v>143.34</v>
       </c>
       <c r="G40" s="1" cm="1">
         <f t="array" ref="G40">_FV(B96,"Low")</f>
-        <v>137.55629999999999</v>
+        <v>135.44999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -7942,19 +7962,19 @@
       </c>
       <c r="D41" s="1" cm="1">
         <f t="array" ref="D41">_FV(B97,"Open")</f>
-        <v>1.7450000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="E41" s="1" cm="1">
         <f t="array" ref="E41">_FV(B97,"Previous close",TRUE)</f>
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="F41" s="1" cm="1">
         <f t="array" ref="F41">_FV(B97,"High")</f>
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="G41" s="1" cm="1">
         <f t="array" ref="G41">_FV(B97,"Low")</f>
-        <v>1.45</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -7970,19 +7990,19 @@
       </c>
       <c r="D42" s="1" cm="1">
         <f t="array" ref="D42">_FV(B98,"Open")</f>
-        <v>252.26</v>
+        <v>226.31</v>
       </c>
       <c r="E42" s="1" cm="1">
         <f t="array" ref="E42">_FV(B98,"Previous close",TRUE)</f>
-        <v>251.23</v>
+        <v>226.13</v>
       </c>
       <c r="F42" s="1" cm="1">
         <f t="array" ref="F42">_FV(B98,"High")</f>
-        <v>252.5</v>
+        <v>228.3399</v>
       </c>
       <c r="G42" s="1" cm="1">
         <f t="array" ref="G42">_FV(B98,"Low")</f>
-        <v>238.67</v>
+        <v>221.52</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -7998,19 +8018,19 @@
       </c>
       <c r="D43" s="1" cm="1">
         <f t="array" ref="D43">_FV(B99,"Open")</f>
-        <v>48.86</v>
+        <v>46.14</v>
       </c>
       <c r="E43" s="1" cm="1">
         <f t="array" ref="E43">_FV(B99,"Previous close",TRUE)</f>
-        <v>48.55</v>
+        <v>47.03</v>
       </c>
       <c r="F43" s="1" cm="1">
         <f t="array" ref="F43">_FV(B99,"High")</f>
-        <v>48.865000000000002</v>
+        <v>46.71</v>
       </c>
       <c r="G43" s="1" cm="1">
         <f t="array" ref="G43">_FV(B99,"Low")</f>
-        <v>46.82</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -8026,19 +8046,19 @@
       </c>
       <c r="D44" s="1" cm="1">
         <f t="array" ref="D44">_FV(B100,"Open")</f>
-        <v>82.38</v>
+        <v>77.86</v>
       </c>
       <c r="E44" s="1" cm="1">
         <f t="array" ref="E44">_FV(B100,"Previous close",TRUE)</f>
-        <v>83.24</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="F44" s="1" cm="1">
         <f t="array" ref="F44">_FV(B100,"High")</f>
-        <v>82.64</v>
+        <v>78.27</v>
       </c>
       <c r="G44" s="1" cm="1">
         <f t="array" ref="G44">_FV(B100,"Low")</f>
-        <v>80.17</v>
+        <v>76.41</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -8054,19 +8074,19 @@
       </c>
       <c r="D45" s="1" cm="1">
         <f t="array" ref="D45">_FV(B101,"Open")</f>
-        <v>112.88</v>
+        <v>99.66</v>
       </c>
       <c r="E45" s="1" cm="1">
         <f t="array" ref="E45">_FV(B101,"Previous close",TRUE)</f>
-        <v>109.67</v>
+        <v>100.34</v>
       </c>
       <c r="F45" s="1" cm="1">
         <f t="array" ref="F45">_FV(B101,"High")</f>
-        <v>114.14</v>
+        <v>100.76</v>
       </c>
       <c r="G45" s="1" cm="1">
         <f t="array" ref="G45">_FV(B101,"Low")</f>
-        <v>106.67</v>
+        <v>96.75</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -8082,19 +8102,19 @@
       </c>
       <c r="D46" s="1" cm="1">
         <f t="array" ref="D46">_FV(B102,"Open")</f>
-        <v>36.4</v>
+        <v>34.71</v>
       </c>
       <c r="E46" s="1" cm="1">
         <f t="array" ref="E46">_FV(B102,"Previous close",TRUE)</f>
-        <v>36.78</v>
+        <v>35.25</v>
       </c>
       <c r="F46" s="1" cm="1">
         <f t="array" ref="F46">_FV(B102,"High")</f>
-        <v>37.648600000000002</v>
+        <v>35.520099999999999</v>
       </c>
       <c r="G46" s="1" cm="1">
         <f t="array" ref="G46">_FV(B102,"Low")</f>
-        <v>34.823399999999999</v>
+        <v>33.04</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -8110,19 +8130,19 @@
       </c>
       <c r="D47" s="1" cm="1">
         <f t="array" ref="D47">_FV(B103,"Open")</f>
-        <v>162.78</v>
+        <v>159.69999999999999</v>
       </c>
       <c r="E47" s="1" cm="1">
         <f t="array" ref="E47">_FV(B103,"Previous close",TRUE)</f>
-        <v>162.63999999999999</v>
+        <v>161.06</v>
       </c>
       <c r="F47" s="1" cm="1">
         <f t="array" ref="F47">_FV(B103,"High")</f>
-        <v>164.16</v>
+        <v>162.16</v>
       </c>
       <c r="G47" s="1" cm="1">
         <f t="array" ref="G47">_FV(B103,"Low")</f>
-        <v>161.43</v>
+        <v>159.2345</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -8138,19 +8158,19 @@
       </c>
       <c r="D48" s="1" cm="1">
         <f t="array" ref="D48">_FV(B104,"Open")</f>
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="E48" s="1" cm="1">
         <f t="array" ref="E48">_FV(B104,"Previous close",TRUE)</f>
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="F48" s="1" cm="1">
         <f t="array" ref="F48">_FV(B104,"High")</f>
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="G48" s="1" cm="1">
         <f t="array" ref="G48">_FV(B104,"Low")</f>
-        <v>1.6671</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -8166,19 +8186,19 @@
       </c>
       <c r="D49" s="1" cm="1">
         <f t="array" ref="D49">_FV(B105,"Open")</f>
-        <v>56.21</v>
+        <v>52.145000000000003</v>
       </c>
       <c r="E49" s="1" cm="1">
         <f t="array" ref="E49">_FV(B105,"Previous close",TRUE)</f>
-        <v>56.65</v>
+        <v>51.84</v>
       </c>
       <c r="F49" s="1" cm="1">
         <f t="array" ref="F49">_FV(B105,"High")</f>
-        <v>56.71</v>
+        <v>52.6</v>
       </c>
       <c r="G49" s="1" cm="1">
         <f t="array" ref="G49">_FV(B105,"Low")</f>
-        <v>52.83</v>
+        <v>48.81</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -8194,19 +8214,19 @@
       </c>
       <c r="D50" s="1" cm="1">
         <f t="array" ref="D50">_FV(B106,"Open")</f>
-        <v>39.369999999999997</v>
+        <v>38.479999999999997</v>
       </c>
       <c r="E50" s="1" cm="1">
         <f t="array" ref="E50">_FV(B106,"Previous close",TRUE)</f>
-        <v>39.700000000000003</v>
+        <v>38.97</v>
       </c>
       <c r="F50" s="1" cm="1">
         <f t="array" ref="F50">_FV(B106,"High")</f>
-        <v>39.49</v>
+        <v>39.046599999999998</v>
       </c>
       <c r="G50" s="1" cm="1">
         <f t="array" ref="G50">_FV(B106,"Low")</f>
-        <v>38.72</v>
+        <v>38.049999999999997</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -8222,19 +8242,19 @@
       </c>
       <c r="D51" s="1" cm="1">
         <f t="array" ref="D51">_FV(B107,"Open")</f>
-        <v>129.6</v>
+        <v>131.08000000000001</v>
       </c>
       <c r="E51" s="1" cm="1">
         <f t="array" ref="E51">_FV(B107,"Previous close",TRUE)</f>
-        <v>128.41999999999999</v>
+        <v>131.41</v>
       </c>
       <c r="F51" s="1" cm="1">
         <f t="array" ref="F51">_FV(B107,"High")</f>
-        <v>131.30000000000001</v>
+        <v>132.5</v>
       </c>
       <c r="G51" s="1" cm="1">
         <f t="array" ref="G51">_FV(B107,"Low")</f>
-        <v>127.51</v>
+        <v>129.54</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -8250,19 +8270,19 @@
       </c>
       <c r="D52" s="1" cm="1">
         <f t="array" ref="D52">_FV(B108,"Open")</f>
-        <v>122.71</v>
+        <v>123.26</v>
       </c>
       <c r="E52" s="1" cm="1">
         <f t="array" ref="E52">_FV(B108,"Previous close",TRUE)</f>
-        <v>122.62</v>
+        <v>123.37</v>
       </c>
       <c r="F52" s="1" cm="1">
         <f t="array" ref="F52">_FV(B108,"High")</f>
-        <v>123.1399</v>
+        <v>124.81</v>
       </c>
       <c r="G52" s="1" cm="1">
         <f t="array" ref="G52">_FV(B108,"Low")</f>
-        <v>122.2</v>
+        <v>122.76</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -8278,19 +8298,19 @@
       </c>
       <c r="D53" s="1" cm="1">
         <f t="array" ref="D53">_FV(B109,"Open")</f>
-        <v>132.82</v>
+        <v>131.72</v>
       </c>
       <c r="E53" s="1" cm="1">
         <f t="array" ref="E53">_FV(B109,"Previous close",TRUE)</f>
-        <v>133.43</v>
+        <v>132.37</v>
       </c>
       <c r="F53" s="1" cm="1">
         <f t="array" ref="F53">_FV(B109,"High")</f>
-        <v>134.28</v>
+        <v>134.30000000000001</v>
       </c>
       <c r="G53" s="1" cm="1">
         <f t="array" ref="G53">_FV(B109,"Low")</f>
-        <v>132.82</v>
+        <v>131.63999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -8306,19 +8326,19 @@
       </c>
       <c r="D54" s="1" cm="1">
         <f t="array" ref="D54">_FV(B110,"Open")</f>
-        <v>22.98</v>
+        <v>21.17</v>
       </c>
       <c r="E54" s="1" cm="1">
         <f t="array" ref="E54">_FV(B110,"Previous close",TRUE)</f>
-        <v>23.14</v>
+        <v>21.79</v>
       </c>
       <c r="F54" s="1" cm="1">
         <f t="array" ref="F54">_FV(B110,"High")</f>
-        <v>23.08</v>
+        <v>21.8</v>
       </c>
       <c r="G54" s="1" cm="1">
         <f t="array" ref="G54">_FV(B110,"Low")</f>
-        <v>21.1</v>
+        <v>19.29</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -8334,19 +8354,19 @@
       </c>
       <c r="D55" s="1" cm="1">
         <f t="array" ref="D55">_FV(B111,"Open")</f>
-        <v>148.76</v>
+        <v>145.68</v>
       </c>
       <c r="E55" s="1" cm="1">
         <f t="array" ref="E55">_FV(B111,"Previous close",TRUE)</f>
-        <v>148.22</v>
+        <v>147.12</v>
       </c>
       <c r="F55" s="1" cm="1">
         <f t="array" ref="F55">_FV(B111,"High")</f>
-        <v>149.23500000000001</v>
+        <v>145.97999999999999</v>
       </c>
       <c r="G55" s="1" cm="1">
         <f t="array" ref="G55">_FV(B111,"Low")</f>
-        <v>143.22999999999999</v>
+        <v>137.733</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -8362,19 +8382,19 @@
       </c>
       <c r="D56" s="1" cm="1">
         <f t="array" ref="D56">_FV(B112,"Open")</f>
-        <v>153.24</v>
+        <v>137.94999999999999</v>
       </c>
       <c r="E56" s="1" cm="1">
         <f t="array" ref="E56">_FV(B112,"Previous close",TRUE)</f>
-        <v>150.5</v>
+        <v>137.91</v>
       </c>
       <c r="F56" s="1" cm="1">
         <f t="array" ref="F56">_FV(B112,"High")</f>
-        <v>156.84</v>
+        <v>139.16</v>
       </c>
       <c r="G56" s="1" cm="1">
         <f t="array" ref="G56">_FV(B112,"Low")</f>
-        <v>142.125</v>
+        <v>132.68010000000001</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -8390,19 +8410,19 @@
       </c>
       <c r="D57" s="1" cm="1">
         <f t="array" ref="D57">_FV(B113,"Open")</f>
-        <v>159.88</v>
+        <v>144.15</v>
       </c>
       <c r="E57" s="1" cm="1">
         <f t="array" ref="E57">_FV(B113,"Previous close",TRUE)</f>
-        <v>155.99</v>
+        <v>143.88999999999999</v>
       </c>
       <c r="F57" s="1" cm="1">
         <f t="array" ref="F57">_FV(B113,"High")</f>
-        <v>162</v>
+        <v>144.97999999999999</v>
       </c>
       <c r="G57" s="1" cm="1">
         <f t="array" ref="G57">_FV(B113,"Low")</f>
-        <v>147.09</v>
+        <v>138.96</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">

--- a/StonkInput.xlsx
+++ b/StonkInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robby\Documents\GitHub\STONKS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECB2BFC-0DD4-4936-965C-7579305D9759}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0EB1C9-ADCD-414A-BD96-BBB557983F42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2895" yWindow="1155" windowWidth="28800" windowHeight="15435" xr2:uid="{D09550C1-7BA3-4017-B757-A891F06AF488}"/>
   </bookViews>
@@ -996,11 +996,11 @@
     <v>4</v>
     <v>26.09</v>
     <v>8.25</v>
-    <v>1.9266000000000001</v>
-    <v>-1.56</v>
-    <v>-4.9389999999999998E-3</v>
-    <v>-6.5464000000000008E-2</v>
-    <v>-0.11</v>
+    <v>1.9089</v>
+    <v>0.96</v>
+    <v>7.4660000000000004E-3</v>
+    <v>4.4017000000000001E-2</v>
+    <v>0.17</v>
     <v>USD</v>
     <v>American Airlines Group Inc. is a holding company. The Company's primary business activity is the operation of a network air carrier, providing scheduled air transportation for passengers and cargo. The Company operates through American segment, which provides air transportation for passengers and cargo. The Company's cargo division provides a range of freight and mail services with facilities and interline connections available across the globe. Together with its regional airline subsidiaries and third-party regional carriers operating as American Eagle, its airline operated an average of nearly 6,700 flights per day to nearly 350 destinations in more than 50 countries, principally from its hubs in Charlotte, Chicago, Dallas/Fort Worth, Los Angeles, Miami, New York, Philadelphia, Phoenix and Washington, District of Columbia, as of December 31, 2016. In the fiscal year ended December 31, 2016, approximately 199 million passengers boarded its mainline and regional flights.</v>
     <v>102700</v>
@@ -1008,25 +1008,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Skyview Dr, FORT WORTH, TX, 76155-1801 US</v>
-    <v>23.66</v>
+    <v>22.914999999999999</v>
     <v>Passenger Transportation Services</v>
     <v>Stock</v>
-    <v>44278.999925126562</v>
+    <v>44280.999995659375</v>
     <v>0</v>
-    <v>22.08</v>
-    <v>15243470000</v>
+    <v>21.02</v>
+    <v>13951330000</v>
     <v>AMERICAN AIRLINES GROUP INC.</v>
     <v>AMERICAN AIRLINES GROUP INC.</v>
-    <v>23.37</v>
+    <v>21.25</v>
     <v>3.3195999999999999</v>
-    <v>23.83</v>
-    <v>22.27</v>
-    <v>22.16</v>
+    <v>21.81</v>
+    <v>22.77</v>
+    <v>22.94</v>
     <v>639675800</v>
     <v>AAL</v>
     <v>AMERICAN AIRLINES GROUP INC. (XNAS:AAL)</v>
-    <v>55289194</v>
-    <v>51854156</v>
+    <v>49746885</v>
+    <v>53083292</v>
     <v>1982</v>
   </rv>
   <rv s="2">
@@ -1045,7 +1045,7 @@
     <v>4</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_beb35548a531e1b96429505c22a3eab4&amp;qlt=95</v>
     <v>5</v>
     <v>0</v>
@@ -1067,14 +1067,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>20.36</v>
     <v>1.91</v>
-    <v>1.4614</v>
-    <v>-1.83</v>
-    <v>-4.0338000000000006E-2</v>
-    <v>-0.14651700000000001</v>
-    <v>-0.43</v>
+    <v>1.3705000000000001</v>
+    <v>1.92</v>
+    <v>1.7367E-2</v>
+    <v>0.21286000000000002</v>
+    <v>0.19</v>
     <v>USD</v>
     <v>AMC Entertainment Holdings, Inc. is a theatrical exhibition company. The Company conducts operations through two segments: U.S. markets and International markets. It licenses first-run films from distributors owned by film production companies and from independent distributors on a film-by-film and theatre-by-theatre basis. It also offers food and beverage products, including drinks and meals, popcorn, soft drinks, candy and hot dogs, coffee, snacks, beers, wine and mixed drinks, and other gourmet products. In U.S. markets, it operates theatres in approximately 44 states and the District of Columbia. In International markets, it operates theatres in approximately 13 European countries and in Saudi Arabia. It operates approximately 1,004 theatres and over 11,041 screens in approximately 15 countries, including over 636 theatres with a total of approximately 8,094 screens in the United States and over 368 theatres and approximately 2,947 screens in European markets and Saudi Arabia.</v>
     <v>3449</v>
@@ -1082,26 +1082,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>11500 Ash St, LEAWOOD, KS, 66211-7804 US</v>
-    <v>11.93</v>
+    <v>11.315</v>
     <v>6</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>44278.995832476561</v>
+    <v>44280.999995751561</v>
     <v>7</v>
-    <v>10.37</v>
-    <v>5622451000</v>
+    <v>8.9499999999999993</v>
+    <v>4060409000</v>
     <v>AMC ENTERTAINMENT HOLDINGS, INC.</v>
     <v>AMC ENTERTAINMENT HOLDINGS, INC.</v>
-    <v>11.46</v>
+    <v>8.9600000000000009</v>
     <v>0</v>
-    <v>12.49</v>
-    <v>10.66</v>
-    <v>10.23</v>
+    <v>9.02</v>
+    <v>10.94</v>
+    <v>11.13</v>
     <v>450156200</v>
     <v>AMC</v>
     <v>AMC ENTERTAINMENT HOLDINGS, INC. (XNYS:AMC)</v>
-    <v>87818138</v>
-    <v>146103000</v>
+    <v>131192830</v>
+    <v>148893368</v>
     <v>2007</v>
   </rv>
   <rv s="2">
@@ -1116,7 +1116,7 @@
     <v>10</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_fbc39ac25bb1332e8095cd72ec19dc8e&amp;qlt=95</v>
     <v>11</v>
     <v>0</v>
@@ -1140,12 +1140,12 @@
     <v>Finance</v>
     <v>4</v>
     <v>99.23</v>
-    <v>38.950000000000003</v>
-    <v>2.0790999999999999</v>
-    <v>-1.92</v>
-    <v>-2.3730999999999999E-2</v>
-    <v>-2.3910000000000001E-2</v>
-    <v>-1.86</v>
+    <v>41.7</v>
+    <v>2.0985</v>
+    <v>-0.26</v>
+    <v>7.4780000000000003E-3</v>
+    <v>-3.4000000000000002E-3</v>
+    <v>0.56999999999999995</v>
     <v>USD</v>
     <v>Advanced Micro Devices, Inc. is a global semiconductor company. The Company is engaged in offering x86 microprocessors, as standalone devices or as incorporated into an accelerated processing unit (APU), chipsets, discrete graphics processing units (GPUs) and professional graphics, and server and embedded processors and semi-custom System-on-Chip (SoC) products and technology for game consoles. The Company's segments include the Computing and Graphics segment, and the Enterprise, Embedded and Semi-Custom segment. The Computing and Graphics segment primarily includes desktop and notebook processors and chipsets, discrete GPUs and professional graphics. The Enterprise, Embedded and Semi-Custom segment primarily includes server and embedded processors, semi-custom SoC products, development services, technology for game consoles and licensing portions of its intellectual property portfolio.</v>
     <v>12600</v>
@@ -1153,26 +1153,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2485 Augustine Dr, SANTA CLARA, CA, 95054-3002 US</v>
-    <v>80.34</v>
+    <v>76.95</v>
     <v>12</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>44278.999907140627</v>
+    <v>44280.999963957809</v>
     <v>13</v>
-    <v>77.95</v>
-    <v>97307810000</v>
+    <v>74.959999999999994</v>
+    <v>92678730000</v>
     <v>ADVANCED MICRO DEVICES, INC.</v>
     <v>ADVANCED MICRO DEVICES, INC.</v>
-    <v>80.11</v>
-    <v>39.352699999999999</v>
-    <v>80.3</v>
-    <v>78.38</v>
-    <v>76.52</v>
+    <v>75.849999999999994</v>
+    <v>37.480600000000003</v>
+    <v>76.48</v>
+    <v>76.22</v>
+    <v>76.790000000000006</v>
     <v>1211803000</v>
     <v>AMD</v>
     <v>ADVANCED MICRO DEVICES, INC. (XNAS:AMD)</v>
-    <v>40466256</v>
-    <v>42962149</v>
+    <v>44735103</v>
+    <v>43635360</v>
     <v>1969</v>
   </rv>
   <rv s="2">
@@ -1191,16 +1191,16 @@
     <v>0</v>
     <v>APHRIA INC. (XNAS:APHA)</v>
     <v>2</v>
-    <v>11</v>
+    <v>10</v>
     <v>Finance</v>
     <v>4</v>
     <v>32.29</v>
-    <v>2.4700000000000002</v>
-    <v>2.6046999999999998</v>
-    <v>-0.64</v>
-    <v>-1.2140999999999999E-2</v>
-    <v>-3.4114999999999999E-2</v>
-    <v>-0.22</v>
+    <v>2.65</v>
+    <v>2.6080999999999999</v>
+    <v>0.49</v>
+    <v>1.728E-2</v>
+    <v>2.8079999999999997E-2</v>
+    <v>0.31</v>
     <v>USD</v>
     <v>Aphria Inc is a Canada-based cannabis company. The Company's Canadian cannabis operations are comprised of its Aphria One greenhouse facility (Aphria One), facilities held through its wholly owned British Columbia-based subsidiary, Broken Coast Cannabis Ltd. (Broken Coast) and its Leamington-based subsidiary, 1974568 Ontario Limited (Aphria Diamond). Aphria One is the Company's greenhouse facility, which is located in Leamington, Ontario. Broken Coast's indoor cannabis production facility on Vancouver Island provides B.C. Bud, a cannabis brands in Canada. Its subsidiary, Avanti Rx Analytics Inc., provides testing services to its Canadian cannabis operations and allows to process, package, label and test cannabis oil as well as package, label and test dried cannabis for medicinal use. It also manufactures and distributes bottled, canned and draft craft beers. The Company has operations in Canada, Germany, Italy, Malta, Colombia and Argentina.</v>
     <v>1200</v>
@@ -1208,25 +1208,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>269 Erie St S, P.O. Box 20009, LEAMINGTON, ON, N8H 3C4 CA</v>
-    <v>19.065000000000001</v>
+    <v>17.97</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>44278.999549421096</v>
+    <v>44280.999967279684</v>
     <v>16</v>
-    <v>17.64</v>
-    <v>7424516000</v>
+    <v>16.559999999999999</v>
+    <v>6936728000</v>
     <v>APHRIA INC.</v>
     <v>APHRIA INC.</v>
-    <v>18.5</v>
+    <v>16.78</v>
     <v>67.805000000000007</v>
-    <v>18.760000000000002</v>
-    <v>18.12</v>
-    <v>17.899999999999999</v>
+    <v>17.45</v>
+    <v>17.940000000000001</v>
+    <v>18.25</v>
     <v>316745600</v>
     <v>APHA</v>
     <v>APHRIA INC. (XNAS:APHA)</v>
-    <v>15471005</v>
-    <v>22167669</v>
+    <v>12090403</v>
+    <v>19377455</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -1242,38 +1242,38 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
+    <v>11</v>
+    <v>ARK Innovation (ARCX:ARKK)</v>
     <v>12</v>
-    <v>ARK Innovation (ARCX:ARKK)</v>
     <v>13</v>
+    <v>Finance</v>
     <v>14</v>
-    <v>Finance</v>
-    <v>15</v>
     <v>159.69999999999999</v>
-    <v>36.630000000000003</v>
+    <v>39.409999999999997</v>
     <v>1.5241</v>
-    <v>-2.95</v>
-    <v>-5.7490000000000004E-4</v>
-    <v>-2.3653E-2</v>
-    <v>-7.0000000000000007E-2</v>
+    <v>-0.36</v>
+    <v>3.6709999999999998E-3</v>
+    <v>-3.1359999999999999E-3</v>
+    <v>0.42</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>7.4999999999999997E-3</v>
-    <v>124.79049999999999</v>
+    <v>114.88</v>
     <v>ETF</v>
-    <v>44278.999988599222</v>
+    <v>44280.999988911717</v>
     <v>19</v>
-    <v>121.15</v>
+    <v>110.39</v>
     <v>23431999363.557999</v>
     <v>ARK Innovation</v>
-    <v>124.63500000000001</v>
-    <v>124.72</v>
-    <v>121.77</v>
-    <v>121.7</v>
+    <v>111.36</v>
+    <v>114.78</v>
+    <v>114.42</v>
+    <v>114.84</v>
     <v>ARKK</v>
     <v>ARK Innovation (ARCX:ARKK)</v>
-    <v>7454405</v>
-    <v>17113191</v>
+    <v>21016039</v>
+    <v>17162293</v>
   </rv>
   <rv s="2">
     <v>20</v>
@@ -1288,38 +1288,38 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
+    <v>11</v>
+    <v>ARK Next Gen Int ETF (ARCX:ARKW)</v>
     <v>12</v>
-    <v>ARK Next Gen Int ETF (ARCX:ARKW)</v>
     <v>13</v>
+    <v>Finance</v>
     <v>14</v>
-    <v>Finance</v>
-    <v>15</v>
     <v>191.13</v>
-    <v>44.79</v>
+    <v>47.59</v>
     <v>1.2591000000000001</v>
-    <v>-3.06</v>
-    <v>-6.6089999999999999E-5</v>
-    <v>-1.9823E-2</v>
-    <v>-0.01</v>
+    <v>-0.6</v>
+    <v>2.183E-3</v>
+    <v>-4.2079999999999999E-3</v>
+    <v>0.31</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>7.4999999999999997E-3</v>
-    <v>154.74</v>
+    <v>142.57990000000001</v>
     <v>ETF</v>
-    <v>44278.996971654684</v>
+    <v>44281.000000010936</v>
     <v>22</v>
-    <v>150.77000000000001</v>
+    <v>137</v>
     <v>8075863834.1239996</v>
     <v>ARK Next Gen Int ETF</v>
-    <v>154.58000000000001</v>
-    <v>154.37</v>
-    <v>151.31</v>
-    <v>151.30000000000001</v>
+    <v>138.16999999999999</v>
+    <v>142.59</v>
+    <v>141.99</v>
+    <v>142.30000000000001</v>
     <v>ARKW</v>
     <v>ARK Next Gen Int ETF (ARCX:ARKW)</v>
-    <v>1009769</v>
-    <v>2658206</v>
+    <v>1884535</v>
+    <v>2536117</v>
   </rv>
   <rv s="2">
     <v>23</v>
@@ -1333,7 +1333,7 @@
     <v>25</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_eb453375bdf3af024dec0a3b4be34c46&amp;qlt=95</v>
     <v>26</v>
     <v>0</v>
@@ -1355,14 +1355,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>104.53</v>
-    <v>52.33</v>
-    <v>0.63900000000000001</v>
-    <v>-0.49</v>
-    <v>-4.0489999999999996E-3</v>
-    <v>-5.3340000000000002E-3</v>
-    <v>-0.37</v>
+    <v>52.52</v>
+    <v>0.64770000000000005</v>
+    <v>0.34</v>
+    <v>4.9529999999999999E-3</v>
+    <v>3.7559999999999998E-3</v>
+    <v>0.45</v>
     <v>USD</v>
     <v>Activision Blizzard, Inc. is a developer and publisher of interactive entertainment content and services. The Company develops and distributes content and services across various gaming platforms, including video game consoles, personal computers (PC) and mobile devices. Its segments include Activision Publishing, Inc. (Activision), Blizzard Entertainment, Inc. (Blizzard), King Digital Entertainment (King) and Other. Activision is a developer and publisher of interactive software products and content. Blizzard is engaged in developing and publishing of interactive software products and entertainment content, particularly in PC gaming. King is a mobile entertainment company. It is engaged in other businesses, including The Major League Gaming (MLG) business; The Activision Blizzard Studios (Studios) business, and The Activision Blizzard Distribution (Distribution) business. It also develops products spanning other genres, including action/adventure, role-playing and simulation.</v>
     <v>9500</v>
@@ -1370,26 +1370,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>3100 OCEAN PARK BLVD, SANTA MONICA, CA, 90405-3032 US</v>
-    <v>92.6</v>
+    <v>91.13</v>
     <v>27</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44278.976949721873</v>
+    <v>44280.999243171093</v>
     <v>28</v>
-    <v>91.08</v>
-    <v>71176650000</v>
+    <v>89.06</v>
+    <v>70122980000</v>
     <v>ACTIVISION BLIZZARD, INC.</v>
     <v>ACTIVISION BLIZZARD, INC.</v>
-    <v>92.59</v>
-    <v>32.497900000000001</v>
-    <v>91.87</v>
-    <v>91.38</v>
-    <v>91.01</v>
+    <v>90.41</v>
+    <v>32.016800000000003</v>
+    <v>90.51</v>
+    <v>90.85</v>
+    <v>91.3</v>
     <v>774754000</v>
     <v>ATVI</v>
     <v>ACTIVISION BLIZZARD, INC. (XNAS:ATVI)</v>
-    <v>4426367</v>
-    <v>5501899</v>
+    <v>5016963</v>
+    <v>5570366</v>
     <v>2000</v>
   </rv>
   <rv s="2">
@@ -1404,7 +1404,7 @@
     <v>31</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_0720042c42661f705c810fedd777349a&amp;qlt=95</v>
     <v>32</v>
     <v>0</v>
@@ -1428,12 +1428,12 @@
     <v>Finance</v>
     <v>4</v>
     <v>39.967799999999997</v>
-    <v>17.95</v>
-    <v>1.5726</v>
-    <v>-0.8</v>
-    <v>0</v>
-    <v>-2.1242999999999998E-2</v>
-    <v>0</v>
+    <v>19.510000000000002</v>
+    <v>1.5689</v>
+    <v>0.76</v>
+    <v>1.0887000000000001E-2</v>
+    <v>2.0596E-2</v>
+    <v>0.41</v>
     <v>USD</v>
     <v>Bank of America Corporation is a bank holding company and a financial holding company. The Company is a financial institution, serving individual consumers and others with a range of banking, investing, asset management and other financial and risk management products and services. The Company, through its banking and various non-bank subsidiaries, throughout the United States and in international markets, provides a range of banking and non-bank financial services and products through four business segments: Consumer Banking, which comprises Deposits and Consumer Lending; Global Wealth &amp; Investment Management, which consists of two primary businesses: Merrill Lynch Global Wealth Management and U.S. Trust, Bank of America Private Wealth Management; Global Banking, which provides a range of lending-related products and services; Global Markets, which offers sales and trading services, and All Other, which consists of equity investments, residual expense allocations and other.</v>
     <v>213000</v>
@@ -1441,26 +1441,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Bank of America Corporate Center, 100 N Tryon St, CHARLOTTE, NC, 28255-0001 US</v>
-    <v>37.82</v>
+    <v>37.75</v>
     <v>33</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>44278.99952563594</v>
+    <v>44280.999893818749</v>
     <v>34</v>
-    <v>36.781100000000002</v>
-    <v>324902300000</v>
+    <v>36.630000000000003</v>
+    <v>318345600000</v>
     <v>BANK OF AMERICA CORPORATION</v>
     <v>BANK OF AMERICA CORPORATION</v>
-    <v>37.33</v>
-    <v>20.105399999999999</v>
+    <v>36.869999999999997</v>
+    <v>19.6996</v>
+    <v>36.9</v>
     <v>37.659999999999997</v>
-    <v>36.86</v>
-    <v>36.86</v>
+    <v>38.07</v>
     <v>8627253000</v>
     <v>BAC</v>
     <v>BANK OF AMERICA CORPORATION (XNYS:BAC)</v>
-    <v>49837443</v>
-    <v>61526991</v>
+    <v>47517929</v>
+    <v>61320250</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -1476,19 +1476,19 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>16</v>
+    <v>15</v>
     <v>WEED, INC. (OTCM:BUDZ)</v>
     <v>2</v>
+    <v>16</v>
+    <v>Finance</v>
     <v>17</v>
-    <v>Finance</v>
-    <v>18</v>
     <v>2.68</v>
     <v>0.17</v>
-    <v>0.751</v>
-    <v>-2.5000000000000001E-2</v>
-    <v>0</v>
-    <v>-2.7932999999999999E-2</v>
-    <v>0</v>
+    <v>0.74739999999999995</v>
+    <v>-0.03</v>
+    <v>1.7857000000000001E-2</v>
+    <v>-3.4483E-2</v>
+    <v>1.4999999999999999E-2</v>
     <v>USD</v>
     <v>WEED, Inc. is an early-stage holding company. The Company is focused on the development and application of cannabis-derived compounds for the treatment of human disease. Through its subsidiary, Sangre AT, LLC, the Company is engaged in development and application of cannabis strains for the production of disease-specific medicines.The Company is also focused on purchasing land and building commercial grade Cultivation Centers to consult, assist, manage and lease to licensed dispensary owners and organic grow operators on a contract basis, with a concentration on the legal and medical marijuana (Cannabis) sector.</v>
     <v>2</v>
@@ -1496,23 +1496,23 @@
     <v>OTCM</v>
     <v>OTCM</v>
     <v>4920 N Post Trl, TUCSON, AZ, 85750-7111 US</v>
-    <v>0.9</v>
+    <v>0.87</v>
     <v>Biotechnology &amp; Medical Research</v>
     <v>Stock</v>
-    <v>44278.888888888891</v>
+    <v>44281.006944444445</v>
     <v>37</v>
-    <v>0.83</v>
-    <v>101110500</v>
+    <v>0.81</v>
+    <v>98286240</v>
     <v>WEED, INC.</v>
     <v>WEED, INC.</v>
-    <v>0.89249999999999996</v>
-    <v>0.89500000000000002</v>
     <v>0.87</v>
     <v>0.87</v>
+    <v>0.84</v>
+    <v>0.85499999999999998</v>
     <v>112972700</v>
     <v>BUDZ</v>
     <v>WEED, INC. (OTCM:BUDZ)</v>
-    <v>130052</v>
+    <v>129514</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -1531,7 +1531,7 @@
     <v>41</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_2c7df23a6f6e883ede39d349a3cf04f6&amp;qlt=95</v>
     <v>42</v>
     <v>0</v>
@@ -1548,18 +1548,18 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>19</v>
+    <v>18</v>
     <v>BEYOND MEAT, INC. (XNAS:BYND)</v>
     <v>7</v>
-    <v>20</v>
+    <v>19</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>221</v>
-    <v>55.11</v>
-    <v>-2.5</v>
-    <v>-2.48E-3</v>
-    <v>-1.7908E-2</v>
-    <v>-0.34</v>
+    <v>57</v>
+    <v>-0.48</v>
+    <v>5.9350000000000002E-3</v>
+    <v>-3.686E-3</v>
+    <v>0.77</v>
     <v>USD</v>
     <v>Beyond Meat, Inc. offers plant-based burgers. The Company offers its products in a range of categories, such as The Beyond Burger, Beyond Sausage, Beyond Beef Crumbles and Beyond Chicken Strips. The Company sells a range of plant-based products across the three main meat platforms of beef, pork and poultry. It provides Beyond Mushroom Bacon Cheeseburger, Chef Spike’s Original Brat, Roasted Garlic &amp; Italian Sausage Pasta, Beyond Beef Tacos and April Ross’ Butternut Squash Mac-N-Cheese. The Company also offers Beyond Spring Burger, Beyond Nacho Burger, Beyond Sausage Stuffed Peppers, Tuscan Style Beyond Sausage Pasta, Beyond Brat Breakfast Burrito, Beyond Beef Fiesta Power Bowl, Beyond Beef Nachos, Truffle Mac &amp; Cheese Beyond Burger, Love &amp; Lemons Guacamole Beyond Burger and Beyond Burger Tostada With Marinated Kale.</v>
     <v>700</v>
@@ -1567,25 +1567,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>119 Standard St, EL SEGUNDO, CA, 90245-3833 US</v>
-    <v>139.99</v>
+    <v>131.7963</v>
     <v>43</v>
     <v>Food &amp; Tobacco</v>
     <v>Stock</v>
-    <v>44278.993696064063</v>
+    <v>44280.999684640628</v>
     <v>44</v>
-    <v>135.38999999999999</v>
-    <v>8786471000</v>
+    <v>127.24</v>
+    <v>8195461000</v>
     <v>BEYOND MEAT, INC.</v>
     <v>BEYOND MEAT, INC.</v>
-    <v>139.99</v>
-    <v>139.6</v>
-    <v>137.1</v>
-    <v>136.76</v>
+    <v>128.87</v>
+    <v>130.21</v>
+    <v>129.72999999999999</v>
+    <v>130.5</v>
     <v>62940340</v>
     <v>BYND</v>
     <v>BEYOND MEAT, INC. (XNAS:BYND)</v>
-    <v>1908126</v>
-    <v>3430642</v>
+    <v>2589539</v>
+    <v>3403111</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -1606,13 +1606,13 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>40.26</v>
     <v>22.53</v>
-    <v>0.35599999999999998</v>
-    <v>-1.03</v>
+    <v>0.34799999999999998</v>
+    <v>1.07</v>
     <v>0</v>
-    <v>-2.6608E-2</v>
+    <v>2.8902999999999998E-2</v>
     <v>0</v>
     <v>USD</v>
     <v>Core-Mark Holding Company, Inc. is a wholesale distributor to the convenience retail industry in North America. The Company provides sales, marketing, distribution and logistics services. As of December 31, 2016, the Company offered services to over 43,000 customer locations across the United States and Canada through 30 distribution centers. The Company's segments include the United States, Canada and Corporate. The Company's primary customer base consists of traditional convenience stores, as well as alternative outlets selling consumer packaged goods. The Company's traditional convenience store customers include various national and super-regional convenience store operators, as well as independently owned convenience stores. Its alternative outlet customers include a range of store formats, including grocery stores, drug stores, liquor stores, cigarette and tobacco shops, hotel gift shops, military exchanges, college and corporate campuses, casinos and hardware stores.</v>
@@ -1621,25 +1621,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1500 Solana Blvd Ste 3400, WESTLAKE, TX, 76262-1690 US</v>
-    <v>38.76</v>
+    <v>38.22</v>
     <v>Food &amp; Drug Retailing</v>
     <v>Stock</v>
-    <v>44278.838752546093</v>
+    <v>44280.838525370309</v>
     <v>47</v>
-    <v>37.49</v>
-    <v>1748244000</v>
+    <v>36.909999999999997</v>
+    <v>1671919000</v>
     <v>CORE-MARK HOLDING COMPANY, INC.</v>
     <v>CORE-MARK HOLDING COMPANY, INC.</v>
-    <v>38.36</v>
-    <v>27.8461</v>
-    <v>38.71</v>
-    <v>37.68</v>
-    <v>37.68</v>
+    <v>36.909999999999997</v>
+    <v>26.630400000000002</v>
+    <v>37.020000000000003</v>
+    <v>38.090000000000003</v>
+    <v>38.090000000000003</v>
     <v>45162600</v>
     <v>CORE</v>
     <v>CORE-MARK HOLDING COMPANY, INC. (XNAS:CORE)</v>
-    <v>155587</v>
-    <v>296447</v>
+    <v>123486</v>
+    <v>276574</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -1654,7 +1654,7 @@
     <v>50</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_914babebce972b61c210d9459046d6f7&amp;qlt=95</v>
     <v>51</v>
     <v>0</v>
@@ -1679,11 +1679,11 @@
     <v>4</v>
     <v>52.28</v>
     <v>17.510000000000002</v>
-    <v>1.5109999999999999</v>
-    <v>-2.34</v>
-    <v>5.0410000000000003E-3</v>
-    <v>-4.8780000000000004E-2</v>
-    <v>0.23</v>
+    <v>1.5134000000000001</v>
+    <v>1.4</v>
+    <v>2.9780000000000002E-3</v>
+    <v>3.0695E-2</v>
+    <v>0.14000000000000001</v>
     <v>USD</v>
     <v>Delta Air Lines, Inc. provides scheduled air transportation for passengers and cargo throughout the United States and across the world. The Company's segments include Airline and Refinery. The Company's route network is centered around a system of hub, international gateway and airports that the Company operates in Amsterdam, Atlanta, Boston, Detroit, London-Heathrow, Los Angeles, Minneapolis-St. Paul, New York-LaGuardia, New York- John F Kennedy International Airport, Paris-Charles de Gaulle, Salt Lake City, Seattle and Tokyo-Narita. Each of these operations includes flights that gather and distribute traffic from markets in the geographic region surrounding the hub or gateway to domestic and international cities and to other hubs or gateways. The Company's route network includes its international joint ventures, its alliances with other foreign airlines, its membership in SkyTeam and agreements with multiple domestic regional carriers that operate as Delta Connection.</v>
     <v>74000</v>
@@ -1691,26 +1691,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1030 Delta Blvd, ATLANTA, GA, 30354-1989 US</v>
-    <v>47.82</v>
+    <v>47.215000000000003</v>
     <v>52</v>
     <v>Passenger Transportation Services</v>
     <v>Stock</v>
-    <v>44278.999700335153</v>
+    <v>44280.996290625</v>
     <v>53</v>
-    <v>45.45</v>
-    <v>30611900000</v>
+    <v>44.52</v>
+    <v>29105870000</v>
     <v>DELTA AIR LINES, INC.</v>
     <v>DELTA AIR LINES, INC.</v>
-    <v>47.23</v>
+    <v>44.79</v>
     <v>0</v>
-    <v>47.97</v>
-    <v>45.63</v>
-    <v>45.86</v>
+    <v>45.61</v>
+    <v>47.01</v>
+    <v>47.15</v>
     <v>638146700</v>
     <v>DAL</v>
     <v>DELTA AIR LINES, INC. (XNYS:DAL)</v>
-    <v>13619462</v>
-    <v>14606213</v>
+    <v>14469133</v>
+    <v>14646871</v>
     <v>1967</v>
   </rv>
   <rv s="2">
@@ -1725,7 +1725,7 @@
     <v>56</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_f9e00cce32f84dd4a56203773406542e&amp;qlt=95</v>
     <v>57</v>
     <v>0</v>
@@ -1742,18 +1742,18 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>19</v>
+    <v>18</v>
     <v>DOCUSIGN, INC. (XNAS:DOCU)</v>
     <v>7</v>
-    <v>20</v>
+    <v>19</v>
     <v>Finance</v>
     <v>4</v>
     <v>290.23</v>
     <v>78.72</v>
-    <v>0.53</v>
-    <v>1.9230000000000001E-4</v>
-    <v>2.555E-3</v>
-    <v>0.04</v>
+    <v>1.83</v>
+    <v>7.2890000000000003E-3</v>
+    <v>9.221E-3</v>
+    <v>1.46</v>
     <v>USD</v>
     <v>DocuSign Inc offers DocuSign Agreement Cloud, a software suite for automating the agreement process. It includes DocuSign eSignature, an electronic signature solution that allows an agreement to be signed electronically on a variety of devices. The Agreement Cloud also includes several other applications for automating pre- and post-signature processes, such as automatically generating an agreement from data in other systems, supporting negotiation workflow, collecting payment after signatures, and using artificial intelligence (AI) to analyze a collection of agreements for risks and opportunities. The Agreement Cloud also includes hundreds of integrations to other systems, so agreement processes can integrate with other business processes and data. Its key Agreement Cloud products include DocuSign Contract Lifecycle Management (CLM), Intelligent Insights, Gen for Salesforce, Negotiate for Salesforce, Guided Forms, Click, Identify, Standards-Based Signatures, Payments and eNotary.</v>
     <v>3909</v>
@@ -1761,25 +1761,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>221 Main St Ste 1550, SAN FRANCISCO, CA, 94105-1947 US</v>
-    <v>209.8</v>
+    <v>202.8</v>
     <v>58</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44278.999875798436</v>
+    <v>44280.999733286721</v>
     <v>59</v>
-    <v>206.11</v>
-    <v>38697500000</v>
+    <v>192.5</v>
+    <v>37024090000</v>
     <v>DOCUSIGN, INC.</v>
     <v>DOCUSIGN, INC.</v>
-    <v>208</v>
-    <v>207.43</v>
-    <v>207.96</v>
-    <v>208</v>
+    <v>193.89</v>
+    <v>198.46</v>
+    <v>200.29</v>
+    <v>201.75</v>
     <v>186556900</v>
     <v>DOCU</v>
     <v>DOCUSIGN, INC. (XNAS:DOCU)</v>
-    <v>1661163</v>
-    <v>4191128</v>
+    <v>3432270</v>
+    <v>4101508</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -1802,12 +1802,12 @@
     <v>Finance</v>
     <v>4</v>
     <v>251.86</v>
-    <v>29.95</v>
-    <v>1.6255999999999999</v>
-    <v>-0.1</v>
-    <v>-4.5519999999999998E-5</v>
-    <v>-4.55E-4</v>
-    <v>-0.01</v>
+    <v>33.96</v>
+    <v>1.6329</v>
+    <v>-2.98</v>
+    <v>1.1977999999999999E-2</v>
+    <v>-1.4961E-2</v>
+    <v>2.35</v>
     <v>USD</v>
     <v>Etsy, Inc. (Etsy) operates a marketplace where people around the world connect, both online and offline, to make, sell and buy goods. The Company offers a range of seller services and tools that help entrepreneurs start, grow and manage their businesses. The Company's community includes Etsy sellers, Etsy buyers, Etsy employees, its partners and investors. As of December 31, 2016, its platform connected 1.7 million active Etsy sellers and 28.6 million active Etsy buyers. Etsy sellers join its community to participate in its markets to express their creativity. Etsy sellers range from hobbyists to professional merchants, and have a range of personal and professional goals. Its supports a group of artists, makers, designers and collectors from around the world. Its services platform includes seller services, seller tools and education. The Company's seller services include Direct Checkout, Promoted Listings, Shipping Labels and Pattern by Etsy.</v>
     <v>1414</v>
@@ -1815,25 +1815,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>117 Adams St, BROOKLYN, NY, 11201-1401 US</v>
-    <v>231.32</v>
+    <v>201.095</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>44278.999747210153</v>
+    <v>44280.999868946092</v>
     <v>62</v>
-    <v>218.09</v>
-    <v>27701850000</v>
+    <v>190.5</v>
+    <v>25106490000</v>
     <v>ETSY, INC.</v>
     <v>ETSY, INC.</v>
-    <v>222.1</v>
-    <v>81.972399999999993</v>
-    <v>219.77</v>
-    <v>219.67</v>
-    <v>219.66</v>
+    <v>193.33</v>
+    <v>77.930700000000002</v>
+    <v>199.18</v>
+    <v>196.2</v>
+    <v>198.55</v>
     <v>126049300</v>
     <v>ETSY</v>
     <v>ETSY, INC. (XNAS:ETSY)</v>
-    <v>3754823</v>
-    <v>3741286</v>
+    <v>3432842</v>
+    <v>4049810</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -1848,7 +1848,7 @@
     <v>65</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_928a62c96ba821e882cb080907bbb897&amp;qlt=95</v>
     <v>66</v>
     <v>0</v>
@@ -1872,12 +1872,12 @@
     <v>Finance</v>
     <v>4</v>
     <v>304.67</v>
-    <v>142.25</v>
-    <v>1.2808999999999999</v>
-    <v>-2.91</v>
-    <v>-1.1349999999999999E-3</v>
-    <v>-9.9129999999999999E-3</v>
-    <v>-0.33</v>
+    <v>150.83000000000001</v>
+    <v>1.2672000000000001</v>
+    <v>-3.4</v>
+    <v>2.0089999999999999E-3</v>
+    <v>-1.2051000000000001E-2</v>
+    <v>0.56000000000000005</v>
     <v>USD</v>
     <v>Facebook, Inc. is focused on building products that enable people to connect and share through mobile devices, personal computers and other surfaces. The Company's products include Facebook, Instagram, Messenger, WhatsApp and Oculus. Facebook enables people to connect, share, discover and communicate with each other on mobile devices and personal computers. Instagram enables people to take photos or videos, customize them with filter effects, and share them with friends and followers in a photo feed or send them directly to friends. Messenger allows communicating with people and businesses alike across a range of platforms and devices. WhatsApp Messenger is a messaging application that is used by people around the world and is available on a range of mobile platforms. Its Oculus virtual reality technology and content platform offers products that allow people to enter an interactive environment to play games, consume content and connect with others.</v>
     <v>58604</v>
@@ -1885,26 +1885,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1601 Willow Rd, MENLO PARK, CA, 94025-1452 US</v>
-    <v>298</v>
+    <v>288.06</v>
     <v>67</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44278.998378448436</v>
+    <v>44280.999844999998</v>
     <v>68</v>
-    <v>289.81</v>
-    <v>835905100000</v>
+    <v>277.75</v>
+    <v>803441600000</v>
     <v>FACEBOOK, INC.</v>
     <v>FACEBOOK, INC.</v>
-    <v>293.37</v>
-    <v>29.107700000000001</v>
-    <v>293.54000000000002</v>
-    <v>290.63</v>
-    <v>290.3</v>
+    <v>280.98</v>
+    <v>27.9773</v>
+    <v>282.14</v>
+    <v>278.74</v>
+    <v>279.3</v>
     <v>2847670000</v>
     <v>FB</v>
     <v>FACEBOOK, INC. (XNAS:FB)</v>
-    <v>23000527</v>
-    <v>20990934</v>
+    <v>24505648</v>
+    <v>21530754</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -1919,7 +1919,7 @@
     <v>71</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_c46198bfc8ae166b7756f487f8cd0106&amp;qlt=95</v>
     <v>72</v>
     <v>0</v>
@@ -1944,11 +1944,11 @@
     <v>4</v>
     <v>305.66000000000003</v>
     <v>103.40009999999999</v>
-    <v>1.2708999999999999</v>
-    <v>-7.18</v>
+    <v>1.2659</v>
+    <v>5.89</v>
     <v>1.3489999999999999E-3</v>
-    <v>-2.6202E-2</v>
-    <v>0.36</v>
+    <v>2.1953999999999998E-2</v>
+    <v>0.37</v>
     <v>USD</v>
     <v>FedEx Corporation (FedEx) provides a portfolio of transportation, e-commerce and business services through companies competing collectively, operating independently and managed collaboratively, under the FedEx brand. The Company's segments include FedEx Express, TNT Express, FedEx Ground, FedEx Freight and FedEx Services. The FedEx Express segment offers a range of the United States domestic and international shipping services for delivery of packages and freight. TNT Express segment collects, transports and delivers documents, parcels and freight on a day-definite or time-definite basis. The FedEx Ground segment provides business and residential money-back guaranteed ground package delivery services. The FedEx Freight segment offers less-than-truckload (LTL) freight services. The FedEx Services segment provides its other companies with sales, marketing, information technology, communications, customer service and other back-office support.</v>
     <v>183000</v>
@@ -1956,26 +1956,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>942 Shady Grove Rd S, MEMPHIS, TN, 38120-4117 US</v>
-    <v>276.91989999999998</v>
+    <v>275.02</v>
     <v>73</v>
     <v>Freight &amp; Logistics Services</v>
     <v>Stock</v>
-    <v>44278.998495543747</v>
+    <v>44280.997778020312</v>
     <v>74</v>
-    <v>265.55</v>
-    <v>72709040000</v>
+    <v>263.94</v>
+    <v>71188630000</v>
     <v>FEDEX CORPORATION</v>
     <v>FEDEX CORPORATION</v>
-    <v>271.47000000000003</v>
-    <v>24.264199999999999</v>
-    <v>274.02</v>
-    <v>266.83999999999997</v>
-    <v>267.2</v>
+    <v>266.2</v>
+    <v>23.756900000000002</v>
+    <v>268.29000000000002</v>
+    <v>274.18</v>
+    <v>274.55</v>
     <v>265342100</v>
     <v>FDX</v>
     <v>FEDEX CORPORATION (XNYS:FDX)</v>
-    <v>2277570</v>
-    <v>2579535</v>
+    <v>2285411</v>
+    <v>2627405</v>
     <v>1997</v>
   </rv>
   <rv s="2">
@@ -1991,18 +1991,18 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>21</v>
+    <v>20</v>
     <v>FIVERR INTERNATIONAL LTD (XNYS:FVRR)</v>
     <v>2</v>
-    <v>22</v>
+    <v>21</v>
     <v>Finance</v>
     <v>4</v>
     <v>336</v>
-    <v>20.66</v>
-    <v>-4.55</v>
-    <v>2.9420000000000002E-3</v>
-    <v>-2.0177E-2</v>
-    <v>0.65</v>
+    <v>22.52</v>
+    <v>0.44</v>
+    <v>-1.5740000000000001E-3</v>
+    <v>2.1689999999999999E-3</v>
+    <v>-0.32</v>
     <v>USD</v>
     <v>Fiverr International Ltd is an Israel-based company that operates an online marketplace worldwide. Its platform connects businesses with freelancers offering digital services in more than 200 categories, across more than seven verticals including graphic design, digital marketing, programming, video and animation. Its buyers include businesses of various sizes, as well as sellers comprise a group of freelancers and small businesses. The Company’s global community of freelancers spans across more than 160 countries.</v>
     <v>545</v>
@@ -2010,25 +2010,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>8 Eliezer Kaplan St, TEL AVIV-YAFO, 6473409 IL</v>
-    <v>229.4999</v>
+    <v>205.815</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44278.999097546097</v>
+    <v>44280.998287835158</v>
     <v>77</v>
-    <v>219.26400000000001</v>
-    <v>8082592000</v>
+    <v>190.54</v>
+    <v>7271824000</v>
     <v>FIVERR INTERNATIONAL LTD</v>
     <v>FIVERR INTERNATIONAL LTD</v>
-    <v>225.31</v>
+    <v>194.75</v>
     <v>0</v>
-    <v>225.5</v>
-    <v>220.95</v>
-    <v>221.6</v>
+    <v>202.88</v>
+    <v>203.32</v>
+    <v>203</v>
     <v>35842980</v>
     <v>FVRR</v>
     <v>FIVERR INTERNATIONAL LTD (XNYS:FVRR)</v>
-    <v>400420</v>
-    <v>1300580</v>
+    <v>986030</v>
+    <v>1233632</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -2043,7 +2043,7 @@
     <v>80</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_0f6107f2200a71882f4cb1dcec7e033d&amp;qlt=95</v>
     <v>81</v>
     <v>0</v>
@@ -2065,14 +2065,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>66.14</v>
-    <v>46.88</v>
-    <v>0.55830000000000002</v>
-    <v>-0.26</v>
-    <v>-1.4710000000000001E-3</v>
-    <v>-4.2309999999999995E-3</v>
-    <v>-0.09</v>
+    <v>46.95</v>
+    <v>0.54169999999999996</v>
+    <v>0.91</v>
+    <v>2.016E-3</v>
+    <v>1.5524E-2</v>
+    <v>0.12</v>
     <v>USD</v>
     <v>General Mills, Inc., is a manufacturer and marketer of branded consumer foods and pet food products sold through retail stores. The Company is a supplier of branded and unbranded consumer food products to the North American foodservice and commercial baking industries. It also provides pet food products through its subsidiary Blue Buffalo Pet Products Inc. The Company has four segments: U.S. Retail, International, Pet operating, and Convenience Stores and Foodservice. The Company offers a range of food products with a focus on categories, including ready-to-eat cereal; convenient meals, including meal kits, ethnic meals, pizza, soup, side dish mixes, frozen breakfast and frozen entrees; snacks, including grain, nutrition bars and frozen hot snacks; yogurt, and super-premium ice cream. The Company's other product categories include baking mixes and ingredients, and refrigerated and frozen dough. It also provides food products for dogs and cats.</v>
     <v>35000</v>
@@ -2080,26 +2080,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Number One General Mills Blvd, MINNEAPOLIS, MN, 55426 US</v>
-    <v>62.02</v>
+    <v>60.27</v>
     <v>82</v>
     <v>Food &amp; Tobacco</v>
     <v>Stock</v>
-    <v>44278.995095589846</v>
+    <v>44280.997038645313</v>
     <v>83</v>
-    <v>61</v>
-    <v>37572780000</v>
+    <v>58.15</v>
+    <v>35842410000</v>
     <v>GENERAL MILLS, INC.</v>
     <v>GENERAL MILLS, INC.</v>
-    <v>61.7</v>
-    <v>15.768000000000001</v>
-    <v>61.45</v>
-    <v>61.19</v>
-    <v>61.1</v>
+    <v>58.48</v>
+    <v>14.2355</v>
+    <v>58.62</v>
+    <v>59.53</v>
+    <v>59.65</v>
     <v>611436600</v>
     <v>GIS</v>
     <v>GENERAL MILLS, INC. (XNYS:GIS)</v>
-    <v>5231720</v>
-    <v>4550750</v>
+    <v>6369183</v>
+    <v>4898141</v>
     <v>1928</v>
   </rv>
   <rv s="2">
@@ -2114,7 +2114,7 @@
     <v>86</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_1af0820cdcad1e835487a08cdf869215&amp;qlt=95</v>
     <v>87</v>
     <v>0</v>
@@ -2139,38 +2139,38 @@
     <v>4</v>
     <v>483</v>
     <v>2.57</v>
-    <v>-1.8593</v>
-    <v>-13.37</v>
-    <v>-0.145097</v>
-    <v>-6.8744E-2</v>
-    <v>-26.28</v>
+    <v>-2.0051999999999999</v>
+    <v>63.41</v>
+    <v>4.5551000000000001E-2</v>
+    <v>0.52692399999999995</v>
+    <v>8.3699999999999992</v>
     <v>USD</v>
     <v>GameStop Corp. is an omnichannel video game retailer. The Company sells video game hardware, physical and digital video game software, video game accessories, as well as mobile and consumer electronics products and other merchandise through its GameStop, EB Games and Micromania stores. It operating segments, which consists of Video Game Brands segments: United States, Canada and Australia and Europe. Each of the Video Game Brands segments consists primarily of retail operations, with all stores engaged in the sale of new and pre-owned video game systems, software and accessories, which it refers to as video game products. Its Video Game Brands stores sell various types of digital products, including downloadable content, network points cards, prepaid digital, and also sell certain mobile and consumer electronics products and collectible products.</v>
-    <v>14000</v>
+    <v>12000</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>625 Westport Pkwy, GRAPEVINE, TX, 76051-6740 US</v>
-    <v>201.75</v>
+    <v>187.5</v>
     <v>88</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>44278.999533564063</v>
+    <v>44280.999993888283</v>
     <v>89</v>
-    <v>177.55</v>
-    <v>13565090000</v>
+    <v>116.9</v>
+    <v>8416077000</v>
     <v>GAMESTOP CORP.</v>
     <v>GAMESTOP CORP.</v>
-    <v>197.99</v>
+    <v>123.49</v>
     <v>0</v>
-    <v>194.49</v>
-    <v>181.12</v>
-    <v>154.84</v>
-    <v>69746960</v>
+    <v>120.34</v>
+    <v>183.75</v>
+    <v>192.12</v>
+    <v>69935830</v>
     <v>GME</v>
     <v>GAMESTOP CORP. (XNYS:GME)</v>
-    <v>14429542</v>
-    <v>37046610</v>
+    <v>50962337</v>
+    <v>37893457</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -2185,7 +2185,7 @@
     <v>92</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_91f59ff6c9305ce24b1cf0389cd856f8&amp;qlt=95</v>
     <v>93</v>
     <v>0</v>
@@ -2209,12 +2209,12 @@
     <v>Finance</v>
     <v>4</v>
     <v>2145.14</v>
-    <v>1008.87</v>
-    <v>0.99639999999999995</v>
-    <v>10.6401</v>
-    <v>9.798E-6</v>
-    <v>5.2399999999999999E-3</v>
-    <v>0.02</v>
+    <v>1075.08</v>
+    <v>1.0021</v>
+    <v>-7.0000000000000007E-2</v>
+    <v>5.1859999999999996E-3</v>
+    <v>-3.4440000000000002E-5</v>
+    <v>10.54</v>
     <v>USD</v>
     <v>Alphabet Inc. is a holding company. The Company's businesses include Google Inc. (Google) and its Internet products, such as Access, Calico, CapitalG, GV, Nest, Verily, Waymo and X. The Company's segments include Google and Other Bets. The Google segment includes its Internet products, such as Search, Ads, Commerce, Maps, YouTube, Google Cloud, Android, Chrome and Google Play, as well as its hardware initiatives. The Google segment is engaged in advertising, sales of digital content, applications and cloud offerings, and sales of hardware products. The Other Bets segment is engaged in the sales of Internet and television services through Google Fiber, sales of Nest products and services, and licensing and research and development (R&amp;D) services through Verily. It offers Google Assistant, which allows users to type or talk with Google; Google Maps, which helps users navigate to a store, and Google Photos, which helps users store and organize all of their photos.</v>
     <v>135301</v>
@@ -2222,26 +2222,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1600 Amphitheatre Pkwy, MOUNTAIN VIEW, CA, 94043-1351 US</v>
-    <v>2064.09</v>
+    <v>2045.64</v>
     <v>94</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44278.999740659376</v>
+    <v>44280.999713657031</v>
     <v>95</v>
-    <v>2028.0001</v>
-    <v>1371550000000</v>
+    <v>1996.09</v>
+    <v>1374307000000</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>2039.95</v>
-    <v>34.621499999999997</v>
-    <v>2030.6899000000001</v>
-    <v>2041.33</v>
-    <v>2041.35</v>
+    <v>2029.05</v>
+    <v>34.652900000000002</v>
+    <v>2032.53</v>
+    <v>2032.46</v>
+    <v>2043</v>
     <v>674136700</v>
     <v>GOOGL</v>
     <v>ALPHABET INC. (XNAS:GOOGL)</v>
-    <v>1425456</v>
-    <v>1646400</v>
+    <v>1780787</v>
+    <v>1651237</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -2256,7 +2256,7 @@
     <v>98</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_93bf211680fd7a2264447bd907607e8f&amp;qlt=95</v>
     <v>99</v>
     <v>0</v>
@@ -2278,14 +2278,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>92.215000000000003</v>
     <v>36.119999999999997</v>
-    <v>1.5629999999999999</v>
-    <v>-5.71</v>
-    <v>3.6340000000000001E-3</v>
-    <v>-6.6767999999999994E-2</v>
-    <v>0.28999999999999998</v>
+    <v>1.5694999999999999</v>
+    <v>2</v>
+    <v>0</v>
+    <v>2.4857000000000001E-2</v>
+    <v>0</v>
     <v>USD</v>
     <v>Hyatt Hotels Corporation is a global hospitality company. The Company develops, owns, operates, manages, franchises, licenses or provides services to a portfolio of properties. The Company operates through four segments: owned and leased hotels; Americas management and franchising (Americas); ASPAC management and franchising (ASPAC), and EAME/SW Asia management and franchising (EAME/SW Asia). The owned and leased hotels segment consists of its owned and leased full service and select service hotels. The Americas segment consists of its management and franchising of properties located in the United States, Latin America, Canada and the Caribbean. The ASPAC segment consists of its management and franchising of properties located in Southeast Asia, as well as China, Australia, South Korea, Japan and Micronesia. The EAME/SW Asia segment consists of its management and franchising of properties located in Europe, Africa, the Middle East, India, Central Asia and Nepal.</v>
     <v>37000</v>
@@ -2293,26 +2293,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>150 N Riverside Plz Fl 8, CHICAGO, IL, 60606-1598 US</v>
-    <v>84.47</v>
+    <v>82.694999999999993</v>
     <v>100</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>44278.985625844529</v>
+    <v>44280.991638460153</v>
     <v>101</v>
-    <v>79.38</v>
-    <v>8663188000</v>
+    <v>78.180000000000007</v>
+    <v>8150610000</v>
     <v>HYATT HOTELS CORPORATION</v>
     <v>HYATT HOTELS CORPORATION</v>
-    <v>84.47</v>
+    <v>80.11</v>
     <v>0</v>
-    <v>85.52</v>
-    <v>79.81</v>
-    <v>80.099999999999994</v>
+    <v>80.459999999999994</v>
+    <v>82.46</v>
+    <v>82.46</v>
     <v>101300100</v>
     <v>H</v>
     <v>HYATT HOTELS CORPORATION (XNYS:H)</v>
-    <v>983088</v>
-    <v>811260</v>
+    <v>681771</v>
+    <v>809049</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -2327,7 +2327,7 @@
     <v>104</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_420c97329b2ef989466d21a3475da4c5&amp;qlt=95</v>
     <v>105</v>
     <v>0</v>
@@ -2349,14 +2349,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>9</v>
-    <v>293.42700000000002</v>
-    <v>146.34</v>
-    <v>1.0245</v>
-    <v>1.04</v>
-    <v>0</v>
-    <v>3.5989999999999998E-3</v>
-    <v>0</v>
+    <v>4</v>
+    <v>297.87869999999998</v>
+    <v>174</v>
+    <v>1.0167999999999999</v>
+    <v>4.43</v>
+    <v>1.077E-3</v>
+    <v>1.5132000000000001E-2</v>
+    <v>0.32</v>
     <v>USD</v>
     <v>The Home Depot, Inc. is a home improvement retailer. The Company offers its customers an assortment of building materials, home improvement products, lawn and garden products, and decor products and provide a number of services, including home improvement installation services and tool and equipment rental. It operates approximately 2,291 The Home Depot stores located throughout the United States (U.S.), including the Commonwealth of Puerto Rico and the territories of the U.S. Virgin Islands and Guam; Canada and Mexico. The Company serve two primary customer groups: do-it-yourself (DIY) Customers and Professional Customers (Pros). DIY Customers include home owners who purchase products and complete their own projects and installations. Professional Customers are primarily professional renovators/remodelers, general contractors, handymen, property managers, building service contractors and specialty tradesmen, such as electricians, plumbers and painters.</v>
     <v>415700</v>
@@ -2364,26 +2364,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2455 Paces Ferry Rd SE, ATLANTA, GA, 30339-6444 US</v>
-    <v>293.42700000000002</v>
+    <v>297.87869999999998</v>
     <v>106</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>44278.994401585158</v>
+    <v>44280.99967739531</v>
     <v>107</v>
-    <v>288.94</v>
-    <v>311073000000</v>
+    <v>292.45499999999998</v>
+    <v>315174900000</v>
     <v>THE HOME DEPOT, INC.</v>
     <v>THE HOME DEPOT, INC.</v>
-    <v>289.61</v>
-    <v>24.197900000000001</v>
-    <v>288.94</v>
-    <v>289.98</v>
-    <v>289.98</v>
+    <v>293.02999999999997</v>
+    <v>24.5169</v>
+    <v>292.75</v>
+    <v>297.18</v>
+    <v>297.5</v>
     <v>1076601000</v>
     <v>HD</v>
     <v>THE HOME DEPOT, INC. (XNYS:HD)</v>
-    <v>4801230</v>
-    <v>5917685</v>
+    <v>5373520</v>
+    <v>6046963</v>
     <v>1978</v>
   </rv>
   <rv s="2">
@@ -2398,7 +2398,7 @@
     <v>110</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_5c38a19703348515f2ba1542f244f1f6&amp;qlt=95</v>
     <v>111</v>
     <v>0</v>
@@ -2420,14 +2420,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>54.93</v>
-    <v>36.270000000000003</v>
-    <v>0.61019999999999996</v>
-    <v>0.39</v>
-    <v>-3.1130000000000003E-3</v>
-    <v>7.6470000000000002E-3</v>
-    <v>-0.16</v>
+    <v>39.909999999999997</v>
+    <v>0.60860000000000003</v>
+    <v>0.5</v>
+    <v>-3.8449999999999997E-4</v>
+    <v>9.7050000000000001E-3</v>
+    <v>-0.02</v>
     <v>USD</v>
     <v>The Coca-Cola Company is a beverage company. The Company owns or licenses and markets non-alcoholic beverage brands, primarily sparkling beverages and a range of still beverages, such as waters, flavored waters and enhanced waters, juices and juice drinks, ready-to-drink teas and coffees, sports drinks, dairy and energy drinks. The Company's segments include Europe, Middle East and Africa; Latin America; North America; Asia Pacific; Bottling Investments, and Corporate. The Company owns and markets a range of non-alcoholic sparkling beverage brands, including Coca-Cola, Diet Coke, Fanta and Sprite. The Company owns or licenses and markets over 500 non-alcoholic beverage brands. The Company markets, manufactures and sells beverage concentrates, which are referred to as beverage bases, and syrups, including fountain syrups, and finished sparkling and still beverages.</v>
     <v>80300</v>
@@ -2435,26 +2435,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 Coca Cola Plz NW, ATLANTA, GA, 30313-2420 US</v>
-    <v>51.65</v>
+    <v>52.06</v>
     <v>112</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>44278.992790219534</v>
+    <v>44280.999739154686</v>
     <v>113</v>
-    <v>50.825000000000003</v>
-    <v>219774900000</v>
+    <v>51.17</v>
+    <v>222015700000</v>
     <v>THE COCA-COLA COMPANY</v>
     <v>THE COCA-COLA COMPANY</v>
-    <v>50.99</v>
-    <v>28.457599999999999</v>
-    <v>51</v>
-    <v>51.39</v>
-    <v>51.23</v>
+    <v>51.7</v>
+    <v>28.747800000000002</v>
+    <v>51.52</v>
+    <v>52.02</v>
+    <v>52</v>
     <v>4309312000</v>
     <v>KO</v>
     <v>THE COCA-COLA COMPANY (XNYS:KO)</v>
-    <v>16936691</v>
-    <v>19093426</v>
+    <v>17091938</v>
+    <v>19254632</v>
     <v>1919</v>
   </rv>
   <rv s="2">
@@ -2470,18 +2470,18 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>21</v>
+    <v>20</v>
     <v>LEMONADE, INC. (XNYS:LMND)</v>
     <v>2</v>
-    <v>22</v>
+    <v>21</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>188.3</v>
     <v>44.110100000000003</v>
-    <v>-2.72</v>
-    <v>-1.9819999999999998E-3</v>
-    <v>-2.7585999999999999E-2</v>
-    <v>-0.19</v>
+    <v>-0.28999999999999998</v>
+    <v>1.1236999999999999E-2</v>
+    <v>-3.2479999999999996E-3</v>
+    <v>1</v>
     <v>USD</v>
     <v>Lemonade, Inc. is a peer-to-peer property and casualty insurance company. The Company offer its products to renters and homeowners in the United States and contents and liability insurance in Germany and the Netherlands. The insurance it offers in the United States covers stolen or damaged property, and also covers personal liability, which protects its customers if they are responsible for an accident or damage to another person or their property. It also offers landlord insurance policies to condo and co-op owners who rent out their property less than five times a year, to protect their real and personal properties. The Company enables homeowners and renters to get insured and settle claims from various devices through its Lemonade application. It uses bots to deliver insurance to consumers through its chatbot-driven application and at lemonade.com. It enables consumers to chat with artificial intelligence to file claims.</v>
     <v>567</v>
@@ -2489,25 +2489,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5 CROSBY STREET, 3RD FLOOR, NEW YORK, NY, 10013 US</v>
-    <v>99.46</v>
+    <v>92.299000000000007</v>
     <v>Insurance</v>
     <v>Stock</v>
-    <v>44278.995390625001</v>
+    <v>44280.999583992969</v>
     <v>116</v>
-    <v>94.38</v>
-    <v>6042390000</v>
+    <v>84.7</v>
+    <v>5471243000</v>
     <v>LEMONADE, INC.</v>
     <v>LEMONADE, INC.</v>
-    <v>98</v>
+    <v>86.49</v>
     <v>0</v>
-    <v>98.6</v>
-    <v>95.88</v>
-    <v>95.69</v>
+    <v>89.28</v>
+    <v>88.99</v>
+    <v>89.99</v>
     <v>61281840</v>
     <v>LMND</v>
     <v>LEMONADE, INC. (XNYS:LMND)</v>
-    <v>1546986</v>
-    <v>3550114</v>
+    <v>2911072</v>
+    <v>3504431</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -2522,7 +2522,7 @@
     <v>119</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_d6782132aec4ede52f23cbfda8cac5e1&amp;qlt=95</v>
     <v>120</v>
     <v>0</v>
@@ -2547,11 +2547,11 @@
     <v>4</v>
     <v>62.756100000000004</v>
     <v>22.465</v>
-    <v>1.2604</v>
-    <v>-1.87</v>
-    <v>1.042E-3</v>
-    <v>-3.1449999999999999E-2</v>
-    <v>0.06</v>
+    <v>1.2612000000000001</v>
+    <v>2.21</v>
+    <v>5.3410000000000003E-3</v>
+    <v>3.8302000000000003E-2</v>
+    <v>0.32</v>
     <v>USD</v>
     <v>Southwest Airlines Co. (Southwest) operates Southwest Airlines, a passenger airline that provides scheduled air transportation in the United States and near-international markets. The Company provides point-to-point service. The Company offers ancillary service offerings, such as Southwest's EarlyBird Check-In and transportation of pets and unaccompanied minors, in accordance with Southwest's respective policies. Southwest's Rapid Rewards frequent flyer program enables program members (Members) to earn points for every dollar spent on Southwest fares. Its Internet Website, Southwest.com, is an avenue for Southwest customers to purchase and manage travel online. As of December 31, 2016, Southwest operated a total of 723 Boeing 737 aircraft and served 101 destinations in 40 states, the District of Columbia, the Commonwealth of Puerto Rico, and eight near-international countries: Mexico, Jamaica, The Bahamas, Aruba, Dominican Republic, Costa Rica, Belize, and Cuba.</v>
     <v>56500</v>
@@ -2559,26 +2559,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>PO Box 36611, 2702 Love Field Dr, DALLAS, TX, 75235-1611 US</v>
-    <v>60.37</v>
+    <v>59.96</v>
     <v>121</v>
     <v>Passenger Transportation Services</v>
     <v>Stock</v>
-    <v>44278.997154721874</v>
+    <v>44280.999966770316</v>
     <v>122</v>
-    <v>57.06</v>
-    <v>35121680000</v>
+    <v>56.42</v>
+    <v>34082090000</v>
     <v>SOUTHWEST AIRLINES CO.</v>
     <v>SOUTHWEST AIRLINES CO.</v>
-    <v>58.81</v>
+    <v>56.61</v>
     <v>0</v>
-    <v>59.46</v>
-    <v>57.59</v>
-    <v>57.65</v>
+    <v>57.7</v>
+    <v>59.91</v>
+    <v>60.23</v>
     <v>590677500</v>
     <v>LUV</v>
     <v>SOUTHWEST AIRLINES CO. (XNYS:LUV)</v>
-    <v>9849878</v>
-    <v>9500648</v>
+    <v>6826298</v>
+    <v>9616759</v>
     <v>1967</v>
   </rv>
   <rv s="2">
@@ -2593,7 +2593,7 @@
     <v>125</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_7d8255243964a8970376f8dd41121106&amp;qlt=95</v>
     <v>126</v>
     <v>0</v>
@@ -2615,14 +2615,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>231.91</v>
-    <v>136.5</v>
-    <v>0.61680000000000001</v>
-    <v>-0.7</v>
-    <v>-1.114E-3</v>
-    <v>-3.1099999999999999E-3</v>
-    <v>-0.25</v>
+    <v>155</v>
+    <v>0.60860000000000003</v>
+    <v>0.15</v>
+    <v>2.23E-4</v>
+    <v>6.6949999999999996E-4</v>
+    <v>0.05</v>
     <v>USD</v>
     <v>McDonald's Corporation (McDonald's) operates and franchises McDonald's restaurants. The Company's restaurants serve a locally relevant menu of food and drinks sold at various price points in over 100 countries. The Company's segments include U.S., International Lead Markets, High Growth Markets, and Foundational Markets and Corporate. The U.S. segment focuses on offering a platform for authentic ingredients that allows customers to customize their sandwiches. Its High Growth Markets segment includes its operations in markets, such as China, Italy, Korea, Poland, Russia, Spain, Switzerland, the Netherlands and related markets. The International Lead markets segment includes the Company's operations in various markets, such as Australia, Canada, France, Germany, the United Kingdom and related markets. The Foundational markets and Corporate segment is engaged in operating restaurants and increasing convenience to customers, including through drive-thru and delivery.</v>
     <v>200000</v>
@@ -2630,26 +2630,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>110 N Carpenter St, CHICAGO, IL, 60607-2104 US</v>
-    <v>226.4</v>
+    <v>225.32</v>
     <v>127</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>44278.969562510938</v>
+    <v>44280.990918251562</v>
     <v>128</v>
-    <v>223.75129999999999</v>
-    <v>167805900000</v>
+    <v>222.44</v>
+    <v>167045400000</v>
     <v>MCDONALD'S CORPORATION</v>
     <v>MCDONALD'S CORPORATION</v>
-    <v>223.96</v>
-    <v>35.698700000000002</v>
-    <v>225.07</v>
-    <v>224.37</v>
-    <v>224.12</v>
+    <v>225.15</v>
+    <v>35.536900000000003</v>
+    <v>224.05</v>
+    <v>224.2</v>
+    <v>224.25</v>
     <v>745572100</v>
     <v>MCD</v>
     <v>MCDONALD'S CORPORATION (XNYS:MCD)</v>
-    <v>2793925</v>
-    <v>3685368</v>
+    <v>3249784</v>
+    <v>3646912</v>
     <v>1964</v>
   </rv>
   <rv s="2">
@@ -2665,18 +2665,18 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>23</v>
+    <v>22</v>
     <v>MODERNA, INC. (XNAS:MRNA)</v>
     <v>2</v>
-    <v>24</v>
+    <v>23</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>189.26</v>
-    <v>24.36</v>
-    <v>-9.08</v>
-    <v>1.2672000000000001E-2</v>
-    <v>-6.2363000000000002E-2</v>
-    <v>1.73</v>
+    <v>24.79</v>
+    <v>1.72</v>
+    <v>5.7749999999999998E-3</v>
+    <v>1.3068999999999999E-2</v>
+    <v>0.77</v>
     <v>USD</v>
     <v>Moderna, Inc. is engaged in transformative medicines based on messenger ribonucleic acid (mRNA). It has created a platform to improve the underlying pharmaceutical properties of our mRNA medicines. Its platform consists of three areas: mRNA technologies, delivery technologies, and manufacturing processes. It is pursuing mRNA science to minimize the undesirable activation of the immune system by mRNA and to maximize the potency of mRNA once in the target cells. It has advanced in parallel a diverse development pipeline of 21 programs, of which 10 have entered clinical studies and another three have open INDs. Its therapeutics and vaccine development programs span infectious diseases, oncology, cardiovascular diseases, and rare genetic diseases. It has created six modalities prophylactic vaccines, cancer vaccines, intratumoral immmuno-oncology, localized regenerative therapeutics, systemic secreted therapeutics and systemic intracellular therapeutics.</v>
     <v>1300</v>
@@ -2684,24 +2684,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>200 Technology Sq, Cambridge, MA, 02139-3578 US</v>
-    <v>146.19</v>
+    <v>134.31</v>
     <v>Biotechnology &amp; Medical Research</v>
     <v>Stock</v>
-    <v>44278.995831863278</v>
+    <v>44280.999777395315</v>
     <v>131</v>
-    <v>136.38</v>
-    <v>58266200000</v>
+    <v>126.42</v>
+    <v>52667680000</v>
     <v>MODERNA, INC.</v>
     <v>MODERNA, INC.</v>
-    <v>145.61000000000001</v>
-    <v>145.6</v>
-    <v>136.52000000000001</v>
-    <v>138.25</v>
+    <v>127.33</v>
+    <v>131.61000000000001</v>
+    <v>133.33000000000001</v>
+    <v>134.1</v>
     <v>400180000</v>
     <v>MRNA</v>
     <v>MODERNA, INC. (XNAS:MRNA)</v>
-    <v>6959297</v>
-    <v>9654048</v>
+    <v>5696322</v>
+    <v>9628197</v>
     <v>2016</v>
   </rv>
   <rv s="2">
@@ -2716,7 +2716,7 @@
     <v>134</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_9b63ca533bc25eee84cbb87485423d78&amp;qlt=95</v>
     <v>135</v>
     <v>0</v>
@@ -2738,14 +2738,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>246.13</v>
-    <v>132.52000000000001</v>
-    <v>0.79869999999999997</v>
-    <v>1.59</v>
-    <v>4.2090000000000004E-4</v>
-    <v>6.7379999999999992E-3</v>
-    <v>0.1</v>
+    <v>144.44</v>
+    <v>0.80289999999999995</v>
+    <v>-3.12</v>
+    <v>5.4229999999999999E-3</v>
+    <v>-1.3250999999999999E-2</v>
+    <v>1.26</v>
     <v>USD</v>
     <v>Microsoft Corporation is a technology company. The Company develops, licenses, and supports a range of software products, services and devices. The Company's segments include Productivity and Business Processes, Intelligent Cloud and More Personal Computing. The Company's products include operating systems; cross-device productivity applications; server applications; business solution applications; desktop and server management tools; software development tools; video games, and training and certification of computer system integrators and developers. It also designs, manufactures, and sells devices, including personal computers (PCs), tablets, gaming and entertainment consoles, phones, other intelligent devices, and related accessories, that integrate with its cloud-based offerings. It offers an array of services, including cloud-based solutions that provide customers with software, services, platforms, and content, and it provides solution support and consulting services.</v>
     <v>163000</v>
@@ -2753,26 +2753,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Microsoft Way, REDMOND, WA, 98052-6399 US</v>
-    <v>241.05</v>
+    <v>236.94</v>
     <v>136</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44278.995796053125</v>
+    <v>44280.999788193752</v>
     <v>137</v>
-    <v>237.07</v>
-    <v>1779888000000</v>
+    <v>231.57</v>
+    <v>1775890000000</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>237.48500000000001</v>
-    <v>35.148200000000003</v>
-    <v>235.99</v>
-    <v>237.58</v>
-    <v>237.68</v>
+    <v>235.3</v>
+    <v>35.069200000000002</v>
+    <v>235.46</v>
+    <v>232.34</v>
+    <v>233.6</v>
     <v>7542216000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>31637475</v>
-    <v>31020199</v>
+    <v>34061853</v>
+    <v>31374475</v>
     <v>1993</v>
   </rv>
   <rv s="2">
@@ -2788,19 +2788,19 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>25</v>
+    <v>24</v>
     <v>NOVAVAX, INC. (XNAS:NVAX)</v>
     <v>2</v>
-    <v>26</v>
+    <v>25</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>331.68</v>
-    <v>10.029999999999999</v>
-    <v>1.5508999999999999</v>
-    <v>-17.36</v>
-    <v>3.457E-3</v>
-    <v>-7.3187000000000002E-2</v>
-    <v>0.76</v>
+    <v>11.4</v>
+    <v>1.5509999999999999</v>
+    <v>-22.01</v>
+    <v>1.5429999999999999E-2</v>
+    <v>-0.109918</v>
+    <v>2.75</v>
     <v>USD</v>
     <v>Novavax, Inc. is a clinical-stage vaccine company focused on the discovery, development and commercialization of recombinant nanoparticle vaccines and adjuvants. The Company operates through developing recombinant vaccines segment. The Company, through its recombinant nanoparticle vaccine technology, produces vaccine candidates to respond to both known and newly emerging diseases. The Company's product pipeline focuses on a range of infectious diseases with vaccine candidates in clinical development for respiratory syncytial virus (RSV), seasonal influenza, pandemic influenza and the Ebola virus (EBOV). The Company's lead adjuvant for human applications, Matrix-M, is in a Phase I/II clinical trial for pandemic influenza H7N9 vaccine candidate. It is also testing Matrix-M in conjunction with its EBOV vaccine candidate in a Phase I clinical trial. It is developing additional pre-clinical stage programs in a range of infectious diseases, including Middle East respiratory syndrome (MERS).</v>
     <v>791</v>
@@ -2808,24 +2808,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>21 Firstfield Rd, GAITHERSBURG, MD, 20878-1757 US</v>
-    <v>239.54</v>
+    <v>202.4999</v>
     <v>Biotechnology &amp; Medical Research</v>
     <v>Stock</v>
-    <v>44278.995243888283</v>
+    <v>44280.999927510937</v>
     <v>140</v>
-    <v>218.61</v>
-    <v>17519330000</v>
+    <v>159.09</v>
+    <v>14789500000</v>
     <v>NOVAVAX, INC.</v>
     <v>NOVAVAX, INC.</v>
-    <v>237.5</v>
-    <v>237.2</v>
-    <v>219.84</v>
-    <v>220.6</v>
+    <v>188.25</v>
+    <v>200.24</v>
+    <v>178.23</v>
+    <v>180.98</v>
     <v>73858880</v>
     <v>NVAX</v>
     <v>NOVAVAX, INC. (XNAS:NVAX)</v>
-    <v>2023261</v>
-    <v>3600868</v>
+    <v>7401139</v>
+    <v>3493120</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2840,7 +2840,7 @@
     <v>143</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_a1316160b9d7d0e339f77550180e6aa0&amp;qlt=95</v>
     <v>144</v>
     <v>0</v>
@@ -2864,12 +2864,12 @@
     <v>Finance</v>
     <v>4</v>
     <v>614.9</v>
-    <v>198.52</v>
-    <v>1.3845000000000001</v>
-    <v>-4.62</v>
-    <v>-1.109E-3</v>
-    <v>-8.7589999999999994E-3</v>
-    <v>-0.57999999999999996</v>
+    <v>238.39</v>
+    <v>1.3980999999999999</v>
+    <v>-4.3099999999999996</v>
+    <v>2.9720000000000002E-3</v>
+    <v>-8.5229999999999993E-3</v>
+    <v>1.49</v>
     <v>USD</v>
     <v>Nvidia Corporation focuses on personal computer (PC) graphics, graphics processing unit (GPU) and also on artificial intelligence (AI). It operates through two segments: GPU and Tegra Processor. Its GPU product brands are aimed at specialized markets, including GeForce for gamers; Quadro for designers; Tesla and DGX for AI data scientists and big data researchers; and GRID for cloud-based visual computing users. Its Tegra brand integrates an entire computer onto a single chip, and incorporates GPUs and multi-core central processing units (CPUs) to drive supercomputing for mobile gaming and entertainment devices, as well as autonomous robots, drones and cars. The Company's processor has created platforms that address four markets: Gaming, Professional Visualization, Datacenter, and Automotive. Its offerings include NVIDIA DGX AI supercomputer, the NVIDIA DRIVE AI car computing platform and the GeForce NOW cloud gaming service.</v>
     <v>18975</v>
@@ -2877,26 +2877,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2788 San Tomas Expy, SANTA CLARA, CA, 95051-0952 US</v>
-    <v>533.78</v>
+    <v>508.59</v>
     <v>145</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>44278.998052267969</v>
+    <v>44280.999936087501</v>
     <v>146</v>
-    <v>520.86</v>
-    <v>327019000000</v>
+    <v>490.88</v>
+    <v>313546400000</v>
     <v>NVIDIA CORPORATION</v>
     <v>NVIDIA CORPORATION</v>
-    <v>530.17999999999995</v>
-    <v>76.463200000000001</v>
-    <v>527.45000000000005</v>
-    <v>522.83000000000004</v>
-    <v>522.25</v>
+    <v>499.98</v>
+    <v>73.313000000000002</v>
+    <v>505.72</v>
+    <v>501.41</v>
+    <v>502.9</v>
     <v>620000000</v>
     <v>NVDA</v>
     <v>NVIDIA CORPORATION (XNAS:NVDA)</v>
-    <v>5550433</v>
-    <v>9328789</v>
+    <v>7378614</v>
+    <v>9199016</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -2912,18 +2912,18 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>27</v>
+    <v>26</v>
     <v>OPENDOOR TECHNOLOGIES INC. (XNAS:OPEN)</v>
     <v>2</v>
-    <v>28</v>
+    <v>27</v>
     <v>Finance</v>
     <v>4</v>
     <v>39.24</v>
     <v>10.55</v>
-    <v>-2.2799999999999998</v>
-    <v>2.3419999999999999E-3</v>
-    <v>-8.1720000000000001E-2</v>
-    <v>0.06</v>
+    <v>0.53</v>
+    <v>-7.8120000000000004E-3</v>
+    <v>2.3544999999999996E-2</v>
+    <v>-0.18</v>
     <v>USD</v>
     <v>Opendoor Technologies Inc. operates a digital platform for residential real estate that enables consumers to buy and sell their home. Home sellers can use the Company's mobile application or Website to request a competitive cash offer online. Home buyers can likewise utilize its app or Website to self-tour or virtually tour homes at their convenience, shop for financing, submit an offer and close on their timeline. It acquires homes directly from individual sellers and resell those homes to buyers, including both individual consumers and institutional investors. Upon acquiring a home, it typically makes necessary renovations and repairs before listing it for sale on its Website, its mobile app, Multiple Listing Services (MLS) and other online real estate portals. It also offers adjacent services, including title and escrow, Opendoor Home Loans, List with Opendoor and Buy with Opendoor.</v>
     <v>1048</v>
@@ -2931,25 +2931,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>410 N. Scottsdale Road, Suite 1600, TEMPE, AZ, 85281 US</v>
-    <v>27.5</v>
+    <v>23.22</v>
     <v>Real Estate Operations</v>
     <v>Stock</v>
-    <v>44278.999755601566</v>
+    <v>44280.999740080471</v>
     <v>149</v>
-    <v>25.1</v>
-    <v>16104650000</v>
+    <v>20.6</v>
+    <v>12993390000</v>
     <v>OPENDOOR TECHNOLOGIES INC.</v>
     <v>OPENDOOR TECHNOLOGIES INC.</v>
-    <v>27.3</v>
+    <v>21.37</v>
     <v>0</v>
-    <v>27.9</v>
-    <v>25.62</v>
-    <v>25.68</v>
+    <v>22.51</v>
+    <v>23.04</v>
+    <v>22.86</v>
     <v>577227600</v>
     <v>OPEN</v>
     <v>OPENDOOR TECHNOLOGIES INC. (XNAS:OPEN)</v>
-    <v>14473978</v>
-    <v>12498100</v>
+    <v>14289253</v>
+    <v>12618831</v>
   </rv>
   <rv s="2">
     <v>150</v>
@@ -2969,14 +2969,14 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>43.079700000000003</v>
-    <v>26.428799999999999</v>
-    <v>0.7006</v>
-    <v>-0.64</v>
-    <v>2.8279999999999999E-4</v>
-    <v>-1.7778000000000002E-2</v>
-    <v>0.01</v>
+    <v>27.490500000000001</v>
+    <v>0.69379999999999997</v>
+    <v>0.06</v>
+    <v>-2.8029999999999998E-4</v>
+    <v>1.6850000000000001E-3</v>
+    <v>-0.01</v>
     <v>USD</v>
     <v>Pfizer Inc. (Pfizer) is a research-based global biopharmaceutical company. The Company is engaged in the discovery, development and manufacture of healthcare products. Its global portfolio includes medicines and vaccines. The Company manages its commercial operations through two business segments: Pfizer Innovative Health (IH) and Pfizer Essential Health (EH). IH focuses on developing and commercializing medicines and vaccines. IH therapeutic areas include internal medicine, vaccines, oncology, inflammation and immunology, rare diseases and consumer healthcare. EH includes legacy brands, branded generics, generic sterile injectable products, biosimilars and infusion systems. EH also includes a research and development (R&amp;D) organization, as well as its contract manufacturing business. Its brands include Prevnar 13, Xeljanz, Eliquis, Lipitor, Celebrex, Pristiq and Viagra.</v>
     <v>78500</v>
@@ -2984,25 +2984,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>235 E 42ND ST, NEW YORK, NY, 10017-5703 US</v>
-    <v>35.93</v>
+    <v>35.79</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>44278.994957349219</v>
+    <v>44280.999935995314</v>
     <v>152</v>
-    <v>35.32</v>
-    <v>200813900000</v>
+    <v>35.25</v>
+    <v>198638400000</v>
     <v>PFIZER INC.</v>
     <v>PFIZER INC.</v>
-    <v>35.82</v>
-    <v>28.831399999999999</v>
-    <v>36</v>
-    <v>35.36</v>
-    <v>35.369999999999997</v>
+    <v>35.65</v>
+    <v>28.518999999999998</v>
+    <v>35.61</v>
+    <v>35.67</v>
+    <v>35.659999999999997</v>
     <v>5578164000</v>
     <v>PFE</v>
     <v>PFIZER INC. (XNYS:PFE)</v>
-    <v>27968871</v>
-    <v>31243390</v>
+    <v>24875303</v>
+    <v>31068288</v>
     <v>1942</v>
   </rv>
   <rv s="2">
@@ -3018,18 +3018,18 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>21</v>
+    <v>20</v>
     <v>PINTEREST, INC. (XNYS:PINS)</v>
     <v>2</v>
-    <v>22</v>
+    <v>21</v>
     <v>Finance</v>
     <v>4</v>
     <v>89.9</v>
-    <v>11.47</v>
-    <v>-1.08</v>
-    <v>0</v>
-    <v>-1.4926999999999999E-2</v>
-    <v>0</v>
+    <v>13.38</v>
+    <v>-1.39</v>
+    <v>2.7860000000000003E-3</v>
+    <v>-1.9971000000000003E-2</v>
+    <v>0.19</v>
     <v>USD</v>
     <v>Pinterest, Inc. is a visual discovery engine. The Company operates a visual discovery platform, where users can create and manage theme-based image collections and share inspirations for their lives. Its visual discovery platform acts like a virtual Pinboard, where people uses pins to share their weddings, home decorating ideas, travel destinations, save images and videos on Web and organize their favorite recipes. Its offered platform is also integrated with image recognition technology, which allows users to take pictures through their smartphones and provides related information and ideas to the object. It offers online marketing services to brands, which allows brands to connect with people on the basis of their shared tastes and interests. It offered Pins include Recipe Pins, Video Pins, Product Pins and Shop the Look.</v>
     <v>2545</v>
@@ -3037,25 +3037,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>505 BRANNAN STREET, SAN FRANCISCO, CA, 94107 US</v>
-    <v>72.09</v>
+    <v>68.91</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44278.999535149997</v>
+    <v>44280.999523946091</v>
     <v>155</v>
-    <v>70.599999999999994</v>
-    <v>45473040000</v>
+    <v>65.5</v>
+    <v>43744620000</v>
     <v>PINTEREST, INC.</v>
     <v>PINTEREST, INC.</v>
-    <v>72</v>
+    <v>66.375</v>
     <v>0</v>
-    <v>72.349999999999994</v>
-    <v>71.27</v>
-    <v>71.27</v>
+    <v>69.599999999999994</v>
+    <v>68.209999999999994</v>
+    <v>68.400000000000006</v>
     <v>628514600</v>
     <v>PINS</v>
     <v>PINTEREST, INC. (XNYS:PINS)</v>
-    <v>9351413</v>
-    <v>12738827</v>
+    <v>11397178</v>
+    <v>12348913</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -3071,37 +3071,37 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
+    <v>28</v>
+    <v>Glbl X Cannabis ETF (XNAS:POTX)</v>
+    <v>12</v>
     <v>29</v>
-    <v>Glbl X Cannabis ETF (XNAS:POTX)</v>
-    <v>13</v>
-    <v>30</v>
     <v>Finance</v>
-    <v>31</v>
+    <v>14</v>
     <v>29.5</v>
     <v>7.17</v>
-    <v>-0.8</v>
-    <v>8.6899999999999998E-3</v>
-    <v>-4.7309000000000004E-2</v>
-    <v>0.14000000000000001</v>
+    <v>0.4</v>
+    <v>3.1056E-2</v>
+    <v>2.5478000000000001E-2</v>
+    <v>0.5</v>
     <v>USD</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>5.1000000000000004E-3</v>
-    <v>16.869</v>
+    <v>16.100000000000001</v>
     <v>ETF</v>
-    <v>44278.994775578125</v>
+    <v>44280.99974086797</v>
     <v>158</v>
-    <v>16.05</v>
+    <v>15.221</v>
     <v>219459295.97999999</v>
     <v>Glbl X Cannabis ETF</v>
-    <v>16.760000000000002</v>
-    <v>16.91</v>
-    <v>16.11</v>
-    <v>16.25</v>
+    <v>15.26</v>
+    <v>15.7</v>
+    <v>16.100000000000001</v>
+    <v>16.600000000000001</v>
     <v>POTX</v>
     <v>Glbl X Cannabis ETF (XNAS:POTX)</v>
-    <v>443469</v>
-    <v>730673</v>
+    <v>273204</v>
+    <v>667624</v>
   </rv>
   <rv s="2">
     <v>159</v>
@@ -3116,38 +3116,38 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
+    <v>11</v>
+    <v>Invesco QQQ Trust 1 (XNAS:QQQ)</v>
     <v>12</v>
-    <v>Invesco QQQ Trust 1 (XNAS:QQQ)</v>
     <v>13</v>
+    <v>Finance</v>
     <v>14</v>
-    <v>Finance</v>
-    <v>15</v>
     <v>338.19</v>
-    <v>164.93</v>
+    <v>179.98</v>
     <v>1.0201</v>
-    <v>-1.39</v>
-    <v>1.103E-3</v>
-    <v>-4.3630000000000006E-3</v>
-    <v>0.35</v>
+    <v>-0.54</v>
+    <v>2.3449999999999999E-3</v>
+    <v>-1.7310000000000001E-3</v>
+    <v>0.73</v>
     <v>USD</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>2E-3</v>
-    <v>321.08010000000002</v>
+    <v>312.88499999999999</v>
     <v>ETF</v>
-    <v>44278.999913228909</v>
+    <v>44280.999994548438</v>
     <v>161</v>
-    <v>316.375</v>
+    <v>307.38990000000001</v>
     <v>150566164355.17001</v>
     <v>Invesco QQQ Trust 1</v>
-    <v>319.68</v>
-    <v>318.61</v>
-    <v>317.22000000000003</v>
-    <v>317.57</v>
+    <v>309.96800000000002</v>
+    <v>311.87</v>
+    <v>311.33</v>
+    <v>312.06</v>
     <v>QQQ</v>
     <v>Invesco QQQ Trust 1 (XNAS:QQQ)</v>
-    <v>53460107</v>
-    <v>66484119</v>
+    <v>78729008</v>
+    <v>72562478</v>
   </rv>
   <rv s="2">
     <v>162</v>
@@ -3161,7 +3161,7 @@
     <v>164</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_a586c676d6950885516e2cb6f485bf08&amp;qlt=95</v>
     <v>165</v>
     <v>0</v>
@@ -3178,19 +3178,19 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>32</v>
+    <v>30</v>
     <v>REDFIN CORPORATION (XNAS:RDFN)</v>
     <v>7</v>
-    <v>33</v>
+    <v>31</v>
     <v>Finance</v>
     <v>4</v>
     <v>98.444999999999993</v>
-    <v>11.06</v>
-    <v>1.9145000000000001</v>
-    <v>-3</v>
-    <v>6.6390000000000008E-3</v>
-    <v>-4.3303000000000001E-2</v>
-    <v>0.44</v>
+    <v>12.95</v>
+    <v>1.9317</v>
+    <v>1.19</v>
+    <v>1.7559999999999999E-2</v>
+    <v>1.8841E-2</v>
+    <v>1.1299999999999999</v>
     <v>USD</v>
     <v>Redfin Corporation is engaged in providing residential real estate brokerage services. The customer can search for homes by neighborhood, city or MLS number, or can refine results using detailed parameters, such as price and number of beds or baths. The Company serves home buyers and sellers. The Company offers online tools to consumers, including Redfin Estimate, which is an automated home-valuation tool. The customer can search homes for sale in Austin, Atlanta, Baltimore, Boston, Charlotte, Chicago, Dallas, Denver, Fort Lauderdale, Houston, Lake Tahoe, Las Vegas, Los Angeles, Miami, Philadelphia, Phoenix, Portland, OR, Raleigh, San Antonio, San Diego, San Francisco, Sacramento, San Jose, Seattle and Washington. The Company serves over 80 metro areas across the United States.</v>
     <v>4185</v>
@@ -3198,25 +3198,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1099 Stewart St Ste 600, SEATTLE, WA, 98101-2161 US</v>
-    <v>68.5</v>
+    <v>64.930899999999994</v>
     <v>166</v>
     <v>Real Estate Operations</v>
     <v>Stock</v>
-    <v>44278.997283483593</v>
+    <v>44280.995364085153</v>
     <v>167</v>
-    <v>65.650000000000006</v>
-    <v>7150142000</v>
+    <v>59.47</v>
+    <v>6518519000</v>
     <v>REDFIN CORPORATION</v>
     <v>REDFIN CORPORATION</v>
-    <v>68.180000000000007</v>
-    <v>69.28</v>
-    <v>66.28</v>
-    <v>66.72</v>
+    <v>61.02</v>
+    <v>63.16</v>
+    <v>64.349999999999994</v>
+    <v>65.48</v>
     <v>103206400</v>
     <v>RDFN</v>
     <v>REDFIN CORPORATION (XNAS:RDFN)</v>
-    <v>3662297</v>
-    <v>2155980</v>
+    <v>1907877</v>
+    <v>2304395</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -3231,7 +3231,7 @@
     <v>170</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_e27b6f4d10a663f3cbffe838112b48be&amp;qlt=95</v>
     <v>171</v>
     <v>0</v>
@@ -3255,12 +3255,12 @@
     <v>Finance</v>
     <v>4</v>
     <v>112.34</v>
-    <v>54</v>
-    <v>0.88</v>
-    <v>-1.32</v>
-    <v>0</v>
-    <v>-1.2271000000000001E-2</v>
-    <v>0</v>
+    <v>60.9</v>
+    <v>0.88339999999999996</v>
+    <v>2.38</v>
+    <v>4.1920000000000004E-3</v>
+    <v>2.2673000000000002E-2</v>
+    <v>0.45</v>
     <v>USD</v>
     <v>Starbucks Corp is a coffee roaster and retailer of specialty coffee with operations in approximately 82 markets around the world. The Company has over 32,000 Company-operated and licensed stores. It operates through three segments: Americas, International and Channel Development. It also sells a variety of coffee and tea products and license its trademarks through other channels, such as licensed stores, grocery and foodservice. It purchases and roasts coffees that it sells, along with handcrafted coffee, tea and other beverages and a variety of food items through Company-operated stores. In addition to its flagship Starbucks Coffee brand, it sells goods and services under various brands, including Teavana, Seattle’s Best Coffee, Evolution Fresh, Ethos, Starbucks Reserve and Princi.</v>
     <v>349000</v>
@@ -3268,26 +3268,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2401 Utah Ave S, SEATTLE, WA, 98134-1436 US</v>
-    <v>107.9477</v>
+    <v>107.7</v>
     <v>172</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>44278.999166805472</v>
+    <v>44280.99555217578</v>
     <v>173</v>
-    <v>105.6738</v>
-    <v>126642200000</v>
+    <v>104.06</v>
+    <v>123581200000</v>
     <v>STARBUCKS CORPORATION</v>
     <v>STARBUCKS CORPORATION</v>
-    <v>107.74</v>
-    <v>193.30090000000001</v>
-    <v>107.57</v>
-    <v>106.25</v>
-    <v>106.25</v>
+    <v>105.00700000000001</v>
+    <v>188.62870000000001</v>
+    <v>104.97</v>
+    <v>107.35</v>
+    <v>107.8</v>
     <v>1177300000</v>
     <v>SBUX</v>
     <v>STARBUCKS CORPORATION (XNAS:SBUX)</v>
-    <v>5657840</v>
-    <v>7371908</v>
+    <v>8149044</v>
+    <v>7400924</v>
     <v>1985</v>
   </rv>
   <rv s="2">
@@ -3302,7 +3302,7 @@
     <v>176</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_7e4364ddaa2b53548bce18826abc415c&amp;qlt=95</v>
     <v>177</v>
     <v>0</v>
@@ -3327,11 +3327,11 @@
     <v>4</v>
     <v>1499.75</v>
     <v>334.55</v>
-    <v>1.4722</v>
-    <v>3</v>
-    <v>8.2550000000000002E-3</v>
-    <v>2.5859999999999998E-3</v>
-    <v>9.6</v>
+    <v>1.4951000000000001</v>
+    <v>-44.33</v>
+    <v>2.176E-3</v>
+    <v>-4.0080999999999999E-2</v>
+    <v>2.31</v>
     <v>USD</v>
     <v>Shopify Inc. (Shopify) provides a cloud-based, multi-channel commerce platform designed for small and medium-sized businesses. The Company offers subscription solutions and merchant solutions. The Company's software is used by merchants to run their business across all of their sales channels, including Web and mobile storefronts, physical retail locations, social media storefronts and marketplaces. The Shopify platform provides merchants with a single view of their business and customers across all of their sales channels and enables them to manage products and inventory, process orders and payments, ship orders, build customer relationships and leverage analytics and reporting all from one integrated back office. The Shopify platform includes a mobile-optimized checkout system, which is designed to enable merchants' consumers to buy products over mobile Websites.</v>
     <v>7000</v>
@@ -3339,26 +3339,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>151 O'connor Street, Ground Floor, OTTAWA, ON, K2P 2L8 CA</v>
-    <v>1167.9974</v>
+    <v>1103.99</v>
     <v>178</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44278.999397997657</v>
+    <v>44280.999625856253</v>
     <v>179</v>
-    <v>1142.3</v>
-    <v>143519700000</v>
+    <v>1051.2501</v>
+    <v>136839800000</v>
     <v>SHOPIFY INC.</v>
     <v>SHOPIFY INC.</v>
-    <v>1165</v>
-    <v>454.08109999999999</v>
-    <v>1160</v>
-    <v>1163</v>
-    <v>1172.5999999999999</v>
+    <v>1090.08</v>
+    <v>432.94670000000002</v>
+    <v>1106.01</v>
+    <v>1061.68</v>
+    <v>1063.99</v>
     <v>123723900</v>
     <v>SHOP</v>
     <v>SHOPIFY INC. (XNYS:SHOP)</v>
-    <v>896648</v>
-    <v>1676697</v>
+    <v>1768208</v>
+    <v>1546332</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -3379,14 +3379,14 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>151.43989999999999</v>
     <v>15.27</v>
-    <v>2.0743</v>
-    <v>-3.81</v>
-    <v>0</v>
-    <v>-2.7092000000000001E-2</v>
-    <v>0</v>
+    <v>2.0796999999999999</v>
+    <v>5.59</v>
+    <v>2.0964E-2</v>
+    <v>4.2571000000000005E-2</v>
+    <v>2.87</v>
     <v>USD</v>
     <v>Sleep Number Corporation, formerly Select Comfort Corporation, is a designer, manufacturer, marketer, retailer and servicer of a line of Sleep Number beds. The Company offers consumers individualized sleep solutions and services, which include a complete line of Sleep Number beds, bases and bedding accessories. Its Sleep Number bed offers SleepIQ technology sensors that work directly with the bed's DualAir technology to track each individual's sleep. The Sleep Number bedding collection comprises a line of sleep products that are designed to solve sleep issues. It offers FlextFit adjustable bases, and Sleep Number pillows, sheets and other bedding products. It offers Sleep Number beds in ranges within the mattress category, and in a range of sizes, including twin, full, queen, eastern king and California king. It also offers an assortment of temperature-balancing products.</v>
     <v>4679</v>
@@ -3394,25 +3394,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1001 Third Avenue South, MINNEAPOLIS, MN, 55404 US</v>
-    <v>143.34</v>
+    <v>138.65</v>
     <v>Household Goods</v>
     <v>Stock</v>
-    <v>44278.878319409378</v>
+    <v>44280.90116898148</v>
     <v>182</v>
-    <v>135.44999999999999</v>
-    <v>3568486000</v>
+    <v>125.13</v>
+    <v>3331991000</v>
     <v>SLEEP NUMBER CORPORATION</v>
     <v>SLEEP NUMBER CORPORATION</v>
-    <v>139.44</v>
-    <v>28.722300000000001</v>
-    <v>140.63</v>
-    <v>136.82</v>
-    <v>136.82</v>
+    <v>127.42</v>
+    <v>26.8188</v>
+    <v>131.31</v>
+    <v>136.9</v>
+    <v>139.77000000000001</v>
     <v>25375000</v>
     <v>SNBR</v>
     <v>SLEEP NUMBER CORPORATION (XNAS:SNBR)</v>
-    <v>383084</v>
-    <v>679611</v>
+    <v>368011</v>
+    <v>667800</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -3428,43 +3428,43 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>23</v>
+    <v>22</v>
     <v>SUNDIAL GROWERS INC. (XNAS:SNDL)</v>
     <v>2</v>
-    <v>34</v>
+    <v>32</v>
     <v>Finance</v>
     <v>4</v>
     <v>3.96</v>
     <v>0.1381</v>
-    <v>-0.09</v>
-    <v>0</v>
-    <v>-6.9231000000000001E-2</v>
-    <v>0</v>
+    <v>9.5000000000000001E-2</v>
+    <v>-8.1969999999999994E-3</v>
+    <v>8.4444000000000005E-2</v>
+    <v>-0.01</v>
     <v>USD</v>
     <v>Sundial Growers Inc. (Sundial) is a cannabis company engaged in the production, distribution and sale of cannabis for the medical and adult-use market. The Company produces and markets premium cannabis for the adult-use market. In Sundial’s purpose-built indoor modular grow rooms, the Company produces consistent cannabis in individual and fully controlled room environments. The Company’s cannabis products are used as prescription medicines, and to enhance social, spiritual and recreational occasions. The Company sells Sundial Cannabis-branded dried flower cannabis products in a range of formats, such as pre-rolls, oils, capsules and sublingual.</v>
-    <v>868</v>
+    <v>394</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>919 11 Ave SW Suite 200, Calgary, AB, T2R 1P3 CA</v>
-    <v>1.29</v>
+    <v>1.22</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>44278.999806017971</v>
+    <v>44280.99994329844</v>
     <v>185</v>
-    <v>1.1599999999999999</v>
-    <v>2158294000</v>
+    <v>1.06</v>
+    <v>2452170000</v>
     <v>SUNDIAL GROWERS INC.</v>
     <v>SUNDIAL GROWERS INC.</v>
-    <v>1.25</v>
-    <v>1.3</v>
+    <v>1.07</v>
+    <v>1.125</v>
+    <v>1.22</v>
     <v>1.21</v>
-    <v>1.21</v>
-    <v>1660226000</v>
+    <v>2179707000</v>
     <v>SNDL</v>
     <v>SUNDIAL GROWERS INC. (XNAS:SNDL)</v>
-    <v>265486133</v>
-    <v>361670634</v>
+    <v>267126938</v>
+    <v>335457356</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -3479,7 +3479,7 @@
     <v>188</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_878826beb4f985541f4b3b62b4e00be4&amp;qlt=95</v>
     <v>189</v>
     <v>0</v>
@@ -3503,12 +3503,12 @@
     <v>Finance</v>
     <v>4</v>
     <v>283.18979999999999</v>
-    <v>36.11</v>
-    <v>2.4470999999999998</v>
-    <v>-3.04</v>
-    <v>-3.9889999999999995E-3</v>
-    <v>-1.3444000000000001E-2</v>
-    <v>-0.89</v>
+    <v>42.33</v>
+    <v>2.4615999999999998</v>
+    <v>-5.04</v>
+    <v>4.9410000000000001E-3</v>
+    <v>-2.3605000000000001E-2</v>
+    <v>1.03</v>
     <v>USD</v>
     <v>Square, Inc. (Square) is a commerce ecosystem. The Company enables its sellers start, run and grow their businesses. It combines software with hardware to enable sellers to turn mobile devices and computing devices into payments and point-of-sale solutions. Once a seller downloads the Square Point of Sale mobile application, they can take their first payment. With its offering, a seller can accept payments in person via magnetic stripe (a swipe), Europay, MasterCard, and Visa (EMV) (a dip), or Near Field Communication (NFC) (a tap); or online via Square Invoices, Square Virtual Terminal, or the seller's Website. Once on its system, sellers gain access to technology and features, such as reporting and analytics, next-day settlements, digital receipts, payment dispute management and chargeback protection, and Payment Card Industry (PCI) compliance. On the consumer (buyer) side, Square Cash offers individuals access to a way to send and receive money.</v>
     <v>5477</v>
@@ -3516,26 +3516,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1455 Market Street, Suite 600, SAN FRANCISCO, CA, 94103 US</v>
-    <v>228.3399</v>
+    <v>211.96</v>
     <v>190</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>44278.999730185154</v>
+    <v>44280.999891874999</v>
     <v>191</v>
-    <v>221.52</v>
-    <v>102802000000</v>
+    <v>202.1</v>
+    <v>97064770000</v>
     <v>SQUARE, INC.</v>
     <v>SQUARE, INC.</v>
-    <v>226.31</v>
-    <v>776.14549999999997</v>
-    <v>226.13</v>
-    <v>223.09</v>
-    <v>222.2</v>
+    <v>204.6</v>
+    <v>732.82989999999995</v>
+    <v>213.51</v>
+    <v>208.47</v>
+    <v>209.5</v>
     <v>454614700</v>
     <v>SQ</v>
     <v>SQUARE, INC. (XNYS:SQ)</v>
-    <v>5591468</v>
-    <v>12789502</v>
+    <v>12878863</v>
+    <v>12572148</v>
     <v>2009</v>
   </rv>
   <rv s="2">
@@ -3550,7 +3550,7 @@
     <v>194</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_8d203761c16e76dae4999ae18bd56e7b&amp;qlt=95</v>
     <v>195</v>
     <v>0</v>
@@ -3574,12 +3574,12 @@
     <v>Finance</v>
     <v>4</v>
     <v>49.9</v>
-    <v>17.260000000000002</v>
-    <v>1.4453</v>
-    <v>-2.23</v>
-    <v>-4.4640000000000001E-3</v>
-    <v>-4.7417000000000001E-2</v>
-    <v>-0.2</v>
+    <v>18.95</v>
+    <v>1.4348000000000001</v>
+    <v>1.46</v>
+    <v>7.7849999999999994E-3</v>
+    <v>3.1690999999999997E-2</v>
+    <v>0.37</v>
     <v>USD</v>
     <v>Steel Dynamics, Inc. is a steel producing and a metal recycling company. The Company is engaged in the manufacture and sale of steel products, processing and sale of recycled ferrous and nonferrous metals, and fabrication and sale of steel joists and deck products. Its segments include steel operations, metals recycling operations, steel fabrication operations and Other Operations. It offers a range of steel products, such as sheet products, long products and steel finishing. The steel operations segment includes Butler Flat Roll Division, Columbus Flat Roll Division, The Techs galvanizing lines, Structural and Rail Division, Engineered Bar Products Division, Roanoke Bar Division, Steel of West Virginia and Iron Dynamics. The metals recycling operations segment consists of OmniSource Corporation. The fabrication operations produce steel building components. The Other Operations segment consists of subsidiary operations and smaller joint ventures.</v>
     <v>9625</v>
@@ -3587,26 +3587,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>7575 W JEFFERSON BLVD, FORT WAYNE, IN, 46804-4131 US</v>
-    <v>46.71</v>
+    <v>47.9</v>
     <v>196</v>
     <v>Metals &amp; Mining</v>
     <v>Stock</v>
-    <v>44278.998558240623</v>
+    <v>44280.978082685157</v>
     <v>197</v>
-    <v>44.44</v>
-    <v>9923570000</v>
+    <v>45.25</v>
+    <v>9721005000</v>
     <v>STEEL DYNAMICS, INC.</v>
     <v>STEEL DYNAMICS, INC.</v>
-    <v>46.14</v>
-    <v>18.1523</v>
-    <v>47.03</v>
-    <v>44.8</v>
-    <v>44.6</v>
+    <v>45.81</v>
+    <v>17.781700000000001</v>
+    <v>46.07</v>
+    <v>47.53</v>
+    <v>47.9</v>
     <v>211005100</v>
     <v>STLD</v>
     <v>STEEL DYNAMICS, INC. (XNAS:STLD)</v>
-    <v>3148763</v>
-    <v>2371767</v>
+    <v>2082155</v>
+    <v>2438963</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -3621,7 +3621,7 @@
     <v>200</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_883f0b8ce1936d44773796acec8a6906&amp;qlt=95</v>
     <v>201</v>
     <v>0</v>
@@ -3643,14 +3643,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>83.97</v>
-    <v>32.369999999999997</v>
-    <v>1.4266000000000001</v>
-    <v>-0.82</v>
-    <v>2.0569999999999998E-3</v>
-    <v>-1.0433E-2</v>
-    <v>0.16</v>
+    <v>37.200000000000003</v>
+    <v>1.4342999999999999</v>
+    <v>1.94</v>
+    <v>5.1510000000000002E-3</v>
+    <v>2.4984000000000003E-2</v>
+    <v>0.41</v>
     <v>USD</v>
     <v>Sysco Corporation (Sysco) is a distributor of food and related products primarily to the foodservice or food-away-from-home industry. The Company's segments include Broadline, SYGMA and Other. The Broadline segment includes its Broadline operations located in the Bahamas, Canada, Costa Rica, Ireland, Mexico and the United States. Broadline operating companies distribute a full line of food products and a range of non-food products to both traditional and chain restaurant customers, hospitals, schools, hotels, industrial caterers and other venues where foodservice products are served. SYGMA operating companies distribute a full line of food products and a range of non-food products to certain chain restaurant customer locations. The Other segment includes the Company's specialty produce; custom-cut meat operations; lodging industry segments; a company that distributes specialty imported products; a company that distributes to international customers, and Sysco Ventures platform.</v>
     <v>57000</v>
@@ -3658,26 +3658,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1390 Enclave Pkwy, HOUSTON, TX, 77077-2025 US</v>
-    <v>78.27</v>
+    <v>79.86</v>
     <v>202</v>
     <v>Food &amp; Drug Retailing</v>
     <v>Stock</v>
-    <v>44278.958333344533</v>
+    <v>44280.999396400002</v>
     <v>203</v>
-    <v>76.41</v>
-    <v>40118380000</v>
+    <v>76.69</v>
+    <v>39633490000</v>
     <v>SYSCO CORPORATION</v>
     <v>SYSCO CORPORATION</v>
-    <v>77.86</v>
+    <v>76.91</v>
     <v>0</v>
-    <v>78.599999999999994</v>
-    <v>77.78</v>
-    <v>77.94</v>
+    <v>77.650000000000006</v>
+    <v>79.59</v>
+    <v>80</v>
     <v>510412000</v>
     <v>SYY</v>
     <v>SYSCO CORPORATION (XNYS:SYY)</v>
-    <v>3149016</v>
-    <v>2475204</v>
+    <v>1685678</v>
+    <v>2498224</v>
     <v>1969</v>
   </rv>
   <rv s="2">
@@ -3693,18 +3693,18 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>27</v>
+    <v>26</v>
     <v>Unity Software Inc (XNYS:U)</v>
     <v>2</v>
-    <v>28</v>
+    <v>27</v>
     <v>Finance</v>
     <v>4</v>
     <v>174.94</v>
     <v>65.11</v>
-    <v>-3.03</v>
-    <v>-3.0830000000000002E-3</v>
-    <v>-3.0196999999999998E-2</v>
-    <v>-0.3</v>
+    <v>-1.83</v>
+    <v>5.0619999999999997E-3</v>
+    <v>-1.9739E-2</v>
+    <v>0.46</v>
     <v>USD</v>
     <v>Unity Software Inc. (Unity) is a platform for creating and operating interactive, real-time three-dimensional content. The platform provides a set of software solutions to create, run and monetize interactive, real-time two-dimensional (2D) and three-dimensional (3D) content for mobile phones, tablets, personal computers, consoles, and augmented and virtual reality devices. Content made with Unity is real-time, allowing it to instantly adapt to user's behavior and feedback. Unity’s Create Solutions are used by content creators, developers, artists, designers, engineers, and architects to create interactive, real-time 2D and 3D content. The Company’s Operate Solutions offers customers the ability to engage their end-user base, as well as run and monetize their content.</v>
     <v>4001</v>
@@ -3712,25 +3712,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>30 - 3Rd Street, SAN FRANCISCO, CA, 94103 US</v>
-    <v>100.76</v>
+    <v>92.06</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44278.999373367966</v>
+    <v>44280.999918853908</v>
     <v>206</v>
-    <v>96.75</v>
-    <v>27884940000</v>
+    <v>88.286799999999999</v>
+    <v>25764520000</v>
     <v>Unity Software Inc</v>
     <v>Unity Software Inc</v>
-    <v>99.66</v>
+    <v>90</v>
     <v>0</v>
-    <v>100.34</v>
-    <v>97.31</v>
-    <v>97.01</v>
+    <v>92.71</v>
+    <v>90.88</v>
+    <v>91.34</v>
     <v>277904500</v>
     <v>U</v>
     <v>Unity Software Inc (XNYS:U)</v>
-    <v>5384782</v>
-    <v>5740714</v>
+    <v>6043708</v>
+    <v>5627335</v>
   </rv>
   <rv s="2">
     <v>207</v>
@@ -3750,14 +3750,14 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>41.37</v>
     <v>8.2799999999999994</v>
-    <v>1.2678</v>
-    <v>-0.71</v>
-    <v>1.3318000000000002E-2</v>
-    <v>-2.0142000000000004E-2</v>
-    <v>0.46</v>
+    <v>1.2264999999999999</v>
+    <v>0.36</v>
+    <v>1.5886999999999998E-2</v>
+    <v>1.0909E-2</v>
+    <v>0.53</v>
     <v>USD</v>
     <v>United Natural Foods, Inc. is a distributor and retailer of natural, organic and specialty products. The Company's segments include Wholesale and Other. The Wholesale segment is engaged in the national distribution of natural, organic and specialty foods, produce and related products in the United States and Canada. The Other segment includes a retail division, which engages in the sale of natural foods and related products to the general public through retail storefronts on the east coast of the United States; a manufacturing division, which engages in importing, roasting and packaging of nuts, seeds, dried fruit and snack items, and its branded product lines. Its operations consist of three operating divisions: Wholesale Division, Retail Division, and Manufacturing and Branded Products divisions. As of October 22, 2018, the Company had offered 110,000 natural, organic and specialty foods, and non-food products, consisting of national, regional and private-label brands.</v>
     <v>28300</v>
@@ -3765,25 +3765,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>313 Iron Horse Way, PROVIDENCE, RI, 02908-5637 US</v>
-    <v>35.520099999999999</v>
+    <v>34.200000000000003</v>
     <v>Food &amp; Drug Retailing</v>
     <v>Stock</v>
-    <v>44278.958333378905</v>
+    <v>44280.958333378905</v>
     <v>209</v>
-    <v>33.04</v>
-    <v>1984435000</v>
+    <v>32.020000000000003</v>
+    <v>1857769000</v>
     <v>UNITED NATURAL FOODS, INC.</v>
     <v>UNITED NATURAL FOODS, INC.</v>
-    <v>34.71</v>
-    <v>10.053699999999999</v>
-    <v>35.25</v>
-    <v>34.54</v>
-    <v>35</v>
+    <v>32.630000000000003</v>
+    <v>9.4120000000000008</v>
+    <v>33</v>
+    <v>33.36</v>
+    <v>33.89</v>
     <v>56296040</v>
     <v>UNFI</v>
     <v>UNITED NATURAL FOODS, INC. (XNYS:UNFI)</v>
-    <v>877089</v>
-    <v>1505760</v>
+    <v>1027610</v>
+    <v>1520587</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -3798,7 +3798,7 @@
     <v>212</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_5b37be53a6ed99b31f30d5033258ad9e&amp;qlt=95</v>
     <v>213</v>
     <v>0</v>
@@ -3823,11 +3823,11 @@
     <v>4</v>
     <v>178.01</v>
     <v>88.35</v>
-    <v>0.99250000000000005</v>
-    <v>-1.1499999999999999</v>
-    <v>-3.1270000000000001E-4</v>
-    <v>-7.1399999999999996E-3</v>
-    <v>-0.05</v>
+    <v>0.99450000000000005</v>
+    <v>3.34</v>
+    <v>0</v>
+    <v>2.0886999999999999E-2</v>
+    <v>0</v>
     <v>USD</v>
     <v>United Parcel Service, Inc. (UPS) is a package delivery company. The Company is a provider of global supply chain management solutions. The Company operates through three segments: U.S. Domestic Package operations, International Package operations, and Supply Chain &amp; Freight operations. As of December 31, 2016, the Company delivered packages in over 220 countries and territories. The Company offers a spectrum of the United States domestic guaranteed ground and air package transportation services. The International Package segment includes the small package operations in Europe, Asia-Pacific, Canada and Latin America, the Indian sub-continent, the Middle East and Africa. The Supply Chain &amp; Freight segment includes its forwarding and logistics services, truckload freight brokerage, UPS Freight and its financial offerings through UPS Capital. The Company serves the global market for logistics services, which include transportation, distribution, contract logistics and ground freight.</v>
     <v>543000</v>
@@ -3835,26 +3835,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>55 Glenlake Parkway Ne, ATLANTA, GA, 30328 US</v>
-    <v>162.16</v>
+    <v>163.65</v>
     <v>214</v>
     <v>Freight &amp; Logistics Services</v>
     <v>Stock</v>
-    <v>44278.996698760937</v>
+    <v>44280.99589247656</v>
     <v>215</v>
-    <v>159.2345</v>
-    <v>139645200000</v>
+    <v>158.69999999999999</v>
+    <v>138648100000</v>
     <v>UNITED PARCEL SERVICE, INC.</v>
     <v>UNITED PARCEL SERVICE, INC.</v>
-    <v>159.69999999999999</v>
-    <v>104.4718</v>
-    <v>161.06</v>
+    <v>159.5</v>
+    <v>103.7259</v>
     <v>159.91</v>
-    <v>159.86000000000001</v>
+    <v>163.25</v>
+    <v>163.25</v>
     <v>867038500</v>
     <v>UPS</v>
     <v>UNITED PARCEL SERVICE, INC. (XNYS:UPS)</v>
-    <v>2920656</v>
-    <v>3649334</v>
+    <v>2944517</v>
+    <v>3624728</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -3870,43 +3870,43 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>35</v>
+    <v>33</v>
     <v>The Valens Company Inc. (OTCM:VLNCF)</v>
     <v>2</v>
-    <v>36</v>
+    <v>34</v>
     <v>Finance</v>
-    <v>18</v>
+    <v>17</v>
     <v>2.33</v>
     <v>1.04</v>
-    <v>1.6560999999999999</v>
-    <v>0.02</v>
-    <v>-5.2910000000000006E-3</v>
-    <v>1.0695E-2</v>
-    <v>-0.01</v>
+    <v>1.6722999999999999</v>
+    <v>1.29E-2</v>
+    <v>-3.2500000000000003E-3</v>
+    <v>6.4920000000000004E-3</v>
+    <v>-6.4999999999999997E-3</v>
     <v>USD</v>
     <v>The Valens Company Inc., formerly Valens GroWorks Corp., is a Canada-based cannabis company. The Company is focused on offering its solutions to Canadian and international cannabis brands. The Company’s services include carbon dioxide (CO2), ethanol, hydrocarbon, solvent-less and terpene extraction, analytical testing, formulation and white label product development. Its subsidiary Valens Labs operates a cannabis testing lab and provides analytical services. The Company is also focused on offering cannabis-infused beverages. The Company’s subsidiary, Southern Cliff Brands Inc., manufactures hard cider in the manufacturing facility in Greater Toronto Area.</v>
     <v>OTC Markets</v>
     <v>OTCM</v>
     <v>OTCM</v>
     <v>230 Carion Rd, KELOWNA, BC, V4V 2K5 CA</v>
-    <v>1.9</v>
+    <v>2.02</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>44278.888888888891</v>
+    <v>44281.006944444445</v>
     <v>218</v>
-    <v>1.75</v>
-    <v>368167500</v>
+    <v>1.91</v>
+    <v>398449700</v>
     <v>The Valens Company Inc.</v>
     <v>The Valens Company Inc.</v>
-    <v>1.87</v>
+    <v>2</v>
     <v>404.61419999999998</v>
-    <v>1.87</v>
-    <v>1.89</v>
-    <v>1.88</v>
+    <v>1.9871000000000001</v>
+    <v>2</v>
+    <v>1.9935</v>
     <v>159379900</v>
     <v>VLNCF</v>
     <v>The Valens Company Inc. (OTCM:VLNCF)</v>
-    <v>273832</v>
+    <v>884413</v>
     <v>1981</v>
   </rv>
   <rv s="2">
@@ -3921,7 +3921,7 @@
     <v>221</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_7164d75e5377c943c39f742c0b21f6b1&amp;qlt=95</v>
     <v>222</v>
     <v>0</v>
@@ -3943,14 +3943,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>61.35</v>
-    <v>25.1</v>
-    <v>1.1776</v>
-    <v>-2.44</v>
-    <v>1.0526000000000001E-2</v>
-    <v>-4.7068000000000006E-2</v>
-    <v>0.52</v>
+    <v>29.82</v>
+    <v>1.1742999999999999</v>
+    <v>1.6</v>
+    <v>-8.855E-3</v>
+    <v>3.3271000000000002E-2</v>
+    <v>-0.44</v>
     <v>USD</v>
     <v>ViaSat, Inc. is engaged in broadband technologies and services. The Company operates through three segments: satellite services, commercial networks and government systems. The satellite services segment provides satellite-based broadband services to consumers, enterprises, commercial airlines and mobile broadband customers primarily in the United States. The commercial networks segment develops and produces a range of end-to-end satellite and wireless communication systems, ground networking equipment and space-to-earth connectivity systems. The government systems segment develops and produces network-centric Internet Protocol (IP)-based fixed and mobile secure government communications systems, products, services and solutions, which are designed to enable the collection and dissemination of real-time digital information between command centers, communications nodes and air defense systems.</v>
     <v>6100</v>
@@ -3958,26 +3958,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>6155 El Camino Real, CARLSBAD, CA, 92009 US</v>
-    <v>52.6</v>
+    <v>49.91</v>
     <v>223</v>
     <v>Communications &amp; Networking</v>
     <v>Stock</v>
-    <v>44278.988237835154</v>
+    <v>44280.941143171091</v>
     <v>224</v>
-    <v>48.81</v>
-    <v>3551316000</v>
+    <v>47.3</v>
+    <v>3294421000</v>
     <v>VIASAT, INC.</v>
     <v>VIASAT, INC.</v>
-    <v>52.145000000000003</v>
+    <v>47.4</v>
     <v>6012.8379999999997</v>
-    <v>51.84</v>
-    <v>49.4</v>
-    <v>49.92</v>
+    <v>48.09</v>
+    <v>49.69</v>
+    <v>49.25</v>
     <v>68505330</v>
     <v>VSAT</v>
     <v>VIASAT, INC. (XNAS:VSAT)</v>
-    <v>502688</v>
-    <v>712991</v>
+    <v>370956</v>
+    <v>691955</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -3992,7 +3992,7 @@
     <v>227</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_97bd8dad8c0360a49d8c3a8c9f408be5&amp;qlt=95</v>
     <v>228</v>
     <v>0</v>
@@ -4017,11 +4017,11 @@
     <v>4</v>
     <v>41.54</v>
     <v>20.76</v>
-    <v>1.3205</v>
-    <v>-0.74</v>
-    <v>-3.4000000000000002E-3</v>
-    <v>-1.8988999999999999E-2</v>
-    <v>-0.13</v>
+    <v>1.3141</v>
+    <v>1.18</v>
+    <v>1.145E-2</v>
+    <v>3.0955E-2</v>
+    <v>0.45</v>
     <v>USD</v>
     <v>Wells Fargo &amp; Company is a bank holding company. The Company is a diversified financial services company. It has three operating segments: Community Banking, Wholesale Banking, and Wealth and Investment Management. The Company offers its services under three categories: personal, small business and commercial. It provides retail, commercial and corporate banking services through banking locations and offices, the Internet and other distribution channels to individuals, businesses and institutions in all 50 states, the District of Columbia and in other countries. It provides other financial services through its subsidiaries engaged in various businesses, including wholesale banking, mortgage banking, consumer finance, equipment leasing, agricultural finance, commercial finance, securities brokerage and investment banking, computer and data processing services, investment advisory services, mortgage-backed securities servicing and venture capital investment.</v>
     <v>200000</v>
@@ -4029,26 +4029,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>420 Montgomery St, SAN FRANCISCO, CA, 94104-1207 US</v>
-    <v>39.046599999999998</v>
+    <v>39.36</v>
     <v>229</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>44278.999158587503</v>
+    <v>44280.999447928123</v>
     <v>230</v>
-    <v>38.049999999999997</v>
-    <v>161107600000</v>
+    <v>37.78</v>
+    <v>157593600000</v>
     <v>WELLS FARGO &amp; COMPANY</v>
     <v>WELLS FARGO &amp; COMPANY</v>
-    <v>38.479999999999997</v>
-    <v>97.752499999999998</v>
-    <v>38.97</v>
-    <v>38.229999999999997</v>
-    <v>38.1</v>
+    <v>37.97</v>
+    <v>95.6203</v>
+    <v>38.119999999999997</v>
+    <v>39.299999999999997</v>
+    <v>39.75</v>
     <v>4134145000</v>
     <v>WFC</v>
     <v>WELLS FARGO &amp; COMPANY (XNYS:WFC)</v>
-    <v>32492294</v>
-    <v>38265956</v>
+    <v>28772999</v>
+    <v>35862000</v>
     <v>1929</v>
   </rv>
   <rv s="2">
@@ -4063,7 +4063,7 @@
     <v>233</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_b17bb7db52aff24e38d640fab681ff30&amp;qlt=95</v>
     <v>234</v>
     <v>0</v>
@@ -4085,14 +4085,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>172.87</v>
-    <v>54.814599999999999</v>
-    <v>1.2597</v>
-    <v>-1.48</v>
-    <v>5.3879999999999998E-4</v>
-    <v>-1.1262000000000001E-2</v>
-    <v>7.0000000000000007E-2</v>
+    <v>65.953599999999994</v>
+    <v>1.2705</v>
+    <v>-2.63</v>
+    <v>2.2720000000000001E-3</v>
+    <v>-2.0898E-2</v>
+    <v>0.28000000000000003</v>
     <v>USD</v>
     <v>Wingstop Inc. is franchisor and operator of restaurants that specializes in cooked-to-order, hand-sauced and tossed chicken wings. The Company operates through two segments: Franchise and Company. The Company operates its chicken wings-focused restaurant chain in over 1,400 locations worldwide. It offers classic wings, boneless wings and tenders, always cooked to order and hand-sauced-and-tossed in 11 distinctive flavors. It offers various order options, including eat-in, to go, individual, combo meals and family packs. It markets Wingstop products, services and restaurants through the Website, www.wingstop.com.</v>
     <v>819</v>
@@ -4100,26 +4100,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>5501 Lyndon B Johnson Fwy Fl 5, DALLAS, TX, 75240-6225 US</v>
-    <v>132.5</v>
+    <v>124.41</v>
     <v>235</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>44278.988456388281</v>
+    <v>44280.992030914065</v>
     <v>236</v>
-    <v>129.54</v>
-    <v>3901301000</v>
+    <v>120.4815</v>
+    <v>3736236000</v>
     <v>WINGSTOP INC.</v>
     <v>WINGSTOP INC.</v>
-    <v>131.08000000000001</v>
-    <v>168.1962</v>
-    <v>131.41</v>
-    <v>129.93</v>
-    <v>130</v>
+    <v>124.41</v>
+    <v>161.07980000000001</v>
+    <v>125.85</v>
+    <v>123.22</v>
+    <v>123.5</v>
     <v>29688010</v>
     <v>WING</v>
     <v>WINGSTOP INC. (XNAS:WING)</v>
-    <v>429848</v>
-    <v>709159</v>
+    <v>738611</v>
+    <v>654931</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -4134,7 +4134,7 @@
     <v>239</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_5e7d3642a4c7b151c5a535b3122e2f24&amp;qlt=95</v>
     <v>240</v>
     <v>0</v>
@@ -4156,14 +4156,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>9</v>
-    <v>125.56</v>
+    <v>4</v>
+    <v>127.56</v>
     <v>85.34</v>
-    <v>0.77729999999999999</v>
-    <v>0.73</v>
-    <v>0</v>
-    <v>5.9170000000000004E-3</v>
-    <v>0</v>
+    <v>0.76900000000000002</v>
+    <v>2.61</v>
+    <v>2.1190000000000002E-3</v>
+    <v>2.0910000000000002E-2</v>
+    <v>0.27</v>
     <v>USD</v>
     <v>Waste Management, Inc. (WM) is a holding company. The Company, through its subsidiaries, is a provider of waste management environmental services. The Company's segments include Solid Waste and Other. The Company's Solid Waste segment includes its solid waste business. The Other segment includes its Strategic Business Solutions (WMSBS) organization; its landfill gas-to-energy operations and third-party subcontract and administration services managed by its Energy and Environmental Services and WM Renewable Energy organizations; recycling, materials processing and recycling commodities services.</v>
     <v>48250</v>
@@ -4171,26 +4171,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1001 Fannin St, HOUSTON, TX, 77002-6706 US</v>
-    <v>124.81</v>
+    <v>127.56</v>
     <v>241</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>44278.981225671094</v>
+    <v>44280.958333333336</v>
     <v>242</v>
-    <v>122.76</v>
-    <v>52204380000</v>
+    <v>124.425</v>
+    <v>52817950000</v>
     <v>WASTE MANAGEMENT, INC.</v>
     <v>WASTE MANAGEMENT, INC.</v>
-    <v>123.26</v>
-    <v>35.153199999999998</v>
-    <v>123.37</v>
-    <v>124.1</v>
-    <v>124.1</v>
+    <v>125.43</v>
+    <v>35.566299999999998</v>
+    <v>124.82</v>
+    <v>127.43</v>
+    <v>127.7</v>
     <v>423153000</v>
     <v>WM</v>
     <v>WASTE MANAGEMENT, INC. (XNYS:WM)</v>
-    <v>1961525</v>
-    <v>2672536</v>
+    <v>2953290</v>
+    <v>2667424</v>
     <v>1995</v>
   </rv>
   <rv s="2">
@@ -4205,7 +4205,7 @@
     <v>245</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_bda71e2736b0e1c236099c12cbe43c51&amp;qlt=95</v>
     <v>246</v>
     <v>0</v>
@@ -4230,38 +4230,38 @@
     <v>4</v>
     <v>153.65969999999999</v>
     <v>106.8466</v>
-    <v>0.47320000000000001</v>
-    <v>1.59</v>
-    <v>2.9110000000000004E-3</v>
-    <v>1.2012E-2</v>
-    <v>0.39</v>
+    <v>0.47470000000000001</v>
+    <v>0.9</v>
+    <v>6.7159999999999995E-4</v>
+    <v>6.7610000000000005E-3</v>
+    <v>0.09</v>
     <v>USD</v>
     <v>Walmart Inc., formerly Wal-Mart Stores, Inc., is engaged in the operation of retail, wholesale and other units in various formats around the world. The Company offers an assortment of merchandise and services at everyday low prices (EDLP). The Company operates through three segments: Walmart U.S., Walmart International and Sam's Club. The Walmart U.S. segment includes the Company's mass merchant concept in the United States operating under the Walmart brands, as well as digital retail. The Walmart International segment consists of the Company's operations outside of the United States, including various retail Websites. The Sam's Club segment includes the warehouse membership clubs in the United States, as well as samsclub.com. The Company operates approximately 11,600 stores under 59 banners in 28 countries and e-commerce Websites in 11 countries.</v>
-    <v>2200000</v>
+    <v>2300000</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>702 SW 8th St, BENTONVILLE, AR, 72716-6209 US</v>
-    <v>134.30000000000001</v>
+    <v>134.5301</v>
     <v>247</v>
     <v>Food &amp; Drug Retailing</v>
     <v>Stock</v>
-    <v>44278.999978796091</v>
+    <v>44280.999927974219</v>
     <v>248</v>
-    <v>131.63999999999999</v>
-    <v>372895800000</v>
+    <v>132.87</v>
+    <v>374980400000</v>
     <v>WALMART INC.</v>
     <v>WALMART INC.</v>
-    <v>131.72</v>
-    <v>27.941700000000001</v>
-    <v>132.37</v>
-    <v>133.96</v>
-    <v>134.35</v>
+    <v>133.26</v>
+    <v>28.097899999999999</v>
+    <v>133.11000000000001</v>
+    <v>134.01</v>
+    <v>134.1</v>
     <v>2817072000</v>
     <v>WMT</v>
     <v>WALMART INC. (XNYS:WMT)</v>
-    <v>9718262</v>
-    <v>12286463</v>
+    <v>9375334</v>
+    <v>12270256</v>
     <v>1969</v>
   </rv>
   <rv s="2">
@@ -4276,7 +4276,7 @@
     <v>251</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_11f337f28f1d62127217daf91c38bf2e&amp;qlt=95</v>
     <v>252</v>
     <v>0</v>
@@ -4298,14 +4298,14 @@
     <v>7</v>
     <v>8</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>24.71</v>
-    <v>5.0999999999999996</v>
-    <v>2.2465999999999999</v>
-    <v>-1.93</v>
-    <v>-2.5180000000000003E-3</v>
-    <v>-8.8572999999999999E-2</v>
-    <v>-0.05</v>
+    <v>5.46</v>
+    <v>2.2082999999999999</v>
+    <v>0.8</v>
+    <v>1.3746000000000001E-2</v>
+    <v>4.0879000000000006E-2</v>
+    <v>0.28000000000000003</v>
     <v>USD</v>
     <v>United States Steel Corporation (U.S Steel) is an integrated steel producer. The Company is engaged in producing flat-rolled and tubular products with production operations in North America and Europe. The Company operates through three segments: Flat-Rolled Products (Flat-Rolled), U. S. Steel Europe (USSE) and Tubular Products (Tubular). The Company's other businesses include railroad services and real estate operations. The Company owns, develops and manages various real estate assets, including approximately 50,000 acres of surface rights primarily in Alabama, Illinois, Michigan, Minnesota and Pennsylvania. In addition, the Company holds ownership interests in joint ventures that are developing real estate projects in Alabama.</v>
     <v>23350</v>
@@ -4313,26 +4313,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>600 Grant St Room 1500, PITTSBURGH, PA, 15219-2800 US</v>
-    <v>21.8</v>
+    <v>20.669899999999998</v>
     <v>253</v>
     <v>Metals &amp; Mining</v>
     <v>Stock</v>
-    <v>44278.995860647658</v>
+    <v>44280.9996617125</v>
     <v>254</v>
-    <v>19.29</v>
-    <v>5856767000</v>
+    <v>18.61</v>
+    <v>5260070000</v>
     <v>UNITED STATES STEEL CORPORATION</v>
     <v>UNITED STATES STEEL CORPORATION</v>
-    <v>21.17</v>
+    <v>19.18</v>
     <v>0</v>
-    <v>21.79</v>
-    <v>19.86</v>
-    <v>19.809999999999999</v>
+    <v>19.57</v>
+    <v>20.37</v>
+    <v>20.65</v>
     <v>268782300</v>
     <v>X</v>
     <v>UNITED STATES STEEL CORPORATION (XNYS:X)</v>
-    <v>19238848</v>
-    <v>21571383</v>
+    <v>21803894</v>
+    <v>20946699</v>
     <v>2001</v>
   </rv>
   <rv s="2">
@@ -4348,38 +4348,38 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
+    <v>11</v>
+    <v>SPDR S&amp;P Biotech (ARCX:XBI)</v>
     <v>12</v>
-    <v>SPDR S&amp;P Biotech (ARCX:XBI)</v>
     <v>13</v>
+    <v>Finance</v>
     <v>14</v>
-    <v>Finance</v>
-    <v>15</v>
     <v>174.79</v>
-    <v>66.075000000000003</v>
+    <v>72.38</v>
     <v>0.92320000000000002</v>
-    <v>-8.58</v>
-    <v>-5.775E-4</v>
-    <v>-5.8319999999999997E-2</v>
-    <v>-0.08</v>
+    <v>3.79</v>
+    <v>1.4790000000000001E-3</v>
+    <v>2.8839E-2</v>
+    <v>0.2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>3.4999999999999996E-3</v>
-    <v>145.97999999999999</v>
+    <v>135.4</v>
     <v>ETF</v>
-    <v>44278.997923414063</v>
+    <v>44281.000000022657</v>
     <v>257</v>
-    <v>137.733</v>
+    <v>128.67500000000001</v>
     <v>7845924461.9300003</v>
     <v>SPDR S&amp;P Biotech</v>
-    <v>145.68</v>
-    <v>147.12</v>
-    <v>138.54</v>
-    <v>138.46</v>
+    <v>129.57</v>
+    <v>131.41999999999999</v>
+    <v>135.21</v>
+    <v>135.41</v>
     <v>XBI</v>
     <v>SPDR S&amp;P Biotech (ARCX:XBI)</v>
-    <v>9515504</v>
-    <v>7484539</v>
+    <v>12227628</v>
+    <v>7768863</v>
   </rv>
   <rv s="2">
     <v>258</v>
@@ -4393,7 +4393,7 @@
     <v>260</v>
   </rv>
   <rv s="4">
-    <v>10</v>
+    <v>9</v>
     <v>https://www.bing.com/th?id=AMMS_66c7cc0d1d7e311c31b7691f3046610a&amp;qlt=95</v>
     <v>261</v>
     <v>0</v>
@@ -4410,19 +4410,19 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>32</v>
+    <v>30</v>
     <v>ZILLOW GROUP, INC. (XNAS:Z)</v>
     <v>7</v>
-    <v>33</v>
+    <v>31</v>
     <v>Finance</v>
     <v>4</v>
     <v>208.11</v>
-    <v>26.22</v>
-    <v>1.3805000000000001</v>
-    <v>-3.42</v>
-    <v>7.4349999999999991E-5</v>
-    <v>-2.4799000000000002E-2</v>
-    <v>0.01</v>
+    <v>29.42</v>
+    <v>1.4049</v>
+    <v>-2.44</v>
+    <v>7.045E-3</v>
+    <v>-1.9157999999999998E-2</v>
+    <v>0.88</v>
     <v>USD</v>
     <v>Zillow Group, Inc. owns and operates a portfolio of real estate and home related brands on mobile and Web. The Company's brands focus on all stages of the home lifecycle: renting, buying, selling and financing. The Company also provides consumers with data to find around homes, and connects them with the local professionals to help. The Company’s portfolio of consumer brands includes real estate and rental marketplaces Zillow, Trulia, StreetEasy, HotPads, Naked Apartments and RealEstate.com. In addition, Zillow Group provides a comprehensive suite of marketing software and technology solutions to help real estate, rental and mortgage professionals. The Company operates a number of business brands for real estate, rental and mortgage professionals, including Mortech, dotloop and Bridge Interactive.</v>
     <v>5504</v>
@@ -4430,25 +4430,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1301 2nd Ave Fl 31, SEATTLE, WA, 98101-0003 US</v>
-    <v>139.16</v>
+    <v>127.57989999999999</v>
     <v>262</v>
     <v>Real Estate Operations</v>
     <v>Stock</v>
-    <v>44278.999557383591</v>
+    <v>44280.999838147654</v>
     <v>263</v>
-    <v>132.68010000000001</v>
-    <v>33592020000</v>
+    <v>120.22</v>
+    <v>31044980000</v>
     <v>ZILLOW GROUP, INC.</v>
     <v>ZILLOW GROUP, INC.</v>
-    <v>137.94999999999999</v>
-    <v>137.91</v>
-    <v>134.49</v>
-    <v>134.5</v>
+    <v>122.73</v>
+    <v>127.36</v>
+    <v>124.92</v>
+    <v>125.8</v>
     <v>240659600</v>
     <v>Z</v>
     <v>ZILLOW GROUP, INC. (XNAS:Z)</v>
-    <v>1867480</v>
-    <v>4515466</v>
+    <v>4889994</v>
+    <v>4291032</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -4464,19 +4464,19 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>32</v>
+    <v>30</v>
     <v>ZILLOW GROUP, INC. (XNAS:ZG)</v>
     <v>7</v>
-    <v>33</v>
+    <v>31</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>212.4</v>
-    <v>25.17</v>
-    <v>1.3805000000000001</v>
-    <v>-3.01</v>
-    <v>5.2529999999999999E-3</v>
-    <v>-2.0919E-2</v>
-    <v>0.74</v>
+    <v>28.26</v>
+    <v>1.4049</v>
+    <v>-1.87</v>
+    <v>4.9490000000000003E-3</v>
+    <v>-1.4036999999999999E-2</v>
+    <v>0.65</v>
     <v>USD</v>
     <v>Zillow Group, Inc. owns and operates a portfolio of real estate and home related brands on mobile and Web. The Company's brands focus on all stages of the home lifecycle: renting, buying, selling and financing. The Company also provides consumers with data to find around homes, and connects them with the local professionals to help. The Company’s portfolio of consumer brands includes real estate and rental marketplaces Zillow, Trulia, StreetEasy, HotPads, Naked Apartments and RealEstate.com. In addition, Zillow Group provides a comprehensive suite of marketing software and technology solutions to help real estate, rental and mortgage professionals. The Company operates a number of business brands for real estate, rental and mortgage professionals, including Mortech, dotloop and Bridge Interactive.</v>
     <v>5504</v>
@@ -4484,25 +4484,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1301 2nd Ave Fl 31, SEATTLE, WA, 98101-0003 US</v>
-    <v>144.97999999999999</v>
+    <v>134.22</v>
     <v>262</v>
     <v>Real Estate Operations</v>
     <v>Stock</v>
-    <v>44278.915001863279</v>
+    <v>44280.999582650002</v>
     <v>266</v>
-    <v>138.96</v>
-    <v>33592020000</v>
+    <v>126.61</v>
+    <v>31044980000</v>
     <v>ZILLOW GROUP, INC.</v>
     <v>ZILLOW GROUP, INC.</v>
-    <v>144.15</v>
-    <v>143.88999999999999</v>
-    <v>140.88</v>
-    <v>141.62</v>
+    <v>129.37</v>
+    <v>133.22</v>
+    <v>131.35</v>
+    <v>132</v>
     <v>240659600</v>
     <v>ZG</v>
     <v>ZILLOW GROUP, INC. (XNAS:ZG)</v>
-    <v>441992</v>
-    <v>1040553</v>
+    <v>703218</v>
+    <v>991767</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -5613,7 +5613,7 @@
       <v t="s">%ProviderInfo</v>
     </a>
   </spbArrays>
-  <spbData count="37">
+  <spbData count="35">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -5637,59 +5637,6 @@
       <v>1</v>
       <v>3</v>
       <v>1</v>
-      <v>1</v>
-      <v>1</v>
-      <v>4</v>
-      <v>4</v>
-      <v>5</v>
-      <v>6</v>
-      <v>1</v>
-      <v>1</v>
-      <v>1</v>
-      <v>4</v>
-      <v>7</v>
-      <v>8</v>
-      <v>9</v>
-      <v>10</v>
-      <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
-    </spb>
-    <spb s="4">
-      <v>at close</v>
-      <v>from previous close</v>
-      <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
-      <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
-    </spb>
-    <spb s="0">
-      <v>1</v>
-      <v>Name</v>
-      <v>LearnMoreOnLink</v>
-    </spb>
-    <spb s="5">
-      <v>0</v>
-      <v>0</v>
-    </spb>
-    <spb s="6">
-      <v>6</v>
-      <v>1</v>
-      <v>1</v>
-      <v>1</v>
-      <v>1</v>
-    </spb>
-    <spb s="7">
-      <v>1</v>
-      <v>2</v>
-      <v>2</v>
-      <v>1</v>
-      <v>3</v>
-      <v>1</v>
-      <v>11</v>
       <v>1</v>
       <v>1</v>
       <v>4</v>
@@ -5719,6 +5666,49 @@
       <v>from close</v>
       <v>from close</v>
     </spb>
+    <spb s="0">
+      <v>1</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="5">
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="6">
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="7">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>11</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>10</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
     <spb s="8">
       <v>Powered by Refinitiv</v>
     </spb>
@@ -5784,10 +5774,10 @@
     <spb s="11">
       <v>at close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>from previous close</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -6003,16 +5993,6 @@
       <v>1</v>
       <v>1</v>
       <v>5</v>
-    </spb>
-    <spb s="11">
-      <v>at close</v>
-      <v>from previous close</v>
-      <v>Source: Nasdaq</v>
-      <v>from previous close</v>
-      <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
     <spb s="0">
       <v>10</v>
@@ -6870,19 +6850,19 @@
       </c>
       <c r="D2" s="1" cm="1">
         <f t="array" ref="D2">_FV(B58,"Open")</f>
-        <v>23.37</v>
+        <v>21.25</v>
       </c>
       <c r="E2" s="1" cm="1">
         <f t="array" ref="E2">_FV(B58,"Previous close",TRUE)</f>
-        <v>23.83</v>
+        <v>21.81</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2">_FV(B58,"High")</f>
-        <v>23.66</v>
+        <v>22.914999999999999</v>
       </c>
       <c r="G2" s="1" cm="1">
         <f t="array" ref="G2">_FV(B58,"Low")</f>
-        <v>22.08</v>
+        <v>21.02</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -6898,19 +6878,19 @@
       </c>
       <c r="D3" s="1" cm="1">
         <f t="array" ref="D3">_FV(B59,"Open")</f>
-        <v>11.46</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="E3" s="1" cm="1">
         <f t="array" ref="E3">_FV(B59,"Previous close",TRUE)</f>
-        <v>12.49</v>
+        <v>9.02</v>
       </c>
       <c r="F3" s="1" cm="1">
         <f t="array" ref="F3">_FV(B59,"High")</f>
-        <v>11.93</v>
+        <v>11.315</v>
       </c>
       <c r="G3" s="1" cm="1">
         <f t="array" ref="G3">_FV(B59,"Low")</f>
-        <v>10.37</v>
+        <v>8.9499999999999993</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -6926,19 +6906,19 @@
       </c>
       <c r="D4" s="1" cm="1">
         <f t="array" ref="D4">_FV(B60,"Open")</f>
-        <v>80.11</v>
+        <v>75.849999999999994</v>
       </c>
       <c r="E4" s="1" cm="1">
         <f t="array" ref="E4">_FV(B60,"Previous close",TRUE)</f>
-        <v>80.3</v>
+        <v>76.48</v>
       </c>
       <c r="F4" s="1" cm="1">
         <f t="array" ref="F4">_FV(B60,"High")</f>
-        <v>80.34</v>
+        <v>76.95</v>
       </c>
       <c r="G4" s="1" cm="1">
         <f t="array" ref="G4">_FV(B60,"Low")</f>
-        <v>77.95</v>
+        <v>74.959999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -6954,19 +6934,19 @@
       </c>
       <c r="D5" s="1" cm="1">
         <f t="array" ref="D5">_FV(B61,"Open")</f>
-        <v>18.5</v>
+        <v>16.78</v>
       </c>
       <c r="E5" s="1" cm="1">
         <f t="array" ref="E5">_FV(B61,"Previous close",TRUE)</f>
-        <v>18.760000000000002</v>
+        <v>17.45</v>
       </c>
       <c r="F5" s="1" cm="1">
         <f t="array" ref="F5">_FV(B61,"High")</f>
-        <v>19.065000000000001</v>
+        <v>17.97</v>
       </c>
       <c r="G5" s="1" cm="1">
         <f t="array" ref="G5">_FV(B61,"Low")</f>
-        <v>17.64</v>
+        <v>16.559999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -6982,19 +6962,19 @@
       </c>
       <c r="D6" s="1" cm="1">
         <f t="array" ref="D6">_FV(B62,"Open")</f>
-        <v>124.63500000000001</v>
+        <v>111.36</v>
       </c>
       <c r="E6" s="1" cm="1">
         <f t="array" ref="E6">_FV(B62,"Previous close",TRUE)</f>
-        <v>124.72</v>
+        <v>114.78</v>
       </c>
       <c r="F6" s="1" cm="1">
         <f t="array" ref="F6">_FV(B62,"High")</f>
-        <v>124.79049999999999</v>
+        <v>114.88</v>
       </c>
       <c r="G6" s="1" cm="1">
         <f t="array" ref="G6">_FV(B62,"Low")</f>
-        <v>121.15</v>
+        <v>110.39</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -7010,19 +6990,19 @@
       </c>
       <c r="D7" s="1" cm="1">
         <f t="array" ref="D7">_FV(B63,"Open")</f>
-        <v>154.58000000000001</v>
+        <v>138.16999999999999</v>
       </c>
       <c r="E7" s="1" cm="1">
         <f t="array" ref="E7">_FV(B63,"Previous close",TRUE)</f>
-        <v>154.37</v>
+        <v>142.59</v>
       </c>
       <c r="F7" s="1" cm="1">
         <f t="array" ref="F7">_FV(B63,"High")</f>
-        <v>154.74</v>
+        <v>142.57990000000001</v>
       </c>
       <c r="G7" s="1" cm="1">
         <f t="array" ref="G7">_FV(B63,"Low")</f>
-        <v>150.77000000000001</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -7038,19 +7018,19 @@
       </c>
       <c r="D8" s="1" cm="1">
         <f t="array" ref="D8">_FV(B64,"Open")</f>
-        <v>92.59</v>
+        <v>90.41</v>
       </c>
       <c r="E8" s="1" cm="1">
         <f t="array" ref="E8">_FV(B64,"Previous close",TRUE)</f>
-        <v>91.87</v>
+        <v>90.51</v>
       </c>
       <c r="F8" s="1" cm="1">
         <f t="array" ref="F8">_FV(B64,"High")</f>
-        <v>92.6</v>
+        <v>91.13</v>
       </c>
       <c r="G8" s="1" cm="1">
         <f t="array" ref="G8">_FV(B64,"Low")</f>
-        <v>91.08</v>
+        <v>89.06</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -7066,19 +7046,19 @@
       </c>
       <c r="D9" s="1" cm="1">
         <f t="array" ref="D9">_FV(B65,"Open")</f>
-        <v>37.33</v>
+        <v>36.869999999999997</v>
       </c>
       <c r="E9" s="1" cm="1">
         <f t="array" ref="E9">_FV(B65,"Previous close",TRUE)</f>
-        <v>37.659999999999997</v>
+        <v>36.9</v>
       </c>
       <c r="F9" s="1" cm="1">
         <f t="array" ref="F9">_FV(B65,"High")</f>
-        <v>37.82</v>
+        <v>37.75</v>
       </c>
       <c r="G9" s="1" cm="1">
         <f t="array" ref="G9">_FV(B65,"Low")</f>
-        <v>36.781100000000002</v>
+        <v>36.630000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -7094,19 +7074,19 @@
       </c>
       <c r="D10" s="1" cm="1">
         <f t="array" ref="D10">_FV(B66,"Open")</f>
-        <v>0.89249999999999996</v>
+        <v>0.87</v>
       </c>
       <c r="E10" s="1" cm="1">
         <f t="array" ref="E10">_FV(B66,"Previous close",TRUE)</f>
-        <v>0.89500000000000002</v>
+        <v>0.87</v>
       </c>
       <c r="F10" s="1" cm="1">
         <f t="array" ref="F10">_FV(B66,"High")</f>
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="G10" s="1" cm="1">
         <f t="array" ref="G10">_FV(B66,"Low")</f>
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -7122,19 +7102,19 @@
       </c>
       <c r="D11" s="1" cm="1">
         <f t="array" ref="D11">_FV(B67,"Open")</f>
-        <v>139.99</v>
+        <v>128.87</v>
       </c>
       <c r="E11" s="1" cm="1">
         <f t="array" ref="E11">_FV(B67,"Previous close",TRUE)</f>
-        <v>139.6</v>
+        <v>130.21</v>
       </c>
       <c r="F11" s="1" cm="1">
         <f t="array" ref="F11">_FV(B67,"High")</f>
-        <v>139.99</v>
+        <v>131.7963</v>
       </c>
       <c r="G11" s="1" cm="1">
         <f t="array" ref="G11">_FV(B67,"Low")</f>
-        <v>135.38999999999999</v>
+        <v>127.24</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -7150,19 +7130,19 @@
       </c>
       <c r="D12" s="1" cm="1">
         <f t="array" ref="D12">_FV(B68,"Open")</f>
-        <v>38.36</v>
+        <v>36.909999999999997</v>
       </c>
       <c r="E12" s="1" cm="1">
         <f t="array" ref="E12">_FV(B68,"Previous close",TRUE)</f>
-        <v>38.71</v>
+        <v>37.020000000000003</v>
       </c>
       <c r="F12" s="1" cm="1">
         <f t="array" ref="F12">_FV(B68,"High")</f>
-        <v>38.76</v>
+        <v>38.22</v>
       </c>
       <c r="G12" s="1" cm="1">
         <f t="array" ref="G12">_FV(B68,"Low")</f>
-        <v>37.49</v>
+        <v>36.909999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -7178,19 +7158,19 @@
       </c>
       <c r="D13" s="1" cm="1">
         <f t="array" ref="D13">_FV(B69,"Open")</f>
-        <v>47.23</v>
+        <v>44.79</v>
       </c>
       <c r="E13" s="1" cm="1">
         <f t="array" ref="E13">_FV(B69,"Previous close",TRUE)</f>
-        <v>47.97</v>
+        <v>45.61</v>
       </c>
       <c r="F13" s="1" cm="1">
         <f t="array" ref="F13">_FV(B69,"High")</f>
-        <v>47.82</v>
+        <v>47.215000000000003</v>
       </c>
       <c r="G13" s="1" cm="1">
         <f t="array" ref="G13">_FV(B69,"Low")</f>
-        <v>45.45</v>
+        <v>44.52</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -7206,19 +7186,19 @@
       </c>
       <c r="D14" s="1" cm="1">
         <f t="array" ref="D14">_FV(B70,"Open")</f>
-        <v>208</v>
+        <v>193.89</v>
       </c>
       <c r="E14" s="1" cm="1">
         <f t="array" ref="E14">_FV(B70,"Previous close",TRUE)</f>
-        <v>207.43</v>
+        <v>198.46</v>
       </c>
       <c r="F14" s="1" cm="1">
         <f t="array" ref="F14">_FV(B70,"High")</f>
-        <v>209.8</v>
+        <v>202.8</v>
       </c>
       <c r="G14" s="1" cm="1">
         <f t="array" ref="G14">_FV(B70,"Low")</f>
-        <v>206.11</v>
+        <v>192.5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -7234,19 +7214,19 @@
       </c>
       <c r="D15" s="1" cm="1">
         <f t="array" ref="D15">_FV(B71,"Open")</f>
-        <v>222.1</v>
+        <v>193.33</v>
       </c>
       <c r="E15" s="1" cm="1">
         <f t="array" ref="E15">_FV(B71,"Previous close",TRUE)</f>
-        <v>219.77</v>
+        <v>199.18</v>
       </c>
       <c r="F15" s="1" cm="1">
         <f t="array" ref="F15">_FV(B71,"High")</f>
-        <v>231.32</v>
+        <v>201.095</v>
       </c>
       <c r="G15" s="1" cm="1">
         <f t="array" ref="G15">_FV(B71,"Low")</f>
-        <v>218.09</v>
+        <v>190.5</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -7262,19 +7242,19 @@
       </c>
       <c r="D16" s="1" cm="1">
         <f t="array" ref="D16">_FV(B72,"Open")</f>
-        <v>293.37</v>
+        <v>280.98</v>
       </c>
       <c r="E16" s="1" cm="1">
         <f t="array" ref="E16">_FV(B72,"Previous close",TRUE)</f>
-        <v>293.54000000000002</v>
+        <v>282.14</v>
       </c>
       <c r="F16" s="1" cm="1">
         <f t="array" ref="F16">_FV(B72,"High")</f>
-        <v>298</v>
+        <v>288.06</v>
       </c>
       <c r="G16" s="1" cm="1">
         <f t="array" ref="G16">_FV(B72,"Low")</f>
-        <v>289.81</v>
+        <v>277.75</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -7290,19 +7270,19 @@
       </c>
       <c r="D17" s="1" cm="1">
         <f t="array" ref="D17">_FV(B73,"Open")</f>
-        <v>271.47000000000003</v>
+        <v>266.2</v>
       </c>
       <c r="E17" s="1" cm="1">
         <f t="array" ref="E17">_FV(B73,"Previous close",TRUE)</f>
-        <v>274.02</v>
+        <v>268.29000000000002</v>
       </c>
       <c r="F17" s="1" cm="1">
         <f t="array" ref="F17">_FV(B73,"High")</f>
-        <v>276.91989999999998</v>
+        <v>275.02</v>
       </c>
       <c r="G17" s="1" cm="1">
         <f t="array" ref="G17">_FV(B73,"Low")</f>
-        <v>265.55</v>
+        <v>263.94</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -7318,19 +7298,19 @@
       </c>
       <c r="D18" s="1" cm="1">
         <f t="array" ref="D18">_FV(B74,"Open")</f>
-        <v>225.31</v>
+        <v>194.75</v>
       </c>
       <c r="E18" s="1" cm="1">
         <f t="array" ref="E18">_FV(B74,"Previous close",TRUE)</f>
-        <v>225.5</v>
+        <v>202.88</v>
       </c>
       <c r="F18" s="1" cm="1">
         <f t="array" ref="F18">_FV(B74,"High")</f>
-        <v>229.4999</v>
+        <v>205.815</v>
       </c>
       <c r="G18" s="1" cm="1">
         <f t="array" ref="G18">_FV(B74,"Low")</f>
-        <v>219.26400000000001</v>
+        <v>190.54</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -7346,19 +7326,19 @@
       </c>
       <c r="D19" s="1" cm="1">
         <f t="array" ref="D19">_FV(B75,"Open")</f>
-        <v>61.7</v>
+        <v>58.48</v>
       </c>
       <c r="E19" s="1" cm="1">
         <f t="array" ref="E19">_FV(B75,"Previous close",TRUE)</f>
-        <v>61.45</v>
+        <v>58.62</v>
       </c>
       <c r="F19" s="1" cm="1">
         <f t="array" ref="F19">_FV(B75,"High")</f>
-        <v>62.02</v>
+        <v>60.27</v>
       </c>
       <c r="G19" s="1" cm="1">
         <f t="array" ref="G19">_FV(B75,"Low")</f>
-        <v>61</v>
+        <v>58.15</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -7374,19 +7354,19 @@
       </c>
       <c r="D20" s="1" cm="1">
         <f t="array" ref="D20">_FV(B76,"Open")</f>
-        <v>197.99</v>
+        <v>123.49</v>
       </c>
       <c r="E20" s="1" cm="1">
         <f t="array" ref="E20">_FV(B76,"Previous close",TRUE)</f>
-        <v>194.49</v>
+        <v>120.34</v>
       </c>
       <c r="F20" s="1" cm="1">
         <f t="array" ref="F20">_FV(B76,"High")</f>
-        <v>201.75</v>
+        <v>187.5</v>
       </c>
       <c r="G20" s="1" cm="1">
         <f t="array" ref="G20">_FV(B76,"Low")</f>
-        <v>177.55</v>
+        <v>116.9</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -7402,19 +7382,19 @@
       </c>
       <c r="D21" s="1" cm="1">
         <f t="array" ref="D21">_FV(B77,"Open")</f>
-        <v>2039.95</v>
+        <v>2029.05</v>
       </c>
       <c r="E21" s="1" cm="1">
         <f t="array" ref="E21">_FV(B77,"Previous close",TRUE)</f>
-        <v>2030.6899000000001</v>
+        <v>2032.53</v>
       </c>
       <c r="F21" s="1" cm="1">
         <f t="array" ref="F21">_FV(B77,"High")</f>
-        <v>2064.09</v>
+        <v>2045.64</v>
       </c>
       <c r="G21" s="1" cm="1">
         <f t="array" ref="G21">_FV(B77,"Low")</f>
-        <v>2028.0001</v>
+        <v>1996.09</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -7430,19 +7410,19 @@
       </c>
       <c r="D22" s="1" cm="1">
         <f t="array" ref="D22">_FV(B78,"Open")</f>
-        <v>84.47</v>
+        <v>80.11</v>
       </c>
       <c r="E22" s="1" cm="1">
         <f t="array" ref="E22">_FV(B78,"Previous close",TRUE)</f>
-        <v>85.52</v>
+        <v>80.459999999999994</v>
       </c>
       <c r="F22" s="1" cm="1">
         <f t="array" ref="F22">_FV(B78,"High")</f>
-        <v>84.47</v>
+        <v>82.694999999999993</v>
       </c>
       <c r="G22" s="1" cm="1">
         <f t="array" ref="G22">_FV(B78,"Low")</f>
-        <v>79.38</v>
+        <v>78.180000000000007</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -7458,19 +7438,19 @@
       </c>
       <c r="D23" s="1" cm="1">
         <f t="array" ref="D23">_FV(B79,"Open")</f>
-        <v>289.61</v>
+        <v>293.02999999999997</v>
       </c>
       <c r="E23" s="1" cm="1">
         <f t="array" ref="E23">_FV(B79,"Previous close",TRUE)</f>
-        <v>288.94</v>
+        <v>292.75</v>
       </c>
       <c r="F23" s="1" cm="1">
         <f t="array" ref="F23">_FV(B79,"High")</f>
-        <v>293.42700000000002</v>
+        <v>297.87869999999998</v>
       </c>
       <c r="G23" s="1" cm="1">
         <f t="array" ref="G23">_FV(B79,"Low")</f>
-        <v>288.94</v>
+        <v>292.45499999999998</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -7486,19 +7466,19 @@
       </c>
       <c r="D24" s="1" cm="1">
         <f t="array" ref="D24">_FV(B80,"Open")</f>
-        <v>50.99</v>
+        <v>51.7</v>
       </c>
       <c r="E24" s="1" cm="1">
         <f t="array" ref="E24">_FV(B80,"Previous close",TRUE)</f>
-        <v>51</v>
+        <v>51.52</v>
       </c>
       <c r="F24" s="1" cm="1">
         <f t="array" ref="F24">_FV(B80,"High")</f>
-        <v>51.65</v>
+        <v>52.06</v>
       </c>
       <c r="G24" s="1" cm="1">
         <f t="array" ref="G24">_FV(B80,"Low")</f>
-        <v>50.825000000000003</v>
+        <v>51.17</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -7514,19 +7494,19 @@
       </c>
       <c r="D25" s="1" cm="1">
         <f t="array" ref="D25">_FV(B81,"Open")</f>
-        <v>98</v>
+        <v>86.49</v>
       </c>
       <c r="E25" s="1" cm="1">
         <f t="array" ref="E25">_FV(B81,"Previous close",TRUE)</f>
-        <v>98.6</v>
+        <v>89.28</v>
       </c>
       <c r="F25" s="1" cm="1">
         <f t="array" ref="F25">_FV(B81,"High")</f>
-        <v>99.46</v>
+        <v>92.299000000000007</v>
       </c>
       <c r="G25" s="1" cm="1">
         <f t="array" ref="G25">_FV(B81,"Low")</f>
-        <v>94.38</v>
+        <v>84.7</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -7542,19 +7522,19 @@
       </c>
       <c r="D26" s="1" cm="1">
         <f t="array" ref="D26">_FV(B82,"Open")</f>
-        <v>58.81</v>
+        <v>56.61</v>
       </c>
       <c r="E26" s="1" cm="1">
         <f t="array" ref="E26">_FV(B82,"Previous close",TRUE)</f>
-        <v>59.46</v>
+        <v>57.7</v>
       </c>
       <c r="F26" s="1" cm="1">
         <f t="array" ref="F26">_FV(B82,"High")</f>
-        <v>60.37</v>
+        <v>59.96</v>
       </c>
       <c r="G26" s="1" cm="1">
         <f t="array" ref="G26">_FV(B82,"Low")</f>
-        <v>57.06</v>
+        <v>56.42</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -7570,19 +7550,19 @@
       </c>
       <c r="D27" s="1" cm="1">
         <f t="array" ref="D27">_FV(B83,"Open")</f>
-        <v>223.96</v>
+        <v>225.15</v>
       </c>
       <c r="E27" s="1" cm="1">
         <f t="array" ref="E27">_FV(B83,"Previous close",TRUE)</f>
-        <v>225.07</v>
+        <v>224.05</v>
       </c>
       <c r="F27" s="1" cm="1">
         <f t="array" ref="F27">_FV(B83,"High")</f>
-        <v>226.4</v>
+        <v>225.32</v>
       </c>
       <c r="G27" s="1" cm="1">
         <f t="array" ref="G27">_FV(B83,"Low")</f>
-        <v>223.75129999999999</v>
+        <v>222.44</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -7598,19 +7578,19 @@
       </c>
       <c r="D28" s="1" cm="1">
         <f t="array" ref="D28">_FV(B84,"Open")</f>
-        <v>145.61000000000001</v>
+        <v>127.33</v>
       </c>
       <c r="E28" s="1" cm="1">
         <f t="array" ref="E28">_FV(B84,"Previous close",TRUE)</f>
-        <v>145.6</v>
+        <v>131.61000000000001</v>
       </c>
       <c r="F28" s="1" cm="1">
         <f t="array" ref="F28">_FV(B84,"High")</f>
-        <v>146.19</v>
+        <v>134.31</v>
       </c>
       <c r="G28" s="1" cm="1">
         <f t="array" ref="G28">_FV(B84,"Low")</f>
-        <v>136.38</v>
+        <v>126.42</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -7626,19 +7606,19 @@
       </c>
       <c r="D29" s="1" cm="1">
         <f t="array" ref="D29">_FV(B85,"Open")</f>
-        <v>237.48500000000001</v>
+        <v>235.3</v>
       </c>
       <c r="E29" s="1" cm="1">
         <f t="array" ref="E29">_FV(B85,"Previous close",TRUE)</f>
-        <v>235.99</v>
+        <v>235.46</v>
       </c>
       <c r="F29" s="1" cm="1">
         <f t="array" ref="F29">_FV(B85,"High")</f>
-        <v>241.05</v>
+        <v>236.94</v>
       </c>
       <c r="G29" s="1" cm="1">
         <f t="array" ref="G29">_FV(B85,"Low")</f>
-        <v>237.07</v>
+        <v>231.57</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -7654,19 +7634,19 @@
       </c>
       <c r="D30" s="1" cm="1">
         <f t="array" ref="D30">_FV(B86,"Open")</f>
-        <v>237.5</v>
+        <v>188.25</v>
       </c>
       <c r="E30" s="1" cm="1">
         <f t="array" ref="E30">_FV(B86,"Previous close",TRUE)</f>
-        <v>237.2</v>
+        <v>200.24</v>
       </c>
       <c r="F30" s="1" cm="1">
         <f t="array" ref="F30">_FV(B86,"High")</f>
-        <v>239.54</v>
+        <v>202.4999</v>
       </c>
       <c r="G30" s="1" cm="1">
         <f t="array" ref="G30">_FV(B86,"Low")</f>
-        <v>218.61</v>
+        <v>159.09</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -7682,19 +7662,19 @@
       </c>
       <c r="D31" s="1" cm="1">
         <f t="array" ref="D31">_FV(B87,"Open")</f>
-        <v>530.17999999999995</v>
+        <v>499.98</v>
       </c>
       <c r="E31" s="1" cm="1">
         <f t="array" ref="E31">_FV(B87,"Previous close",TRUE)</f>
-        <v>527.45000000000005</v>
+        <v>505.72</v>
       </c>
       <c r="F31" s="1" cm="1">
         <f t="array" ref="F31">_FV(B87,"High")</f>
-        <v>533.78</v>
+        <v>508.59</v>
       </c>
       <c r="G31" s="1" cm="1">
         <f t="array" ref="G31">_FV(B87,"Low")</f>
-        <v>520.86</v>
+        <v>490.88</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -7710,19 +7690,19 @@
       </c>
       <c r="D32" s="1" cm="1">
         <f t="array" ref="D32">_FV(B88,"Open")</f>
-        <v>27.3</v>
+        <v>21.37</v>
       </c>
       <c r="E32" s="1" cm="1">
         <f t="array" ref="E32">_FV(B88,"Previous close",TRUE)</f>
-        <v>27.9</v>
+        <v>22.51</v>
       </c>
       <c r="F32" s="1" cm="1">
         <f t="array" ref="F32">_FV(B88,"High")</f>
-        <v>27.5</v>
+        <v>23.22</v>
       </c>
       <c r="G32" s="1" cm="1">
         <f t="array" ref="G32">_FV(B88,"Low")</f>
-        <v>25.1</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -7738,19 +7718,19 @@
       </c>
       <c r="D33" s="1" cm="1">
         <f t="array" ref="D33">_FV(B89,"Open")</f>
-        <v>35.82</v>
+        <v>35.65</v>
       </c>
       <c r="E33" s="1" cm="1">
         <f t="array" ref="E33">_FV(B89,"Previous close",TRUE)</f>
-        <v>36</v>
+        <v>35.61</v>
       </c>
       <c r="F33" s="1" cm="1">
         <f t="array" ref="F33">_FV(B89,"High")</f>
-        <v>35.93</v>
+        <v>35.79</v>
       </c>
       <c r="G33" s="1" cm="1">
         <f t="array" ref="G33">_FV(B89,"Low")</f>
-        <v>35.32</v>
+        <v>35.25</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -7766,19 +7746,19 @@
       </c>
       <c r="D34" s="1" cm="1">
         <f t="array" ref="D34">_FV(B90,"Open")</f>
-        <v>72</v>
+        <v>66.375</v>
       </c>
       <c r="E34" s="1" cm="1">
         <f t="array" ref="E34">_FV(B90,"Previous close",TRUE)</f>
-        <v>72.349999999999994</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="F34" s="1" cm="1">
         <f t="array" ref="F34">_FV(B90,"High")</f>
-        <v>72.09</v>
+        <v>68.91</v>
       </c>
       <c r="G34" s="1" cm="1">
         <f t="array" ref="G34">_FV(B90,"Low")</f>
-        <v>70.599999999999994</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -7794,19 +7774,19 @@
       </c>
       <c r="D35" s="1" cm="1">
         <f t="array" ref="D35">_FV(B91,"Open")</f>
-        <v>16.760000000000002</v>
+        <v>15.26</v>
       </c>
       <c r="E35" s="1" cm="1">
         <f t="array" ref="E35">_FV(B91,"Previous close",TRUE)</f>
-        <v>16.91</v>
+        <v>15.7</v>
       </c>
       <c r="F35" s="1" cm="1">
         <f t="array" ref="F35">_FV(B91,"High")</f>
-        <v>16.869</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="G35" s="1" cm="1">
         <f t="array" ref="G35">_FV(B91,"Low")</f>
-        <v>16.05</v>
+        <v>15.221</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -7822,19 +7802,19 @@
       </c>
       <c r="D36" s="1" cm="1">
         <f t="array" ref="D36">_FV(B92,"Open")</f>
-        <v>319.68</v>
+        <v>309.96800000000002</v>
       </c>
       <c r="E36" s="1" cm="1">
         <f t="array" ref="E36">_FV(B92,"Previous close",TRUE)</f>
-        <v>318.61</v>
+        <v>311.87</v>
       </c>
       <c r="F36" s="1" cm="1">
         <f t="array" ref="F36">_FV(B92,"High")</f>
-        <v>321.08010000000002</v>
+        <v>312.88499999999999</v>
       </c>
       <c r="G36" s="1" cm="1">
         <f t="array" ref="G36">_FV(B92,"Low")</f>
-        <v>316.375</v>
+        <v>307.38990000000001</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -7850,19 +7830,19 @@
       </c>
       <c r="D37" s="1" cm="1">
         <f t="array" ref="D37">_FV(B93,"Open")</f>
-        <v>68.180000000000007</v>
+        <v>61.02</v>
       </c>
       <c r="E37" s="1" cm="1">
         <f t="array" ref="E37">_FV(B93,"Previous close",TRUE)</f>
-        <v>69.28</v>
+        <v>63.16</v>
       </c>
       <c r="F37" s="1" cm="1">
         <f t="array" ref="F37">_FV(B93,"High")</f>
-        <v>68.5</v>
+        <v>64.930899999999994</v>
       </c>
       <c r="G37" s="1" cm="1">
         <f t="array" ref="G37">_FV(B93,"Low")</f>
-        <v>65.650000000000006</v>
+        <v>59.47</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -7878,19 +7858,19 @@
       </c>
       <c r="D38" s="1" cm="1">
         <f t="array" ref="D38">_FV(B94,"Open")</f>
-        <v>107.74</v>
+        <v>105.00700000000001</v>
       </c>
       <c r="E38" s="1" cm="1">
         <f t="array" ref="E38">_FV(B94,"Previous close",TRUE)</f>
-        <v>107.57</v>
+        <v>104.97</v>
       </c>
       <c r="F38" s="1" cm="1">
         <f t="array" ref="F38">_FV(B94,"High")</f>
-        <v>107.9477</v>
+        <v>107.7</v>
       </c>
       <c r="G38" s="1" cm="1">
         <f t="array" ref="G38">_FV(B94,"Low")</f>
-        <v>105.6738</v>
+        <v>104.06</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -7906,19 +7886,19 @@
       </c>
       <c r="D39" s="1" cm="1">
         <f t="array" ref="D39">_FV(B95,"Open")</f>
-        <v>1165</v>
+        <v>1090.08</v>
       </c>
       <c r="E39" s="1" cm="1">
         <f t="array" ref="E39">_FV(B95,"Previous close",TRUE)</f>
-        <v>1160</v>
+        <v>1106.01</v>
       </c>
       <c r="F39" s="1" cm="1">
         <f t="array" ref="F39">_FV(B95,"High")</f>
-        <v>1167.9974</v>
+        <v>1103.99</v>
       </c>
       <c r="G39" s="1" cm="1">
         <f t="array" ref="G39">_FV(B95,"Low")</f>
-        <v>1142.3</v>
+        <v>1051.2501</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -7934,19 +7914,19 @@
       </c>
       <c r="D40" s="1" cm="1">
         <f t="array" ref="D40">_FV(B96,"Open")</f>
-        <v>139.44</v>
+        <v>127.42</v>
       </c>
       <c r="E40" s="1" cm="1">
         <f t="array" ref="E40">_FV(B96,"Previous close",TRUE)</f>
-        <v>140.63</v>
+        <v>131.31</v>
       </c>
       <c r="F40" s="1" cm="1">
         <f t="array" ref="F40">_FV(B96,"High")</f>
-        <v>143.34</v>
+        <v>138.65</v>
       </c>
       <c r="G40" s="1" cm="1">
         <f t="array" ref="G40">_FV(B96,"Low")</f>
-        <v>135.44999999999999</v>
+        <v>125.13</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -7962,19 +7942,19 @@
       </c>
       <c r="D41" s="1" cm="1">
         <f t="array" ref="D41">_FV(B97,"Open")</f>
-        <v>1.25</v>
+        <v>1.07</v>
       </c>
       <c r="E41" s="1" cm="1">
         <f t="array" ref="E41">_FV(B97,"Previous close",TRUE)</f>
-        <v>1.3</v>
+        <v>1.125</v>
       </c>
       <c r="F41" s="1" cm="1">
         <f t="array" ref="F41">_FV(B97,"High")</f>
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="G41" s="1" cm="1">
         <f t="array" ref="G41">_FV(B97,"Low")</f>
-        <v>1.1599999999999999</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -7990,19 +7970,19 @@
       </c>
       <c r="D42" s="1" cm="1">
         <f t="array" ref="D42">_FV(B98,"Open")</f>
-        <v>226.31</v>
+        <v>204.6</v>
       </c>
       <c r="E42" s="1" cm="1">
         <f t="array" ref="E42">_FV(B98,"Previous close",TRUE)</f>
-        <v>226.13</v>
+        <v>213.51</v>
       </c>
       <c r="F42" s="1" cm="1">
         <f t="array" ref="F42">_FV(B98,"High")</f>
-        <v>228.3399</v>
+        <v>211.96</v>
       </c>
       <c r="G42" s="1" cm="1">
         <f t="array" ref="G42">_FV(B98,"Low")</f>
-        <v>221.52</v>
+        <v>202.1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -8018,19 +7998,19 @@
       </c>
       <c r="D43" s="1" cm="1">
         <f t="array" ref="D43">_FV(B99,"Open")</f>
-        <v>46.14</v>
+        <v>45.81</v>
       </c>
       <c r="E43" s="1" cm="1">
         <f t="array" ref="E43">_FV(B99,"Previous close",TRUE)</f>
-        <v>47.03</v>
+        <v>46.07</v>
       </c>
       <c r="F43" s="1" cm="1">
         <f t="array" ref="F43">_FV(B99,"High")</f>
-        <v>46.71</v>
+        <v>47.9</v>
       </c>
       <c r="G43" s="1" cm="1">
         <f t="array" ref="G43">_FV(B99,"Low")</f>
-        <v>44.44</v>
+        <v>45.25</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -8046,19 +8026,19 @@
       </c>
       <c r="D44" s="1" cm="1">
         <f t="array" ref="D44">_FV(B100,"Open")</f>
-        <v>77.86</v>
+        <v>76.91</v>
       </c>
       <c r="E44" s="1" cm="1">
         <f t="array" ref="E44">_FV(B100,"Previous close",TRUE)</f>
-        <v>78.599999999999994</v>
+        <v>77.650000000000006</v>
       </c>
       <c r="F44" s="1" cm="1">
         <f t="array" ref="F44">_FV(B100,"High")</f>
-        <v>78.27</v>
+        <v>79.86</v>
       </c>
       <c r="G44" s="1" cm="1">
         <f t="array" ref="G44">_FV(B100,"Low")</f>
-        <v>76.41</v>
+        <v>76.69</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -8074,19 +8054,19 @@
       </c>
       <c r="D45" s="1" cm="1">
         <f t="array" ref="D45">_FV(B101,"Open")</f>
-        <v>99.66</v>
+        <v>90</v>
       </c>
       <c r="E45" s="1" cm="1">
         <f t="array" ref="E45">_FV(B101,"Previous close",TRUE)</f>
-        <v>100.34</v>
+        <v>92.71</v>
       </c>
       <c r="F45" s="1" cm="1">
         <f t="array" ref="F45">_FV(B101,"High")</f>
-        <v>100.76</v>
+        <v>92.06</v>
       </c>
       <c r="G45" s="1" cm="1">
         <f t="array" ref="G45">_FV(B101,"Low")</f>
-        <v>96.75</v>
+        <v>88.286799999999999</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -8102,19 +8082,19 @@
       </c>
       <c r="D46" s="1" cm="1">
         <f t="array" ref="D46">_FV(B102,"Open")</f>
-        <v>34.71</v>
+        <v>32.630000000000003</v>
       </c>
       <c r="E46" s="1" cm="1">
         <f t="array" ref="E46">_FV(B102,"Previous close",TRUE)</f>
-        <v>35.25</v>
+        <v>33</v>
       </c>
       <c r="F46" s="1" cm="1">
         <f t="array" ref="F46">_FV(B102,"High")</f>
-        <v>35.520099999999999</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="G46" s="1" cm="1">
         <f t="array" ref="G46">_FV(B102,"Low")</f>
-        <v>33.04</v>
+        <v>32.020000000000003</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -8130,19 +8110,19 @@
       </c>
       <c r="D47" s="1" cm="1">
         <f t="array" ref="D47">_FV(B103,"Open")</f>
-        <v>159.69999999999999</v>
+        <v>159.5</v>
       </c>
       <c r="E47" s="1" cm="1">
         <f t="array" ref="E47">_FV(B103,"Previous close",TRUE)</f>
-        <v>161.06</v>
+        <v>159.91</v>
       </c>
       <c r="F47" s="1" cm="1">
         <f t="array" ref="F47">_FV(B103,"High")</f>
-        <v>162.16</v>
+        <v>163.65</v>
       </c>
       <c r="G47" s="1" cm="1">
         <f t="array" ref="G47">_FV(B103,"Low")</f>
-        <v>159.2345</v>
+        <v>158.69999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -8158,19 +8138,19 @@
       </c>
       <c r="D48" s="1" cm="1">
         <f t="array" ref="D48">_FV(B104,"Open")</f>
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="E48" s="1" cm="1">
         <f t="array" ref="E48">_FV(B104,"Previous close",TRUE)</f>
-        <v>1.87</v>
+        <v>1.9871000000000001</v>
       </c>
       <c r="F48" s="1" cm="1">
         <f t="array" ref="F48">_FV(B104,"High")</f>
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="G48" s="1" cm="1">
         <f t="array" ref="G48">_FV(B104,"Low")</f>
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -8186,19 +8166,19 @@
       </c>
       <c r="D49" s="1" cm="1">
         <f t="array" ref="D49">_FV(B105,"Open")</f>
-        <v>52.145000000000003</v>
+        <v>47.4</v>
       </c>
       <c r="E49" s="1" cm="1">
         <f t="array" ref="E49">_FV(B105,"Previous close",TRUE)</f>
-        <v>51.84</v>
+        <v>48.09</v>
       </c>
       <c r="F49" s="1" cm="1">
         <f t="array" ref="F49">_FV(B105,"High")</f>
-        <v>52.6</v>
+        <v>49.91</v>
       </c>
       <c r="G49" s="1" cm="1">
         <f t="array" ref="G49">_FV(B105,"Low")</f>
-        <v>48.81</v>
+        <v>47.3</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -8214,19 +8194,19 @@
       </c>
       <c r="D50" s="1" cm="1">
         <f t="array" ref="D50">_FV(B106,"Open")</f>
-        <v>38.479999999999997</v>
+        <v>37.97</v>
       </c>
       <c r="E50" s="1" cm="1">
         <f t="array" ref="E50">_FV(B106,"Previous close",TRUE)</f>
-        <v>38.97</v>
+        <v>38.119999999999997</v>
       </c>
       <c r="F50" s="1" cm="1">
         <f t="array" ref="F50">_FV(B106,"High")</f>
-        <v>39.046599999999998</v>
+        <v>39.36</v>
       </c>
       <c r="G50" s="1" cm="1">
         <f t="array" ref="G50">_FV(B106,"Low")</f>
-        <v>38.049999999999997</v>
+        <v>37.78</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -8242,19 +8222,19 @@
       </c>
       <c r="D51" s="1" cm="1">
         <f t="array" ref="D51">_FV(B107,"Open")</f>
-        <v>131.08000000000001</v>
+        <v>124.41</v>
       </c>
       <c r="E51" s="1" cm="1">
         <f t="array" ref="E51">_FV(B107,"Previous close",TRUE)</f>
-        <v>131.41</v>
+        <v>125.85</v>
       </c>
       <c r="F51" s="1" cm="1">
         <f t="array" ref="F51">_FV(B107,"High")</f>
-        <v>132.5</v>
+        <v>124.41</v>
       </c>
       <c r="G51" s="1" cm="1">
         <f t="array" ref="G51">_FV(B107,"Low")</f>
-        <v>129.54</v>
+        <v>120.4815</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -8270,19 +8250,19 @@
       </c>
       <c r="D52" s="1" cm="1">
         <f t="array" ref="D52">_FV(B108,"Open")</f>
-        <v>123.26</v>
+        <v>125.43</v>
       </c>
       <c r="E52" s="1" cm="1">
         <f t="array" ref="E52">_FV(B108,"Previous close",TRUE)</f>
-        <v>123.37</v>
+        <v>124.82</v>
       </c>
       <c r="F52" s="1" cm="1">
         <f t="array" ref="F52">_FV(B108,"High")</f>
-        <v>124.81</v>
+        <v>127.56</v>
       </c>
       <c r="G52" s="1" cm="1">
         <f t="array" ref="G52">_FV(B108,"Low")</f>
-        <v>122.76</v>
+        <v>124.425</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -8298,19 +8278,19 @@
       </c>
       <c r="D53" s="1" cm="1">
         <f t="array" ref="D53">_FV(B109,"Open")</f>
-        <v>131.72</v>
+        <v>133.26</v>
       </c>
       <c r="E53" s="1" cm="1">
         <f t="array" ref="E53">_FV(B109,"Previous close",TRUE)</f>
-        <v>132.37</v>
+        <v>133.11000000000001</v>
       </c>
       <c r="F53" s="1" cm="1">
         <f t="array" ref="F53">_FV(B109,"High")</f>
-        <v>134.30000000000001</v>
+        <v>134.5301</v>
       </c>
       <c r="G53" s="1" cm="1">
         <f t="array" ref="G53">_FV(B109,"Low")</f>
-        <v>131.63999999999999</v>
+        <v>132.87</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -8326,19 +8306,19 @@
       </c>
       <c r="D54" s="1" cm="1">
         <f t="array" ref="D54">_FV(B110,"Open")</f>
-        <v>21.17</v>
+        <v>19.18</v>
       </c>
       <c r="E54" s="1" cm="1">
         <f t="array" ref="E54">_FV(B110,"Previous close",TRUE)</f>
-        <v>21.79</v>
+        <v>19.57</v>
       </c>
       <c r="F54" s="1" cm="1">
         <f t="array" ref="F54">_FV(B110,"High")</f>
-        <v>21.8</v>
+        <v>20.669899999999998</v>
       </c>
       <c r="G54" s="1" cm="1">
         <f t="array" ref="G54">_FV(B110,"Low")</f>
-        <v>19.29</v>
+        <v>18.61</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -8354,19 +8334,19 @@
       </c>
       <c r="D55" s="1" cm="1">
         <f t="array" ref="D55">_FV(B111,"Open")</f>
-        <v>145.68</v>
+        <v>129.57</v>
       </c>
       <c r="E55" s="1" cm="1">
         <f t="array" ref="E55">_FV(B111,"Previous close",TRUE)</f>
-        <v>147.12</v>
+        <v>131.41999999999999</v>
       </c>
       <c r="F55" s="1" cm="1">
         <f t="array" ref="F55">_FV(B111,"High")</f>
-        <v>145.97999999999999</v>
+        <v>135.4</v>
       </c>
       <c r="G55" s="1" cm="1">
         <f t="array" ref="G55">_FV(B111,"Low")</f>
-        <v>137.733</v>
+        <v>128.67500000000001</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -8382,19 +8362,19 @@
       </c>
       <c r="D56" s="1" cm="1">
         <f t="array" ref="D56">_FV(B112,"Open")</f>
-        <v>137.94999999999999</v>
+        <v>122.73</v>
       </c>
       <c r="E56" s="1" cm="1">
         <f t="array" ref="E56">_FV(B112,"Previous close",TRUE)</f>
-        <v>137.91</v>
+        <v>127.36</v>
       </c>
       <c r="F56" s="1" cm="1">
         <f t="array" ref="F56">_FV(B112,"High")</f>
-        <v>139.16</v>
+        <v>127.57989999999999</v>
       </c>
       <c r="G56" s="1" cm="1">
         <f t="array" ref="G56">_FV(B112,"Low")</f>
-        <v>132.68010000000001</v>
+        <v>120.22</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -8410,19 +8390,19 @@
       </c>
       <c r="D57" s="1" cm="1">
         <f t="array" ref="D57">_FV(B113,"Open")</f>
-        <v>144.15</v>
+        <v>129.37</v>
       </c>
       <c r="E57" s="1" cm="1">
         <f t="array" ref="E57">_FV(B113,"Previous close",TRUE)</f>
-        <v>143.88999999999999</v>
+        <v>133.22</v>
       </c>
       <c r="F57" s="1" cm="1">
         <f t="array" ref="F57">_FV(B113,"High")</f>
-        <v>144.97999999999999</v>
+        <v>134.22</v>
       </c>
       <c r="G57" s="1" cm="1">
         <f t="array" ref="G57">_FV(B113,"Low")</f>
-        <v>138.96</v>
+        <v>126.61</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
